--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03263705-F4CC-4880-BAB6-69CCE9BB78CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211C823-7623-4F35-BDFE-BF5D4565A887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
+    <sheet name="무료상점기록" sheetId="3" r:id="rId2"/>
+    <sheet name="상점리스트기록" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +357,94 @@
   <si>
     <t>신캐에 따른 60레벨까지 확장</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>vl</t>
+  </si>
+  <si>
+    <t>밸류이상</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 장비</t>
+  </si>
+  <si>
+    <t>Equip0001</t>
+  </si>
+  <si>
+    <t>Equip6002</t>
+  </si>
+  <si>
+    <t>안 지정 캐릭터 PP 영웅등급</t>
+  </si>
+  <si>
+    <t>안 지정 캐릭터 PP 일반등급</t>
+  </si>
+  <si>
+    <t>Equip7101</t>
+  </si>
+  <si>
+    <t>Equip8201</t>
+  </si>
+  <si>
+    <t>캐릭터 상자 일반등급</t>
+  </si>
+  <si>
+    <t>Equip2102</t>
+  </si>
+  <si>
+    <t>Equip7202</t>
+  </si>
+  <si>
+    <t>Equip1302</t>
+  </si>
+  <si>
+    <t>Equip1201</t>
+  </si>
+  <si>
+    <t>Equip8301</t>
+  </si>
+  <si>
+    <t>Equip0202</t>
+  </si>
+  <si>
+    <t>Equip7001</t>
+  </si>
+  <si>
+    <t>Equip1202</t>
+  </si>
+  <si>
+    <t>Equip0201</t>
   </si>
 </sst>
 </file>
@@ -400,8 +490,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAA502-5474-4378-9590-CB2A58DB8512}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -1858,4 +1951,1313 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80691B-1071-4FE3-B654-3C7D8A917A79}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>4121</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>26429</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>62625</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>22920</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f ca="1">OFFSET(A14,-12,0)+1</f>
+        <v>44347</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" ref="A15:A49" ca="1" si="0">OFFSET(A15,-12,0)+1</f>
+        <v>44347</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>42475</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17">
+        <v>9817</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18">
+        <v>28048</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>30799</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28">
+        <v>79030</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>51018</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30">
+        <v>71178</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>31111</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>39003</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41">
+        <v>9563</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42">
+        <v>97920</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211C823-7623-4F35-BDFE-BF5D4565A887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6429467-F8D5-4687-828B-BAC3873D8701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
     <sheet name="무료상점기록" sheetId="3" r:id="rId2"/>
     <sheet name="상점리스트기록" sheetId="2" r:id="rId3"/>
+    <sheet name="출시노트" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,8 +33,203 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{71D1B00E-7205-44C5-B1C7-E1DEEA8708E1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복사하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모장에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>붙이고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>앞뒤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따옴표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마지막</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개행을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제거</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="251">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,13 +641,855 @@
   </si>
   <si>
     <t>Equip0201</t>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>zh-CN</t>
+  </si>
+  <si>
+    <t>zh-TW</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>Beta版本的慶祝！_x000D_
+_x000D_
+每天登錄接收發射的禮物！</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>en-US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs-CZ</t>
+  </si>
+  <si>
+    <t>cs-CZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de-DE</t>
+  </si>
+  <si>
+    <t>de-DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-GR</t>
+  </si>
+  <si>
+    <t>el-GR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-419</t>
+  </si>
+  <si>
+    <t>es-419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-ES</t>
+  </si>
+  <si>
+    <t>es-ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-US</t>
+  </si>
+  <si>
+    <t>es-US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr-CA</t>
+  </si>
+  <si>
+    <t>fr-CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-FI</t>
+  </si>
+  <si>
+    <t>fi-FI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr-FR</t>
+  </si>
+  <si>
+    <t>fr-FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 원래 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu-HU</t>
+  </si>
+  <si>
+    <t>hu-HU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it-IT</t>
+  </si>
+  <si>
+    <t>it-IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw-IL</t>
+  </si>
+  <si>
+    <t>iw-IL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja-JP</t>
+  </si>
+  <si>
+    <t>ja-JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms-MY</t>
+  </si>
+  <si>
+    <t>ms-MY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nl-NL</t>
+  </si>
+  <si>
+    <t>nl-NL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl-PL</t>
+  </si>
+  <si>
+    <t>pl-PL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-BR</t>
+  </si>
+  <si>
+    <t>pt-BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-PT</t>
+  </si>
+  <si>
+    <t>pt-PT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru-RU</t>
+  </si>
+  <si>
+    <t>ru-RU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv-SE</t>
+  </si>
+  <si>
+    <t>sv-SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr-TR</t>
+  </si>
+  <si>
+    <t>tr-TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-HK</t>
+  </si>
+  <si>
+    <t>zh-HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출시노트필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!
+추가사항: 앱 안정성을 향상시켰습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta release congratulations!
+Log in every day to receive the gifts!
+Additional Notes: Improved app stability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>الإفراج التهاني بيتا!_x000D_
+_x000D_
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظات إضافية: تحسين الاستقرار التطبيق</t>
+  </si>
+  <si>
+    <t>Бэта-рэліз віншаванні!_x000D_
+_x000D_
+Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+_x000D_
+Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання</t>
+  </si>
+  <si>
+    <t>поздравления бета версия!_x000D_
+_x000D_
+Влезте, за всеки ден да получава подаръци!_x000D_
+_x000D_
+Допълнителни бележки: Подобрена стабилност приложение</t>
+  </si>
+  <si>
+    <t>gratulace beta vydání!_x000D_
+_x000D_
+Přihlásit každý den dostávat dary!_x000D_
+_x000D_
+Další poznámky: Zlepšení stability app</t>
+  </si>
+  <si>
+    <t>Beta-Version Glückwunsch!_x000D_
+_x000D_
+Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzliche Hinweise: Verbesserte App Stabilität</t>
+  </si>
+  <si>
+    <t>συγχαρητήρια Beta έκδοση!_x000D_
+_x000D_
+Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app</t>
+  </si>
+  <si>
+    <t>felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada</t>
+  </si>
+  <si>
+    <t>Testiversio onnittelut!_x000D_
+_x000D_
+Kirjaudu sisään päivittäin saada lahjoja!_x000D_
+_x000D_
+Lisähuomautukset: Parempi app vakaus</t>
+  </si>
+  <si>
+    <t>Beta félicitations version!_x000D_
+_x000D_
+Se connecter tous les jours pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Amélioration de la stabilité de l'application</t>
+  </si>
+  <si>
+    <t>Beta kiadása gratulálok!_x000D_
+_x000D_
+Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+További megjegyzések: Továbbfejlesztett app stabilitás</t>
+  </si>
+  <si>
+    <t>Beta rilis selamat!_x000D_
+_x000D_
+Login setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan tambahan: Peningkatan stabilitas aplikasi</t>
+  </si>
+  <si>
+    <t>complimenti versione beta!_x000D_
+_x000D_
+Esegui il login ogni giorno per ricevere i doni!_x000D_
+_x000D_
+Note aggiuntive: Migliorata la stabilità app</t>
+  </si>
+  <si>
+    <t>מזל טוב שחרור בטא!_x000D_
+_x000D_
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערות נוספות: יציבות אפליקציה משופרת</t>
+  </si>
+  <si>
+    <r>
+      <t>ベ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タリリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スおめでとうございます！_x000D_
+_x000D_
+贈り物を受け取るために</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日ログイン！_x000D_
+_x000D_
+追加の注意事項：改善されたアプリの安定性</t>
+    </r>
+  </si>
+  <si>
+    <t>프리 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항: 앱 안정성을 향상시켰습니다</t>
+  </si>
+  <si>
+    <t>tahniah keluaran beta!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota Tambahan: kestabilan aplikasi lebih baik</t>
+  </si>
+  <si>
+    <t>gefeliciteerd Beta release!_x000D_
+_x000D_
+Meld u aan elke dag naar de gaven te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Verbeterde app stabiliteit</t>
+  </si>
+  <si>
+    <t>Beta gratulacje uwolnienia!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwagi dodatkowe: Lepsza stabilność aplikacji</t>
+  </si>
+  <si>
+    <t>parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado</t>
+  </si>
+  <si>
+    <t>Felicitări cu versiuni beta!_x000D_
+_x000D_
+Autentificare în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: stabilitate îmbunătățită a aplicației</t>
+  </si>
+  <si>
+    <t>Бета-релиз поздравления!_x000D_
+_x000D_
+Войти каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Улучшена стабильность приложения</t>
+  </si>
+  <si>
+    <t>gratulácie beta vydanie!_x000D_
+_x000D_
+Prihlásiť každý deň dostávať dary!_x000D_
+_x000D_
+Ďalšie poznámky: Zlepšenie stability app</t>
+  </si>
+  <si>
+    <t>Beta Release grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot gåvor!_x000D_
+_x000D_
+Ytterligare anmärkningar: Förbättrad app stabilitet</t>
+  </si>
+  <si>
+    <r>
+      <t>ขอแสดงความยินดีรุ่นเบต้า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!_x000D_
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เข้าสู่ระบบทุกวันจะได้รับของขวัญ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!_x000D_
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>หมายเหตุเพิ่มเติม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แอปเสถียรภาพที่ดีขึ้น</t>
+    </r>
+  </si>
+  <si>
+    <t>Beta sürümü tebrikler!_x000D_
+_x000D_
+hediye almak için her gün giriş yap!_x000D_
+_x000D_
+Ek Notlar: Geliştirilmiş uygulama kararlılığı</t>
+  </si>
+  <si>
+    <t>Бета-реліз привітання!_x000D_
+_x000D_
+Ввійти кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: Покращена стабільність програми</t>
+  </si>
+  <si>
+    <r>
+      <t>phát hành xin chúc mừng phiên bản beta!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc những món quà!_x000D_
+_x000D_
+Ghi chú thêm: Cải thiện sự ổn định ứng dụng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Beta版本的祝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！_x000D_
+_x000D_
+每天登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物！_x000D_
+_x000D_
+其他注意事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：提高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定性</t>
+    </r>
+  </si>
+  <si>
+    <t>Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +1504,42 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,12 +1564,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2323,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
@@ -3260,4 +4340,1571 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
+  <dimension ref="A1:AQ46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="43" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f>"&lt;"&amp;H1&amp;"&gt;
+"&amp;H3&amp;"
+&lt;/"&amp;H1&amp;"&gt;
+"</f>
+        <v xml:space="preserve">&lt;en-US&gt;
+Beta release congratulations!
+Log in every day to receive the gifts!
+Additional Notes: Improved app stability
+&lt;/en-US&gt;
+</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:AQ4" si="0">"&lt;"&amp;I1&amp;"&gt;
+"&amp;I3&amp;"
+&lt;/"&amp;I1&amp;"&gt;
+"</f>
+        <v xml:space="preserve">&lt;ar&gt;
+الإفراج التهاني بيتا!_x000D_
+_x000D_
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظات إضافية: تحسين الاستقرار التطبيق
+&lt;/ar&gt;
+</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;be&gt;
+Бэта-рэліз віншаванні!_x000D_
+_x000D_
+Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+_x000D_
+Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання
+&lt;/be&gt;
+</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;bg&gt;
+поздравления бета версия!_x000D_
+_x000D_
+Влезте, за всеки ден да получава подаръци!_x000D_
+_x000D_
+Допълнителни бележки: Подобрена стабилност приложение
+&lt;/bg&gt;
+</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;cs-CZ&gt;
+gratulace beta vydání!_x000D_
+_x000D_
+Přihlásit každý den dostávat dary!_x000D_
+_x000D_
+Další poznámky: Zlepšení stability app
+&lt;/cs-CZ&gt;
+</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;de-DE&gt;
+Beta-Version Glückwunsch!_x000D_
+_x000D_
+Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzliche Hinweise: Verbesserte App Stabilität
+&lt;/de-DE&gt;
+</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;el-GR&gt;
+συγχαρητήρια Beta έκδοση!_x000D_
+_x000D_
+Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app
+&lt;/el-GR&gt;
+</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;es-419&gt;
+felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada
+&lt;/es-419&gt;
+</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;es-ES&gt;
+felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada
+&lt;/es-ES&gt;
+</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;es-US&gt;
+felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada
+&lt;/es-US&gt;
+</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;fi-FI&gt;
+Testiversio onnittelut!_x000D_
+_x000D_
+Kirjaudu sisään päivittäin saada lahjoja!_x000D_
+_x000D_
+Lisähuomautukset: Parempi app vakaus
+&lt;/fi-FI&gt;
+</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;fr-CA&gt;
+Beta félicitations version!_x000D_
+_x000D_
+Se connecter tous les jours pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Amélioration de la stabilité de l'application
+&lt;/fr-CA&gt;
+</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;fr-FR&gt;
+Beta félicitations version!_x000D_
+_x000D_
+Se connecter tous les jours pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Amélioration de la stabilité de l'application
+&lt;/fr-FR&gt;
+</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;hu-HU&gt;
+Beta kiadása gratulálok!_x000D_
+_x000D_
+Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+További megjegyzések: Továbbfejlesztett app stabilitás
+&lt;/hu-HU&gt;
+</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;id&gt;
+Beta rilis selamat!_x000D_
+_x000D_
+Login setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan tambahan: Peningkatan stabilitas aplikasi
+&lt;/id&gt;
+</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;it-IT&gt;
+complimenti versione beta!_x000D_
+_x000D_
+Esegui il login ogni giorno per ricevere i doni!_x000D_
+_x000D_
+Note aggiuntive: Migliorata la stabilità app
+&lt;/it-IT&gt;
+</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;iw-IL&gt;
+מזל טוב שחרור בטא!_x000D_
+_x000D_
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערות נוספות: יציבות אפליקציה משופרת
+&lt;/iw-IL&gt;
+</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;ja-JP&gt;
+ベータリリースおめでとうございます！_x000D_
+_x000D_
+贈り物を受け取るために毎日ログイン！_x000D_
+_x000D_
+追加の注意事項：改善されたアプリの安定性
+&lt;/ja-JP&gt;
+</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;ko-KR&gt;
+프리 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항: 앱 안정성을 향상시켰습니다
+&lt;/ko-KR&gt;
+</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;ms&gt;
+tahniah keluaran beta!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota Tambahan: kestabilan aplikasi lebih baik
+&lt;/ms&gt;
+</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;ms-MY&gt;
+gefeliciteerd Beta release!_x000D_
+_x000D_
+Meld u aan elke dag naar de gaven te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Verbeterde app stabiliteit
+&lt;/ms-MY&gt;
+</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;nl-NL&gt;
+Beta gratulacje uwolnienia!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwagi dodatkowe: Lepsza stabilność aplikacji
+&lt;/nl-NL&gt;
+</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;pl-PL&gt;
+parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado
+&lt;/pl-PL&gt;
+</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;pt-BR&gt;
+parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado
+&lt;/pt-BR&gt;
+</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;pt-PT&gt;
+Felicitări cu versiuni beta!_x000D_
+_x000D_
+Autentificare în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: stabilitate îmbunătățită a aplicației
+&lt;/pt-PT&gt;
+</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;ro&gt;
+Бета-релиз поздравления!_x000D_
+_x000D_
+Войти каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Улучшена стабильность приложения
+&lt;/ro&gt;
+</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;ru-RU&gt;
+gratulácie beta vydanie!_x000D_
+_x000D_
+Prihlásiť každý deň dostávať dary!_x000D_
+_x000D_
+Ďalšie poznámky: Zlepšenie stability app
+&lt;/ru-RU&gt;
+</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;sk&gt;
+Beta Release grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot gåvor!_x000D_
+_x000D_
+Ytterligare anmärkningar: Förbättrad app stabilitet
+&lt;/sk&gt;
+</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;sv-SE&gt;
+ขอแสดงความยินดีรุ่นเบต้า!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น
+&lt;/sv-SE&gt;
+</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;th&gt;
+Beta sürümü tebrikler!_x000D_
+_x000D_
+hediye almak için her gün giriş yap!_x000D_
+_x000D_
+Ek Notlar: Geliştirilmiş uygulama kararlılığı
+&lt;/th&gt;
+</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;tr-TR&gt;
+Бета-реліз привітання!_x000D_
+_x000D_
+Ввійти кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: Покращена стабільність програми
+&lt;/tr-TR&gt;
+</v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;uk&gt;
+phát hành xin chúc mừng phiên bản beta!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
+_x000D_
+Ghi chú thêm: Cải thiện sự ổn định ứng dụng
+&lt;/uk&gt;
+</v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;vi&gt;
+Beta版本的祝贺！_x000D_
+_x000D_
+每天登录收到的礼物！_x000D_
+_x000D_
+其他注意事项：提高应用的稳定性
+&lt;/vi&gt;
+</v>
+      </c>
+      <c r="AO4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;zh-CN&gt;
+Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性
+&lt;/zh-CN&gt;
+</v>
+      </c>
+      <c r="AP4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;zh-HK&gt;
+Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性
+&lt;/zh-HK&gt;
+</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&lt;zh-TW&gt;
+Beta版本的慶祝！_x000D_
+_x000D_
+每天登錄接收發射的禮物！
+&lt;/zh-TW&gt;
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f>CONCATENATE(H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4,AD4,AE4,AF4,AG4,AH4,AI4,AJ4,AK4,AL4,AM4,AN4,AO4,AP4,AQ4)</f>
+        <v xml:space="preserve">&lt;en-US&gt;
+Beta release congratulations!
+Log in every day to receive the gifts!
+Additional Notes: Improved app stability
+&lt;/en-US&gt;
+&lt;ar&gt;
+الإفراج التهاني بيتا!_x000D_
+_x000D_
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظات إضافية: تحسين الاستقرار التطبيق
+&lt;/ar&gt;
+&lt;be&gt;
+Бэта-рэліз віншаванні!_x000D_
+_x000D_
+Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+_x000D_
+Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання
+&lt;/be&gt;
+&lt;bg&gt;
+поздравления бета версия!_x000D_
+_x000D_
+Влезте, за всеки ден да получава подаръци!_x000D_
+_x000D_
+Допълнителни бележки: Подобрена стабилност приложение
+&lt;/bg&gt;
+&lt;cs-CZ&gt;
+gratulace beta vydání!_x000D_
+_x000D_
+Přihlásit každý den dostávat dary!_x000D_
+_x000D_
+Další poznámky: Zlepšení stability app
+&lt;/cs-CZ&gt;
+&lt;de-DE&gt;
+Beta-Version Glückwunsch!_x000D_
+_x000D_
+Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzliche Hinweise: Verbesserte App Stabilität
+&lt;/de-DE&gt;
+&lt;el-GR&gt;
+συγχαρητήρια Beta έκδοση!_x000D_
+_x000D_
+Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app
+&lt;/el-GR&gt;
+&lt;es-419&gt;
+felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada
+&lt;/es-419&gt;
+&lt;es-ES&gt;
+felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada
+&lt;/es-ES&gt;
+&lt;es-US&gt;
+felicitaciones versión beta!_x000D_
+_x000D_
+Iniciar sesión cada día para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: estabilidad aplicación mejorada
+&lt;/es-US&gt;
+&lt;fi-FI&gt;
+Testiversio onnittelut!_x000D_
+_x000D_
+Kirjaudu sisään päivittäin saada lahjoja!_x000D_
+_x000D_
+Lisähuomautukset: Parempi app vakaus
+&lt;/fi-FI&gt;
+&lt;fr-CA&gt;
+Beta félicitations version!_x000D_
+_x000D_
+Se connecter tous les jours pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Amélioration de la stabilité de l'application
+&lt;/fr-CA&gt;
+&lt;fr-FR&gt;
+Beta félicitations version!_x000D_
+_x000D_
+Se connecter tous les jours pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Amélioration de la stabilité de l'application
+&lt;/fr-FR&gt;
+&lt;hu-HU&gt;
+Beta kiadása gratulálok!_x000D_
+_x000D_
+Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+További megjegyzések: Továbbfejlesztett app stabilitás
+&lt;/hu-HU&gt;
+&lt;id&gt;
+Beta rilis selamat!_x000D_
+_x000D_
+Login setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan tambahan: Peningkatan stabilitas aplikasi
+&lt;/id&gt;
+&lt;it-IT&gt;
+complimenti versione beta!_x000D_
+_x000D_
+Esegui il login ogni giorno per ricevere i doni!_x000D_
+_x000D_
+Note aggiuntive: Migliorata la stabilità app
+&lt;/it-IT&gt;
+&lt;iw-IL&gt;
+מזל טוב שחרור בטא!_x000D_
+_x000D_
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערות נוספות: יציבות אפליקציה משופרת
+&lt;/iw-IL&gt;
+&lt;ja-JP&gt;
+ベータリリースおめでとうございます！_x000D_
+_x000D_
+贈り物を受け取るために毎日ログイン！_x000D_
+_x000D_
+追加の注意事項：改善されたアプリの安定性
+&lt;/ja-JP&gt;
+&lt;ko-KR&gt;
+프리 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항: 앱 안정성을 향상시켰습니다
+&lt;/ko-KR&gt;
+&lt;ms&gt;
+tahniah keluaran beta!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota Tambahan: kestabilan aplikasi lebih baik
+&lt;/ms&gt;
+&lt;ms-MY&gt;
+gefeliciteerd Beta release!_x000D_
+_x000D_
+Meld u aan elke dag naar de gaven te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Verbeterde app stabiliteit
+&lt;/ms-MY&gt;
+&lt;nl-NL&gt;
+Beta gratulacje uwolnienia!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwagi dodatkowe: Lepsza stabilność aplikacji
+&lt;/nl-NL&gt;
+&lt;pl-PL&gt;
+parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado
+&lt;/pl-PL&gt;
+&lt;pt-BR&gt;
+parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado
+&lt;/pt-BR&gt;
+&lt;pt-PT&gt;
+Felicitări cu versiuni beta!_x000D_
+_x000D_
+Autentificare în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: stabilitate îmbunătățită a aplicației
+&lt;/pt-PT&gt;
+&lt;ro&gt;
+Бета-релиз поздравления!_x000D_
+_x000D_
+Войти каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Улучшена стабильность приложения
+&lt;/ro&gt;
+&lt;ru-RU&gt;
+gratulácie beta vydanie!_x000D_
+_x000D_
+Prihlásiť každý deň dostávať dary!_x000D_
+_x000D_
+Ďalšie poznámky: Zlepšenie stability app
+&lt;/ru-RU&gt;
+&lt;sk&gt;
+Beta Release grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot gåvor!_x000D_
+_x000D_
+Ytterligare anmärkningar: Förbättrad app stabilitet
+&lt;/sk&gt;
+&lt;sv-SE&gt;
+ขอแสดงความยินดีรุ่นเบต้า!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น
+&lt;/sv-SE&gt;
+&lt;th&gt;
+Beta sürümü tebrikler!_x000D_
+_x000D_
+hediye almak için her gün giriş yap!_x000D_
+_x000D_
+Ek Notlar: Geliştirilmiş uygulama kararlılığı
+&lt;/th&gt;
+&lt;tr-TR&gt;
+Бета-реліз привітання!_x000D_
+_x000D_
+Ввійти кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: Покращена стабільність програми
+&lt;/tr-TR&gt;
+&lt;uk&gt;
+phát hành xin chúc mừng phiên bản beta!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
+_x000D_
+Ghi chú thêm: Cải thiện sự ổn định ứng dụng
+&lt;/uk&gt;
+&lt;vi&gt;
+Beta版本的祝贺！_x000D_
+_x000D_
+每天登录收到的礼物！_x000D_
+_x000D_
+其他注意事项：提高应用的稳定性
+&lt;/vi&gt;
+&lt;zh-CN&gt;
+Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性
+&lt;/zh-CN&gt;
+&lt;zh-HK&gt;
+Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性
+&lt;/zh-HK&gt;
+&lt;zh-TW&gt;
+Beta版本的慶祝！_x000D_
+_x000D_
+每天登錄接收發射的禮物！
+&lt;/zh-TW&gt;
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>IF(COUNTA(D:D)-1-SUM(B:B)=0,"카운트 정상: "&amp;SUM(B:B),"카운트가 이상함")</f>
+        <v>카운트 정상: 36</v>
+      </c>
+      <c r="H8">
+        <f>LEN(H6)-LEN(SUBSTITUTE(H6,"/",""))</f>
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(E:E,A11)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(E:E,A12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="str">
+        <f>A25</f>
+        <v>ar</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(E:E,A13)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="str">
+        <f>A26</f>
+        <v>be</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(E:E,A14)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="str">
+        <f>A27</f>
+        <v>bg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(E:E,A15)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" t="str">
+        <f>A28</f>
+        <v>cs</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(E:E,A16)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="str">
+        <f>A17</f>
+        <v>de</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(E:E,A17)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="str">
+        <f>A31</f>
+        <v>el</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(E:E,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="str">
+        <f>A21</f>
+        <v>es</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(E:E,A19)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" t="str">
+        <f>A21</f>
+        <v>es</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(E:E,A20)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="str">
+        <f>A21</f>
+        <v>es</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(E:E,A21)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="str">
+        <f>A30</f>
+        <v>fi</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(E:E,A22)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" t="str">
+        <f>A16</f>
+        <v>fr</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(E:E,A23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="str">
+        <f>A16</f>
+        <v>fr</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(E:E,A24)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="str">
+        <f>A33</f>
+        <v>hu</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIF(E:E,A25)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" t="str">
+        <f>A18</f>
+        <v>id</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(E:E,A26)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" t="str">
+        <f>A19</f>
+        <v>it</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(E:E,A27)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" t="str">
+        <f>A32</f>
+        <v>he</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(E:E,A28)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="str">
+        <f>A13</f>
+        <v>ja</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(E:E,A29)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(E:E,A30)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" t="str">
+        <f>A34</f>
+        <v>ms</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(E:E,A31)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="str">
+        <f>A34</f>
+        <v>ms</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(E:E,A32)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="str">
+        <f>A29</f>
+        <v>nl</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIF(E:E,A33)</f>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" t="str">
+        <f>A35</f>
+        <v>pl</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(E:E,A34)</f>
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" t="str">
+        <f>A24</f>
+        <v>pt</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(E:E,A35)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="str">
+        <f>A24</f>
+        <v>pt</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(E:E,A36)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" t="str">
+        <f>A36</f>
+        <v>ro</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(E:E,A37)</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" t="str">
+        <f>A20</f>
+        <v>ru</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38">
+        <f>COUNTIF(E:E,A38)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" t="str">
+        <f>A37</f>
+        <v>sk</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF(E:E,A39)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" t="str">
+        <f>A38</f>
+        <v>sv</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40">
+        <f>COUNTIF(E:E,A40)</f>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" t="str">
+        <f>A22</f>
+        <v>th</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" t="str">
+        <f>A39</f>
+        <v>tr</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="str">
+        <f>A40</f>
+        <v>uk</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" t="str">
+        <f>A23</f>
+        <v>vi</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" t="str">
+        <f>A14</f>
+        <v>zh-CN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="str">
+        <f>A15</f>
+        <v>zh-TW</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" t="str">
+        <f>A15</f>
+        <v>zh-TW</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6429467-F8D5-4687-828B-BAC3873D8701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3C7C1-66B9-454A-B796-613EB19400C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="303">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,6 +1483,162 @@
 每天登錄收到的禮物！_x000D_
 _x000D_
 其他注意事項：提高應用的穩定性</t>
+  </si>
+  <si>
+    <t>Equip3001</t>
+  </si>
+  <si>
+    <t>Equip6201</t>
+  </si>
+  <si>
+    <t>Equip4001</t>
+  </si>
+  <si>
+    <t>Equip8102</t>
+  </si>
+  <si>
+    <t>Equip0302</t>
+  </si>
+  <si>
+    <t>Equip0301</t>
+  </si>
+  <si>
+    <t>Equip7301</t>
+  </si>
+  <si>
+    <t>Equip6101</t>
+  </si>
+  <si>
+    <t>Equip2302</t>
+  </si>
+  <si>
+    <t>Equip1002</t>
+  </si>
+  <si>
+    <t>Equip2202</t>
+  </si>
+  <si>
+    <t>Equip6102</t>
+  </si>
+  <si>
+    <t>캐릭터 상자 영웅등급</t>
+  </si>
+  <si>
+    <t>Equip0102</t>
+  </si>
+  <si>
+    <t>Equip5001</t>
+  </si>
+  <si>
+    <t>Equip3101</t>
+  </si>
+  <si>
+    <t>Equip3102</t>
+  </si>
+  <si>
+    <t>Equip4302</t>
+  </si>
+  <si>
+    <t>Equip6202</t>
+  </si>
+  <si>
+    <t>Equip1101</t>
+  </si>
+  <si>
+    <t>Equip8101</t>
+  </si>
+  <si>
+    <t>Equip8001</t>
+  </si>
+  <si>
+    <t>Equip5101</t>
+  </si>
+  <si>
+    <t>Equip1301</t>
+  </si>
+  <si>
+    <t>Equip2201</t>
+  </si>
+  <si>
+    <t>Equip2001</t>
+  </si>
+  <si>
+    <t>Equip0002</t>
+  </si>
+  <si>
+    <t>Equip5201</t>
+  </si>
+  <si>
+    <t>Equip6302</t>
+  </si>
+  <si>
+    <t>Equip3002</t>
+  </si>
+  <si>
+    <t>Equip3201</t>
+  </si>
+  <si>
+    <t>Equip1102</t>
+  </si>
+  <si>
+    <t>Equip2301</t>
+  </si>
+  <si>
+    <t>Equip2101</t>
+  </si>
+  <si>
+    <t>Equip4201</t>
+  </si>
+  <si>
+    <t>Equip5002</t>
+  </si>
+  <si>
+    <t>Equip7201</t>
+  </si>
+  <si>
+    <t>Equip7102</t>
+  </si>
+  <si>
+    <t>Equip2002</t>
+  </si>
+  <si>
+    <t>Equip6001</t>
+  </si>
+  <si>
+    <t>Equip3301</t>
+  </si>
+  <si>
+    <t>Equip5302</t>
+  </si>
+  <si>
+    <t>Equip8302</t>
+  </si>
+  <si>
+    <t>Equip4102</t>
+  </si>
+  <si>
+    <t>Equip4301</t>
+  </si>
+  <si>
+    <t>Equip3302</t>
+  </si>
+  <si>
+    <t>Equip7002</t>
+  </si>
+  <si>
+    <t>Equip4002</t>
+  </si>
+  <si>
+    <t>Equip6301</t>
+  </si>
+  <si>
+    <t>Equip8202</t>
+  </si>
+  <si>
+    <t>Equip4101</t>
+  </si>
+  <si>
+    <t>Equip5301</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +2051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3035,11 +3191,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80691B-1071-4FE3-B654-3C7D8A917A79}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3063,8 +3222,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <f ca="1">OFFSET(A3,-1,0)+1</f>
         <v>44347</v>
       </c>
       <c r="B3" t="s">
@@ -3076,6 +3236,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f t="shared" ref="A4:A39" ca="1" si="0">OFFSET(A4,-1,0)+1</f>
         <v>44348</v>
       </c>
       <c r="B4" t="s">
@@ -3085,8 +3246,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44349</v>
       </c>
       <c r="B5" t="s">
@@ -3096,8 +3258,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44350</v>
       </c>
       <c r="B6" t="s">
@@ -3107,8 +3270,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44351</v>
       </c>
       <c r="B7" t="s">
@@ -3118,8 +3282,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44352</v>
       </c>
       <c r="B8" t="s">
@@ -3129,8 +3294,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44353</v>
       </c>
       <c r="B9" t="s">
@@ -3140,8 +3306,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44354</v>
       </c>
       <c r="B10" t="s">
@@ -3151,8 +3318,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44355</v>
       </c>
       <c r="B11" t="s">
@@ -3162,8 +3330,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44356</v>
       </c>
       <c r="B12" t="s">
@@ -3173,8 +3342,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44357</v>
       </c>
       <c r="B13" t="s">
@@ -3184,8 +3354,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44358</v>
       </c>
       <c r="B14" t="s">
@@ -3195,8 +3366,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44359</v>
       </c>
       <c r="B15" t="s">
@@ -3206,8 +3378,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44360</v>
       </c>
       <c r="B16" t="s">
@@ -3217,8 +3390,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44361</v>
       </c>
       <c r="B17" t="s">
@@ -3228,8 +3402,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44362</v>
       </c>
       <c r="B18" t="s">
@@ -3239,8 +3414,9 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44363</v>
       </c>
       <c r="B19" t="s">
@@ -3250,8 +3426,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44364</v>
       </c>
       <c r="B20" t="s">
@@ -3261,8 +3438,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44365</v>
       </c>
       <c r="B21" t="s">
@@ -3272,8 +3450,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44366</v>
       </c>
       <c r="B22" t="s">
@@ -3283,8 +3462,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44367</v>
       </c>
       <c r="B23" t="s">
@@ -3294,8 +3474,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44368</v>
       </c>
       <c r="B24" t="s">
@@ -3305,8 +3486,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44369</v>
       </c>
       <c r="B25" t="s">
@@ -3316,8 +3498,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44370</v>
       </c>
       <c r="B26" t="s">
@@ -3327,8 +3510,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44371</v>
       </c>
       <c r="B27" t="s">
@@ -3338,8 +3522,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44372</v>
       </c>
       <c r="B28" t="s">
@@ -3349,8 +3534,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44373</v>
       </c>
       <c r="B29" t="s">
@@ -3360,8 +3546,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44374</v>
       </c>
       <c r="B30" t="s">
@@ -3371,8 +3558,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44375</v>
       </c>
       <c r="B31" t="s">
@@ -3382,8 +3570,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44376</v>
       </c>
       <c r="B32" t="s">
@@ -3391,6 +3580,48 @@
       </c>
       <c r="C32">
         <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44383</v>
       </c>
     </row>
   </sheetData>
@@ -3401,14 +3632,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A374" sqref="A374"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
@@ -3461,7 +3692,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44346</v>
       </c>
@@ -3484,7 +3715,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44346</v>
       </c>
@@ -3507,7 +3738,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44346</v>
       </c>
@@ -3530,7 +3761,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44346</v>
       </c>
@@ -3553,7 +3784,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44346</v>
       </c>
@@ -3576,7 +3807,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44346</v>
       </c>
@@ -3599,7 +3830,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44346</v>
       </c>
@@ -3622,7 +3853,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44346</v>
       </c>
@@ -3630,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44346</v>
       </c>
@@ -3638,7 +3869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44346</v>
       </c>
@@ -3646,7 +3877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44346</v>
       </c>
@@ -3654,7 +3885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f ca="1">OFFSET(A14,-12,0)+1</f>
         <v>44347</v>
@@ -3675,9 +3906,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" ref="A15:A49" ca="1" si="0">OFFSET(A15,-12,0)+1</f>
+        <f t="shared" ref="A15:A78" ca="1" si="0">OFFSET(A15,-12,0)+1</f>
         <v>44347</v>
       </c>
       <c r="B15">
@@ -3699,7 +3930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3723,7 +3954,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3747,7 +3978,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3771,7 +4002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3795,7 +4026,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3819,7 +4050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3843,7 +4074,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3852,7 +4083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3861,7 +4092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -3870,7 +4101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4326,12 +4557,6165 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
       </c>
       <c r="B49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>15474</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53">
+        <v>11906</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54">
+        <v>79980</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55">
+        <v>94909</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44350</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64">
+        <v>60742</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65">
+        <v>69141</v>
+      </c>
+      <c r="E65">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66">
+        <v>93170</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67">
+        <v>27902</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44351</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44352</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44352</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44352</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76">
+        <v>65691</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44352</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77">
+        <v>62441</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="H77">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44352</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78">
+        <v>14681</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" ref="A79:A142" ca="1" si="1">OFFSET(A79,-12,0)+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79">
+        <v>83002</v>
+      </c>
+      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="H79">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44352</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44352</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44352</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44352</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44352</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44352</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H86">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88">
+        <v>54967</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89">
+        <v>49424</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90">
+        <v>72758</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>96</v>
+      </c>
+      <c r="H90">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91">
+        <v>98994</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H93">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44353</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>98</v>
+      </c>
+      <c r="H98">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>264</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>96</v>
+      </c>
+      <c r="H99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100">
+        <v>96249</v>
+      </c>
+      <c r="E100">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>96</v>
+      </c>
+      <c r="H100">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101">
+        <v>87336</v>
+      </c>
+      <c r="E101">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H101">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102">
+        <v>54274</v>
+      </c>
+      <c r="E102">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103">
+        <v>30259</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>96</v>
+      </c>
+      <c r="H103">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>265</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>96</v>
+      </c>
+      <c r="H104">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>96</v>
+      </c>
+      <c r="H105">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44354</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>96</v>
+      </c>
+      <c r="H110">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112">
+        <v>30182</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113">
+        <v>80383</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>96</v>
+      </c>
+      <c r="H113">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114">
+        <v>40132</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>96</v>
+      </c>
+      <c r="H114">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>267</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>96</v>
+      </c>
+      <c r="H115">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>98</v>
+      </c>
+      <c r="H116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>96</v>
+      </c>
+      <c r="H117">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44355</v>
+      </c>
+      <c r="B121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" t="s">
+        <v>254</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>96</v>
+      </c>
+      <c r="H122">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>98</v>
+      </c>
+      <c r="H123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>109</v>
+      </c>
+      <c r="D124">
+        <v>93851</v>
+      </c>
+      <c r="E124">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>96</v>
+      </c>
+      <c r="H124">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>110</v>
+      </c>
+      <c r="D125">
+        <v>58914</v>
+      </c>
+      <c r="E125">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>96</v>
+      </c>
+      <c r="H125">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>110</v>
+      </c>
+      <c r="D126">
+        <v>6631</v>
+      </c>
+      <c r="E126">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>96</v>
+      </c>
+      <c r="H126">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>109</v>
+      </c>
+      <c r="D127">
+        <v>81265</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>96</v>
+      </c>
+      <c r="H127">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>106</v>
+      </c>
+      <c r="D128" t="s">
+        <v>268</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>98</v>
+      </c>
+      <c r="H128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>98</v>
+      </c>
+      <c r="H129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44356</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" t="s">
+        <v>270</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" t="s">
+        <v>271</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>96</v>
+      </c>
+      <c r="H135">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>109</v>
+      </c>
+      <c r="D136">
+        <v>80063</v>
+      </c>
+      <c r="E136">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>96</v>
+      </c>
+      <c r="H136">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137">
+        <v>55007</v>
+      </c>
+      <c r="E137">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>96</v>
+      </c>
+      <c r="H137">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>110</v>
+      </c>
+      <c r="D138">
+        <v>55025</v>
+      </c>
+      <c r="E138">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>106</v>
+      </c>
+      <c r="D140" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141" t="s">
+        <v>117</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44357</v>
+      </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <f t="shared" ref="A143:A206" ca="1" si="2">OFFSET(A143,-12,0)+1</f>
+        <v>44357</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44357</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44357</v>
+      </c>
+      <c r="B145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146" t="s">
+        <v>273</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>96</v>
+      </c>
+      <c r="H146">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>106</v>
+      </c>
+      <c r="D147" t="s">
+        <v>115</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>109</v>
+      </c>
+      <c r="D148">
+        <v>67404</v>
+      </c>
+      <c r="E148">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>110</v>
+      </c>
+      <c r="D149">
+        <v>76281</v>
+      </c>
+      <c r="E149">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>96</v>
+      </c>
+      <c r="H149">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150">
+        <v>35712</v>
+      </c>
+      <c r="E150">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151">
+        <v>3678</v>
+      </c>
+      <c r="E151">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>96</v>
+      </c>
+      <c r="H151">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" t="s">
+        <v>259</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>98</v>
+      </c>
+      <c r="H152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>106</v>
+      </c>
+      <c r="D153" t="s">
+        <v>274</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>96</v>
+      </c>
+      <c r="H153">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44358</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" t="s">
+        <v>275</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>96</v>
+      </c>
+      <c r="H158">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>106</v>
+      </c>
+      <c r="D159" t="s">
+        <v>276</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>96</v>
+      </c>
+      <c r="H159">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>109</v>
+      </c>
+      <c r="D160">
+        <v>70350</v>
+      </c>
+      <c r="E160">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>96</v>
+      </c>
+      <c r="H160">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>109</v>
+      </c>
+      <c r="D161">
+        <v>2353</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>96</v>
+      </c>
+      <c r="H161">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>110</v>
+      </c>
+      <c r="D162">
+        <v>98596</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>96</v>
+      </c>
+      <c r="H162">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163">
+        <v>25224</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+      <c r="F163" t="s">
+        <v>96</v>
+      </c>
+      <c r="H163">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" t="s">
+        <v>277</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>96</v>
+      </c>
+      <c r="H164">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>106</v>
+      </c>
+      <c r="D165" t="s">
+        <v>278</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>96</v>
+      </c>
+      <c r="H165">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44359</v>
+      </c>
+      <c r="B169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>106</v>
+      </c>
+      <c r="D170" t="s">
+        <v>114</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>96</v>
+      </c>
+      <c r="H170">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>106</v>
+      </c>
+      <c r="D171" t="s">
+        <v>258</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>96</v>
+      </c>
+      <c r="H171">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>109</v>
+      </c>
+      <c r="D172">
+        <v>1779</v>
+      </c>
+      <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>96</v>
+      </c>
+      <c r="H172">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>110</v>
+      </c>
+      <c r="D173">
+        <v>34479</v>
+      </c>
+      <c r="E173">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>96</v>
+      </c>
+      <c r="H173">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>110</v>
+      </c>
+      <c r="D174">
+        <v>30428</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>96</v>
+      </c>
+      <c r="H174">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>106</v>
+      </c>
+      <c r="D175" t="s">
+        <v>279</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>96</v>
+      </c>
+      <c r="H175">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" t="s">
+        <v>274</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>98</v>
+      </c>
+      <c r="H176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>106</v>
+      </c>
+      <c r="D177" t="s">
+        <v>280</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>96</v>
+      </c>
+      <c r="H177">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44360</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>106</v>
+      </c>
+      <c r="D182" t="s">
+        <v>279</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>96</v>
+      </c>
+      <c r="H182">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>106</v>
+      </c>
+      <c r="D183" t="s">
+        <v>281</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>98</v>
+      </c>
+      <c r="H183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>109</v>
+      </c>
+      <c r="D184">
+        <v>9878</v>
+      </c>
+      <c r="E184">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>96</v>
+      </c>
+      <c r="H184">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>110</v>
+      </c>
+      <c r="D185">
+        <v>56220</v>
+      </c>
+      <c r="E185">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s">
+        <v>96</v>
+      </c>
+      <c r="H185">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>110</v>
+      </c>
+      <c r="D186">
+        <v>43921</v>
+      </c>
+      <c r="E186">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>96</v>
+      </c>
+      <c r="H186">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>106</v>
+      </c>
+      <c r="D187" t="s">
+        <v>107</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>96</v>
+      </c>
+      <c r="H187">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>106</v>
+      </c>
+      <c r="D188" t="s">
+        <v>260</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>96</v>
+      </c>
+      <c r="H188">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B189">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>106</v>
+      </c>
+      <c r="D189" t="s">
+        <v>282</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>96</v>
+      </c>
+      <c r="H189">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194" t="s">
+        <v>279</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>96</v>
+      </c>
+      <c r="H194">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>106</v>
+      </c>
+      <c r="D195" t="s">
+        <v>283</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>98</v>
+      </c>
+      <c r="H195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>109</v>
+      </c>
+      <c r="D196">
+        <v>55087</v>
+      </c>
+      <c r="E196">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>96</v>
+      </c>
+      <c r="H196">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>110</v>
+      </c>
+      <c r="D197">
+        <v>51915</v>
+      </c>
+      <c r="E197">
+        <v>12</v>
+      </c>
+      <c r="F197" t="s">
+        <v>96</v>
+      </c>
+      <c r="H197">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>110</v>
+      </c>
+      <c r="D198">
+        <v>72846</v>
+      </c>
+      <c r="E198">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>96</v>
+      </c>
+      <c r="H198">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" t="s">
+        <v>279</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>96</v>
+      </c>
+      <c r="H199">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>106</v>
+      </c>
+      <c r="D200" t="s">
+        <v>284</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>96</v>
+      </c>
+      <c r="H200">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B201">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>106</v>
+      </c>
+      <c r="D201" t="s">
+        <v>261</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>96</v>
+      </c>
+      <c r="H201">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44362</v>
+      </c>
+      <c r="B205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44363</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>106</v>
+      </c>
+      <c r="D206" t="s">
+        <v>118</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>96</v>
+      </c>
+      <c r="H206">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <f t="shared" ref="A207:A270" ca="1" si="3">OFFSET(A207,-12,0)+1</f>
+        <v>44363</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" t="s">
+        <v>274</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>96</v>
+      </c>
+      <c r="H207">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>109</v>
+      </c>
+      <c r="D208">
+        <v>68454</v>
+      </c>
+      <c r="E208">
+        <v>13</v>
+      </c>
+      <c r="F208" t="s">
+        <v>96</v>
+      </c>
+      <c r="H208">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>110</v>
+      </c>
+      <c r="D209">
+        <v>74351</v>
+      </c>
+      <c r="E209">
+        <v>13</v>
+      </c>
+      <c r="F209" t="s">
+        <v>96</v>
+      </c>
+      <c r="H209">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>110</v>
+      </c>
+      <c r="D210">
+        <v>96095</v>
+      </c>
+      <c r="E210">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>96</v>
+      </c>
+      <c r="H210">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>106</v>
+      </c>
+      <c r="D211" t="s">
+        <v>285</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>96</v>
+      </c>
+      <c r="H211">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B212">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" t="s">
+        <v>270</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>96</v>
+      </c>
+      <c r="H212">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B213">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" t="s">
+        <v>286</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>96</v>
+      </c>
+      <c r="H213">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44363</v>
+      </c>
+      <c r="B217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>106</v>
+      </c>
+      <c r="D218" t="s">
+        <v>108</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>96</v>
+      </c>
+      <c r="H218">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>106</v>
+      </c>
+      <c r="D219" t="s">
+        <v>111</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>96</v>
+      </c>
+      <c r="H219">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>109</v>
+      </c>
+      <c r="D220">
+        <v>77197</v>
+      </c>
+      <c r="E220">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
+        <v>96</v>
+      </c>
+      <c r="H220">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>109</v>
+      </c>
+      <c r="D221">
+        <v>98918</v>
+      </c>
+      <c r="E221">
+        <v>14</v>
+      </c>
+      <c r="F221" t="s">
+        <v>96</v>
+      </c>
+      <c r="H221">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>110</v>
+      </c>
+      <c r="D222">
+        <v>90626</v>
+      </c>
+      <c r="E222">
+        <v>14</v>
+      </c>
+      <c r="F222" t="s">
+        <v>96</v>
+      </c>
+      <c r="H222">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>106</v>
+      </c>
+      <c r="D223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>96</v>
+      </c>
+      <c r="H223">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>106</v>
+      </c>
+      <c r="D224" t="s">
+        <v>280</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>96</v>
+      </c>
+      <c r="H224">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B225">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>106</v>
+      </c>
+      <c r="D225" t="s">
+        <v>288</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>96</v>
+      </c>
+      <c r="H225">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44364</v>
+      </c>
+      <c r="B229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>106</v>
+      </c>
+      <c r="D230" t="s">
+        <v>289</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>96</v>
+      </c>
+      <c r="H230">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>106</v>
+      </c>
+      <c r="D231" t="s">
+        <v>264</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
+        <v>96</v>
+      </c>
+      <c r="H231">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>109</v>
+      </c>
+      <c r="D232">
+        <v>62291</v>
+      </c>
+      <c r="E232">
+        <v>12</v>
+      </c>
+      <c r="F232" t="s">
+        <v>96</v>
+      </c>
+      <c r="H232">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>110</v>
+      </c>
+      <c r="D233">
+        <v>81398</v>
+      </c>
+      <c r="E233">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s">
+        <v>96</v>
+      </c>
+      <c r="H233">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>110</v>
+      </c>
+      <c r="D234">
+        <v>27136</v>
+      </c>
+      <c r="E234">
+        <v>10</v>
+      </c>
+      <c r="F234" t="s">
+        <v>96</v>
+      </c>
+      <c r="H234">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235">
+        <v>64109</v>
+      </c>
+      <c r="E235">
+        <v>12</v>
+      </c>
+      <c r="F235" t="s">
+        <v>96</v>
+      </c>
+      <c r="H235">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>106</v>
+      </c>
+      <c r="D236" t="s">
+        <v>121</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>98</v>
+      </c>
+      <c r="H236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B237">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>106</v>
+      </c>
+      <c r="D237" t="s">
+        <v>266</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>96</v>
+      </c>
+      <c r="H237">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44365</v>
+      </c>
+      <c r="B241">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>106</v>
+      </c>
+      <c r="D242" t="s">
+        <v>270</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>96</v>
+      </c>
+      <c r="H242">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>106</v>
+      </c>
+      <c r="D243" t="s">
+        <v>268</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
+        <v>96</v>
+      </c>
+      <c r="H243">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
+        <v>109</v>
+      </c>
+      <c r="D244">
+        <v>18043</v>
+      </c>
+      <c r="E244">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>96</v>
+      </c>
+      <c r="H244">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>110</v>
+      </c>
+      <c r="D245">
+        <v>72451</v>
+      </c>
+      <c r="E245">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
+        <v>96</v>
+      </c>
+      <c r="H245">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>110</v>
+      </c>
+      <c r="D246">
+        <v>11604</v>
+      </c>
+      <c r="E246">
+        <v>9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>96</v>
+      </c>
+      <c r="H246">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B247">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>106</v>
+      </c>
+      <c r="D247" t="s">
+        <v>118</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" t="s">
+        <v>98</v>
+      </c>
+      <c r="H247">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>106</v>
+      </c>
+      <c r="D248" t="s">
+        <v>111</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>96</v>
+      </c>
+      <c r="H248">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>106</v>
+      </c>
+      <c r="D249" t="s">
+        <v>277</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" t="s">
+        <v>96</v>
+      </c>
+      <c r="H249">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B251">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44366</v>
+      </c>
+      <c r="B253">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>106</v>
+      </c>
+      <c r="D254" t="s">
+        <v>261</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>98</v>
+      </c>
+      <c r="H254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>106</v>
+      </c>
+      <c r="D255" t="s">
+        <v>256</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" t="s">
+        <v>96</v>
+      </c>
+      <c r="H255">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="C256" t="s">
+        <v>109</v>
+      </c>
+      <c r="D256">
+        <v>53758</v>
+      </c>
+      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="F256" t="s">
+        <v>96</v>
+      </c>
+      <c r="H256">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>110</v>
+      </c>
+      <c r="D257">
+        <v>28494</v>
+      </c>
+      <c r="E257">
+        <v>10</v>
+      </c>
+      <c r="F257" t="s">
+        <v>96</v>
+      </c>
+      <c r="H257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>110</v>
+      </c>
+      <c r="D258">
+        <v>96975</v>
+      </c>
+      <c r="E258">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>96</v>
+      </c>
+      <c r="H258">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>106</v>
+      </c>
+      <c r="D259" t="s">
+        <v>267</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
+        <v>96</v>
+      </c>
+      <c r="H259">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>106</v>
+      </c>
+      <c r="D260" t="s">
+        <v>252</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>96</v>
+      </c>
+      <c r="H260">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B261">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>106</v>
+      </c>
+      <c r="D261" t="s">
+        <v>111</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>96</v>
+      </c>
+      <c r="H261">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B263">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44367</v>
+      </c>
+      <c r="B265">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44368</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>106</v>
+      </c>
+      <c r="D266" t="s">
+        <v>290</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>96</v>
+      </c>
+      <c r="H266">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44368</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>106</v>
+      </c>
+      <c r="D267" t="s">
+        <v>282</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>96</v>
+      </c>
+      <c r="H267">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44368</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268">
+        <v>68138</v>
+      </c>
+      <c r="E268">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s">
+        <v>96</v>
+      </c>
+      <c r="H268">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44368</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>110</v>
+      </c>
+      <c r="D269">
+        <v>1275</v>
+      </c>
+      <c r="E269">
+        <v>9</v>
+      </c>
+      <c r="F269" t="s">
+        <v>96</v>
+      </c>
+      <c r="H269">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44368</v>
+      </c>
+      <c r="B270">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>110</v>
+      </c>
+      <c r="D270">
+        <v>51616</v>
+      </c>
+      <c r="E270">
+        <v>12</v>
+      </c>
+      <c r="F270" t="s">
+        <v>96</v>
+      </c>
+      <c r="H270">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <f t="shared" ref="A271:A334" ca="1" si="4">OFFSET(A271,-12,0)+1</f>
+        <v>44368</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271">
+        <v>87049</v>
+      </c>
+      <c r="E271">
+        <v>14</v>
+      </c>
+      <c r="F271" t="s">
+        <v>96</v>
+      </c>
+      <c r="H271">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44368</v>
+      </c>
+      <c r="B272">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>106</v>
+      </c>
+      <c r="D272" t="s">
+        <v>279</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" t="s">
+        <v>96</v>
+      </c>
+      <c r="H272">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44368</v>
+      </c>
+      <c r="B273">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>106</v>
+      </c>
+      <c r="D273" t="s">
+        <v>287</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273" t="s">
+        <v>98</v>
+      </c>
+      <c r="H273">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44368</v>
+      </c>
+      <c r="B274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44368</v>
+      </c>
+      <c r="B275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44368</v>
+      </c>
+      <c r="B276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44368</v>
+      </c>
+      <c r="B277">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>106</v>
+      </c>
+      <c r="D278" t="s">
+        <v>253</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" t="s">
+        <v>96</v>
+      </c>
+      <c r="H278">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>106</v>
+      </c>
+      <c r="D279" t="s">
+        <v>291</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279" t="s">
+        <v>98</v>
+      </c>
+      <c r="H279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280" t="s">
+        <v>109</v>
+      </c>
+      <c r="D280">
+        <v>80746</v>
+      </c>
+      <c r="E280">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s">
+        <v>96</v>
+      </c>
+      <c r="H280">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>110</v>
+      </c>
+      <c r="D281">
+        <v>4623</v>
+      </c>
+      <c r="E281">
+        <v>9</v>
+      </c>
+      <c r="F281" t="s">
+        <v>96</v>
+      </c>
+      <c r="H281">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+      <c r="C282" t="s">
+        <v>110</v>
+      </c>
+      <c r="D282">
+        <v>53553</v>
+      </c>
+      <c r="E282">
+        <v>12</v>
+      </c>
+      <c r="F282" t="s">
+        <v>96</v>
+      </c>
+      <c r="H282">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>106</v>
+      </c>
+      <c r="D283" t="s">
+        <v>292</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
+        <v>98</v>
+      </c>
+      <c r="H283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>106</v>
+      </c>
+      <c r="D284" t="s">
+        <v>293</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>96</v>
+      </c>
+      <c r="H284">
+        <v>74600</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B285">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>106</v>
+      </c>
+      <c r="D285" t="s">
+        <v>271</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" t="s">
+        <v>96</v>
+      </c>
+      <c r="H285">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B287">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44369</v>
+      </c>
+      <c r="B289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>106</v>
+      </c>
+      <c r="D290" t="s">
+        <v>294</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>96</v>
+      </c>
+      <c r="H290">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>106</v>
+      </c>
+      <c r="D291" t="s">
+        <v>287</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" t="s">
+        <v>98</v>
+      </c>
+      <c r="H291">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>109</v>
+      </c>
+      <c r="D292">
+        <v>49337</v>
+      </c>
+      <c r="E292">
+        <v>11</v>
+      </c>
+      <c r="F292" t="s">
+        <v>96</v>
+      </c>
+      <c r="H292">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>109</v>
+      </c>
+      <c r="D293">
+        <v>25033</v>
+      </c>
+      <c r="E293">
+        <v>10</v>
+      </c>
+      <c r="F293" t="s">
+        <v>96</v>
+      </c>
+      <c r="H293">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>110</v>
+      </c>
+      <c r="D294">
+        <v>65020</v>
+      </c>
+      <c r="E294">
+        <v>12</v>
+      </c>
+      <c r="F294" t="s">
+        <v>96</v>
+      </c>
+      <c r="H294">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>109</v>
+      </c>
+      <c r="D295">
+        <v>28096</v>
+      </c>
+      <c r="E295">
+        <v>10</v>
+      </c>
+      <c r="F295" t="s">
+        <v>96</v>
+      </c>
+      <c r="H295">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>106</v>
+      </c>
+      <c r="D296" t="s">
+        <v>295</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" t="s">
+        <v>98</v>
+      </c>
+      <c r="H296">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B297">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>106</v>
+      </c>
+      <c r="D297" t="s">
+        <v>253</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
+        <v>96</v>
+      </c>
+      <c r="H297">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B299">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44370</v>
+      </c>
+      <c r="B301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>106</v>
+      </c>
+      <c r="D302" t="s">
+        <v>251</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302" t="s">
+        <v>96</v>
+      </c>
+      <c r="H302">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>106</v>
+      </c>
+      <c r="D303" t="s">
+        <v>280</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303" t="s">
+        <v>96</v>
+      </c>
+      <c r="H303">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>109</v>
+      </c>
+      <c r="D304">
+        <v>23688</v>
+      </c>
+      <c r="E304">
+        <v>10</v>
+      </c>
+      <c r="F304" t="s">
+        <v>96</v>
+      </c>
+      <c r="H304">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>110</v>
+      </c>
+      <c r="D305">
+        <v>51119</v>
+      </c>
+      <c r="E305">
+        <v>12</v>
+      </c>
+      <c r="F305" t="s">
+        <v>96</v>
+      </c>
+      <c r="H305">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>110</v>
+      </c>
+      <c r="D306">
+        <v>74232</v>
+      </c>
+      <c r="E306">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s">
+        <v>96</v>
+      </c>
+      <c r="H306">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>109</v>
+      </c>
+      <c r="D307">
+        <v>5051</v>
+      </c>
+      <c r="E307">
+        <v>9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>96</v>
+      </c>
+      <c r="H307">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B308">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>106</v>
+      </c>
+      <c r="D308" t="s">
+        <v>118</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" t="s">
+        <v>96</v>
+      </c>
+      <c r="H308">
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B309">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>106</v>
+      </c>
+      <c r="D309" t="s">
+        <v>296</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" t="s">
+        <v>96</v>
+      </c>
+      <c r="H309">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B310">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B311">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B312">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44371</v>
+      </c>
+      <c r="B313">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>106</v>
+      </c>
+      <c r="D314" t="s">
+        <v>118</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" t="s">
+        <v>96</v>
+      </c>
+      <c r="H314">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315" t="s">
+        <v>106</v>
+      </c>
+      <c r="D315" t="s">
+        <v>279</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315" t="s">
+        <v>98</v>
+      </c>
+      <c r="H315">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316" t="s">
+        <v>109</v>
+      </c>
+      <c r="D316">
+        <v>36392</v>
+      </c>
+      <c r="E316">
+        <v>11</v>
+      </c>
+      <c r="F316" t="s">
+        <v>96</v>
+      </c>
+      <c r="H316">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317" t="s">
+        <v>110</v>
+      </c>
+      <c r="D317">
+        <v>1938</v>
+      </c>
+      <c r="E317">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
+        <v>96</v>
+      </c>
+      <c r="H317">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>110</v>
+      </c>
+      <c r="D318">
+        <v>10707</v>
+      </c>
+      <c r="E318">
+        <v>9</v>
+      </c>
+      <c r="F318" t="s">
+        <v>96</v>
+      </c>
+      <c r="H318">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B319">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>106</v>
+      </c>
+      <c r="D319" t="s">
+        <v>271</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319" t="s">
+        <v>96</v>
+      </c>
+      <c r="H319">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B320">
+        <v>6</v>
+      </c>
+      <c r="C320" t="s">
+        <v>106</v>
+      </c>
+      <c r="D320" t="s">
+        <v>297</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" t="s">
+        <v>96</v>
+      </c>
+      <c r="H320">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B321">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>106</v>
+      </c>
+      <c r="D321" t="s">
+        <v>298</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321" t="s">
+        <v>96</v>
+      </c>
+      <c r="H321">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B322">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B323">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44372</v>
+      </c>
+      <c r="B325">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>106</v>
+      </c>
+      <c r="D326" t="s">
+        <v>264</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326" t="s">
+        <v>96</v>
+      </c>
+      <c r="H326">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>106</v>
+      </c>
+      <c r="D327" t="s">
+        <v>299</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327" t="s">
+        <v>96</v>
+      </c>
+      <c r="H327">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328" t="s">
+        <v>109</v>
+      </c>
+      <c r="D328">
+        <v>84983</v>
+      </c>
+      <c r="E328">
+        <v>14</v>
+      </c>
+      <c r="F328" t="s">
+        <v>96</v>
+      </c>
+      <c r="H328">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
+        <v>110</v>
+      </c>
+      <c r="D329">
+        <v>30283</v>
+      </c>
+      <c r="E329">
+        <v>10</v>
+      </c>
+      <c r="F329" t="s">
+        <v>96</v>
+      </c>
+      <c r="H329">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>110</v>
+      </c>
+      <c r="D330">
+        <v>14175</v>
+      </c>
+      <c r="E330">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
+        <v>96</v>
+      </c>
+      <c r="H330">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B331">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>106</v>
+      </c>
+      <c r="D331" t="s">
+        <v>122</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331" t="s">
+        <v>96</v>
+      </c>
+      <c r="H331">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B332">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>106</v>
+      </c>
+      <c r="D332" t="s">
+        <v>285</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332" t="s">
+        <v>96</v>
+      </c>
+      <c r="H332">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B333">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>106</v>
+      </c>
+      <c r="D333" t="s">
+        <v>290</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333" t="s">
+        <v>96</v>
+      </c>
+      <c r="H333">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>44373</v>
+      </c>
+      <c r="B334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <f t="shared" ref="A335:A373" ca="1" si="5">OFFSET(A335,-12,0)+1</f>
+        <v>44373</v>
+      </c>
+      <c r="B335">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44373</v>
+      </c>
+      <c r="B336">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44373</v>
+      </c>
+      <c r="B337">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>106</v>
+      </c>
+      <c r="D338" t="s">
+        <v>300</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338" t="s">
+        <v>96</v>
+      </c>
+      <c r="H338">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339" t="s">
+        <v>106</v>
+      </c>
+      <c r="D339" t="s">
+        <v>114</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339" t="s">
+        <v>96</v>
+      </c>
+      <c r="H339">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340" t="s">
+        <v>109</v>
+      </c>
+      <c r="D340">
+        <v>34952</v>
+      </c>
+      <c r="E340">
+        <v>11</v>
+      </c>
+      <c r="F340" t="s">
+        <v>96</v>
+      </c>
+      <c r="H340">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>110</v>
+      </c>
+      <c r="D341">
+        <v>46336</v>
+      </c>
+      <c r="E341">
+        <v>11</v>
+      </c>
+      <c r="F341" t="s">
+        <v>96</v>
+      </c>
+      <c r="H341">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>110</v>
+      </c>
+      <c r="D342">
+        <v>58093</v>
+      </c>
+      <c r="E342">
+        <v>12</v>
+      </c>
+      <c r="F342" t="s">
+        <v>96</v>
+      </c>
+      <c r="H342">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B343">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>106</v>
+      </c>
+      <c r="D343" t="s">
+        <v>297</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343" t="s">
+        <v>96</v>
+      </c>
+      <c r="H343">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B344">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>106</v>
+      </c>
+      <c r="D344" t="s">
+        <v>301</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344" t="s">
+        <v>96</v>
+      </c>
+      <c r="H344">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B345">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>106</v>
+      </c>
+      <c r="D345" t="s">
+        <v>111</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345" t="s">
+        <v>96</v>
+      </c>
+      <c r="H345">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B346">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B347">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B348">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44374</v>
+      </c>
+      <c r="B349">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>106</v>
+      </c>
+      <c r="D350" t="s">
+        <v>114</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350" t="s">
+        <v>96</v>
+      </c>
+      <c r="H350">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351" t="s">
+        <v>106</v>
+      </c>
+      <c r="D351" t="s">
+        <v>301</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351" t="s">
+        <v>96</v>
+      </c>
+      <c r="H351">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352" t="s">
+        <v>109</v>
+      </c>
+      <c r="D352">
+        <v>35730</v>
+      </c>
+      <c r="E352">
+        <v>11</v>
+      </c>
+      <c r="F352" t="s">
+        <v>96</v>
+      </c>
+      <c r="H352">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353" t="s">
+        <v>110</v>
+      </c>
+      <c r="D353">
+        <v>13144</v>
+      </c>
+      <c r="E353">
+        <v>9</v>
+      </c>
+      <c r="F353" t="s">
+        <v>96</v>
+      </c>
+      <c r="H353">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B354">
+        <v>4</v>
+      </c>
+      <c r="C354" t="s">
+        <v>110</v>
+      </c>
+      <c r="D354">
+        <v>41165</v>
+      </c>
+      <c r="E354">
+        <v>11</v>
+      </c>
+      <c r="F354" t="s">
+        <v>96</v>
+      </c>
+      <c r="H354">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B355">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>106</v>
+      </c>
+      <c r="D355" t="s">
+        <v>115</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355" t="s">
+        <v>96</v>
+      </c>
+      <c r="H355">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B356">
+        <v>6</v>
+      </c>
+      <c r="C356" t="s">
+        <v>106</v>
+      </c>
+      <c r="D356" t="s">
+        <v>264</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356" t="s">
+        <v>96</v>
+      </c>
+      <c r="H356">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B357">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>106</v>
+      </c>
+      <c r="D357" t="s">
+        <v>302</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357" t="s">
+        <v>96</v>
+      </c>
+      <c r="H357">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B358">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B359">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B360">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B361">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>106</v>
+      </c>
+      <c r="D362" t="s">
+        <v>302</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="s">
+        <v>98</v>
+      </c>
+      <c r="H362">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>106</v>
+      </c>
+      <c r="D363" t="s">
+        <v>277</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363" t="s">
+        <v>96</v>
+      </c>
+      <c r="H363">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>109</v>
+      </c>
+      <c r="D364">
+        <v>10094</v>
+      </c>
+      <c r="E364">
+        <v>9</v>
+      </c>
+      <c r="F364" t="s">
+        <v>96</v>
+      </c>
+      <c r="H364">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365" t="s">
+        <v>110</v>
+      </c>
+      <c r="D365">
+        <v>71291</v>
+      </c>
+      <c r="E365">
+        <v>13</v>
+      </c>
+      <c r="F365" t="s">
+        <v>96</v>
+      </c>
+      <c r="H365">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+      <c r="C366" t="s">
+        <v>110</v>
+      </c>
+      <c r="D366">
+        <v>4931</v>
+      </c>
+      <c r="E366">
+        <v>9</v>
+      </c>
+      <c r="F366" t="s">
+        <v>96</v>
+      </c>
+      <c r="H366">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B367">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>106</v>
+      </c>
+      <c r="D367" t="s">
+        <v>114</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367" t="s">
+        <v>96</v>
+      </c>
+      <c r="H367">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B368">
+        <v>6</v>
+      </c>
+      <c r="C368" t="s">
+        <v>106</v>
+      </c>
+      <c r="D368" t="s">
+        <v>262</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368" t="s">
+        <v>96</v>
+      </c>
+      <c r="H368">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B369">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>106</v>
+      </c>
+      <c r="D369" t="s">
+        <v>301</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369" t="s">
+        <v>96</v>
+      </c>
+      <c r="H369">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B370">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B371">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B373">
         <v>11</v>
       </c>
     </row>
@@ -4346,7 +10730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5374,7 +11758,7 @@
         <v>217</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(E:E,A11)</f>
+        <f t="shared" ref="B11:B40" si="1">COUNTIF(E:E,A11)</f>
         <v>1</v>
       </c>
       <c r="D11" t="s">
@@ -5389,7 +11773,7 @@
         <v>125</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(E:E,A12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12" t="s">
@@ -5405,7 +11789,7 @@
         <v>126</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(E:E,A13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D13" t="s">
@@ -5421,7 +11805,7 @@
         <v>127</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(E:E,A14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -5437,7 +11821,7 @@
         <v>128</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(E:E,A15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D15" t="s">
@@ -5453,7 +11837,7 @@
         <v>129</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(E:E,A16)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D16" t="s">
@@ -5469,7 +11853,7 @@
         <v>130</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(E:E,A17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D17" t="s">
@@ -5485,7 +11869,7 @@
         <v>131</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(E:E,A18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -5501,7 +11885,7 @@
         <v>132</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(E:E,A19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -5517,7 +11901,7 @@
         <v>133</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(E:E,A20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D20" t="s">
@@ -5533,7 +11917,7 @@
         <v>134</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(E:E,A21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D21" t="s">
@@ -5549,7 +11933,7 @@
         <v>135</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(E:E,A22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D22" t="s">
@@ -5565,7 +11949,7 @@
         <v>136</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(E:E,A23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D23" t="s">
@@ -5581,7 +11965,7 @@
         <v>102</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(E:E,A24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D24" t="s">
@@ -5597,7 +11981,7 @@
         <v>137</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(E:E,A25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -5613,7 +11997,7 @@
         <v>138</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(E:E,A26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D26" t="s">
@@ -5629,7 +12013,7 @@
         <v>139</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(E:E,A27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D27" t="s">
@@ -5645,7 +12029,7 @@
         <v>140</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(E:E,A28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D28" t="s">
@@ -5661,7 +12045,7 @@
         <v>141</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(E:E,A29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D29" t="s">
@@ -5676,7 +12060,7 @@
         <v>142</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(E:E,A30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D30" t="s">
@@ -5692,7 +12076,7 @@
         <v>143</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(E:E,A31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D31" t="s">
@@ -5708,7 +12092,7 @@
         <v>144</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(E:E,A32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D32" t="s">
@@ -5724,7 +12108,7 @@
         <v>145</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(E:E,A33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D33" t="s">
@@ -5740,7 +12124,7 @@
         <v>146</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(E:E,A34)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D34" t="s">
@@ -5756,7 +12140,7 @@
         <v>147</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(E:E,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D35" t="s">
@@ -5772,7 +12156,7 @@
         <v>148</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(E:E,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D36" t="s">
@@ -5788,7 +12172,7 @@
         <v>149</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(E:E,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D37" t="s">
@@ -5804,7 +12188,7 @@
         <v>150</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(E:E,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D38" t="s">
@@ -5820,7 +12204,7 @@
         <v>151</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(E:E,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D39" t="s">
@@ -5836,7 +12220,7 @@
         <v>152</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(E:E,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D40" t="s">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3C7C1-66B9-454A-B796-613EB19400C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB96A6-285A-434F-B917-AFC78FD1C93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="302">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,11 +735,6 @@
     <t>uk</t>
   </si>
   <si>
-    <t>Beta版本的慶祝！_x000D_
-_x000D_
-每天登錄接收發射的禮物！</t>
-  </si>
-  <si>
     <t>en-US</t>
   </si>
   <si>
@@ -979,108 +974,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프리 오픈 경축!_x000D_
-_x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 앱 안정성을 향상시켰습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Equip3001</t>
+  </si>
+  <si>
+    <t>Equip6201</t>
+  </si>
+  <si>
+    <t>Equip4001</t>
+  </si>
+  <si>
+    <t>Equip8102</t>
+  </si>
+  <si>
+    <t>Equip0302</t>
+  </si>
+  <si>
+    <t>Equip0301</t>
+  </si>
+  <si>
+    <t>Equip7301</t>
+  </si>
+  <si>
+    <t>Equip6101</t>
+  </si>
+  <si>
+    <t>Equip2302</t>
+  </si>
+  <si>
+    <t>Equip1002</t>
+  </si>
+  <si>
+    <t>Equip2202</t>
+  </si>
+  <si>
+    <t>Equip6102</t>
+  </si>
+  <si>
+    <t>캐릭터 상자 영웅등급</t>
+  </si>
+  <si>
+    <t>Equip0102</t>
+  </si>
+  <si>
+    <t>Equip5001</t>
+  </si>
+  <si>
+    <t>Equip3101</t>
+  </si>
+  <si>
+    <t>Equip3102</t>
+  </si>
+  <si>
+    <t>Equip4302</t>
+  </si>
+  <si>
+    <t>Equip6202</t>
+  </si>
+  <si>
+    <t>Equip1101</t>
+  </si>
+  <si>
+    <t>Equip8101</t>
+  </si>
+  <si>
+    <t>Equip8001</t>
+  </si>
+  <si>
+    <t>Equip5101</t>
+  </si>
+  <si>
+    <t>Equip1301</t>
+  </si>
+  <si>
+    <t>Equip2201</t>
+  </si>
+  <si>
+    <t>Equip2001</t>
+  </si>
+  <si>
+    <t>Equip0002</t>
+  </si>
+  <si>
+    <t>Equip5201</t>
+  </si>
+  <si>
+    <t>Equip6302</t>
+  </si>
+  <si>
+    <t>Equip3002</t>
+  </si>
+  <si>
+    <t>Equip3201</t>
+  </si>
+  <si>
+    <t>Equip1102</t>
+  </si>
+  <si>
+    <t>Equip2301</t>
+  </si>
+  <si>
+    <t>Equip2101</t>
+  </si>
+  <si>
+    <t>Equip4201</t>
+  </si>
+  <si>
+    <t>Equip5002</t>
+  </si>
+  <si>
+    <t>Equip7201</t>
+  </si>
+  <si>
+    <t>Equip7102</t>
+  </si>
+  <si>
+    <t>Equip2002</t>
+  </si>
+  <si>
+    <t>Equip6001</t>
+  </si>
+  <si>
+    <t>Equip3301</t>
+  </si>
+  <si>
+    <t>Equip5302</t>
+  </si>
+  <si>
+    <t>Equip8302</t>
+  </si>
+  <si>
+    <t>Equip4102</t>
+  </si>
+  <si>
+    <t>Equip4301</t>
+  </si>
+  <si>
+    <t>Equip3302</t>
+  </si>
+  <si>
+    <t>Equip7002</t>
+  </si>
+  <si>
+    <t>Equip4002</t>
+  </si>
+  <si>
+    <t>Equip6301</t>
+  </si>
+  <si>
+    <t>Equip8202</t>
+  </si>
+  <si>
+    <t>Equip4101</t>
+  </si>
+  <si>
+    <t>Equip5301</t>
   </si>
   <si>
     <t>Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved app stability</t>
+Additional Notes: Improved app stability
+Additional Notes 2: Minimize DB load when creating an account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>프리 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!
+추가사항: 앱 안정성을 향상시켰습니다
+추가사항2: 계정 생성시 DB 부하 최소화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>الإفراج التهاني بيتا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين الاستقرار التطبيق</t>
+ملاحظات إضافية: تحسين الاستقرار التطبيق_x000D_
+ملاحظات إضافية 2: تصغير الحمل DB عند إنشاء حساب</t>
   </si>
   <si>
     <t>Бэта-рэліз віншаванні!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання</t>
+Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання_x000D_
+Дадатковыя заўвагі 2: Мінімізацыя DB нагрузкі пры стварэнні ўліковага запісу</t>
   </si>
   <si>
     <t>поздравления бета версия!_x000D_
 _x000D_
 Влезте, за всеки ден да получава подаръци!_x000D_
 _x000D_
-Допълнителни бележки: Подобрена стабилност приложение</t>
+Допълнителни бележки: Подобрена стабилност приложение_x000D_
+Допълнителни бележки 2: Намалете DB натоварване при създаването на профил</t>
   </si>
   <si>
     <t>gratulace beta vydání!_x000D_
 _x000D_
 Přihlásit každý den dostávat dary!_x000D_
 _x000D_
-Další poznámky: Zlepšení stability app</t>
+Další poznámky: Zlepšení stability app_x000D_
+Další poznámky 2: Minimalizace DB zátěž při vytváření účtu</t>
   </si>
   <si>
     <t>Beta-Version Glückwunsch!_x000D_
 _x000D_
 Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Hinweise: Verbesserte App Stabilität</t>
+Zusätzliche Hinweise: Verbesserte App Stabilität_x000D_
+Zusätzliche Hinweise 2: Minimieren DB Last, wenn ein Konto erstellen</t>
   </si>
   <si>
     <t>συγχαρητήρια Beta έκδοση!_x000D_
 _x000D_
 Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app</t>
+Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app_x000D_
+Συμπληρωματικές σημειώσεις 2: Ελαχιστοποίηση του φορτίου DB κατά τη δημιουργία ενός λογαριασμού</t>
   </si>
   <si>
     <t>felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada</t>
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta</t>
   </si>
   <si>
     <t>Testiversio onnittelut!_x000D_
 _x000D_
 Kirjaudu sisään päivittäin saada lahjoja!_x000D_
 _x000D_
-Lisähuomautukset: Parempi app vakaus</t>
+Lisähuomautukset: Parempi app vakaus_x000D_
+Lisähuomautukset 2: Pienennä DB kuorma luodessaan</t>
   </si>
   <si>
     <t>Beta félicitations version!_x000D_
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application</t>
+Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
+Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte</t>
   </si>
   <si>
     <t>Beta kiadása gratulálok!_x000D_
 _x000D_
 Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-További megjegyzések: Továbbfejlesztett app stabilitás</t>
+További megjegyzések: Továbbfejlesztett app stabilitás_x000D_
+Kiegészítő megjegyzések 2: Kisebb DB terhelést, ha a fiók létrehozása</t>
   </si>
   <si>
     <t>Beta rilis selamat!_x000D_
 _x000D_
 Login setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan tambahan: Peningkatan stabilitas aplikasi</t>
+Catatan tambahan: Peningkatan stabilitas aplikasi_x000D_
+Catatan tambahan 2: Minimalkan DB beban saat membuat akun</t>
   </si>
   <si>
     <t>complimenti versione beta!_x000D_
 _x000D_
 Esegui il login ogni giorno per ricevere i doni!_x000D_
 _x000D_
-Note aggiuntive: Migliorata la stabilità app</t>
+Note aggiuntive: Migliorata la stabilità app_x000D_
+Note aggiuntive 2: ridurre il carico DB durante la creazione di un account</t>
   </si>
   <si>
     <t>מזל טוב שחרור בטא!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: יציבות אפליקציה משופרת</t>
+הערות נוספות: יציבות אפליקציה משופרת_x000D_
+הערות נוספות 2: מזעור עומס DB בעת יצירת חשבון</t>
   </si>
   <si>
     <r>
@@ -1154,7 +1320,8 @@
       </rPr>
       <t>日ログイン！_x000D_
 _x000D_
-追加の注意事項：改善されたアプリの安定性</t>
+追加の注意事項：改善されたアプリの安定性_x000D_
+追記2：アカウントを作成するときにDBの負荷を最小限に抑えます</t>
     </r>
   </si>
   <si>
@@ -1162,149 +1329,88 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 앱 안정성을 향상시켰습니다</t>
+추가사항: 앱 안정성을 향상시켰습니다_x000D_
+추가사항2: 계정 생성시 DB 부하 최소화</t>
   </si>
   <si>
     <t>tahniah keluaran beta!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik</t>
+Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
+Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun</t>
   </si>
   <si>
     <t>gefeliciteerd Beta release!_x000D_
 _x000D_
 Meld u aan elke dag naar de gaven te ontvangen!_x000D_
 _x000D_
-Aanvullende opmerkingen: Verbeterde app stabiliteit</t>
+Aanvullende opmerkingen: Verbeterde app stabiliteit_x000D_
+Aanvullende aantekeningen 2: Minimaliseer DB belasting bij het aanmaken van een account</t>
   </si>
   <si>
     <t>Beta gratulacje uwolnienia!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza stabilność aplikacji</t>
+Uwagi dodatkowe: Lepsza stabilność aplikacji_x000D_
+Uwagi dodatkowe 2: Minimalizacja obciążenia DB podczas tworzenia konta</t>
   </si>
   <si>
     <t>parabéns lançamento Beta!_x000D_
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado</t>
+Notas adicionais: estabilidade aplicativo aprimorado_x000D_
+Notas complementares 2: minimizar a carga DB ao criar uma conta</t>
   </si>
   <si>
     <t>Felicitări cu versiuni beta!_x000D_
 _x000D_
 Autentificare în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Note suplimentare: stabilitate îmbunătățită a aplicației</t>
+Note suplimentare: stabilitate îmbunătățită a aplicației_x000D_
+Note suplimentare 2: Minimizarea de sarcină DB la crearea unui cont</t>
   </si>
   <si>
     <t>Бета-релиз поздравления!_x000D_
 _x000D_
 Войти каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительные примечания: Улучшена стабильность приложения</t>
+Дополнительные примечания: Улучшена стабильность приложения_x000D_
+Дополнительные примечания 2: Минимизация DB нагрузки при создании учетной записи</t>
   </si>
   <si>
     <t>gratulácie beta vydanie!_x000D_
 _x000D_
 Prihlásiť každý deň dostávať dary!_x000D_
 _x000D_
-Ďalšie poznámky: Zlepšenie stability app</t>
+Ďalšie poznámky: Zlepšenie stability app_x000D_
+Ďalšie poznámky 2: Minimalizácia DB záťaž pri vytváraní účtu</t>
   </si>
   <si>
     <t>Beta Release grattis!_x000D_
 _x000D_
 Logga in varje dag för att ta emot gåvor!_x000D_
 _x000D_
-Ytterligare anmärkningar: Förbättrad app stabilitet</t>
-  </si>
-  <si>
-    <r>
-      <t>ขอแสดงความยินดีรุ่นเบต้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!_x000D_
-_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>เข้าสู่ระบบทุกวันจะได้รับของขวัญ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!_x000D_
-_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>หมายเหตุเพิ่มเติม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>แอปเสถียรภาพที่ดีขึ้น</t>
-    </r>
+Ytterligare anmärkningar: Förbättrad app stabilitet_x000D_
+Ytterligare Notes 2: Minimera DB belastning när du skapar ett konto</t>
   </si>
   <si>
     <t>Beta sürümü tebrikler!_x000D_
 _x000D_
 hediye almak için her gün giriş yap!_x000D_
 _x000D_
-Ek Notlar: Geliştirilmiş uygulama kararlılığı</t>
+Ek Notlar: Geliştirilmiş uygulama kararlılığı_x000D_
+Ek Notlar 2: Hesap oluştururken DB yükünü en aza indirin</t>
   </si>
   <si>
     <t>Бета-реліз привітання!_x000D_
 _x000D_
 Ввійти кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткові примітки: Покращена стабільність програми</t>
+Додаткові примітки: Покращена стабільність програми_x000D_
+Додаткові примітки 2: Мінімізація DB навантаження при створенні облікового запису</t>
   </si>
   <si>
     <r>
@@ -1333,7 +1439,8 @@
       </rPr>
       <t>ợc những món quà!_x000D_
 _x000D_
-Ghi chú thêm: Cải thiện sự ổn định ứng dụng</t>
+Ghi chú thêm: Cải thiện sự ổn định ứng dụng_x000D_
+Ghi chú bổ sung 2: Giảm thiểu DB tải khi tạo tài khoản</t>
     </r>
   </si>
   <si>
@@ -1474,171 +1581,209 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>定性</t>
+      <t>定性_x000D_
+附加注</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帐户时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小化DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负载</t>
+    </r>
   </si>
   <si>
     <t>Beta版本的祝賀！_x000D_
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性</t>
-  </si>
-  <si>
-    <t>Equip3001</t>
-  </si>
-  <si>
-    <t>Equip6201</t>
-  </si>
-  <si>
-    <t>Equip4001</t>
-  </si>
-  <si>
-    <t>Equip8102</t>
-  </si>
-  <si>
-    <t>Equip0302</t>
-  </si>
-  <si>
-    <t>Equip0301</t>
-  </si>
-  <si>
-    <t>Equip7301</t>
-  </si>
-  <si>
-    <t>Equip6101</t>
-  </si>
-  <si>
-    <t>Equip2302</t>
-  </si>
-  <si>
-    <t>Equip1002</t>
-  </si>
-  <si>
-    <t>Equip2202</t>
-  </si>
-  <si>
-    <t>Equip6102</t>
-  </si>
-  <si>
-    <t>캐릭터 상자 영웅등급</t>
-  </si>
-  <si>
-    <t>Equip0102</t>
-  </si>
-  <si>
-    <t>Equip5001</t>
-  </si>
-  <si>
-    <t>Equip3101</t>
-  </si>
-  <si>
-    <t>Equip3102</t>
-  </si>
-  <si>
-    <t>Equip4302</t>
-  </si>
-  <si>
-    <t>Equip6202</t>
-  </si>
-  <si>
-    <t>Equip1101</t>
-  </si>
-  <si>
-    <t>Equip8101</t>
-  </si>
-  <si>
-    <t>Equip8001</t>
-  </si>
-  <si>
-    <t>Equip5101</t>
-  </si>
-  <si>
-    <t>Equip1301</t>
-  </si>
-  <si>
-    <t>Equip2201</t>
-  </si>
-  <si>
-    <t>Equip2001</t>
-  </si>
-  <si>
-    <t>Equip0002</t>
-  </si>
-  <si>
-    <t>Equip5201</t>
-  </si>
-  <si>
-    <t>Equip6302</t>
-  </si>
-  <si>
-    <t>Equip3002</t>
-  </si>
-  <si>
-    <t>Equip3201</t>
-  </si>
-  <si>
-    <t>Equip1102</t>
-  </si>
-  <si>
-    <t>Equip2301</t>
-  </si>
-  <si>
-    <t>Equip2101</t>
-  </si>
-  <si>
-    <t>Equip4201</t>
-  </si>
-  <si>
-    <t>Equip5002</t>
-  </si>
-  <si>
-    <t>Equip7201</t>
-  </si>
-  <si>
-    <t>Equip7102</t>
-  </si>
-  <si>
-    <t>Equip2002</t>
-  </si>
-  <si>
-    <t>Equip6001</t>
-  </si>
-  <si>
-    <t>Equip3301</t>
-  </si>
-  <si>
-    <t>Equip5302</t>
-  </si>
-  <si>
-    <t>Equip8302</t>
-  </si>
-  <si>
-    <t>Equip4102</t>
-  </si>
-  <si>
-    <t>Equip4301</t>
-  </si>
-  <si>
-    <t>Equip3302</t>
-  </si>
-  <si>
-    <t>Equip7002</t>
-  </si>
-  <si>
-    <t>Equip4002</t>
-  </si>
-  <si>
-    <t>Equip6301</t>
-  </si>
-  <si>
-    <t>Equip8202</t>
-  </si>
-  <si>
-    <t>Equip4101</t>
-  </si>
-  <si>
-    <t>Equip5301</t>
+其他注意事項：提高應用的穩定性_x000D_
+附加註釋2：在創建帳戶時最小化DB負載</t>
+  </si>
+  <si>
+    <r>
+      <t>ขอแสดงความยินดีรุ่นเบต้า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!_x000D_
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เข้าสู่ระบบทุกวันจะได้รับของขวัญ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!_x000D_
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>หมายเหตุเพิ่มเติม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แอปเสถียรภาพที่ดีขึ้น_x000D_
+หมายเหตุเพิ่มเติม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ลดภาระ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เมื่อมีการสร้างบัญชีผู้ใช้</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3634,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A374" sqref="A374"/>
     </sheetView>
@@ -4578,7 +4723,7 @@
         <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4602,7 +4747,7 @@
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4722,7 +4867,7 @@
         <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4746,7 +4891,7 @@
         <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4806,7 +4951,7 @@
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4950,7 +5095,7 @@
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5034,7 +5179,7 @@
         <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5178,7 +5323,7 @@
         <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5202,7 +5347,7 @@
         <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5286,7 +5431,7 @@
         <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5406,7 +5551,7 @@
         <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5487,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5511,7 +5656,7 @@
         <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5631,7 +5776,7 @@
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5655,7 +5800,7 @@
         <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5715,7 +5860,7 @@
         <v>106</v>
       </c>
       <c r="D110" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5835,7 +5980,7 @@
         <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5943,7 +6088,7 @@
         <v>106</v>
       </c>
       <c r="D122" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5967,7 +6112,7 @@
         <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6087,7 +6232,7 @@
         <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6111,7 +6256,7 @@
         <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6171,7 +6316,7 @@
         <v>106</v>
       </c>
       <c r="D134" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6195,7 +6340,7 @@
         <v>106</v>
       </c>
       <c r="D135" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6291,7 +6436,7 @@
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6315,7 +6460,7 @@
         <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6399,7 +6544,7 @@
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6543,7 +6688,7 @@
         <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6567,7 +6712,7 @@
         <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6627,7 +6772,7 @@
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6651,7 +6796,7 @@
         <v>106</v>
       </c>
       <c r="D159" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -6771,7 +6916,7 @@
         <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -6795,7 +6940,7 @@
         <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -6879,7 +7024,7 @@
         <v>106</v>
       </c>
       <c r="D171" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -6975,7 +7120,7 @@
         <v>106</v>
       </c>
       <c r="D175" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -6999,7 +7144,7 @@
         <v>106</v>
       </c>
       <c r="D176" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7023,7 +7168,7 @@
         <v>106</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7083,7 +7228,7 @@
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7107,7 +7252,7 @@
         <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7227,7 +7372,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7251,7 +7396,7 @@
         <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7311,7 +7456,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7335,7 +7480,7 @@
         <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7431,7 +7576,7 @@
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7455,7 +7600,7 @@
         <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -7479,7 +7624,7 @@
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -7563,7 +7708,7 @@
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -7659,7 +7804,7 @@
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -7683,7 +7828,7 @@
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -7707,7 +7852,7 @@
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7887,7 +8032,7 @@
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -7911,7 +8056,7 @@
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -7935,7 +8080,7 @@
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -7995,7 +8140,7 @@
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8019,7 +8164,7 @@
         <v>106</v>
       </c>
       <c r="D231" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -8163,7 +8308,7 @@
         <v>106</v>
       </c>
       <c r="D237" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -8223,7 +8368,7 @@
         <v>106</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -8247,7 +8392,7 @@
         <v>106</v>
       </c>
       <c r="D243" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -8391,7 +8536,7 @@
         <v>106</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -8451,7 +8596,7 @@
         <v>106</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -8475,7 +8620,7 @@
         <v>106</v>
       </c>
       <c r="D255" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -8571,7 +8716,7 @@
         <v>106</v>
       </c>
       <c r="D259" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -8595,7 +8740,7 @@
         <v>106</v>
       </c>
       <c r="D260" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -8679,7 +8824,7 @@
         <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -8703,7 +8848,7 @@
         <v>106</v>
       </c>
       <c r="D267" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -8823,7 +8968,7 @@
         <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -8847,7 +8992,7 @@
         <v>106</v>
       </c>
       <c r="D273" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -8907,7 +9052,7 @@
         <v>106</v>
       </c>
       <c r="D278" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -8931,7 +9076,7 @@
         <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9027,7 +9172,7 @@
         <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9051,7 +9196,7 @@
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9075,7 +9220,7 @@
         <v>106</v>
       </c>
       <c r="D285" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -9135,7 +9280,7 @@
         <v>106</v>
       </c>
       <c r="D290" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9159,7 +9304,7 @@
         <v>106</v>
       </c>
       <c r="D291" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -9279,7 +9424,7 @@
         <v>106</v>
       </c>
       <c r="D296" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9303,7 +9448,7 @@
         <v>106</v>
       </c>
       <c r="D297" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -9363,7 +9508,7 @@
         <v>106</v>
       </c>
       <c r="D302" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -9387,7 +9532,7 @@
         <v>106</v>
       </c>
       <c r="D303" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -9531,7 +9676,7 @@
         <v>106</v>
       </c>
       <c r="D309" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -9615,7 +9760,7 @@
         <v>106</v>
       </c>
       <c r="D315" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -9711,7 +9856,7 @@
         <v>106</v>
       </c>
       <c r="D319" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -9735,7 +9880,7 @@
         <v>106</v>
       </c>
       <c r="D320" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -9759,7 +9904,7 @@
         <v>106</v>
       </c>
       <c r="D321" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -9819,7 +9964,7 @@
         <v>106</v>
       </c>
       <c r="D326" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -9843,7 +9988,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -9963,7 +10108,7 @@
         <v>106</v>
       </c>
       <c r="D332" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -9987,7 +10132,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10047,7 +10192,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10167,7 +10312,7 @@
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10191,7 +10336,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10299,7 +10444,7 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -10419,7 +10564,7 @@
         <v>106</v>
       </c>
       <c r="D356" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -10443,7 +10588,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10503,7 +10648,7 @@
         <v>106</v>
       </c>
       <c r="D362" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -10527,7 +10672,7 @@
         <v>106</v>
       </c>
       <c r="D363" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -10647,7 +10792,7 @@
         <v>106</v>
       </c>
       <c r="D368" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -10671,7 +10816,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -10730,13 +10875,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="43" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="43" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -10744,7 +10894,7 @@
         <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
         <v>137</v>
@@ -10756,85 +10906,85 @@
         <v>139</v>
       </c>
       <c r="L1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V1" t="s">
         <v>131</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG1" t="s">
         <v>148</v>
       </c>
       <c r="AH1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI1" t="s">
         <v>149</v>
       </c>
       <c r="AJ1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK1" t="s">
         <v>135</v>
       </c>
       <c r="AL1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM1" t="s">
         <v>152</v>
@@ -10846,7 +10996,7 @@
         <v>127</v>
       </c>
       <c r="AP1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ1" t="s">
         <v>128</v>
@@ -10908,10 +11058,10 @@
         <v>126</v>
       </c>
       <c r="Z2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB2" t="s">
         <v>146</v>
@@ -10964,115 +11114,115 @@
     </row>
     <row r="3" spans="1:43" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>246</v>
+        <v>295</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -11085,6 +11235,7 @@
 Beta release congratulations!
 Log in every day to receive the gifts!
 Additional Notes: Improved app stability
+Additional Notes 2: Minimize DB load when creating an account
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11098,7 +11249,8 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين الاستقرار التطبيق
+ملاحظات إضافية: تحسين الاستقرار التطبيق_x000D_
+ملاحظات إضافية 2: تصغير الحمل DB عند إنشاء حساب
 &lt;/ar&gt;
 </v>
       </c>
@@ -11109,7 +11261,8 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання
+Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання_x000D_
+Дадатковыя заўвагі 2: Мінімізацыя DB нагрузкі пры стварэнні ўліковага запісу
 &lt;/be&gt;
 </v>
       </c>
@@ -11120,7 +11273,8 @@
 _x000D_
 Влезте, за всеки ден да получава подаръци!_x000D_
 _x000D_
-Допълнителни бележки: Подобрена стабилност приложение
+Допълнителни бележки: Подобрена стабилност приложение_x000D_
+Допълнителни бележки 2: Намалете DB натоварване при създаването на профил
 &lt;/bg&gt;
 </v>
       </c>
@@ -11131,7 +11285,8 @@
 _x000D_
 Přihlásit každý den dostávat dary!_x000D_
 _x000D_
-Další poznámky: Zlepšení stability app
+Další poznámky: Zlepšení stability app_x000D_
+Další poznámky 2: Minimalizace DB zátěž při vytváření účtu
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11142,7 +11297,8 @@
 _x000D_
 Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Hinweise: Verbesserte App Stabilität
+Zusätzliche Hinweise: Verbesserte App Stabilität_x000D_
+Zusätzliche Hinweise 2: Minimieren DB Last, wenn ein Konto erstellen
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11153,7 +11309,8 @@
 _x000D_
 Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app
+Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app_x000D_
+Συμπληρωματικές σημειώσεις 2: Ελαχιστοποίηση του φορτίου DB κατά τη δημιουργία ενός λογαριασμού
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11164,7 +11321,8 @@
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11175,7 +11333,8 @@
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11186,7 +11345,8 @@
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11197,7 +11357,8 @@
 _x000D_
 Kirjaudu sisään päivittäin saada lahjoja!_x000D_
 _x000D_
-Lisähuomautukset: Parempi app vakaus
+Lisähuomautukset: Parempi app vakaus_x000D_
+Lisähuomautukset 2: Pienennä DB kuorma luodessaan
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11208,7 +11369,8 @@
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application
+Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
+Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11219,7 +11381,8 @@
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application
+Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
+Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11230,7 +11393,8 @@
 _x000D_
 Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-További megjegyzések: Továbbfejlesztett app stabilitás
+További megjegyzések: Továbbfejlesztett app stabilitás_x000D_
+Kiegészítő megjegyzések 2: Kisebb DB terhelést, ha a fiók létrehozása
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11241,7 +11405,8 @@
 _x000D_
 Login setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan tambahan: Peningkatan stabilitas aplikasi
+Catatan tambahan: Peningkatan stabilitas aplikasi_x000D_
+Catatan tambahan 2: Minimalkan DB beban saat membuat akun
 &lt;/id&gt;
 </v>
       </c>
@@ -11252,7 +11417,8 @@
 _x000D_
 Esegui il login ogni giorno per ricevere i doni!_x000D_
 _x000D_
-Note aggiuntive: Migliorata la stabilità app
+Note aggiuntive: Migliorata la stabilità app_x000D_
+Note aggiuntive 2: ridurre il carico DB durante la creazione di un account
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11263,7 +11429,8 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: יציבות אפליקציה משופרת
+הערות נוספות: יציבות אפליקציה משופרת_x000D_
+הערות נוספות 2: מזעור עומס DB בעת יצירת חשבון
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11274,7 +11441,8 @@
 _x000D_
 贈り物を受け取るために毎日ログイン！_x000D_
 _x000D_
-追加の注意事項：改善されたアプリの安定性
+追加の注意事項：改善されたアプリの安定性_x000D_
+追記2：アカウントを作成するときにDBの負荷を最小限に抑えます
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11285,7 +11453,8 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 앱 안정성을 향상시켰습니다
+추가사항: 앱 안정성을 향상시켰습니다_x000D_
+추가사항2: 계정 생성시 DB 부하 최소화
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11296,40 +11465,44 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik
+Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
+Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
 &lt;/ms&gt;
 </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ms-MY&gt;
-gefeliciteerd Beta release!_x000D_
-_x000D_
-Meld u aan elke dag naar de gaven te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Verbeterde app stabiliteit
+tahniah keluaran beta!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
+Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
 &lt;/ms-MY&gt;
 </v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;nl-NL&gt;
-Beta gratulacje uwolnienia!_x000D_
-_x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Uwagi dodatkowe: Lepsza stabilność aplikacji
+gefeliciteerd Beta release!_x000D_
+_x000D_
+Meld u aan elke dag naar de gaven te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Verbeterde app stabiliteit_x000D_
+Aanvullende aantekeningen 2: Minimaliseer DB belasting bij het aanmaken van een account
 &lt;/nl-NL&gt;
 </v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pl-PL&gt;
-parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: estabilidade aplicativo aprimorado
+Beta gratulacje uwolnienia!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwagi dodatkowe: Lepsza stabilność aplikacji_x000D_
+Uwagi dodatkowe 2: Minimalizacja obciążenia DB podczas tworzenia konta
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11340,117 +11513,128 @@
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado
+Notas adicionais: estabilidade aplicativo aprimorado_x000D_
+Notas complementares 2: minimizar a carga DB ao criar uma conta
 &lt;/pt-BR&gt;
 </v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pt-PT&gt;
-Felicitări cu versiuni beta!_x000D_
-_x000D_
-Autentificare în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: stabilitate îmbunătățită a aplicației
+parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado_x000D_
+Notas complementares 2: minimizar a carga DB ao criar uma conta
 &lt;/pt-PT&gt;
 </v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ro&gt;
-Бета-релиз поздравления!_x000D_
-_x000D_
-Войти каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Улучшена стабильность приложения
+Felicitări cu versiuni beta!_x000D_
+_x000D_
+Autentificare în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: stabilitate îmbunătățită a aplicației_x000D_
+Note suplimentare 2: Minimizarea de sarcină DB la crearea unui cont
 &lt;/ro&gt;
 </v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ru-RU&gt;
-gratulácie beta vydanie!_x000D_
-_x000D_
-Prihlásiť každý deň dostávať dary!_x000D_
-_x000D_
-Ďalšie poznámky: Zlepšenie stability app
+Бета-релиз поздравления!_x000D_
+_x000D_
+Войти каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Улучшена стабильность приложения_x000D_
+Дополнительные примечания 2: Минимизация DB нагрузки при создании учетной записи
 &lt;/ru-RU&gt;
 </v>
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;sk&gt;
-Beta Release grattis!_x000D_
-_x000D_
-Logga in varje dag för att ta emot gåvor!_x000D_
-_x000D_
-Ytterligare anmärkningar: Förbättrad app stabilitet
+gratulácie beta vydanie!_x000D_
+_x000D_
+Prihlásiť každý deň dostávať dary!_x000D_
+_x000D_
+Ďalšie poznámky: Zlepšenie stability app_x000D_
+Ďalšie poznámky 2: Minimalizácia DB záťaž pri vytváraní účtu
 &lt;/sk&gt;
 </v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;sv-SE&gt;
-ขอแสดงความยินดีรุ่นเบต้า!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น
+Beta Release grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot gåvor!_x000D_
+_x000D_
+Ytterligare anmärkningar: Förbättrad app stabilitet_x000D_
+Ytterligare Notes 2: Minimera DB belastning när du skapar ett konto
 &lt;/sv-SE&gt;
 </v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;th&gt;
-Beta sürümü tebrikler!_x000D_
-_x000D_
-hediye almak için her gün giriş yap!_x000D_
-_x000D_
-Ek Notlar: Geliştirilmiş uygulama kararlılığı
+ขอแสดงความยินดีรุ่นเบต้า!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น_x000D_
+หมายเหตุเพิ่มเติม 2: ลดภาระ DB เมื่อมีการสร้างบัญชีผู้ใช้
 &lt;/th&gt;
 </v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;tr-TR&gt;
-Бета-реліз привітання!_x000D_
-_x000D_
-Ввійти кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: Покращена стабільність програми
+Beta sürümü tebrikler!_x000D_
+_x000D_
+hediye almak için her gün giriş yap!_x000D_
+_x000D_
+Ek Notlar: Geliştirilmiş uygulama kararlılığı_x000D_
+Ek Notlar 2: Hesap oluştururken DB yükünü en aza indirin
 &lt;/tr-TR&gt;
 </v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;uk&gt;
-phát hành xin chúc mừng phiên bản beta!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
-_x000D_
-Ghi chú thêm: Cải thiện sự ổn định ứng dụng
+Бета-реліз привітання!_x000D_
+_x000D_
+Ввійти кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: Покращена стабільність програми_x000D_
+Додаткові примітки 2: Мінімізація DB навантаження при створенні облікового запису
 &lt;/uk&gt;
 </v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;vi&gt;
-Beta版本的祝贺！_x000D_
-_x000D_
-每天登录收到的礼物！_x000D_
-_x000D_
-其他注意事项：提高应用的稳定性
+phát hành xin chúc mừng phiên bản beta!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
+_x000D_
+Ghi chú thêm: Cải thiện sự ổn định ứng dụng_x000D_
+Ghi chú bổ sung 2: Giảm thiểu DB tải khi tạo tài khoản
 &lt;/vi&gt;
 </v>
       </c>
       <c r="AO4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-CN&gt;
-Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：提高應用的穩定性
+Beta版本的祝贺！_x000D_
+_x000D_
+每天登录收到的礼物！_x000D_
+_x000D_
+其他注意事项：提高应用的稳定性_x000D_
+附加注释2：在创建帐户时最小化DB负载
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11461,16 +11645,20 @@
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性
+其他注意事項：提高應用的穩定性_x000D_
+附加註釋2：在創建帳戶時最小化DB負載
 &lt;/zh-HK&gt;
 </v>
       </c>
       <c r="AQ4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-TW&gt;
-Beta版本的慶祝！_x000D_
-_x000D_
-每天登錄接收發射的禮物！
+Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性_x000D_
+附加註釋2：在創建帳戶時最小化DB負載
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11482,249 +11670,287 @@
 Beta release congratulations!
 Log in every day to receive the gifts!
 Additional Notes: Improved app stability
+Additional Notes 2: Minimize DB load when creating an account
 &lt;/en-US&gt;
 &lt;ar&gt;
 الإفراج التهاني بيتا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين الاستقرار التطبيق
+ملاحظات إضافية: تحسين الاستقرار التطبيق_x000D_
+ملاحظات إضافية 2: تصغير الحمل DB عند إنشاء حساب
 &lt;/ar&gt;
 &lt;be&gt;
 Бэта-рэліз віншаванні!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання
+Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання_x000D_
+Дадатковыя заўвагі 2: Мінімізацыя DB нагрузкі пры стварэнні ўліковага запісу
 &lt;/be&gt;
 &lt;bg&gt;
 поздравления бета версия!_x000D_
 _x000D_
 Влезте, за всеки ден да получава подаръци!_x000D_
 _x000D_
-Допълнителни бележки: Подобрена стабилност приложение
+Допълнителни бележки: Подобрена стабилност приложение_x000D_
+Допълнителни бележки 2: Намалете DB натоварване при създаването на профил
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 gratulace beta vydání!_x000D_
 _x000D_
 Přihlásit každý den dostávat dary!_x000D_
 _x000D_
-Další poznámky: Zlepšení stability app
+Další poznámky: Zlepšení stability app_x000D_
+Další poznámky 2: Minimalizace DB zátěž při vytváření účtu
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Beta-Version Glückwunsch!_x000D_
 _x000D_
 Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Hinweise: Verbesserte App Stabilität
+Zusätzliche Hinweise: Verbesserte App Stabilität_x000D_
+Zusätzliche Hinweise 2: Minimieren DB Last, wenn ein Konto erstellen
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 συγχαρητήρια Beta έκδοση!_x000D_
 _x000D_
 Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app
+Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app_x000D_
+Συμπληρωματικές σημειώσεις 2: Ελαχιστοποίηση του φορτίου DB κατά τη δημιουργία ενός λογαριασμού
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada
+Notas adicionales: estabilidad aplicación mejorada_x000D_
+Notas adicionales 2: minimizar la carga DB al crear una cuenta
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Testiversio onnittelut!_x000D_
 _x000D_
 Kirjaudu sisään päivittäin saada lahjoja!_x000D_
 _x000D_
-Lisähuomautukset: Parempi app vakaus
+Lisähuomautukset: Parempi app vakaus_x000D_
+Lisähuomautukset 2: Pienennä DB kuorma luodessaan
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Beta félicitations version!_x000D_
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application
+Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
+Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Beta félicitations version!_x000D_
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application
+Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
+Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Beta kiadása gratulálok!_x000D_
 _x000D_
 Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-További megjegyzések: Továbbfejlesztett app stabilitás
+További megjegyzések: Továbbfejlesztett app stabilitás_x000D_
+Kiegészítő megjegyzések 2: Kisebb DB terhelést, ha a fiók létrehozása
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Beta rilis selamat!_x000D_
 _x000D_
 Login setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan tambahan: Peningkatan stabilitas aplikasi
+Catatan tambahan: Peningkatan stabilitas aplikasi_x000D_
+Catatan tambahan 2: Minimalkan DB beban saat membuat akun
 &lt;/id&gt;
 &lt;it-IT&gt;
 complimenti versione beta!_x000D_
 _x000D_
 Esegui il login ogni giorno per ricevere i doni!_x000D_
 _x000D_
-Note aggiuntive: Migliorata la stabilità app
+Note aggiuntive: Migliorata la stabilità app_x000D_
+Note aggiuntive 2: ridurre il carico DB durante la creazione di un account
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 מזל טוב שחרור בטא!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: יציבות אפליקציה משופרת
+הערות נוספות: יציבות אפליקציה משופרת_x000D_
+הערות נוספות 2: מזעור עומס DB בעת יצירת חשבון
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 ベータリリースおめでとうございます！_x000D_
 _x000D_
 贈り物を受け取るために毎日ログイン！_x000D_
 _x000D_
-追加の注意事項：改善されたアプリの安定性
+追加の注意事項：改善されたアプリの安定性_x000D_
+追記2：アカウントを作成するときにDBの負荷を最小限に抑えます
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 프리 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 앱 안정성을 향상시켰습니다
+추가사항: 앱 안정성을 향상시켰습니다_x000D_
+추가사항2: 계정 생성시 DB 부하 최소화
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 tahniah keluaran beta!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik
+Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
+Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
 &lt;/ms&gt;
 &lt;ms-MY&gt;
-gefeliciteerd Beta release!_x000D_
-_x000D_
-Meld u aan elke dag naar de gaven te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Verbeterde app stabiliteit
+tahniah keluaran beta!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
+Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
-Beta gratulacje uwolnienia!_x000D_
-_x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Uwagi dodatkowe: Lepsza stabilność aplikacji
+gefeliciteerd Beta release!_x000D_
+_x000D_
+Meld u aan elke dag naar de gaven te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Verbeterde app stabiliteit_x000D_
+Aanvullende aantekeningen 2: Minimaliseer DB belasting bij het aanmaken van een account
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
-parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: estabilidade aplicativo aprimorado
+Beta gratulacje uwolnienia!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwagi dodatkowe: Lepsza stabilność aplikacji_x000D_
+Uwagi dodatkowe 2: Minimalizacja obciążenia DB podczas tworzenia konta
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 parabéns lançamento Beta!_x000D_
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado
+Notas adicionais: estabilidade aplicativo aprimorado_x000D_
+Notas complementares 2: minimizar a carga DB ao criar uma conta
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
-Felicitări cu versiuni beta!_x000D_
-_x000D_
-Autentificare în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: stabilitate îmbunătățită a aplicației
+parabéns lançamento Beta!_x000D_
+_x000D_
+Entrar e todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: estabilidade aplicativo aprimorado_x000D_
+Notas complementares 2: minimizar a carga DB ao criar uma conta
 &lt;/pt-PT&gt;
 &lt;ro&gt;
-Бета-релиз поздравления!_x000D_
-_x000D_
-Войти каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Улучшена стабильность приложения
+Felicitări cu versiuni beta!_x000D_
+_x000D_
+Autentificare în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: stabilitate îmbunătățită a aplicației_x000D_
+Note suplimentare 2: Minimizarea de sarcină DB la crearea unui cont
 &lt;/ro&gt;
 &lt;ru-RU&gt;
-gratulácie beta vydanie!_x000D_
-_x000D_
-Prihlásiť každý deň dostávať dary!_x000D_
-_x000D_
-Ďalšie poznámky: Zlepšenie stability app
+Бета-релиз поздравления!_x000D_
+_x000D_
+Войти каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Улучшена стабильность приложения_x000D_
+Дополнительные примечания 2: Минимизация DB нагрузки при создании учетной записи
 &lt;/ru-RU&gt;
 &lt;sk&gt;
-Beta Release grattis!_x000D_
-_x000D_
-Logga in varje dag för att ta emot gåvor!_x000D_
-_x000D_
-Ytterligare anmärkningar: Förbättrad app stabilitet
+gratulácie beta vydanie!_x000D_
+_x000D_
+Prihlásiť každý deň dostávať dary!_x000D_
+_x000D_
+Ďalšie poznámky: Zlepšenie stability app_x000D_
+Ďalšie poznámky 2: Minimalizácia DB záťaž pri vytváraní účtu
 &lt;/sk&gt;
 &lt;sv-SE&gt;
-ขอแสดงความยินดีรุ่นเบต้า!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น
+Beta Release grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot gåvor!_x000D_
+_x000D_
+Ytterligare anmärkningar: Förbättrad app stabilitet_x000D_
+Ytterligare Notes 2: Minimera DB belastning när du skapar ett konto
 &lt;/sv-SE&gt;
 &lt;th&gt;
-Beta sürümü tebrikler!_x000D_
-_x000D_
-hediye almak için her gün giriş yap!_x000D_
-_x000D_
-Ek Notlar: Geliştirilmiş uygulama kararlılığı
+ขอแสดงความยินดีรุ่นเบต้า!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น_x000D_
+หมายเหตุเพิ่มเติม 2: ลดภาระ DB เมื่อมีการสร้างบัญชีผู้ใช้
 &lt;/th&gt;
 &lt;tr-TR&gt;
-Бета-реліз привітання!_x000D_
-_x000D_
-Ввійти кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: Покращена стабільність програми
+Beta sürümü tebrikler!_x000D_
+_x000D_
+hediye almak için her gün giriş yap!_x000D_
+_x000D_
+Ek Notlar: Geliştirilmiş uygulama kararlılığı_x000D_
+Ek Notlar 2: Hesap oluştururken DB yükünü en aza indirin
 &lt;/tr-TR&gt;
 &lt;uk&gt;
-phát hành xin chúc mừng phiên bản beta!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
-_x000D_
-Ghi chú thêm: Cải thiện sự ổn định ứng dụng
+Бета-реліз привітання!_x000D_
+_x000D_
+Ввійти кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: Покращена стабільність програми_x000D_
+Додаткові примітки 2: Мінімізація DB навантаження при створенні облікового запису
 &lt;/uk&gt;
 &lt;vi&gt;
-Beta版本的祝贺！_x000D_
-_x000D_
-每天登录收到的礼物！_x000D_
-_x000D_
-其他注意事项：提高应用的稳定性
+phát hành xin chúc mừng phiên bản beta!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
+_x000D_
+Ghi chú thêm: Cải thiện sự ổn định ứng dụng_x000D_
+Ghi chú bổ sung 2: Giảm thiểu DB tải khi tạo tài khoản
 &lt;/vi&gt;
 &lt;zh-CN&gt;
-Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：提高應用的穩定性
+Beta版本的祝贺！_x000D_
+_x000D_
+每天登录收到的礼物！_x000D_
+_x000D_
+其他注意事项：提高应用的稳定性_x000D_
+附加注释2：在创建帐户时最小化DB负载
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 Beta版本的祝賀！_x000D_
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性
+其他注意事項：提高應用的穩定性_x000D_
+附加註釋2：在創建帳戶時最小化DB負載
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
-Beta版本的慶祝！_x000D_
-_x000D_
-每天登錄接收發射的禮物！
+Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：提高應用的穩定性_x000D_
+附加註釋2：在創建帳戶時最小化DB負載
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11739,30 +11965,30 @@
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" t="s">
         <v>214</v>
-      </c>
-      <c r="E10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B40" si="1">COUNTIF(E:E,A11)</f>
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>125</v>
@@ -11777,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="str">
         <f>A25</f>
@@ -11793,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="str">
         <f>A26</f>
@@ -11809,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" t="str">
         <f>A27</f>
@@ -11825,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" t="str">
         <f>A28</f>
@@ -11841,7 +12067,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" t="str">
         <f>A17</f>
@@ -11857,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" t="str">
         <f>A31</f>
@@ -11873,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" t="str">
         <f>A21</f>
@@ -11889,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="str">
         <f>A21</f>
@@ -11905,7 +12131,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" t="str">
         <f>A21</f>
@@ -11921,7 +12147,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" t="str">
         <f>A30</f>
@@ -11937,7 +12163,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" t="str">
         <f>A16</f>
@@ -11953,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" t="str">
         <f>A16</f>
@@ -11969,7 +12195,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" t="str">
         <f>A33</f>
@@ -11985,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" t="str">
         <f>A18</f>
@@ -12001,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" t="str">
         <f>A19</f>
@@ -12017,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" t="str">
         <f>A32</f>
@@ -12033,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" t="str">
         <f>A13</f>
@@ -12049,10 +12275,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -12064,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" t="str">
         <f>A34</f>
@@ -12080,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" t="str">
         <f>A34</f>
@@ -12096,7 +12322,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E32" t="str">
         <f>A29</f>
@@ -12112,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" t="str">
         <f>A35</f>
@@ -12128,7 +12354,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" t="str">
         <f>A24</f>
@@ -12144,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" t="str">
         <f>A24</f>
@@ -12160,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E36" t="str">
         <f>A36</f>
@@ -12176,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E37" t="str">
         <f>A20</f>
@@ -12192,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" t="str">
         <f>A37</f>
@@ -12208,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E39" t="str">
         <f>A38</f>
@@ -12224,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E40" t="str">
         <f>A22</f>
@@ -12233,7 +12459,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" t="str">
         <f>A39</f>
@@ -12242,7 +12468,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" t="str">
         <f>A40</f>
@@ -12251,7 +12477,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" t="str">
         <f>A23</f>
@@ -12260,7 +12486,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" t="str">
         <f>A14</f>
@@ -12269,7 +12495,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E45" t="str">
         <f>A15</f>
@@ -12278,7 +12504,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E46" t="str">
         <f>A15</f>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB96A6-285A-434F-B917-AFC78FD1C93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05564384-C752-44B5-BD98-C7ACFD6758D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -1130,123 +1130,108 @@
     <t>Equip5301</t>
   </si>
   <si>
+    <t>프리 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!
+추가사항: 튜토리얼 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved app stability
-Additional Notes 2: Minimize DB load when creating an account</t>
+Additional Notes: Improved tutorial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프리 오픈 경축!_x000D_
-_x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 앱 안정성을 향상시켰습니다
-추가사항2: 계정 생성시 DB 부하 최소화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>الإفراج التهاني بيتا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين الاستقرار التطبيق_x000D_
-ملاحظات إضافية 2: تصغير الحمل DB عند إنشاء حساب</t>
+ملاحظات إضافية: تحسين البرنامج التعليمي</t>
   </si>
   <si>
     <t>Бэта-рэліз віншаванні!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання_x000D_
-Дадатковыя заўвагі 2: Мінімізацыя DB нагрузкі пры стварэнні ўліковага запісу</t>
+Дадатковыя заўвагі: Паляпшэнне падручнік</t>
   </si>
   <si>
     <t>поздравления бета версия!_x000D_
 _x000D_
 Влезте, за всеки ден да получава подаръци!_x000D_
 _x000D_
-Допълнителни бележки: Подобрена стабилност приложение_x000D_
-Допълнителни бележки 2: Намалете DB натоварване при създаването на профил</t>
+Допълнителни бележки: Подобряване на урок</t>
   </si>
   <si>
     <t>gratulace beta vydání!_x000D_
 _x000D_
 Přihlásit každý den dostávat dary!_x000D_
 _x000D_
-Další poznámky: Zlepšení stability app_x000D_
-Další poznámky 2: Minimalizace DB zátěž při vytváření účtu</t>
+Další poznámky: Improved tutorial</t>
   </si>
   <si>
     <t>Beta-Version Glückwunsch!_x000D_
 _x000D_
 Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Hinweise: Verbesserte App Stabilität_x000D_
-Zusätzliche Hinweise 2: Minimieren DB Last, wenn ein Konto erstellen</t>
+Zusätzliche Hinweise: Verbesserte Tutorial</t>
   </si>
   <si>
     <t>συγχαρητήρια Beta έκδοση!_x000D_
 _x000D_
 Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app_x000D_
-Συμπληρωματικές σημειώσεις 2: Ελαχιστοποίηση του φορτίου DB κατά τη δημιουργία ενός λογαριασμού</t>
+Πρόσθετες Σημειώσεις: Βελτιωμένη φροντιστήριο</t>
   </si>
   <si>
     <t>felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta</t>
+Notas adicionales: Mejora tutorial</t>
   </si>
   <si>
     <t>Testiversio onnittelut!_x000D_
 _x000D_
 Kirjaudu sisään päivittäin saada lahjoja!_x000D_
 _x000D_
-Lisähuomautukset: Parempi app vakaus_x000D_
-Lisähuomautukset 2: Pienennä DB kuorma luodessaan</t>
+Lisähuomautukset: Parempi opetusohjelma</t>
   </si>
   <si>
     <t>Beta félicitations version!_x000D_
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
-Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte</t>
+Notes supplémentaires: tutoriel amélioré</t>
   </si>
   <si>
     <t>Beta kiadása gratulálok!_x000D_
 _x000D_
 Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-További megjegyzések: Továbbfejlesztett app stabilitás_x000D_
-Kiegészítő megjegyzések 2: Kisebb DB terhelést, ha a fiók létrehozása</t>
+További megjegyzések: Továbbfejlesztett bemutató</t>
   </si>
   <si>
     <t>Beta rilis selamat!_x000D_
 _x000D_
 Login setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan tambahan: Peningkatan stabilitas aplikasi_x000D_
-Catatan tambahan 2: Minimalkan DB beban saat membuat akun</t>
+Catatan tambahan: Peningkatan tutorial</t>
   </si>
   <si>
     <t>complimenti versione beta!_x000D_
 _x000D_
 Esegui il login ogni giorno per ricevere i doni!_x000D_
 _x000D_
-Note aggiuntive: Migliorata la stabilità app_x000D_
-Note aggiuntive 2: ridurre il carico DB durante la creazione di un account</t>
+Note aggiuntive: Migliorata esercitazione</t>
   </si>
   <si>
     <t>מזל טוב שחרור בטא!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: יציבות אפליקציה משופרת_x000D_
-הערות נוספות 2: מזעור עומס DB בעת יצירת חשבון</t>
+הערות נוספות: הדרכה משופרת</t>
   </si>
   <si>
     <r>
@@ -1320,97 +1305,114 @@
       </rPr>
       <t>日ログイン！_x000D_
 _x000D_
-追加の注意事項：改善されたアプリの安定性_x000D_
-追記2：アカウントを作成するときにDBの負荷を最小限に抑えます</t>
+追加の注意事項：改善されたチュ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>トリアル</t>
+    </r>
   </si>
   <si>
     <t>프리 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 앱 안정성을 향상시켰습니다_x000D_
-추가사항2: 계정 생성시 DB 부하 최소화</t>
+추가사항: 튜토리얼 개선</t>
   </si>
   <si>
     <t>tahniah keluaran beta!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
-Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun</t>
+Nota Tambahan: tutorial lebih baik</t>
   </si>
   <si>
     <t>gefeliciteerd Beta release!_x000D_
 _x000D_
 Meld u aan elke dag naar de gaven te ontvangen!_x000D_
 _x000D_
-Aanvullende opmerkingen: Verbeterde app stabiliteit_x000D_
-Aanvullende aantekeningen 2: Minimaliseer DB belasting bij het aanmaken van een account</t>
+Aanvullende opmerkingen: Verbeterde zelfstudie</t>
   </si>
   <si>
     <t>Beta gratulacje uwolnienia!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza stabilność aplikacji_x000D_
-Uwagi dodatkowe 2: Minimalizacja obciążenia DB podczas tworzenia konta</t>
+Uwagi dodatkowe: Lepsza poradnik</t>
   </si>
   <si>
     <t>parabéns lançamento Beta!_x000D_
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado_x000D_
-Notas complementares 2: minimizar a carga DB ao criar uma conta</t>
+Notas adicionais: Improved tutorial</t>
   </si>
   <si>
     <t>Felicitări cu versiuni beta!_x000D_
 _x000D_
 Autentificare în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Note suplimentare: stabilitate îmbunătățită a aplicației_x000D_
-Note suplimentare 2: Minimizarea de sarcină DB la crearea unui cont</t>
+Note suplimentare: Tutorial îmbunătățită</t>
   </si>
   <si>
     <t>Бета-релиз поздравления!_x000D_
 _x000D_
 Войти каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительные примечания: Улучшена стабильность приложения_x000D_
-Дополнительные примечания 2: Минимизация DB нагрузки при создании учетной записи</t>
+Дополнительные примечания: Улучшение учебник</t>
   </si>
   <si>
     <t>gratulácie beta vydanie!_x000D_
 _x000D_
 Prihlásiť každý deň dostávať dary!_x000D_
 _x000D_
-Ďalšie poznámky: Zlepšenie stability app_x000D_
-Ďalšie poznámky 2: Minimalizácia DB záťaž pri vytváraní účtu</t>
+Ďalšie poznámky: Improved tutorial</t>
   </si>
   <si>
     <t>Beta Release grattis!_x000D_
 _x000D_
 Logga in varje dag för att ta emot gåvor!_x000D_
 _x000D_
-Ytterligare anmärkningar: Förbättrad app stabilitet_x000D_
-Ytterligare Notes 2: Minimera DB belastning när du skapar ett konto</t>
+Ytterligare anmärkningar: Förbättrad handledning</t>
+  </si>
+  <si>
+    <t>ขอแสดงความยินดีรุ่นเบต้า!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: ปรับปรุงการกวดวิชา</t>
   </si>
   <si>
     <t>Beta sürümü tebrikler!_x000D_
 _x000D_
 hediye almak için her gün giriş yap!_x000D_
 _x000D_
-Ek Notlar: Geliştirilmiş uygulama kararlılığı_x000D_
-Ek Notlar 2: Hesap oluştururken DB yükünü en aza indirin</t>
+Ek Notlar: Geliştirilmiş öğretici</t>
   </si>
   <si>
     <t>Бета-реліз привітання!_x000D_
 _x000D_
 Ввійти кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткові примітки: Покращена стабільність програми_x000D_
-Додаткові примітки 2: Мінімізація DB навантаження при створенні облікового запису</t>
+Додаткові примітки: Поліпшення підручник</t>
   </si>
   <si>
     <r>
@@ -1439,8 +1441,28 @@
       </rPr>
       <t>ợc những món quà!_x000D_
 _x000D_
-Ghi chú thêm: Cải thiện sự ổn định ứng dụng_x000D_
-Ghi chú bổ sung 2: Giảm thiểu DB tải khi tạo tài khoản</t>
+Ghi chú thêm: Cải thiện h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng dẫn</t>
     </r>
   </si>
   <si>
@@ -1537,7 +1559,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：提高</t>
+      <t>：改</t>
     </r>
     <r>
       <rPr>
@@ -1548,7 +1570,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>应</t>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教</t>
     </r>
     <r>
       <rPr>
@@ -1559,7 +1592,16 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>用的</t>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Beta版本的祝賀！_x000D_
+_x000D_
+每天登錄收到的禮物！_x000D_
+_x000D_
+其他注意事項：改進</t>
     </r>
     <r>
       <rPr>
@@ -1567,10 +1609,10 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>稳</t>
+      <t>教</t>
     </r>
     <r>
       <rPr>
@@ -1581,208 +1623,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>定性_x000D_
-附加注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>释</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2：在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>帐户时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最小化DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>负载</t>
-    </r>
-  </si>
-  <si>
-    <t>Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：提高應用的穩定性_x000D_
-附加註釋2：在創建帳戶時最小化DB負載</t>
-  </si>
-  <si>
-    <r>
-      <t>ขอแสดงความยินดีรุ่นเบต้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!_x000D_
-_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>เข้าสู่ระบบทุกวันจะได้รับของขวัญ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!_x000D_
-_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>หมายเหตุเพิ่มเติม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>แอปเสถียรภาพที่ดีขึ้น_x000D_
-หมายเหตุเพิ่มเติม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ลดภาระ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>เมื่อมีการสร้างบัญชีผู้ใช้</t>
+      <t>程</t>
     </r>
   </si>
 </sst>
@@ -3780,8 +3621,8 @@
   <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A374" sqref="A374"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -10875,7 +10716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -11114,10 +10955,10 @@
     </row>
     <row r="3" spans="1:43" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>273</v>
@@ -11204,25 +11045,25 @@
         <v>295</v>
       </c>
       <c r="AK3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -11234,8 +11075,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved app stability
-Additional Notes 2: Minimize DB load when creating an account
+Additional Notes: Improved tutorial
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11249,8 +11089,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين الاستقرار التطبيق_x000D_
-ملاحظات إضافية 2: تصغير الحمل DB عند إنشاء حساب
+ملاحظات إضافية: تحسين البرنامج التعليمي
 &lt;/ar&gt;
 </v>
       </c>
@@ -11261,8 +11100,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання_x000D_
-Дадатковыя заўвагі 2: Мінімізацыя DB нагрузкі пры стварэнні ўліковага запісу
+Дадатковыя заўвагі: Паляпшэнне падручнік
 &lt;/be&gt;
 </v>
       </c>
@@ -11273,8 +11111,7 @@
 _x000D_
 Влезте, за всеки ден да получава подаръци!_x000D_
 _x000D_
-Допълнителни бележки: Подобрена стабилност приложение_x000D_
-Допълнителни бележки 2: Намалете DB натоварване при създаването на профил
+Допълнителни бележки: Подобряване на урок
 &lt;/bg&gt;
 </v>
       </c>
@@ -11285,8 +11122,7 @@
 _x000D_
 Přihlásit každý den dostávat dary!_x000D_
 _x000D_
-Další poznámky: Zlepšení stability app_x000D_
-Další poznámky 2: Minimalizace DB zátěž při vytváření účtu
+Další poznámky: Improved tutorial
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11297,8 +11133,7 @@
 _x000D_
 Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Hinweise: Verbesserte App Stabilität_x000D_
-Zusätzliche Hinweise 2: Minimieren DB Last, wenn ein Konto erstellen
+Zusätzliche Hinweise: Verbesserte Tutorial
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11309,8 +11144,7 @@
 _x000D_
 Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app_x000D_
-Συμπληρωματικές σημειώσεις 2: Ελαχιστοποίηση του φορτίου DB κατά τη δημιουργία ενός λογαριασμού
+Πρόσθετες Σημειώσεις: Βελτιωμένη φροντιστήριο
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11321,8 +11155,7 @@
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta
+Notas adicionales: Mejora tutorial
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11333,8 +11166,7 @@
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta
+Notas adicionales: Mejora tutorial
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11345,8 +11177,7 @@
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta
+Notas adicionales: Mejora tutorial
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11357,8 +11188,7 @@
 _x000D_
 Kirjaudu sisään päivittäin saada lahjoja!_x000D_
 _x000D_
-Lisähuomautukset: Parempi app vakaus_x000D_
-Lisähuomautukset 2: Pienennä DB kuorma luodessaan
+Lisähuomautukset: Parempi opetusohjelma
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11369,8 +11199,7 @@
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
-Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
+Notes supplémentaires: tutoriel amélioré
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11381,8 +11210,7 @@
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
-Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
+Notes supplémentaires: tutoriel amélioré
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11393,8 +11221,7 @@
 _x000D_
 Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-További megjegyzések: Továbbfejlesztett app stabilitás_x000D_
-Kiegészítő megjegyzések 2: Kisebb DB terhelést, ha a fiók létrehozása
+További megjegyzések: Továbbfejlesztett bemutató
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11405,8 +11232,7 @@
 _x000D_
 Login setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan tambahan: Peningkatan stabilitas aplikasi_x000D_
-Catatan tambahan 2: Minimalkan DB beban saat membuat akun
+Catatan tambahan: Peningkatan tutorial
 &lt;/id&gt;
 </v>
       </c>
@@ -11417,8 +11243,7 @@
 _x000D_
 Esegui il login ogni giorno per ricevere i doni!_x000D_
 _x000D_
-Note aggiuntive: Migliorata la stabilità app_x000D_
-Note aggiuntive 2: ridurre il carico DB durante la creazione di un account
+Note aggiuntive: Migliorata esercitazione
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11429,8 +11254,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: יציבות אפליקציה משופרת_x000D_
-הערות נוספות 2: מזעור עומס DB בעת יצירת חשבון
+הערות נוספות: הדרכה משופרת
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11441,8 +11265,7 @@
 _x000D_
 贈り物を受け取るために毎日ログイン！_x000D_
 _x000D_
-追加の注意事項：改善されたアプリの安定性_x000D_
-追記2：アカウントを作成するときにDBの負荷を最小限に抑えます
+追加の注意事項：改善されたチュートリアル
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11453,8 +11276,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 앱 안정성을 향상시켰습니다_x000D_
-추가사항2: 계정 생성시 DB 부하 최소화
+추가사항: 튜토리얼 개선
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11465,8 +11287,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
-Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
+Nota Tambahan: tutorial lebih baik
 &lt;/ms&gt;
 </v>
       </c>
@@ -11477,8 +11298,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
-Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
+Nota Tambahan: tutorial lebih baik
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11489,8 +11309,7 @@
 _x000D_
 Meld u aan elke dag naar de gaven te ontvangen!_x000D_
 _x000D_
-Aanvullende opmerkingen: Verbeterde app stabiliteit_x000D_
-Aanvullende aantekeningen 2: Minimaliseer DB belasting bij het aanmaken van een account
+Aanvullende opmerkingen: Verbeterde zelfstudie
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11501,8 +11320,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza stabilność aplikacji_x000D_
-Uwagi dodatkowe 2: Minimalizacja obciążenia DB podczas tworzenia konta
+Uwagi dodatkowe: Lepsza poradnik
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11513,8 +11331,7 @@
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado_x000D_
-Notas complementares 2: minimizar a carga DB ao criar uma conta
+Notas adicionais: Improved tutorial
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11525,8 +11342,7 @@
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado_x000D_
-Notas complementares 2: minimizar a carga DB ao criar uma conta
+Notas adicionais: Improved tutorial
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11537,8 +11353,7 @@
 _x000D_
 Autentificare în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Note suplimentare: stabilitate îmbunătățită a aplicației_x000D_
-Note suplimentare 2: Minimizarea de sarcină DB la crearea unui cont
+Note suplimentare: Tutorial îmbunătățită
 &lt;/ro&gt;
 </v>
       </c>
@@ -11549,8 +11364,7 @@
 _x000D_
 Войти каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительные примечания: Улучшена стабильность приложения_x000D_
-Дополнительные примечания 2: Минимизация DB нагрузки при создании учетной записи
+Дополнительные примечания: Улучшение учебник
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11561,8 +11375,7 @@
 _x000D_
 Prihlásiť každý deň dostávať dary!_x000D_
 _x000D_
-Ďalšie poznámky: Zlepšenie stability app_x000D_
-Ďalšie poznámky 2: Minimalizácia DB záťaž pri vytváraní účtu
+Ďalšie poznámky: Improved tutorial
 &lt;/sk&gt;
 </v>
       </c>
@@ -11573,8 +11386,7 @@
 _x000D_
 Logga in varje dag för att ta emot gåvor!_x000D_
 _x000D_
-Ytterligare anmärkningar: Förbättrad app stabilitet_x000D_
-Ytterligare Notes 2: Minimera DB belastning när du skapar ett konto
+Ytterligare anmärkningar: Förbättrad handledning
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11585,8 +11397,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น_x000D_
-หมายเหตุเพิ่มเติม 2: ลดภาระ DB เมื่อมีการสร้างบัญชีผู้ใช้
+หมายเหตุเพิ่มเติม: ปรับปรุงการกวดวิชา
 &lt;/th&gt;
 </v>
       </c>
@@ -11597,8 +11408,7 @@
 _x000D_
 hediye almak için her gün giriş yap!_x000D_
 _x000D_
-Ek Notlar: Geliştirilmiş uygulama kararlılığı_x000D_
-Ek Notlar 2: Hesap oluştururken DB yükünü en aza indirin
+Ek Notlar: Geliştirilmiş öğretici
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11609,8 +11419,7 @@
 _x000D_
 Ввійти кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткові примітки: Покращена стабільність програми_x000D_
-Додаткові примітки 2: Мінімізація DB навантаження при створенні облікового запису
+Додаткові примітки: Поліпшення підручник
 &lt;/uk&gt;
 </v>
       </c>
@@ -11621,8 +11430,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
 _x000D_
-Ghi chú thêm: Cải thiện sự ổn định ứng dụng_x000D_
-Ghi chú bổ sung 2: Giảm thiểu DB tải khi tạo tài khoản
+Ghi chú thêm: Cải thiện hướng dẫn
 &lt;/vi&gt;
 </v>
       </c>
@@ -11633,8 +11441,7 @@
 _x000D_
 每天登录收到的礼物！_x000D_
 _x000D_
-其他注意事项：提高应用的稳定性_x000D_
-附加注释2：在创建帐户时最小化DB负载
+其他注意事项：改进教程
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11645,8 +11452,7 @@
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性_x000D_
-附加註釋2：在創建帳戶時最小化DB負載
+其他注意事項：改進教程
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11657,8 +11463,7 @@
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性_x000D_
-附加註釋2：在創建帳戶時最小化DB負載
+其他注意事項：改進教程
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11669,288 +11474,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved app stability
-Additional Notes 2: Minimize DB load when creating an account
+Additional Notes: Improved tutorial
 &lt;/en-US&gt;
 &lt;ar&gt;
 الإفراج التهاني بيتا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين الاستقرار التطبيق_x000D_
-ملاحظات إضافية 2: تصغير الحمل DB عند إنشاء حساب
+ملاحظات إضافية: تحسين البرنامج التعليمي
 &lt;/ar&gt;
 &lt;be&gt;
 Бэта-рэліз віншаванні!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Палепшаная стабільнасць прыкладання_x000D_
-Дадатковыя заўвагі 2: Мінімізацыя DB нагрузкі пры стварэнні ўліковага запісу
+Дадатковыя заўвагі: Паляпшэнне падручнік
 &lt;/be&gt;
 &lt;bg&gt;
 поздравления бета версия!_x000D_
 _x000D_
 Влезте, за всеки ден да получава подаръци!_x000D_
 _x000D_
-Допълнителни бележки: Подобрена стабилност приложение_x000D_
-Допълнителни бележки 2: Намалете DB натоварване при създаването на профил
+Допълнителни бележки: Подобряване на урок
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 gratulace beta vydání!_x000D_
 _x000D_
 Přihlásit každý den dostávat dary!_x000D_
 _x000D_
-Další poznámky: Zlepšení stability app_x000D_
-Další poznámky 2: Minimalizace DB zátěž při vytváření účtu
+Další poznámky: Improved tutorial
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Beta-Version Glückwunsch!_x000D_
 _x000D_
 Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Hinweise: Verbesserte App Stabilität_x000D_
-Zusätzliche Hinweise 2: Minimieren DB Last, wenn ein Konto erstellen
+Zusätzliche Hinweise: Verbesserte Tutorial
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 συγχαρητήρια Beta έκδοση!_x000D_
 _x000D_
 Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη σταθερότητα app_x000D_
-Συμπληρωματικές σημειώσεις 2: Ελαχιστοποίηση του φορτίου DB κατά τη δημιουργία ενός λογαριασμού
+Πρόσθετες Σημειώσεις: Βελτιωμένη φροντιστήριο
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta
+Notas adicionales: Mejora tutorial
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta
+Notas adicionales: Mejora tutorial
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 felicitaciones versión beta!_x000D_
 _x000D_
 Iniciar sesión cada día para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: estabilidad aplicación mejorada_x000D_
-Notas adicionales 2: minimizar la carga DB al crear una cuenta
+Notas adicionales: Mejora tutorial
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Testiversio onnittelut!_x000D_
 _x000D_
 Kirjaudu sisään päivittäin saada lahjoja!_x000D_
 _x000D_
-Lisähuomautukset: Parempi app vakaus_x000D_
-Lisähuomautukset 2: Pienennä DB kuorma luodessaan
+Lisähuomautukset: Parempi opetusohjelma
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Beta félicitations version!_x000D_
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
-Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
+Notes supplémentaires: tutoriel amélioré
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Beta félicitations version!_x000D_
 _x000D_
 Se connecter tous les jours pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Amélioration de la stabilité de l'application_x000D_
-Remarques complémentaires 2: Réduire au minimum la charge DB lors de la création d'un compte
+Notes supplémentaires: tutoriel amélioré
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Beta kiadása gratulálok!_x000D_
 _x000D_
 Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-További megjegyzések: Továbbfejlesztett app stabilitás_x000D_
-Kiegészítő megjegyzések 2: Kisebb DB terhelést, ha a fiók létrehozása
+További megjegyzések: Továbbfejlesztett bemutató
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Beta rilis selamat!_x000D_
 _x000D_
 Login setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan tambahan: Peningkatan stabilitas aplikasi_x000D_
-Catatan tambahan 2: Minimalkan DB beban saat membuat akun
+Catatan tambahan: Peningkatan tutorial
 &lt;/id&gt;
 &lt;it-IT&gt;
 complimenti versione beta!_x000D_
 _x000D_
 Esegui il login ogni giorno per ricevere i doni!_x000D_
 _x000D_
-Note aggiuntive: Migliorata la stabilità app_x000D_
-Note aggiuntive 2: ridurre il carico DB durante la creazione di un account
+Note aggiuntive: Migliorata esercitazione
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 מזל טוב שחרור בטא!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: יציבות אפליקציה משופרת_x000D_
-הערות נוספות 2: מזעור עומס DB בעת יצירת חשבון
+הערות נוספות: הדרכה משופרת
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 ベータリリースおめでとうございます！_x000D_
 _x000D_
 贈り物を受け取るために毎日ログイン！_x000D_
 _x000D_
-追加の注意事項：改善されたアプリの安定性_x000D_
-追記2：アカウントを作成するときにDBの負荷を最小限に抑えます
+追加の注意事項：改善されたチュートリアル
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 프리 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 앱 안정성을 향상시켰습니다_x000D_
-추가사항2: 계정 생성시 DB 부하 최소화
+추가사항: 튜토리얼 개선
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 tahniah keluaran beta!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
-Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
+Nota Tambahan: tutorial lebih baik
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 tahniah keluaran beta!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: kestabilan aplikasi lebih baik_x000D_
-Nota Tambahan 2: Kurangkan beban DB semasa membuat akaun
+Nota Tambahan: tutorial lebih baik
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 gefeliciteerd Beta release!_x000D_
 _x000D_
 Meld u aan elke dag naar de gaven te ontvangen!_x000D_
 _x000D_
-Aanvullende opmerkingen: Verbeterde app stabiliteit_x000D_
-Aanvullende aantekeningen 2: Minimaliseer DB belasting bij het aanmaken van een account
+Aanvullende opmerkingen: Verbeterde zelfstudie
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Beta gratulacje uwolnienia!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza stabilność aplikacji_x000D_
-Uwagi dodatkowe 2: Minimalizacja obciążenia DB podczas tworzenia konta
+Uwagi dodatkowe: Lepsza poradnik
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 parabéns lançamento Beta!_x000D_
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado_x000D_
-Notas complementares 2: minimizar a carga DB ao criar uma conta
+Notas adicionais: Improved tutorial
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 parabéns lançamento Beta!_x000D_
 _x000D_
 Entrar e todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: estabilidade aplicativo aprimorado_x000D_
-Notas complementares 2: minimizar a carga DB ao criar uma conta
+Notas adicionais: Improved tutorial
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Felicitări cu versiuni beta!_x000D_
 _x000D_
 Autentificare în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Note suplimentare: stabilitate îmbunătățită a aplicației_x000D_
-Note suplimentare 2: Minimizarea de sarcină DB la crearea unui cont
+Note suplimentare: Tutorial îmbunătățită
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Бета-релиз поздравления!_x000D_
 _x000D_
 Войти каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительные примечания: Улучшена стабильность приложения_x000D_
-Дополнительные примечания 2: Минимизация DB нагрузки при создании учетной записи
+Дополнительные примечания: Улучшение учебник
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 gratulácie beta vydanie!_x000D_
 _x000D_
 Prihlásiť každý deň dostávať dary!_x000D_
 _x000D_
-Ďalšie poznámky: Zlepšenie stability app_x000D_
-Ďalšie poznámky 2: Minimalizácia DB záťaž pri vytváraní účtu
+Ďalšie poznámky: Improved tutorial
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Beta Release grattis!_x000D_
 _x000D_
 Logga in varje dag för att ta emot gåvor!_x000D_
 _x000D_
-Ytterligare anmärkningar: Förbättrad app stabilitet_x000D_
-Ytterligare Notes 2: Minimera DB belastning när du skapar ett konto
+Ytterligare anmärkningar: Förbättrad handledning
 &lt;/sv-SE&gt;
 &lt;th&gt;
 ขอแสดงความยินดีรุ่นเบต้า!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แอปเสถียรภาพที่ดีขึ้น_x000D_
-หมายเหตุเพิ่มเติม 2: ลดภาระ DB เมื่อมีการสร้างบัญชีผู้ใช้
+หมายเหตุเพิ่มเติม: ปรับปรุงการกวดวิชา
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Beta sürümü tebrikler!_x000D_
 _x000D_
 hediye almak için her gün giriş yap!_x000D_
 _x000D_
-Ek Notlar: Geliştirilmiş uygulama kararlılığı_x000D_
-Ek Notlar 2: Hesap oluştururken DB yükünü en aza indirin
+Ek Notlar: Geliştirilmiş öğretici
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Бета-реліз привітання!_x000D_
 _x000D_
 Ввійти кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткові примітки: Покращена стабільність програми_x000D_
-Додаткові примітки 2: Мінімізація DB навантаження при створенні облікового запису
+Додаткові примітки: Поліпшення підручник
 &lt;/uk&gt;
 &lt;vi&gt;
 phát hành xin chúc mừng phiên bản beta!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
 _x000D_
-Ghi chú thêm: Cải thiện sự ổn định ứng dụng_x000D_
-Ghi chú bổ sung 2: Giảm thiểu DB tải khi tạo tài khoản
+Ghi chú thêm: Cải thiện hướng dẫn
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 Beta版本的祝贺！_x000D_
 _x000D_
 每天登录收到的礼物！_x000D_
 _x000D_
-其他注意事项：提高应用的稳定性_x000D_
-附加注释2：在创建帐户时最小化DB负载
+其他注意事项：改进教程
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 Beta版本的祝賀！_x000D_
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性_x000D_
-附加註釋2：在創建帳戶時最小化DB負載
+其他注意事項：改進教程
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 Beta版本的祝賀！_x000D_
 _x000D_
 每天登錄收到的禮物！_x000D_
 _x000D_
-其他注意事項：提高應用的穩定性_x000D_
-附加註釋2：在創建帳戶時最小化DB負載
+其他注意事項：改進教程
 &lt;/zh-TW&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05564384-C752-44B5-BD98-C7ACFD6758D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EA047-5395-46D4-A308-2B7D7086DAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -1133,105 +1133,105 @@
     <t>프리 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 튜토리얼 개선</t>
+추가사항: 글로벌 릴리즈를 위한 사전 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved tutorial</t>
+Additional Notes: Pre-Working for Global Release</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>الإفراج التهاني بيتا!_x000D_
+    <t>بيتا الإفراج عن تهانينا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين البرنامج التعليمي</t>
-  </si>
-  <si>
-    <t>Бэта-рэліз віншаванні!_x000D_
+ملاحظات إضافية: ما قبل العمل للإصدار العالمي</t>
+  </si>
+  <si>
+    <t>Віншуе бэта-рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Паляпшэнне падручнік</t>
-  </si>
-  <si>
-    <t>поздравления бета версия!_x000D_
-_x000D_
-Влезте, за всеки ден да получава подаръци!_x000D_
-_x000D_
-Допълнителни бележки: Подобряване на урок</t>
-  </si>
-  <si>
-    <t>gratulace beta vydání!_x000D_
-_x000D_
-Přihlásit každý den dostávat dary!_x000D_
-_x000D_
-Další poznámky: Improved tutorial</t>
-  </si>
-  <si>
-    <t>Beta-Version Glückwunsch!_x000D_
-_x000D_
-Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
-_x000D_
-Zusätzliche Hinweise: Verbesserte Tutorial</t>
-  </si>
-  <si>
-    <t>συγχαρητήρια Beta έκδοση!_x000D_
-_x000D_
-Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
-_x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη φροντιστήριο</t>
-  </si>
-  <si>
-    <t>felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial</t>
-  </si>
-  <si>
-    <t>Testiversio onnittelut!_x000D_
-_x000D_
-Kirjaudu sisään päivittäin saada lahjoja!_x000D_
-_x000D_
-Lisähuomautukset: Parempi opetusohjelma</t>
-  </si>
-  <si>
-    <t>Beta félicitations version!_x000D_
-_x000D_
-Se connecter tous les jours pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: tutoriel amélioré</t>
+Дадатковыя нататкі: Pre-працуе для глабальнага выпуску</t>
+  </si>
+  <si>
+    <t>Бета версия поздравления!_x000D_
+_x000D_
+Влезте всеки ден, за да получите подаръци!_x000D_
+_x000D_
+Допълнителни бележки: Предварително работещ за глобално освобождаване</t>
+  </si>
+  <si>
+    <t>Beta vydání blahopřání!_x000D_
+_x000D_
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další poznámky: Pre-práce pro globální vydání</t>
+  </si>
+  <si>
+    <t>Beta-Freigabe-Glückwunsch!_x000D_
+_x000D_
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzliche Hinweise: Vorarbeiten für Global Release</t>
+  </si>
+  <si>
+    <t>Beta απελευθέρωση Συγχαρητήρια!_x000D_
+_x000D_
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετες σημειώσεις: Προεπιλογή για την παγκόσμια απελευθέρωση</t>
+  </si>
+  <si>
+    <t>¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global</t>
+  </si>
+  <si>
+    <t>Beta Release Onnittelut!_x000D_
+_x000D_
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: maailmanlaajuisen julkaisun ennakointi</t>
+  </si>
+  <si>
+    <t>Libération bêta Félicitations!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Pré-travail pour la libération globale</t>
   </si>
   <si>
     <t>Beta kiadása gratulálok!_x000D_
 _x000D_
-Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-További megjegyzések: Továbbfejlesztett bemutató</t>
-  </si>
-  <si>
-    <t>Beta rilis selamat!_x000D_
-_x000D_
-Login setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Catatan tambahan: Peningkatan tutorial</t>
-  </si>
-  <si>
-    <t>complimenti versione beta!_x000D_
-_x000D_
-Esegui il login ogni giorno per ricevere i doni!_x000D_
-_x000D_
-Note aggiuntive: Migliorata esercitazione</t>
-  </si>
-  <si>
-    <t>מזל טוב שחרור בטא!_x000D_
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzések: A globális kiadás előtti munka</t>
+  </si>
+  <si>
+    <t>Beta Rilis Selamat!_x000D_
+_x000D_
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Pra-Bekerja untuk Rilis Global</t>
+  </si>
+  <si>
+    <t>Beta Release Congratulazioni!_x000D_
+_x000D_
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Note aggiuntive: pre-lavoro per il rilascio globale</t>
+  </si>
+  <si>
+    <t>Beta לשחרר ברכות!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: הדרכה משופרת</t>
+הערות נוספות: עבודה מראש לשחרור גלובלי</t>
   </si>
   <si>
     <r>
@@ -1281,7 +1281,7 @@
       </rPr>
       <t>スおめでとうございます！_x000D_
 _x000D_
-贈り物を受け取るために</t>
+ギフトを受け取るために</t>
     </r>
     <r>
       <rPr>
@@ -1303,9 +1303,9 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>日ログイン！_x000D_
-_x000D_
-追加の注意事項：改善されたチュ</t>
+      <t>日ログインしてください！_x000D_
+_x000D_
+その他の注意事項：グロ</t>
     </r>
     <r>
       <rPr>
@@ -1327,98 +1327,122 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>トリアル</t>
+      <t>バルリリ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スの事前協力</t>
+    </r>
   </si>
   <si>
     <t>프리 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 튜토리얼 개선</t>
-  </si>
-  <si>
-    <t>tahniah keluaran beta!_x000D_
+추가사항: 글로벌 릴리즈를 위한 사전 작업</t>
+  </si>
+  <si>
+    <t>Beta melepaskan tahniah!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: tutorial lebih baik</t>
-  </si>
-  <si>
-    <t>gefeliciteerd Beta release!_x000D_
-_x000D_
-Meld u aan elke dag naar de gaven te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Verbeterde zelfstudie</t>
-  </si>
-  <si>
-    <t>Beta gratulacje uwolnienia!_x000D_
+Nota Tambahan: Pra-Bekerja untuk Pelepasan Global</t>
+  </si>
+  <si>
+    <t>Beta Release Gefeliciteerd!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Pre-Working For World Release</t>
+  </si>
+  <si>
+    <t>Gratulujemy wersji beta!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza poradnik</t>
-  </si>
-  <si>
-    <t>parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: Improved tutorial</t>
-  </si>
-  <si>
-    <t>Felicitări cu versiuni beta!_x000D_
-_x000D_
-Autentificare în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: Tutorial îmbunătățită</t>
-  </si>
-  <si>
-    <t>Бета-релиз поздравления!_x000D_
-_x000D_
-Войти каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Улучшение учебник</t>
-  </si>
-  <si>
-    <t>gratulácie beta vydanie!_x000D_
-_x000D_
-Prihlásiť každý deň dostávať dary!_x000D_
-_x000D_
-Ďalšie poznámky: Improved tutorial</t>
-  </si>
-  <si>
-    <t>Beta Release grattis!_x000D_
-_x000D_
-Logga in varje dag för att ta emot gåvor!_x000D_
-_x000D_
-Ytterligare anmärkningar: Förbättrad handledning</t>
-  </si>
-  <si>
-    <t>ขอแสดงความยินดีรุ่นเบต้า!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงการกวดวิชา</t>
-  </si>
-  <si>
-    <t>Beta sürümü tebrikler!_x000D_
-_x000D_
-hediye almak için her gün giriş yap!_x000D_
-_x000D_
-Ek Notlar: Geliştirilmiş öğretici</t>
-  </si>
-  <si>
-    <t>Бета-реліз привітання!_x000D_
-_x000D_
-Ввійти кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: Поліпшення підручник</t>
+Dodatkowe uwagi: Praca wstępna dla globalnego wydania</t>
+  </si>
+  <si>
+    <t>Beta Release Parabéns!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: pré-trabalhando para lançamento global</t>
+  </si>
+  <si>
+    <t>BETA RELEASE Felicitări!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: Pre-lucrarea pentru eliberarea globală</t>
+  </si>
+  <si>
+    <t>Бета-релиз поздравляю!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Предварительная работа для глобального выпуска</t>
+  </si>
+  <si>
+    <t>Beta Uvoľnite Gratulujeme!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Ďalšie poznámky: Predbežná práca pre globálne vydanie</t>
+  </si>
+  <si>
+    <t>Beta Release Grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anteckningar: Förearbetande för global release</t>
+  </si>
+  <si>
+    <t>เบต้าปล่อยขอแสดงความยินดี!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: การทำงานล่วงหน้าเพื่อการเปิดตัวทั่วโลก</t>
+  </si>
+  <si>
+    <t>Beta sürüm tebrikler!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek notlar: Küresel yayın için ön çalışma</t>
+  </si>
+  <si>
+    <t>Бета-реліз Вітаю!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: попередньо працювати для глобального випуску</t>
   </si>
   <si>
     <r>
-      <t>phát hành xin chúc mừng phiên bản beta!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận đ</t>
+      <t>Phát hành beta Xin chúc mừng!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+Ghi chú bổ sung: Làm việc tr</t>
     </r>
     <r>
       <rPr>
@@ -1439,19 +1463,23 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ợc những món quà!_x000D_
-_x000D_
-Ghi chú thêm: Cải thiện h</t>
+      <t>ớc để phát hành toàn cầu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Beta</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ư</t>
+      <t>发</t>
     </r>
     <r>
       <rPr>
@@ -1462,12 +1490,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ớng dẫn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Beta版本的祝</t>
+      <t>行祝</t>
     </r>
     <r>
       <rPr>
@@ -1513,7 +1536,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>收到的</t>
+      <t>才能收到</t>
     </r>
     <r>
       <rPr>
@@ -1535,9 +1558,9 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>物！_x000D_
-_x000D_
-其他注意事</t>
+      <t>品！_x000D_
+_x000D_
+附加</t>
     </r>
     <r>
       <rPr>
@@ -1548,7 +1571,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项</t>
+      <t>说</t>
     </r>
     <r>
       <rPr>
@@ -1559,7 +1582,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：改</t>
+      <t>明：全球</t>
     </r>
     <r>
       <rPr>
@@ -1570,18 +1593,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教</t>
+      <t>发</t>
     </r>
     <r>
       <rPr>
@@ -1592,16 +1604,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：改進</t>
+      <t>布的</t>
     </r>
     <r>
       <rPr>
@@ -1609,10 +1612,10 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="128"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>教</t>
+      <t>预</t>
     </r>
     <r>
       <rPr>
@@ -1623,8 +1626,15 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>程</t>
+      <t>先工作</t>
     </r>
+  </si>
+  <si>
+    <t>Beta發行祝賀！_x000D_
+_x000D_
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：全球發布的預先工作</t>
   </si>
 </sst>
 </file>
@@ -10716,7 +10726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -11075,7 +11085,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved tutorial
+Additional Notes: Pre-Working for Global Release
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11085,132 +11095,132 @@
 &lt;/"&amp;I1&amp;"&gt;
 "</f>
         <v xml:space="preserve">&lt;ar&gt;
-الإفراج التهاني بيتا!_x000D_
+بيتا الإفراج عن تهانينا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين البرنامج التعليمي
+ملاحظات إضافية: ما قبل العمل للإصدار العالمي
 &lt;/ar&gt;
 </v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;be&gt;
-Бэта-рэліз віншаванні!_x000D_
+Віншуе бэта-рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Паляпшэнне падручнік
+Дадатковыя нататкі: Pre-працуе для глабальнага выпуску
 &lt;/be&gt;
 </v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;bg&gt;
-поздравления бета версия!_x000D_
-_x000D_
-Влезте, за всеки ден да получава подаръци!_x000D_
-_x000D_
-Допълнителни бележки: Подобряване на урок
+Бета версия поздравления!_x000D_
+_x000D_
+Влезте всеки ден, за да получите подаръци!_x000D_
+_x000D_
+Допълнителни бележки: Предварително работещ за глобално освобождаване
 &lt;/bg&gt;
 </v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;cs-CZ&gt;
-gratulace beta vydání!_x000D_
-_x000D_
-Přihlásit každý den dostávat dary!_x000D_
-_x000D_
-Další poznámky: Improved tutorial
+Beta vydání blahopřání!_x000D_
+_x000D_
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další poznámky: Pre-práce pro globální vydání
 &lt;/cs-CZ&gt;
 </v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;de-DE&gt;
-Beta-Version Glückwunsch!_x000D_
-_x000D_
-Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
-_x000D_
-Zusätzliche Hinweise: Verbesserte Tutorial
+Beta-Freigabe-Glückwunsch!_x000D_
+_x000D_
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzliche Hinweise: Vorarbeiten für Global Release
 &lt;/de-DE&gt;
 </v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;el-GR&gt;
-συγχαρητήρια Beta έκδοση!_x000D_
-_x000D_
-Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
-_x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη φροντιστήριο
+Beta απελευθέρωση Συγχαρητήρια!_x000D_
+_x000D_
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετες σημειώσεις: Προεπιλογή για την παγκόσμια απελευθέρωση
 &lt;/el-GR&gt;
 </v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;es-419&gt;
-felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial
+¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global
 &lt;/es-419&gt;
 </v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;es-ES&gt;
-felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial
+¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global
 &lt;/es-ES&gt;
 </v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;es-US&gt;
-felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial
+¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global
 &lt;/es-US&gt;
 </v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;fi-FI&gt;
-Testiversio onnittelut!_x000D_
-_x000D_
-Kirjaudu sisään päivittäin saada lahjoja!_x000D_
-_x000D_
-Lisähuomautukset: Parempi opetusohjelma
+Beta Release Onnittelut!_x000D_
+_x000D_
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: maailmanlaajuisen julkaisun ennakointi
 &lt;/fi-FI&gt;
 </v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;fr-CA&gt;
-Beta félicitations version!_x000D_
-_x000D_
-Se connecter tous les jours pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: tutoriel amélioré
+Libération bêta Félicitations!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Pré-travail pour la libération globale
 &lt;/fr-CA&gt;
 </v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;fr-FR&gt;
-Beta félicitations version!_x000D_
-_x000D_
-Se connecter tous les jours pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: tutoriel amélioré
+Libération bêta Félicitations!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Pré-travail pour la libération globale
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11219,42 +11229,42 @@
         <v xml:space="preserve">&lt;hu-HU&gt;
 Beta kiadása gratulálok!_x000D_
 _x000D_
-Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-További megjegyzések: Továbbfejlesztett bemutató
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzések: A globális kiadás előtti munka
 &lt;/hu-HU&gt;
 </v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;id&gt;
-Beta rilis selamat!_x000D_
-_x000D_
-Login setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Catatan tambahan: Peningkatan tutorial
+Beta Rilis Selamat!_x000D_
+_x000D_
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Pra-Bekerja untuk Rilis Global
 &lt;/id&gt;
 </v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;it-IT&gt;
-complimenti versione beta!_x000D_
-_x000D_
-Esegui il login ogni giorno per ricevere i doni!_x000D_
-_x000D_
-Note aggiuntive: Migliorata esercitazione
+Beta Release Congratulazioni!_x000D_
+_x000D_
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Note aggiuntive: pre-lavoro per il rilascio globale
 &lt;/it-IT&gt;
 </v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;iw-IL&gt;
-מזל טוב שחרור בטא!_x000D_
+Beta לשחרר ברכות!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: הדרכה משופרת
+הערות נוספות: עבודה מראש לשחרור גלובלי
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11263,9 +11273,9 @@
         <v xml:space="preserve">&lt;ja-JP&gt;
 ベータリリースおめでとうございます！_x000D_
 _x000D_
-贈り物を受け取るために毎日ログイン！_x000D_
-_x000D_
-追加の注意事項：改善されたチュートリアル
+ギフトを受け取るために毎日ログインしてください！_x000D_
+_x000D_
+その他の注意事項：グローバルリリースの事前協力
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11276,194 +11286,194 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 튜토리얼 개선
+추가사항: 글로벌 릴리즈를 위한 사전 작업
 &lt;/ko-KR&gt;
 </v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ms&gt;
-tahniah keluaran beta!_x000D_
+Beta melepaskan tahniah!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: tutorial lebih baik
+Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
 &lt;/ms&gt;
 </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ms-MY&gt;
-tahniah keluaran beta!_x000D_
+Beta melepaskan tahniah!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: tutorial lebih baik
+Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
 &lt;/ms-MY&gt;
 </v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;nl-NL&gt;
-gefeliciteerd Beta release!_x000D_
-_x000D_
-Meld u aan elke dag naar de gaven te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Verbeterde zelfstudie
+Beta Release Gefeliciteerd!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Pre-Working For World Release
 &lt;/nl-NL&gt;
 </v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pl-PL&gt;
-Beta gratulacje uwolnienia!_x000D_
+Gratulujemy wersji beta!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza poradnik
+Dodatkowe uwagi: Praca wstępna dla globalnego wydania
 &lt;/pl-PL&gt;
 </v>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pt-BR&gt;
-parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: Improved tutorial
+Beta Release Parabéns!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: pré-trabalhando para lançamento global
 &lt;/pt-BR&gt;
 </v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pt-PT&gt;
-parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: Improved tutorial
+Beta Release Parabéns!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: pré-trabalhando para lançamento global
 &lt;/pt-PT&gt;
 </v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ro&gt;
-Felicitări cu versiuni beta!_x000D_
-_x000D_
-Autentificare în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: Tutorial îmbunătățită
+BETA RELEASE Felicitări!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: Pre-lucrarea pentru eliberarea globală
 &lt;/ro&gt;
 </v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ru-RU&gt;
-Бета-релиз поздравления!_x000D_
-_x000D_
-Войти каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Улучшение учебник
+Бета-релиз поздравляю!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Предварительная работа для глобального выпуска
 &lt;/ru-RU&gt;
 </v>
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;sk&gt;
-gratulácie beta vydanie!_x000D_
-_x000D_
-Prihlásiť každý deň dostávať dary!_x000D_
-_x000D_
-Ďalšie poznámky: Improved tutorial
+Beta Uvoľnite Gratulujeme!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Ďalšie poznámky: Predbežná práca pre globálne vydanie
 &lt;/sk&gt;
 </v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;sv-SE&gt;
-Beta Release grattis!_x000D_
-_x000D_
-Logga in varje dag för att ta emot gåvor!_x000D_
-_x000D_
-Ytterligare anmärkningar: Förbättrad handledning
+Beta Release Grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anteckningar: Förearbetande för global release
 &lt;/sv-SE&gt;
 </v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;th&gt;
-ขอแสดงความยินดีรุ่นเบต้า!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงการกวดวิชา
+เบต้าปล่อยขอแสดงความยินดี!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: การทำงานล่วงหน้าเพื่อการเปิดตัวทั่วโลก
 &lt;/th&gt;
 </v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;tr-TR&gt;
-Beta sürümü tebrikler!_x000D_
-_x000D_
-hediye almak için her gün giriş yap!_x000D_
-_x000D_
-Ek Notlar: Geliştirilmiş öğretici
+Beta sürüm tebrikler!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek notlar: Küresel yayın için ön çalışma
 &lt;/tr-TR&gt;
 </v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;uk&gt;
-Бета-реліз привітання!_x000D_
-_x000D_
-Ввійти кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: Поліпшення підручник
+Бета-реліз Вітаю!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: попередньо працювати для глобального випуску
 &lt;/uk&gt;
 </v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;vi&gt;
-phát hành xin chúc mừng phiên bản beta!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
-_x000D_
-Ghi chú thêm: Cải thiện hướng dẫn
+Phát hành beta Xin chúc mừng!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+Ghi chú bổ sung: Làm việc trước để phát hành toàn cầu
 &lt;/vi&gt;
 </v>
       </c>
       <c r="AO4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-CN&gt;
-Beta版本的祝贺！_x000D_
-_x000D_
-每天登录收到的礼物！_x000D_
-_x000D_
-其他注意事项：改进教程
+Beta发行祝贺！_x000D_
+_x000D_
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：全球发布的预先工作
 &lt;/zh-CN&gt;
 </v>
       </c>
       <c r="AP4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-HK&gt;
-Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：改進教程
+Beta發行祝賀！_x000D_
+_x000D_
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：全球發布的預先工作
 &lt;/zh-HK&gt;
 </v>
       </c>
       <c r="AQ4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-TW&gt;
-Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：改進教程
+Beta發行祝賀！_x000D_
+_x000D_
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：全球發布的預先工作
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11474,252 +11484,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Beta release congratulations!
 Log in every day to receive the gifts!
-Additional Notes: Improved tutorial
+Additional Notes: Pre-Working for Global Release
 &lt;/en-US&gt;
 &lt;ar&gt;
-الإفراج التهاني بيتا!_x000D_
+بيتا الإفراج عن تهانينا!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: تحسين البرنامج التعليمي
+ملاحظات إضافية: ما قبل العمل للإصدار العالمي
 &lt;/ar&gt;
 &lt;be&gt;
-Бэта-рэліз віншаванні!_x000D_
+Віншуе бэта-рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя заўвагі: Паляпшэнне падручнік
+Дадатковыя нататкі: Pre-працуе для глабальнага выпуску
 &lt;/be&gt;
 &lt;bg&gt;
-поздравления бета версия!_x000D_
-_x000D_
-Влезте, за всеки ден да получава подаръци!_x000D_
-_x000D_
-Допълнителни бележки: Подобряване на урок
+Бета версия поздравления!_x000D_
+_x000D_
+Влезте всеки ден, за да получите подаръци!_x000D_
+_x000D_
+Допълнителни бележки: Предварително работещ за глобално освобождаване
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
-gratulace beta vydání!_x000D_
-_x000D_
-Přihlásit každý den dostávat dary!_x000D_
-_x000D_
-Další poznámky: Improved tutorial
+Beta vydání blahopřání!_x000D_
+_x000D_
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další poznámky: Pre-práce pro globální vydání
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
-Beta-Version Glückwunsch!_x000D_
-_x000D_
-Melden Sie sich an jedem Tag, um die Geschenke zu erhalten!_x000D_
-_x000D_
-Zusätzliche Hinweise: Verbesserte Tutorial
+Beta-Freigabe-Glückwunsch!_x000D_
+_x000D_
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzliche Hinweise: Vorarbeiten für Global Release
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
-συγχαρητήρια Beta έκδοση!_x000D_
-_x000D_
-Συνδεθείτε στο κάθε ημέρα για να λάβετε τα δώρα!_x000D_
-_x000D_
-Πρόσθετες Σημειώσεις: Βελτιωμένη φροντιστήριο
+Beta απελευθέρωση Συγχαρητήρια!_x000D_
+_x000D_
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετες σημειώσεις: Προεπιλογή για την παγκόσμια απελευθέρωση
 &lt;/el-GR&gt;
 &lt;es-419&gt;
-felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial
+¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global
 &lt;/es-419&gt;
 &lt;es-ES&gt;
-felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial
+¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global
 &lt;/es-ES&gt;
 &lt;es-US&gt;
-felicitaciones versión beta!_x000D_
-_x000D_
-Iniciar sesión cada día para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Mejora tutorial
+¡Felicitaciones de liberación beta!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Notas adicionales: Pre-trabajando para la liberación global
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
-Testiversio onnittelut!_x000D_
-_x000D_
-Kirjaudu sisään päivittäin saada lahjoja!_x000D_
-_x000D_
-Lisähuomautukset: Parempi opetusohjelma
+Beta Release Onnittelut!_x000D_
+_x000D_
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: maailmanlaajuisen julkaisun ennakointi
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
-Beta félicitations version!_x000D_
-_x000D_
-Se connecter tous les jours pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: tutoriel amélioré
+Libération bêta Félicitations!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Pré-travail pour la libération globale
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
-Beta félicitations version!_x000D_
-_x000D_
-Se connecter tous les jours pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: tutoriel amélioré
+Libération bêta Félicitations!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Notes supplémentaires: Pré-travail pour la libération globale
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Beta kiadása gratulálok!_x000D_
 _x000D_
-Jelentkezzen minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-További megjegyzések: Továbbfejlesztett bemutató
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzések: A globális kiadás előtti munka
 &lt;/hu-HU&gt;
 &lt;id&gt;
-Beta rilis selamat!_x000D_
-_x000D_
-Login setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Catatan tambahan: Peningkatan tutorial
+Beta Rilis Selamat!_x000D_
+_x000D_
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Pra-Bekerja untuk Rilis Global
 &lt;/id&gt;
 &lt;it-IT&gt;
-complimenti versione beta!_x000D_
-_x000D_
-Esegui il login ogni giorno per ricevere i doni!_x000D_
-_x000D_
-Note aggiuntive: Migliorata esercitazione
+Beta Release Congratulazioni!_x000D_
+_x000D_
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Note aggiuntive: pre-lavoro per il rilascio globale
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
-מזל טוב שחרור בטא!_x000D_
+Beta לשחרר ברכות!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: הדרכה משופרת
+הערות נוספות: עבודה מראש לשחרור גלובלי
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 ベータリリースおめでとうございます！_x000D_
 _x000D_
-贈り物を受け取るために毎日ログイン！_x000D_
-_x000D_
-追加の注意事項：改善されたチュートリアル
+ギフトを受け取るために毎日ログインしてください！_x000D_
+_x000D_
+その他の注意事項：グローバルリリースの事前協力
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 프리 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 튜토리얼 개선
+추가사항: 글로벌 릴리즈를 위한 사전 작업
 &lt;/ko-KR&gt;
 &lt;ms&gt;
-tahniah keluaran beta!_x000D_
+Beta melepaskan tahniah!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: tutorial lebih baik
+Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
 &lt;/ms&gt;
 &lt;ms-MY&gt;
-tahniah keluaran beta!_x000D_
+Beta melepaskan tahniah!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: tutorial lebih baik
+Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
-gefeliciteerd Beta release!_x000D_
-_x000D_
-Meld u aan elke dag naar de gaven te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Verbeterde zelfstudie
+Beta Release Gefeliciteerd!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Aanvullende opmerkingen: Pre-Working For World Release
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
-Beta gratulacje uwolnienia!_x000D_
+Gratulujemy wersji beta!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwagi dodatkowe: Lepsza poradnik
+Dodatkowe uwagi: Praca wstępna dla globalnego wydania
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
-parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: Improved tutorial
+Beta Release Parabéns!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: pré-trabalhando para lançamento global
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
-parabéns lançamento Beta!_x000D_
-_x000D_
-Entrar e todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: Improved tutorial
+Beta Release Parabéns!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Notas adicionais: pré-trabalhando para lançamento global
 &lt;/pt-PT&gt;
 &lt;ro&gt;
-Felicitări cu versiuni beta!_x000D_
-_x000D_
-Autentificare în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: Tutorial îmbunătățită
+BETA RELEASE Felicitări!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Note suplimentare: Pre-lucrarea pentru eliberarea globală
 &lt;/ro&gt;
 &lt;ru-RU&gt;
-Бета-релиз поздравления!_x000D_
-_x000D_
-Войти каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Улучшение учебник
+Бета-релиз поздравляю!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительные примечания: Предварительная работа для глобального выпуска
 &lt;/ru-RU&gt;
 &lt;sk&gt;
-gratulácie beta vydanie!_x000D_
-_x000D_
-Prihlásiť každý deň dostávať dary!_x000D_
-_x000D_
-Ďalšie poznámky: Improved tutorial
+Beta Uvoľnite Gratulujeme!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Ďalšie poznámky: Predbežná práca pre globálne vydanie
 &lt;/sk&gt;
 &lt;sv-SE&gt;
-Beta Release grattis!_x000D_
-_x000D_
-Logga in varje dag för att ta emot gåvor!_x000D_
-_x000D_
-Ytterligare anmärkningar: Förbättrad handledning
+Beta Release Grattis!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anteckningar: Förearbetande för global release
 &lt;/sv-SE&gt;
 &lt;th&gt;
-ขอแสดงความยินดีรุ่นเบต้า!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันจะได้รับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงการกวดวิชา
+เบต้าปล่อยขอแสดงความยินดี!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: การทำงานล่วงหน้าเพื่อการเปิดตัวทั่วโลก
 &lt;/th&gt;
 &lt;tr-TR&gt;
-Beta sürümü tebrikler!_x000D_
-_x000D_
-hediye almak için her gün giriş yap!_x000D_
-_x000D_
-Ek Notlar: Geliştirilmiş öğretici
+Beta sürüm tebrikler!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek notlar: Küresel yayın için ön çalışma
 &lt;/tr-TR&gt;
 &lt;uk&gt;
-Бета-реліз привітання!_x000D_
-_x000D_
-Ввійти кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: Поліпшення підручник
+Бета-реліз Вітаю!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткові примітки: попередньо працювати для глобального випуску
 &lt;/uk&gt;
 &lt;vi&gt;
-phát hành xin chúc mừng phiên bản beta!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận được những món quà!_x000D_
-_x000D_
-Ghi chú thêm: Cải thiện hướng dẫn
+Phát hành beta Xin chúc mừng!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+Ghi chú bổ sung: Làm việc trước để phát hành toàn cầu
 &lt;/vi&gt;
 &lt;zh-CN&gt;
-Beta版本的祝贺！_x000D_
-_x000D_
-每天登录收到的礼物！_x000D_
-_x000D_
-其他注意事项：改进教程
+Beta发行祝贺！_x000D_
+_x000D_
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：全球发布的预先工作
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
-Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：改進教程
+Beta發行祝賀！_x000D_
+_x000D_
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：全球發布的預先工作
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
-Beta版本的祝賀！_x000D_
-_x000D_
-每天登錄收到的禮物！_x000D_
-_x000D_
-其他注意事項：改進教程
+Beta發行祝賀！_x000D_
+_x000D_
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：全球發布的預先工作
 &lt;/zh-TW&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EA047-5395-46D4-A308-2B7D7086DAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B35C98-2D16-4605-8F73-5C61F88A1004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="301">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,9 +1037,6 @@
     <t>Equip8101</t>
   </si>
   <si>
-    <t>Equip8001</t>
-  </si>
-  <si>
     <t>Equip5101</t>
   </si>
   <si>
@@ -1130,182 +1127,89 @@
     <t>Equip5301</t>
   </si>
   <si>
-    <t>프리 오픈 경축!_x000D_
+    <t>글로벌 오픈 경축!_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 글로벌 릴리즈를 위한 사전 작업</t>
+매일 매일 접속하여 런칭 선물을 받아가세요!</t>
+  </si>
+  <si>
+    <t>글로벌 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Beta release congratulations!
-Log in every day to receive the gifts!
-Additional Notes: Pre-Working for Global Release</t>
+    <t>Celebrate the global release!
+Log in every day to receive the gifts!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>بيتا الإفراج عن تهانينا!_x000D_
+    <t>احتفل بالإفراج العالمي!_x000D_
 _x000D_
-تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+تسجيل الدخول كل يوم لتلقي الهدايا!</t>
+  </si>
+  <si>
+    <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
-ملاحظات إضافية: ما قبل العمل للإصدار العالمي</t>
-  </si>
-  <si>
-    <t>Віншуе бэта-рэліз!_x000D_
+Увайсці кожны дзень, каб атрымаць падарункі!</t>
+  </si>
+  <si>
+    <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
-Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+Влезте всеки ден, за да получите подаръци!</t>
+  </si>
+  <si>
+    <t>Oslavte globální vydání!_x000D_
 _x000D_
-Дадатковыя нататкі: Pre-працуе для глабальнага выпуску</t>
-  </si>
-  <si>
-    <t>Бета версия поздравления!_x000D_
+Přihlaste se každý den, abyste obdrželi dárky!</t>
+  </si>
+  <si>
+    <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
-Влезте всеки ден, за да получите подаръци!_x000D_
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!</t>
+  </si>
+  <si>
+    <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
-Допълнителни бележки: Предварително работещ за глобално освобождаване</t>
-  </si>
-  <si>
-    <t>Beta vydání blahopřání!_x000D_
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!</t>
+  </si>
+  <si>
+    <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
-Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+¡Inicia sesión todos los días para recibir los regalos!</t>
+  </si>
+  <si>
+    <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
-Další poznámky: Pre-práce pro globální vydání</t>
-  </si>
-  <si>
-    <t>Beta-Freigabe-Glückwunsch!_x000D_
+Kirjaudu päivittäin saadaksesi lahjoja!</t>
+  </si>
+  <si>
+    <t>Célébrez la version globale!_x000D_
 _x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!</t>
+  </si>
+  <si>
+    <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
-Zusätzliche Hinweise: Vorarbeiten für Global Release</t>
-  </si>
-  <si>
-    <t>Beta απελευθέρωση Συγχαρητήρια!_x000D_
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!</t>
+  </si>
+  <si>
+    <t>Rayakan rilis global!_x000D_
 _x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+Masuk setiap hari untuk menerima hadiah!</t>
+  </si>
+  <si>
+    <t>Festeggia la versione globale!_x000D_
 _x000D_
-Πρόσθετες σημειώσεις: Προεπιλογή για την παγκόσμια απελευθέρωση</t>
-  </si>
-  <si>
-    <t>¡Felicitaciones de liberación beta!_x000D_
+Accedi ogni giorno per ricevere i regali!</t>
+  </si>
+  <si>
+    <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global</t>
-  </si>
-  <si>
-    <t>Beta Release Onnittelut!_x000D_
-_x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
-_x000D_
-Muita huomautuksia: maailmanlaajuisen julkaisun ennakointi</t>
-  </si>
-  <si>
-    <t>Libération bêta Félicitations!_x000D_
-_x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: Pré-travail pour la libération globale</t>
-  </si>
-  <si>
-    <t>Beta kiadása gratulálok!_x000D_
-_x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-Kiegészítő megjegyzések: A globális kiadás előtti munka</t>
-  </si>
-  <si>
-    <t>Beta Rilis Selamat!_x000D_
-_x000D_
-Masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Catatan Tambahan: Pra-Bekerja untuk Rilis Global</t>
-  </si>
-  <si>
-    <t>Beta Release Congratulazioni!_x000D_
-_x000D_
-Accedi ogni giorno per ricevere i regali!_x000D_
-_x000D_
-Note aggiuntive: pre-lavoro per il rilascio globale</t>
-  </si>
-  <si>
-    <t>Beta לשחרר ברכות!_x000D_
-_x000D_
-התחבר כל יום כדי לקבל את המתנות!_x000D_
-_x000D_
-הערות נוספות: עבודה מראש לשחרור גלובלי</t>
+התחבר כל יום כדי לקבל את המתנות!</t>
   </si>
   <si>
     <r>
-      <t>ベ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>タリリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>スおめでとうございます！_x000D_
-_x000D_
-ギフトを受け取るために</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>毎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日ログインしてください！_x000D_
-_x000D_
-その他の注意事項：グロ</t>
+      <t>グロ</t>
     </r>
     <r>
       <rPr>
@@ -1349,110 +1253,20 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>スの事前協力</t>
-    </r>
-  </si>
-  <si>
-    <t>프리 오픈 경축!_x000D_
+      <t>スを祝いましょう！_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
-_x000D_
-추가사항: 글로벌 릴리즈를 위한 사전 작업</t>
-  </si>
-  <si>
-    <t>Beta melepaskan tahniah!_x000D_
-_x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota Tambahan: Pra-Bekerja untuk Pelepasan Global</t>
-  </si>
-  <si>
-    <t>Beta Release Gefeliciteerd!_x000D_
-_x000D_
-Log in elke dag om de geschenken te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Pre-Working For World Release</t>
-  </si>
-  <si>
-    <t>Gratulujemy wersji beta!_x000D_
-_x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Dodatkowe uwagi: Praca wstępna dla globalnego wydania</t>
-  </si>
-  <si>
-    <t>Beta Release Parabéns!_x000D_
-_x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: pré-trabalhando para lançamento global</t>
-  </si>
-  <si>
-    <t>BETA RELEASE Felicitări!_x000D_
-_x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: Pre-lucrarea pentru eliberarea globală</t>
-  </si>
-  <si>
-    <t>Бета-релиз поздравляю!_x000D_
-_x000D_
-Войдите каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Предварительная работа для глобального выпуска</t>
-  </si>
-  <si>
-    <t>Beta Uvoľnite Gratulujeme!_x000D_
-_x000D_
-Prihláste sa každý deň, aby ste dostali dary!_x000D_
-_x000D_
-Ďalšie poznámky: Predbežná práca pre globálne vydanie</t>
-  </si>
-  <si>
-    <t>Beta Release Grattis!_x000D_
-_x000D_
-Logga in varje dag för att ta emot presenterna!_x000D_
-_x000D_
-Ytterligare anteckningar: Förearbetande för global release</t>
-  </si>
-  <si>
-    <t>เบต้าปล่อยขอแสดงความยินดี!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: การทำงานล่วงหน้าเพื่อการเปิดตัวทั่วโลก</t>
-  </si>
-  <si>
-    <t>Beta sürüm tebrikler!_x000D_
-_x000D_
-Hediyeleri almak için her gün giriş yapın!_x000D_
-_x000D_
-Ek notlar: Küresel yayın için ön çalışma</t>
-  </si>
-  <si>
-    <t>Бета-реліз Вітаю!_x000D_
-_x000D_
-Увійдіть кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: попередньо працювати для глобального випуску</t>
-  </si>
-  <si>
-    <r>
-      <t>Phát hành beta Xin chúc mừng!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
-_x000D_
-Ghi chú bổ sung: Làm việc tr</t>
+ギフトを受け取るために</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ư</t>
+      <t>毎</t>
     </r>
     <r>
       <rPr>
@@ -1463,12 +1277,83 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ớc để phát hành toàn cầu</t>
+      <t>日ログインしてください！</t>
     </r>
   </si>
   <si>
+    <t>Rayakan pelepasan global!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!</t>
+  </si>
+  <si>
+    <t>Vier de wereldwijde release!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!</t>
+  </si>
+  <si>
+    <t>Świętuj globalne wydanie!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!</t>
+  </si>
+  <si>
+    <t>Comemore a liberação global!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!</t>
+  </si>
+  <si>
+    <t>Sărbătoriți lansarea globală!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!</t>
+  </si>
+  <si>
+    <t>Отпразднуйте глобальный выпуск!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!</t>
+  </si>
+  <si>
+    <t>Oslávte globálne vydanie!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!</t>
+  </si>
+  <si>
+    <t>Fira den globala utgåvan!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!</t>
+  </si>
+  <si>
+    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!</t>
+  </si>
+  <si>
+    <t>Küresel yayınları kutlayın!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!</t>
+  </si>
+  <si>
+    <t>Святкуйте глобальний випуск!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!</t>
+  </si>
+  <si>
+    <t>Kỷ niệm phát hành toàn cầu!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!</t>
+  </si>
+  <si>
     <r>
-      <t>Beta</t>
+      <t>庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>祝全球</t>
     </r>
     <r>
       <rPr>
@@ -1479,7 +1364,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发</t>
+      <t>释</t>
     </r>
     <r>
       <rPr>
@@ -1490,29 +1375,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>行祝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>贺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！_x000D_
+      <t>放！_x000D_
 _x000D_
 每天登</t>
     </r>
@@ -1558,83 +1421,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品！_x000D_
+      <t>物！</t>
+    </r>
+  </si>
+  <si>
+    <t>慶祝全球釋放！_x000D_
 _x000D_
-附加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明：全球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>布的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>预</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>先工作</t>
-    </r>
-  </si>
-  <si>
-    <t>Beta發行祝賀！_x000D_
-_x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：全球發布的預先工作</t>
+每天登錄才能收到禮品！</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,6 +1520,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3630,9 +3426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6191,16 +5987,16 @@
         <v>106</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H135">
-        <v>8500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -6287,7 +6083,7 @@
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6296,7 +6092,7 @@
         <v>96</v>
       </c>
       <c r="H139">
-        <v>5400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -6311,7 +6107,7 @@
         <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6320,7 +6116,7 @@
         <v>96</v>
       </c>
       <c r="H140">
-        <v>8100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -6335,16 +6131,16 @@
         <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -6395,7 +6191,7 @@
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6563,7 +6359,7 @@
         <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6623,7 +6419,7 @@
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6647,7 +6443,7 @@
         <v>106</v>
       </c>
       <c r="D159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -6767,7 +6563,7 @@
         <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -6791,7 +6587,7 @@
         <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -6971,7 +6767,7 @@
         <v>106</v>
       </c>
       <c r="D175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -6995,7 +6791,7 @@
         <v>106</v>
       </c>
       <c r="D176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7019,7 +6815,7 @@
         <v>106</v>
       </c>
       <c r="D177" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7079,7 +6875,7 @@
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7103,7 +6899,7 @@
         <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7247,7 +7043,7 @@
         <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7307,7 +7103,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7331,7 +7127,7 @@
         <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7427,7 +7223,7 @@
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7451,7 +7247,7 @@
         <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -7559,7 +7355,7 @@
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -7655,7 +7451,7 @@
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -7703,7 +7499,7 @@
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7883,7 +7679,7 @@
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -7907,7 +7703,7 @@
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -7931,7 +7727,7 @@
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -7991,7 +7787,7 @@
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8387,7 +8183,7 @@
         <v>106</v>
       </c>
       <c r="D249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -8675,7 +8471,7 @@
         <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -8699,7 +8495,7 @@
         <v>106</v>
       </c>
       <c r="D267" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -8819,7 +8615,7 @@
         <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -8843,7 +8639,7 @@
         <v>106</v>
       </c>
       <c r="D273" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -8927,7 +8723,7 @@
         <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9023,7 +8819,7 @@
         <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9047,7 +8843,7 @@
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9131,7 +8927,7 @@
         <v>106</v>
       </c>
       <c r="D290" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9155,7 +8951,7 @@
         <v>106</v>
       </c>
       <c r="D291" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -9275,7 +9071,7 @@
         <v>106</v>
       </c>
       <c r="D296" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9383,7 +9179,7 @@
         <v>106</v>
       </c>
       <c r="D303" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -9527,7 +9323,7 @@
         <v>106</v>
       </c>
       <c r="D309" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -9611,7 +9407,7 @@
         <v>106</v>
       </c>
       <c r="D315" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -9731,7 +9527,7 @@
         <v>106</v>
       </c>
       <c r="D320" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -9755,7 +9551,7 @@
         <v>106</v>
       </c>
       <c r="D321" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -9839,7 +9635,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -9959,7 +9755,7 @@
         <v>106</v>
       </c>
       <c r="D332" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -9983,7 +9779,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10043,7 +9839,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10163,7 +9959,7 @@
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10187,7 +9983,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10295,7 +10091,7 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -10439,7 +10235,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10499,7 +10295,7 @@
         <v>106</v>
       </c>
       <c r="D362" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -10523,7 +10319,7 @@
         <v>106</v>
       </c>
       <c r="D363" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -10667,7 +10463,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -10726,7 +10522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -11022,58 +10818,58 @@
         <v>286</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -11083,9 +10879,8 @@
 &lt;/"&amp;H1&amp;"&gt;
 "</f>
         <v xml:space="preserve">&lt;en-US&gt;
-Beta release congratulations!
+Celebrate the global release!
 Log in every day to receive the gifts!
-Additional Notes: Pre-Working for Global Release
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11095,385 +10890,315 @@
 &lt;/"&amp;I1&amp;"&gt;
 "</f>
         <v xml:space="preserve">&lt;ar&gt;
-بيتا الإفراج عن تهانينا!_x000D_
+احتفل بالإفراج العالمي!_x000D_
 _x000D_
-تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
-_x000D_
-ملاحظات إضافية: ما قبل العمل للإصدار العالمي
+تسجيل الدخول كل يوم لتلقي الهدايا!
 &lt;/ar&gt;
 </v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;be&gt;
-Віншуе бэта-рэліз!_x000D_
+Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
-Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
-_x000D_
-Дадатковыя нататкі: Pre-працуе для глабальнага выпуску
+Увайсці кожны дзень, каб атрымаць падарункі!
 &lt;/be&gt;
 </v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;bg&gt;
-Бета версия поздравления!_x000D_
+Празнувайте глобалното освобождаване!_x000D_
 _x000D_
-Влезте всеки ден, за да получите подаръци!_x000D_
-_x000D_
-Допълнителни бележки: Предварително работещ за глобално освобождаване
+Влезте всеки ден, за да получите подаръци!
 &lt;/bg&gt;
 </v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;cs-CZ&gt;
-Beta vydání blahopřání!_x000D_
+Oslavte globální vydání!_x000D_
 _x000D_
-Přihlaste se každý den, abyste obdrželi dárky!_x000D_
-_x000D_
-Další poznámky: Pre-práce pro globální vydání
+Přihlaste se každý den, abyste obdrželi dárky!
 &lt;/cs-CZ&gt;
 </v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;de-DE&gt;
-Beta-Freigabe-Glückwunsch!_x000D_
+Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
-_x000D_
-Zusätzliche Hinweise: Vorarbeiten für Global Release
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!
 &lt;/de-DE&gt;
 </v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;el-GR&gt;
-Beta απελευθέρωση Συγχαρητήρια!_x000D_
+Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
-_x000D_
-Πρόσθετες σημειώσεις: Προεπιλογή για την παγκόσμια απελευθέρωση
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!
 &lt;/el-GR&gt;
 </v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;es-419&gt;
-¡Felicitaciones de liberación beta!_x000D_
+¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global
+¡Inicia sesión todos los días para recibir los regalos!
 &lt;/es-419&gt;
 </v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;es-ES&gt;
-¡Felicitaciones de liberación beta!_x000D_
+¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global
+¡Inicia sesión todos los días para recibir los regalos!
 &lt;/es-ES&gt;
 </v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;es-US&gt;
-¡Felicitaciones de liberación beta!_x000D_
+¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global
+¡Inicia sesión todos los días para recibir los regalos!
 &lt;/es-US&gt;
 </v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;fi-FI&gt;
-Beta Release Onnittelut!_x000D_
+Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
-_x000D_
-Muita huomautuksia: maailmanlaajuisen julkaisun ennakointi
+Kirjaudu päivittäin saadaksesi lahjoja!
 &lt;/fi-FI&gt;
 </v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;fr-CA&gt;
-Libération bêta Félicitations!_x000D_
+Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: Pré-travail pour la libération globale
+Connectez-vous chaque jour pour recevoir les cadeaux!
 &lt;/fr-CA&gt;
 </v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;fr-FR&gt;
-Libération bêta Félicitations!_x000D_
+Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: Pré-travail pour la libération globale
+Connectez-vous chaque jour pour recevoir les cadeaux!
 &lt;/fr-FR&gt;
 </v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;hu-HU&gt;
-Beta kiadása gratulálok!_x000D_
+Ünnepelje a globális kiadást!_x000D_
 _x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-Kiegészítő megjegyzések: A globális kiadás előtti munka
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!
 &lt;/hu-HU&gt;
 </v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;id&gt;
-Beta Rilis Selamat!_x000D_
+Rayakan rilis global!_x000D_
 _x000D_
-Masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Catatan Tambahan: Pra-Bekerja untuk Rilis Global
+Masuk setiap hari untuk menerima hadiah!
 &lt;/id&gt;
 </v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;it-IT&gt;
-Beta Release Congratulazioni!_x000D_
+Festeggia la versione globale!_x000D_
 _x000D_
-Accedi ogni giorno per ricevere i regali!_x000D_
-_x000D_
-Note aggiuntive: pre-lavoro per il rilascio globale
+Accedi ogni giorno per ricevere i regali!
 &lt;/it-IT&gt;
 </v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;iw-IL&gt;
-Beta לשחרר ברכות!_x000D_
+לחגוג את המהדורה העולמית!_x000D_
 _x000D_
-התחבר כל יום כדי לקבל את המתנות!_x000D_
-_x000D_
-הערות נוספות: עבודה מראש לשחרור גלובלי
+התחבר כל יום כדי לקבל את המתנות!
 &lt;/iw-IL&gt;
 </v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ja-JP&gt;
-ベータリリースおめでとうございます！_x000D_
+グローバルリリースを祝いましょう！_x000D_
 _x000D_
-ギフトを受け取るために毎日ログインしてください！_x000D_
-_x000D_
-その他の注意事項：グローバルリリースの事前協力
+ギフトを受け取るために毎日ログインしてください！
 &lt;/ja-JP&gt;
 </v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ko-KR&gt;
-프리 오픈 경축!_x000D_
+글로벌 오픈 경축!_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
-_x000D_
-추가사항: 글로벌 릴리즈를 위한 사전 작업
+매일 매일 접속하여 런칭 선물을 받아가세요!
 &lt;/ko-KR&gt;
 </v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ms&gt;
-Beta melepaskan tahniah!_x000D_
+Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
+Log masuk setiap hari untuk menerima hadiah!
 &lt;/ms&gt;
 </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ms-MY&gt;
-Beta melepaskan tahniah!_x000D_
+Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
+Log masuk setiap hari untuk menerima hadiah!
 &lt;/ms-MY&gt;
 </v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;nl-NL&gt;
-Beta Release Gefeliciteerd!_x000D_
+Vier de wereldwijde release!_x000D_
 _x000D_
-Log in elke dag om de geschenken te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Pre-Working For World Release
+Log in elke dag om de geschenken te ontvangen!
 &lt;/nl-NL&gt;
 </v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pl-PL&gt;
-Gratulujemy wersji beta!_x000D_
+Świętuj globalne wydanie!_x000D_
 _x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Dodatkowe uwagi: Praca wstępna dla globalnego wydania
+Zaloguj się każdego dnia, aby otrzymać prezenty!
 &lt;/pl-PL&gt;
 </v>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pt-BR&gt;
-Beta Release Parabéns!_x000D_
+Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: pré-trabalhando para lançamento global
+Faça o login todos os dias para receber os presentes!
 &lt;/pt-BR&gt;
 </v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;pt-PT&gt;
-Beta Release Parabéns!_x000D_
+Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: pré-trabalhando para lançamento global
+Faça o login todos os dias para receber os presentes!
 &lt;/pt-PT&gt;
 </v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ro&gt;
-BETA RELEASE Felicitări!_x000D_
+Sărbătoriți lansarea globală!_x000D_
 _x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: Pre-lucrarea pentru eliberarea globală
+Conectați-vă în fiecare zi pentru a primi cadouri!
 &lt;/ro&gt;
 </v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;ru-RU&gt;
-Бета-релиз поздравляю!_x000D_
+Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
-Войдите каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Предварительная работа для глобального выпуска
+Войдите каждый день, чтобы получить подарки!
 &lt;/ru-RU&gt;
 </v>
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;sk&gt;
-Beta Uvoľnite Gratulujeme!_x000D_
+Oslávte globálne vydanie!_x000D_
 _x000D_
-Prihláste sa každý deň, aby ste dostali dary!_x000D_
-_x000D_
-Ďalšie poznámky: Predbežná práca pre globálne vydanie
+Prihláste sa každý deň, aby ste dostali dary!
 &lt;/sk&gt;
 </v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;sv-SE&gt;
-Beta Release Grattis!_x000D_
+Fira den globala utgåvan!_x000D_
 _x000D_
-Logga in varje dag för att ta emot presenterna!_x000D_
-_x000D_
-Ytterligare anteckningar: Förearbetande för global release
+Logga in varje dag för att ta emot presenterna!
 &lt;/sv-SE&gt;
 </v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;th&gt;
-เบต้าปล่อยขอแสดงความยินดี!_x000D_
+เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: การทำงานล่วงหน้าเพื่อการเปิดตัวทั่วโลก
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!
 &lt;/th&gt;
 </v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;tr-TR&gt;
-Beta sürüm tebrikler!_x000D_
+Küresel yayınları kutlayın!_x000D_
 _x000D_
-Hediyeleri almak için her gün giriş yapın!_x000D_
-_x000D_
-Ek notlar: Küresel yayın için ön çalışma
+Hediyeleri almak için her gün giriş yapın!
 &lt;/tr-TR&gt;
 </v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;uk&gt;
-Бета-реліз Вітаю!_x000D_
+Святкуйте глобальний випуск!_x000D_
 _x000D_
-Увійдіть кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: попередньо працювати для глобального випуску
+Увійдіть кожен день, щоб отримати подарунки!
 &lt;/uk&gt;
 </v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;vi&gt;
-Phát hành beta Xin chúc mừng!_x000D_
+Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
-_x000D_
-Ghi chú bổ sung: Làm việc trước để phát hành toàn cầu
+Đăng nhập mỗi ngày để nhận quà tặng!
 &lt;/vi&gt;
 </v>
       </c>
       <c r="AO4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-CN&gt;
-Beta发行祝贺！_x000D_
+庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：全球发布的预先工作
+每天登录才能收到礼物！
 &lt;/zh-CN&gt;
 </v>
       </c>
       <c r="AP4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-HK&gt;
-Beta發行祝賀！_x000D_
+慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：全球發布的預先工作
+每天登錄才能收到禮品！
 &lt;/zh-HK&gt;
 </v>
       </c>
       <c r="AQ4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">&lt;zh-TW&gt;
-Beta發行祝賀！_x000D_
+慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：全球發布的預先工作
+每天登錄才能收到禮品！
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11482,254 +11207,183 @@
       <c r="H6" t="str">
         <f>CONCATENATE(H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4,AD4,AE4,AF4,AG4,AH4,AI4,AJ4,AK4,AL4,AM4,AN4,AO4,AP4,AQ4)</f>
         <v xml:space="preserve">&lt;en-US&gt;
-Beta release congratulations!
+Celebrate the global release!
 Log in every day to receive the gifts!
-Additional Notes: Pre-Working for Global Release
 &lt;/en-US&gt;
 &lt;ar&gt;
-بيتا الإفراج عن تهانينا!_x000D_
+احتفل بالإفراج العالمي!_x000D_
 _x000D_
-تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
-_x000D_
-ملاحظات إضافية: ما قبل العمل للإصدار العالمي
+تسجيل الدخول كل يوم لتلقي الهدايا!
 &lt;/ar&gt;
 &lt;be&gt;
-Віншуе бэта-рэліз!_x000D_
+Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
-Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
-_x000D_
-Дадатковыя нататкі: Pre-працуе для глабальнага выпуску
+Увайсці кожны дзень, каб атрымаць падарункі!
 &lt;/be&gt;
 &lt;bg&gt;
-Бета версия поздравления!_x000D_
+Празнувайте глобалното освобождаване!_x000D_
 _x000D_
-Влезте всеки ден, за да получите подаръци!_x000D_
-_x000D_
-Допълнителни бележки: Предварително работещ за глобално освобождаване
+Влезте всеки ден, за да получите подаръци!
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
-Beta vydání blahopřání!_x000D_
+Oslavte globální vydání!_x000D_
 _x000D_
-Přihlaste se každý den, abyste obdrželi dárky!_x000D_
-_x000D_
-Další poznámky: Pre-práce pro globální vydání
+Přihlaste se každý den, abyste obdrželi dárky!
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
-Beta-Freigabe-Glückwunsch!_x000D_
+Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
-_x000D_
-Zusätzliche Hinweise: Vorarbeiten für Global Release
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
-Beta απελευθέρωση Συγχαρητήρια!_x000D_
+Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
-_x000D_
-Πρόσθετες σημειώσεις: Προεπιλογή για την παγκόσμια απελευθέρωση
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!
 &lt;/el-GR&gt;
 &lt;es-419&gt;
-¡Felicitaciones de liberación beta!_x000D_
+¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global
+¡Inicia sesión todos los días para recibir los regalos!
 &lt;/es-419&gt;
 &lt;es-ES&gt;
-¡Felicitaciones de liberación beta!_x000D_
+¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global
+¡Inicia sesión todos los días para recibir los regalos!
 &lt;/es-ES&gt;
 &lt;es-US&gt;
-¡Felicitaciones de liberación beta!_x000D_
+¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Notas adicionales: Pre-trabajando para la liberación global
+¡Inicia sesión todos los días para recibir los regalos!
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
-Beta Release Onnittelut!_x000D_
+Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
-_x000D_
-Muita huomautuksia: maailmanlaajuisen julkaisun ennakointi
+Kirjaudu päivittäin saadaksesi lahjoja!
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
-Libération bêta Félicitations!_x000D_
+Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: Pré-travail pour la libération globale
+Connectez-vous chaque jour pour recevoir les cadeaux!
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
-Libération bêta Félicitations!_x000D_
+Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Notes supplémentaires: Pré-travail pour la libération globale
+Connectez-vous chaque jour pour recevoir les cadeaux!
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
-Beta kiadása gratulálok!_x000D_
+Ünnepelje a globális kiadást!_x000D_
 _x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-Kiegészítő megjegyzések: A globális kiadás előtti munka
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!
 &lt;/hu-HU&gt;
 &lt;id&gt;
-Beta Rilis Selamat!_x000D_
+Rayakan rilis global!_x000D_
 _x000D_
-Masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Catatan Tambahan: Pra-Bekerja untuk Rilis Global
+Masuk setiap hari untuk menerima hadiah!
 &lt;/id&gt;
 &lt;it-IT&gt;
-Beta Release Congratulazioni!_x000D_
+Festeggia la versione globale!_x000D_
 _x000D_
-Accedi ogni giorno per ricevere i regali!_x000D_
-_x000D_
-Note aggiuntive: pre-lavoro per il rilascio globale
+Accedi ogni giorno per ricevere i regali!
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
-Beta לשחרר ברכות!_x000D_
+לחגוג את המהדורה העולמית!_x000D_
 _x000D_
-התחבר כל יום כדי לקבל את המתנות!_x000D_
-_x000D_
-הערות נוספות: עבודה מראש לשחרור גלובלי
+התחבר כל יום כדי לקבל את המתנות!
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
-ベータリリースおめでとうございます！_x000D_
+グローバルリリースを祝いましょう！_x000D_
 _x000D_
-ギフトを受け取るために毎日ログインしてください！_x000D_
-_x000D_
-その他の注意事項：グローバルリリースの事前協力
+ギフトを受け取るために毎日ログインしてください！
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
-프리 오픈 경축!_x000D_
+글로벌 오픈 경축!_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
-_x000D_
-추가사항: 글로벌 릴리즈를 위한 사전 작업
+매일 매일 접속하여 런칭 선물을 받아가세요!
 &lt;/ko-KR&gt;
 &lt;ms&gt;
-Beta melepaskan tahniah!_x000D_
+Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
+Log masuk setiap hari untuk menerima hadiah!
 &lt;/ms&gt;
 &lt;ms-MY&gt;
-Beta melepaskan tahniah!_x000D_
+Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota Tambahan: Pra-Bekerja untuk Pelepasan Global
+Log masuk setiap hari untuk menerima hadiah!
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
-Beta Release Gefeliciteerd!_x000D_
+Vier de wereldwijde release!_x000D_
 _x000D_
-Log in elke dag om de geschenken te ontvangen!_x000D_
-_x000D_
-Aanvullende opmerkingen: Pre-Working For World Release
+Log in elke dag om de geschenken te ontvangen!
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
-Gratulujemy wersji beta!_x000D_
+Świętuj globalne wydanie!_x000D_
 _x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Dodatkowe uwagi: Praca wstępna dla globalnego wydania
+Zaloguj się każdego dnia, aby otrzymać prezenty!
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
-Beta Release Parabéns!_x000D_
+Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: pré-trabalhando para lançamento global
+Faça o login todos os dias para receber os presentes!
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
-Beta Release Parabéns!_x000D_
+Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Notas adicionais: pré-trabalhando para lançamento global
+Faça o login todos os dias para receber os presentes!
 &lt;/pt-PT&gt;
 &lt;ro&gt;
-BETA RELEASE Felicitări!_x000D_
+Sărbătoriți lansarea globală!_x000D_
 _x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Note suplimentare: Pre-lucrarea pentru eliberarea globală
+Conectați-vă în fiecare zi pentru a primi cadouri!
 &lt;/ro&gt;
 &lt;ru-RU&gt;
-Бета-релиз поздравляю!_x000D_
+Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
-Войдите каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительные примечания: Предварительная работа для глобального выпуска
+Войдите каждый день, чтобы получить подарки!
 &lt;/ru-RU&gt;
 &lt;sk&gt;
-Beta Uvoľnite Gratulujeme!_x000D_
+Oslávte globálne vydanie!_x000D_
 _x000D_
-Prihláste sa každý deň, aby ste dostali dary!_x000D_
-_x000D_
-Ďalšie poznámky: Predbežná práca pre globálne vydanie
+Prihláste sa každý deň, aby ste dostali dary!
 &lt;/sk&gt;
 &lt;sv-SE&gt;
-Beta Release Grattis!_x000D_
+Fira den globala utgåvan!_x000D_
 _x000D_
-Logga in varje dag för att ta emot presenterna!_x000D_
-_x000D_
-Ytterligare anteckningar: Förearbetande för global release
+Logga in varje dag för att ta emot presenterna!
 &lt;/sv-SE&gt;
 &lt;th&gt;
-เบต้าปล่อยขอแสดงความยินดี!_x000D_
+เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: การทำงานล่วงหน้าเพื่อการเปิดตัวทั่วโลก
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!
 &lt;/th&gt;
 &lt;tr-TR&gt;
-Beta sürüm tebrikler!_x000D_
+Küresel yayınları kutlayın!_x000D_
 _x000D_
-Hediyeleri almak için her gün giriş yapın!_x000D_
-_x000D_
-Ek notlar: Küresel yayın için ön çalışma
+Hediyeleri almak için her gün giriş yapın!
 &lt;/tr-TR&gt;
 &lt;uk&gt;
-Бета-реліз Вітаю!_x000D_
+Святкуйте глобальний випуск!_x000D_
 _x000D_
-Увійдіть кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткові примітки: попередньо працювати для глобального випуску
+Увійдіть кожен день, щоб отримати подарунки!
 &lt;/uk&gt;
 &lt;vi&gt;
-Phát hành beta Xin chúc mừng!_x000D_
+Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
-_x000D_
-Ghi chú bổ sung: Làm việc trước để phát hành toàn cầu
+Đăng nhập mỗi ngày để nhận quà tặng!
 &lt;/vi&gt;
 &lt;zh-CN&gt;
-Beta发行祝贺！_x000D_
+庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：全球发布的预先工作
+每天登录才能收到礼物！
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
-Beta發行祝賀！_x000D_
+慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：全球發布的預先工作
+每天登錄才能收到禮品！
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
-Beta發行祝賀！_x000D_
+慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：全球發布的預先工作
+每天登錄才能收到禮品！
 &lt;/zh-TW&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B35C98-2D16-4605-8F73-5C61F88A1004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9246F-497A-454B-9C1E-24522DD7283F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="302">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1129,83 +1129,393 @@
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!</t>
-  </si>
-  <si>
-    <t>글로벌 오픈 경축!_x000D_
-_x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!</t>
+매일 매일 접속하여 런칭 선물을 받아가세요!
+추가사항: 로그인 보상 대폭 향상
+추가사항2: 부활 피쳐 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
-Log in every day to receive the gifts!</t>
+Log in every day to receive the gifts!
+Additional note: Significantly improved login rewards
+Additional note 2: Added resurrection feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>احتفل بالإفراج العالمي!_x000D_
 _x000D_
-تسجيل الدخول كل يوم لتلقي الهدايا!</t>
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظة إضافية: محسنة بشكل ملحوظ مكافآت تسجيل الدخول_x000D_
+ملاحظة إضافية 2: ميزة القيامة المضافة</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
-Увайсці кожны дзень, каб атрымаць падарункі!</t>
+Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+_x000D_
+Дадатковая Заўвага: Значна палепшаная Узнагароды Увайсці_x000D_
+Дадатковая Заўвага 2: Дададзеная Уваскрэсенне Функцыя</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
-Влезте всеки ден, за да получите подаръци!</t>
+Влезте всеки ден, за да получите подаръци!_x000D_
+_x000D_
+Допълнителна забележка: Значително подобрени награди за вход_x000D_
+Допълнителна забележка 2: Добавена функция за възкресение</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
-Přihlaste se každý den, abyste obdrželi dárky!</t>
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další poznámka: výrazně zlepšené přihlašovací odměny_x000D_
+Další poznámka 2: Přidána funkce vzkříšení</t>
+  </si>
+  <si>
+    <t>¡Celebra el lanzamiento global!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida</t>
+  </si>
+  <si>
+    <t>Rayakan rilis global!_x000D_
+_x000D_
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Hadiah Login yang ditingkatkan secara signifikan_x000D_
+Catatan Tambahan 2: Menambahkan fitur kebangkitan</t>
+  </si>
+  <si>
+    <t>Festeggia la versione globale!_x000D_
+_x000D_
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Nota aggiuntiva: premi di accesso significativamente migliorati_x000D_
+Nota aggiuntiva 2: funzione di resurrezione aggiunta</t>
+  </si>
+  <si>
+    <t>לחגוג את המהדורה העולמית!_x000D_
+_x000D_
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערה נוספת: פרסים משופרים משמעותית_x000D_
+הערה נוספת 2: תכונת תחיית המתים נוספת</t>
+  </si>
+  <si>
+    <t>Rayakan pelepasan global!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
+Nota tambahan 2: Menambah ciri Kebangkitan</t>
+  </si>
+  <si>
+    <t>Comemore a liberação global!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Recompensas de login significativamente melhoradas_x000D_
+Nota adicional 2: recurso de ressurreição adicionado</t>
+  </si>
+  <si>
+    <t>Sărbătoriți lansarea globală!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Notă suplimentară: Îmbunătățirea semnificativă a recompenselor de conectare_x000D_
+Notă suplimentară 2: Funcția de înviere adăugată</t>
+  </si>
+  <si>
+    <t>Отпразднуйте глобальный выпуск!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительное примечание: значительно улучшенные награды входа в систему_x000D_
+Дополнительное примечание 2: добавленная функция воскресения</t>
+  </si>
+  <si>
+    <t>Fira den globala utgåvan!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anmärkning: Betydande förbättrade inloggningsbelöningar_x000D_
+Ytterligare anmärkning 2: Tillagd uppståndelsefunktion</t>
+  </si>
+  <si>
+    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: ปรับปรุงการเข้าสู่ระบบอย่างมีนัยสำคัญ_x000D_
+หมายเหตุเพิ่มเติม 2: เพิ่มคุณสมบัติการฟื้นคืนชีพ</t>
+  </si>
+  <si>
+    <t>Святкуйте глобальний випуск!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткова нотатка: значно покращена нагороди входу_x000D_
+Додаткова нотатка 2: Додана функція воскресіння</t>
+  </si>
+  <si>
+    <r>
+      <t>Kỷ niệm phát hành toàn cầu!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ý bổ sung: Phần th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng đăng nhập đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc cải thiện đáng kể_x000D_
+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ý bổ sung 2: Thêm tính năng phục sinh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>庆祝全球释放！_x000D_
+_x000D_
+每天登录才能收到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品！_x000D_
+_x000D_
+附加说明：显着改善登录奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">励_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附加说明2：添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活功能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慶祝全球釋放！_x000D_
+_x000D_
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：顯著改善登錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>獎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勵_x000D_
+附加說明2：添加複活功能</t>
+    </r>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!</t>
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzlicher Hinweis: Erheblich verbesserte Login-Belohnungen_x000D_
+Zusätzlicher Hinweis 2: Auferstehungsfunktion hinzugefügt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!</t>
-  </si>
-  <si>
-    <t>¡Celebra el lanzamiento global!_x000D_
-_x000D_
-¡Inicia sesión todos los días para recibir los regalos!</t>
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετη σημείωση: σημαντικά βελτιωμένες ανταμοιβές σύνδεσης_x000D_
+Πρόσθετη σημείωση 2: Προστέθηκε η δυνατότητα ανάκαμψης</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!</t>
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: Parannetaan merkittävästi kirjautumispalkintoja_x000D_
+Muita huomautuksia 2: Lisätty ylösnousemusominaisuus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!</t>
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Remarque supplémentaire: récompenses de connexion considérablement améliorées_x000D_
+Remarque supplémentaire 2: Fonction de résurrection ajoutée</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Célébrez la version globale!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Note supplémentaire: récompenses de connexion considérablement améliorées_x000D_
+Note supplémentaire 2: Fonction de résurrection ajoutée</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!</t>
-  </si>
-  <si>
-    <t>Rayakan rilis global!_x000D_
-_x000D_
-Masuk setiap hari untuk menerima hadiah!</t>
-  </si>
-  <si>
-    <t>Festeggia la versione globale!_x000D_
-_x000D_
-Accedi ogni giorno per ricevere i regali!</t>
-  </si>
-  <si>
-    <t>לחגוג את המהדורה העולמית!_x000D_
-_x000D_
-התחבר כל יום כדי לקבל את המתנות!</t>
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzés: Jelentősen javított bejelentkezési jutalmak_x000D_
+Kiegészítő megjegyzés 2: hozzáadott feltámadás funkció</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1277,164 +1587,64 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>日ログインしてください！</t>
+      <t>日ログインしてください！_x000D_
+_x000D_
+追加注：ログイン報酬が大幅に改善されました_x000D_
+追加注2：復活機能を追加しました</t>
     </r>
-  </si>
-  <si>
-    <t>Rayakan pelepasan global!_x000D_
-_x000D_
-Log masuk setiap hari untuk menerima hadiah!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항 : 로그인 보상 대폭 향상_x000D_
+추가사항2 : 부활 피쳐 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
-Log in elke dag om de geschenken te ontvangen!</t>
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Extra noot: aanzienlijk verbeterde aanmeldingsbeloningen_x000D_
+Extra noot 2: Toegevoegd opstandingsfunctie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!</t>
-  </si>
-  <si>
-    <t>Comemore a liberação global!_x000D_
-_x000D_
-Faça o login todos os dias para receber os presentes!</t>
-  </si>
-  <si>
-    <t>Sărbătoriți lansarea globală!_x000D_
-_x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!</t>
-  </si>
-  <si>
-    <t>Отпразднуйте глобальный выпуск!_x000D_
-_x000D_
-Войдите каждый день, чтобы получить подарки!</t>
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Dodatkowa Uwaga: Znacznie ulepszone nagrody logowania_x000D_
+Dodatkowa Uwaga 2: Dodano funkcję zmartwychwstania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
-Prihláste sa každý deň, aby ste dostali dary!</t>
-  </si>
-  <si>
-    <t>Fira den globala utgåvan!_x000D_
-_x000D_
-Logga in varje dag för att ta emot presenterna!</t>
-  </si>
-  <si>
-    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!</t>
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Dodatočná poznámka: Výrazne vylepšené prihlasovacie odmeny_x000D_
+Dodatočná poznámka 2: Pridaná funkcia vzkriesenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
-Hediyeleri almak için her gün giriş yapın!</t>
-  </si>
-  <si>
-    <t>Святкуйте глобальний випуск!_x000D_
-_x000D_
-Увійдіть кожен день, щоб отримати подарунки!</t>
-  </si>
-  <si>
-    <t>Kỷ niệm phát hành toàn cầu!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!</t>
-  </si>
-  <si>
-    <r>
-      <t>庆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>祝全球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>释</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>放！_x000D_
-_x000D_
-每天登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>才能收到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>礼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>物！</t>
-    </r>
-  </si>
-  <si>
-    <t>慶祝全球釋放！_x000D_
-_x000D_
-每天登錄才能收到禮品！</t>
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
+Ek not 2: Dinleme özelliği eklendi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,6 +1695,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3426,7 +3644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
@@ -10522,8 +10740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10761,115 +10979,115 @@
     </row>
     <row r="3" spans="1:43" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AO3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -10881,6 +11099,8 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
+Additional note: Significantly improved login rewards
+Additional note 2: Added resurrection feature
 &lt;/en-US&gt;
 </v>
       </c>
@@ -10892,7 +11112,10 @@
         <v xml:space="preserve">&lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
-تسجيل الدخول كل يوم لتلقي الهدايا!
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظة إضافية: محسنة بشكل ملحوظ مكافآت تسجيل الدخول_x000D_
+ملاحظة إضافية 2: ميزة القيامة المضافة
 &lt;/ar&gt;
 </v>
       </c>
@@ -10901,7 +11124,10 @@
         <v xml:space="preserve">&lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
-Увайсці кожны дзень, каб атрымаць падарункі!
+Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+_x000D_
+Дадатковая Заўвага: Значна палепшаная Узнагароды Увайсці_x000D_
+Дадатковая Заўвага 2: Дададзеная Уваскрэсенне Функцыя
 &lt;/be&gt;
 </v>
       </c>
@@ -10910,7 +11136,10 @@
         <v xml:space="preserve">&lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
-Влезте всеки ден, за да получите подаръци!
+Влезте всеки ден, за да получите подаръци!_x000D_
+_x000D_
+Допълнителна забележка: Значително подобрени награди за вход_x000D_
+Допълнителна забележка 2: Добавена функция за възкресение
 &lt;/bg&gt;
 </v>
       </c>
@@ -10919,7 +11148,10 @@
         <v xml:space="preserve">&lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
-Přihlaste se každý den, abyste obdrželi dárky!
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další poznámka: výrazně zlepšené přihlašovací odměny_x000D_
+Další poznámka 2: Přidána funkce vzkříšení
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -10928,7 +11160,10 @@
         <v xml:space="preserve">&lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzlicher Hinweis: Erheblich verbesserte Login-Belohnungen_x000D_
+Zusätzlicher Hinweis 2: Auferstehungsfunktion hinzugefügt
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -10937,7 +11172,10 @@
         <v xml:space="preserve">&lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετη σημείωση: σημαντικά βελτιωμένες ανταμοιβές σύνδεσης_x000D_
+Πρόσθετη σημείωση 2: Προστέθηκε η δυνατότητα ανάκαμψης
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -10946,7 +11184,10 @@
         <v xml:space="preserve">&lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida
 &lt;/es-419&gt;
 </v>
       </c>
@@ -10955,7 +11196,10 @@
         <v xml:space="preserve">&lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -10964,7 +11208,10 @@
         <v xml:space="preserve">&lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida
 &lt;/es-US&gt;
 </v>
       </c>
@@ -10973,7 +11220,10 @@
         <v xml:space="preserve">&lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: Parannetaan merkittävästi kirjautumispalkintoja_x000D_
+Muita huomautuksia 2: Lisätty ylösnousemusominaisuus
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -10982,7 +11232,10 @@
         <v xml:space="preserve">&lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Remarque supplémentaire: récompenses de connexion considérablement améliorées_x000D_
+Remarque supplémentaire 2: Fonction de résurrection ajoutée
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -10991,7 +11244,10 @@
         <v xml:space="preserve">&lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Note supplémentaire: récompenses de connexion considérablement améliorées_x000D_
+Note supplémentaire 2: Fonction de résurrection ajoutée
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11000,7 +11256,10 @@
         <v xml:space="preserve">&lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzés: Jelentősen javított bejelentkezési jutalmak_x000D_
+Kiegészítő megjegyzés 2: hozzáadott feltámadás funkció
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11009,7 +11268,10 @@
         <v xml:space="preserve">&lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
-Masuk setiap hari untuk menerima hadiah!
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Hadiah Login yang ditingkatkan secara signifikan_x000D_
+Catatan Tambahan 2: Menambahkan fitur kebangkitan
 &lt;/id&gt;
 </v>
       </c>
@@ -11018,7 +11280,10 @@
         <v xml:space="preserve">&lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
-Accedi ogni giorno per ricevere i regali!
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Nota aggiuntiva: premi di accesso significativamente migliorati_x000D_
+Nota aggiuntiva 2: funzione di resurrezione aggiunta
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11027,7 +11292,10 @@
         <v xml:space="preserve">&lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
-התחבר כל יום כדי לקבל את המתנות!
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערה נוספת: פרסים משופרים משמעותית_x000D_
+הערה נוספת 2: תכונת תחיית המתים נוספת
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11036,7 +11304,10 @@
         <v xml:space="preserve">&lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
-ギフトを受け取るために毎日ログインしてください！
+ギフトを受け取るために毎日ログインしてください！_x000D_
+_x000D_
+追加注：ログイン報酬が大幅に改善されました_x000D_
+追加注2：復活機能を追加しました
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11045,7 +11316,10 @@
         <v xml:space="preserve">&lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항 : 로그인 보상 대폭 향상_x000D_
+추가사항2 : 부활 피쳐 추가
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11054,7 +11328,10 @@
         <v xml:space="preserve">&lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
+Nota tambahan 2: Menambah ciri Kebangkitan
 &lt;/ms&gt;
 </v>
       </c>
@@ -11063,7 +11340,10 @@
         <v xml:space="preserve">&lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
+Nota tambahan 2: Menambah ciri Kebangkitan
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11072,7 +11352,10 @@
         <v xml:space="preserve">&lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
-Log in elke dag om de geschenken te ontvangen!
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Extra noot: aanzienlijk verbeterde aanmeldingsbeloningen_x000D_
+Extra noot 2: Toegevoegd opstandingsfunctie
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11081,7 +11364,10 @@
         <v xml:space="preserve">&lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Dodatkowa Uwaga: Znacznie ulepszone nagrody logowania_x000D_
+Dodatkowa Uwaga 2: Dodano funkcję zmartwychwstania
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11090,7 +11376,10 @@
         <v xml:space="preserve">&lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Recompensas de login significativamente melhoradas_x000D_
+Nota adicional 2: recurso de ressurreição adicionado
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11099,7 +11388,10 @@
         <v xml:space="preserve">&lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Recompensas de login significativamente melhoradas_x000D_
+Nota adicional 2: recurso de ressurreição adicionado
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11108,7 +11400,10 @@
         <v xml:space="preserve">&lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Notă suplimentară: Îmbunătățirea semnificativă a recompenselor de conectare_x000D_
+Notă suplimentară 2: Funcția de înviere adăugată
 &lt;/ro&gt;
 </v>
       </c>
@@ -11117,7 +11412,10 @@
         <v xml:space="preserve">&lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
-Войдите каждый день, чтобы получить подарки!
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительное примечание: значительно улучшенные награды входа в систему_x000D_
+Дополнительное примечание 2: добавленная функция воскресения
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11126,7 +11424,10 @@
         <v xml:space="preserve">&lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
-Prihláste sa každý deň, aby ste dostali dary!
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Dodatočná poznámka: Výrazne vylepšené prihlasovacie odmeny_x000D_
+Dodatočná poznámka 2: Pridaná funkcia vzkriesenia
 &lt;/sk&gt;
 </v>
       </c>
@@ -11135,7 +11436,10 @@
         <v xml:space="preserve">&lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
-Logga in varje dag för att ta emot presenterna!
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anmärkning: Betydande förbättrade inloggningsbelöningar_x000D_
+Ytterligare anmärkning 2: Tillagd uppståndelsefunktion
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11144,7 +11448,10 @@
         <v xml:space="preserve">&lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: ปรับปรุงการเข้าสู่ระบบอย่างมีนัยสำคัญ_x000D_
+หมายเหตุเพิ่มเติม 2: เพิ่มคุณสมบัติการฟื้นคืนชีพ
 &lt;/th&gt;
 </v>
       </c>
@@ -11153,7 +11460,10 @@
         <v xml:space="preserve">&lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
-Hediyeleri almak için her gün giriş yapın!
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
+Ek not 2: Dinleme özelliği eklendi
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11162,7 +11472,10 @@
         <v xml:space="preserve">&lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
-Увійдіть кожен день, щоб отримати подарунки!
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткова нотатка: значно покращена нагороди входу_x000D_
+Додаткова нотатка 2: Додана функція воскресіння
 &lt;/uk&gt;
 </v>
       </c>
@@ -11171,7 +11484,10 @@
         <v xml:space="preserve">&lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+Lưu ý bổ sung: Phần thưởng đăng nhập được cải thiện đáng kể_x000D_
+Lưu ý bổ sung 2: Thêm tính năng phục sinh
 &lt;/vi&gt;
 </v>
       </c>
@@ -11180,7 +11496,10 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：显着改善登录奖励_x000D_
+附加说明2：添加复活功能
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11189,7 +11508,10 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：顯著改善登錄獎勵_x000D_
+附加說明2：添加複活功能
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11198,7 +11520,10 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：顯著改善登錄獎勵_x000D_
+附加說明2：添加複活功能
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11209,181 +11534,288 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
+Additional note: Significantly improved login rewards
+Additional note 2: Added resurrection feature
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
-تسجيل الدخول كل يوم لتلقي الهدايا!
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظة إضافية: محسنة بشكل ملحوظ مكافآت تسجيل الدخول_x000D_
+ملاحظة إضافية 2: ميزة القيامة المضافة
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
-Увайсці кожны дзень, каб атрымаць падарункі!
+Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
+_x000D_
+Дадатковая Заўвага: Значна палепшаная Узнагароды Увайсці_x000D_
+Дадатковая Заўвага 2: Дададзеная Уваскрэсенне Функцыя
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
-Влезте всеки ден, за да получите подаръци!
+Влезте всеки ден, за да получите подаръци!_x000D_
+_x000D_
+Допълнителна забележка: Значително подобрени награди за вход_x000D_
+Допълнителна забележка 2: Добавена функция за възкресение
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
-Přihlaste se každý den, abyste obdrželi dárky!
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další poznámka: výrazně zlepšené přihlašovací odměny_x000D_
+Další poznámka 2: Přidána funkce vzkříšení
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzlicher Hinweis: Erheblich verbesserte Login-Belohnungen_x000D_
+Zusätzlicher Hinweis 2: Auferstehungsfunktion hinzugefügt
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετη σημείωση: σημαντικά βελτιωμένες ανταμοιβές σύνδεσης_x000D_
+Πρόσθετη σημείωση 2: Προστέθηκε η δυνατότητα ανάκαμψης
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
-¡Inicia sesión todos los días para recibir los regalos!
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
+Nota adicional 2: Función de resurrección añadida
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: Parannetaan merkittävästi kirjautumispalkintoja_x000D_
+Muita huomautuksia 2: Lisätty ylösnousemusominaisuus
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Remarque supplémentaire: récompenses de connexion considérablement améliorées_x000D_
+Remarque supplémentaire 2: Fonction de résurrection ajoutée
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Note supplémentaire: récompenses de connexion considérablement améliorées_x000D_
+Note supplémentaire 2: Fonction de résurrection ajoutée
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzés: Jelentősen javított bejelentkezési jutalmak_x000D_
+Kiegészítő megjegyzés 2: hozzáadott feltámadás funkció
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
-Masuk setiap hari untuk menerima hadiah!
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Hadiah Login yang ditingkatkan secara signifikan_x000D_
+Catatan Tambahan 2: Menambahkan fitur kebangkitan
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
-Accedi ogni giorno per ricevere i regali!
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Nota aggiuntiva: premi di accesso significativamente migliorati_x000D_
+Nota aggiuntiva 2: funzione di resurrezione aggiunta
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
-התחבר כל יום כדי לקבל את המתנות!
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערה נוספת: פרסים משופרים משמעותית_x000D_
+הערה נוספת 2: תכונת תחיית המתים נוספת
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
-ギフトを受け取るために毎日ログインしてください！
+ギフトを受け取るために毎日ログインしてください！_x000D_
+_x000D_
+追加注：ログイン報酬が大幅に改善されました_x000D_
+追加注2：復活機能を追加しました
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항 : 로그인 보상 대폭 향상_x000D_
+추가사항2 : 부활 피쳐 추가
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
+Nota tambahan 2: Menambah ciri Kebangkitan
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
-Log masuk setiap hari untuk menerima hadiah!
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
+Nota tambahan 2: Menambah ciri Kebangkitan
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
-Log in elke dag om de geschenken te ontvangen!
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Extra noot: aanzienlijk verbeterde aanmeldingsbeloningen_x000D_
+Extra noot 2: Toegevoegd opstandingsfunctie
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Dodatkowa Uwaga: Znacznie ulepszone nagrody logowania_x000D_
+Dodatkowa Uwaga 2: Dodano funkcję zmartwychwstania
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Recompensas de login significativamente melhoradas_x000D_
+Nota adicional 2: recurso de ressurreição adicionado
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
-Faça o login todos os dias para receber os presentes!
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Recompensas de login significativamente melhoradas_x000D_
+Nota adicional 2: recurso de ressurreição adicionado
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Notă suplimentară: Îmbunătățirea semnificativă a recompenselor de conectare_x000D_
+Notă suplimentară 2: Funcția de înviere adăugată
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
-Войдите каждый день, чтобы получить подарки!
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительное примечание: значительно улучшенные награды входа в систему_x000D_
+Дополнительное примечание 2: добавленная функция воскресения
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
-Prihláste sa každý deň, aby ste dostali dary!
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Dodatočná poznámka: Výrazne vylepšené prihlasovacie odmeny_x000D_
+Dodatočná poznámka 2: Pridaná funkcia vzkriesenia
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
-Logga in varje dag för att ta emot presenterna!
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anmärkning: Betydande förbättrade inloggningsbelöningar_x000D_
+Ytterligare anmärkning 2: Tillagd uppståndelsefunktion
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: ปรับปรุงการเข้าสู่ระบบอย่างมีนัยสำคัญ_x000D_
+หมายเหตุเพิ่มเติม 2: เพิ่มคุณสมบัติการฟื้นคืนชีพ
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
-Hediyeleri almak için her gün giriş yapın!
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
+Ek not 2: Dinleme özelliği eklendi
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
-Увійдіть кожен день, щоб отримати подарунки!
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткова нотатка: значно покращена нагороди входу_x000D_
+Додаткова нотатка 2: Додана функція воскресіння
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+Lưu ý bổ sung: Phần thưởng đăng nhập được cải thiện đáng kể_x000D_
+Lưu ý bổ sung 2: Thêm tính năng phục sinh
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：显着改善登录奖励_x000D_
+附加说明2：添加复活功能
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：顯著改善登錄獎勵_x000D_
+附加說明2：添加複活功能
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：顯著改善登錄獎勵_x000D_
+附加說明2：添加複活功能
 &lt;/zh-TW&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9246F-497A-454B-9C1E-24522DD7283F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA87B474-AE38-4FE4-869A-30607005B7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="304">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1041,9 +1041,6 @@
   </si>
   <si>
     <t>Equip1301</t>
-  </si>
-  <si>
-    <t>Equip2201</t>
   </si>
   <si>
     <t>Equip2001</t>
@@ -1638,6 +1635,15 @@
 Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
 Ek not 2: Dinleme özelliği eklendi</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 캐릭터 PP</t>
+  </si>
+  <si>
+    <t>Actor1005</t>
+  </si>
+  <si>
+    <t>지정 캐릭터 LBP1</t>
   </si>
 </sst>
 </file>
@@ -3644,9 +3650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6301,7 +6307,7 @@
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6637,7 +6643,7 @@
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6661,7 +6667,7 @@
         <v>106</v>
       </c>
       <c r="D159" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -6781,7 +6787,7 @@
         <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -6805,7 +6811,7 @@
         <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -6843,6 +6849,24 @@
       <c r="B168">
         <v>10</v>
       </c>
+      <c r="C168" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" t="s">
+        <v>302</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+      <c r="F168" t="s">
+        <v>98</v>
+      </c>
+      <c r="G168">
+        <v>42</v>
+      </c>
+      <c r="H168">
+        <v>29</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
@@ -6852,6 +6876,24 @@
       <c r="B169">
         <v>11</v>
       </c>
+      <c r="C169" t="s">
+        <v>303</v>
+      </c>
+      <c r="D169" t="s">
+        <v>302</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>98</v>
+      </c>
+      <c r="G169">
+        <v>54</v>
+      </c>
+      <c r="H169">
+        <v>39</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
@@ -6985,7 +7027,7 @@
         <v>106</v>
       </c>
       <c r="D175" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7033,7 +7075,7 @@
         <v>106</v>
       </c>
       <c r="D177" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7071,6 +7113,24 @@
       <c r="B180">
         <v>10</v>
       </c>
+      <c r="C180" t="s">
+        <v>301</v>
+      </c>
+      <c r="D180" t="s">
+        <v>302</v>
+      </c>
+      <c r="E180">
+        <v>70</v>
+      </c>
+      <c r="F180" t="s">
+        <v>98</v>
+      </c>
+      <c r="G180">
+        <v>42</v>
+      </c>
+      <c r="H180">
+        <v>29</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
@@ -7080,6 +7140,24 @@
       <c r="B181">
         <v>11</v>
       </c>
+      <c r="C181" t="s">
+        <v>303</v>
+      </c>
+      <c r="D181" t="s">
+        <v>302</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>98</v>
+      </c>
+      <c r="G181">
+        <v>54</v>
+      </c>
+      <c r="H181">
+        <v>39</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
@@ -7093,7 +7171,7 @@
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7117,7 +7195,7 @@
         <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7261,7 +7339,7 @@
         <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7321,7 +7399,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7345,7 +7423,7 @@
         <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7441,7 +7519,7 @@
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7465,7 +7543,7 @@
         <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -7669,7 +7747,7 @@
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -7717,7 +7795,7 @@
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7897,7 +7975,7 @@
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -7921,7 +7999,7 @@
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -7945,7 +8023,7 @@
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -8005,7 +8083,7 @@
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8401,7 +8479,7 @@
         <v>106</v>
       </c>
       <c r="D249" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -8689,7 +8767,7 @@
         <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -8713,7 +8791,7 @@
         <v>106</v>
       </c>
       <c r="D267" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -8833,7 +8911,7 @@
         <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -8857,7 +8935,7 @@
         <v>106</v>
       </c>
       <c r="D273" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -8941,7 +9019,7 @@
         <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9037,7 +9115,7 @@
         <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9061,7 +9139,7 @@
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9145,7 +9223,7 @@
         <v>106</v>
       </c>
       <c r="D290" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9169,7 +9247,7 @@
         <v>106</v>
       </c>
       <c r="D291" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -9289,7 +9367,7 @@
         <v>106</v>
       </c>
       <c r="D296" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9397,7 +9475,7 @@
         <v>106</v>
       </c>
       <c r="D303" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -9541,7 +9619,7 @@
         <v>106</v>
       </c>
       <c r="D309" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -9625,7 +9703,7 @@
         <v>106</v>
       </c>
       <c r="D315" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -9745,7 +9823,7 @@
         <v>106</v>
       </c>
       <c r="D320" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -9769,7 +9847,7 @@
         <v>106</v>
       </c>
       <c r="D321" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -9853,7 +9931,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -9973,7 +10051,7 @@
         <v>106</v>
       </c>
       <c r="D332" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -9997,7 +10075,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10057,7 +10135,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10177,7 +10255,7 @@
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10201,7 +10279,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10309,7 +10387,7 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -10453,7 +10531,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10513,7 +10591,7 @@
         <v>106</v>
       </c>
       <c r="D362" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -10537,7 +10615,7 @@
         <v>106</v>
       </c>
       <c r="D363" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -10681,7 +10759,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -10740,7 +10818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -10979,115 +11057,115 @@
     </row>
     <row r="3" spans="1:43" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AJ3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AM3" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA87B474-AE38-4FE4-869A-30607005B7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458142E9-8CFB-4FD7-A99B-273B0812EEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -224,12 +224,83 @@
         </r>
       </text>
     </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{8A5E5945-E89D-49CB-9951-3C16DCF4E78E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이폰은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>국가별로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력하기</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="335">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,18 +1195,25 @@
     <t>Equip5301</t>
   </si>
   <si>
+    <t>지정 캐릭터 PP</t>
+  </si>
+  <si>
+    <t>Actor1005</t>
+  </si>
+  <si>
+    <t>지정 캐릭터 LBP1</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 로그인 보상 대폭 향상
-추가사항2: 부활 피쳐 추가</t>
+추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Significantly improved login rewards
-Additional note 2: Added resurrection feature</t>
+Additional note: Added a system to enable faster progress when retrying a chapter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1143,376 +1221,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: محسنة بشكل ملحوظ مكافآت تسجيل الدخول_x000D_
-ملاحظة إضافية 2: ميزة القيامة المضافة</t>
+ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Значна палепшаная Узнагароды Увайсці_x000D_
-Дадатковая Заўвага 2: Дададзеная Уваскрэсенне Функцыя</t>
+Дадатковая Заўвага: Дададзеная сістэма для таго, каб больш хутчэй прагрэс, калі паўторна паўтору кіраўніка</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Значително подобрени награди за вход_x000D_
-Допълнителна забележка 2: Добавена функция за възкресение</t>
+Допълнителна бележка: Добавена е система, която да позволи по-бърз напредък при повторение на глава</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: výrazně zlepšené přihlašovací odměny_x000D_
-Další poznámka 2: Přidána funkce vzkříšení</t>
+Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly</t>
+  </si>
+  <si>
+    <t>Feiern Sie die globale Veröffentlichung!_x000D_
+_x000D_
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren</t>
+  </si>
+  <si>
+    <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
+_x000D_
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida</t>
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo</t>
+  </si>
+  <si>
+    <t>Juhli maailmanlaajuista julkaisua!_x000D_
+_x000D_
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen</t>
+  </si>
+  <si>
+    <t>Célébrez la version globale!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre</t>
+  </si>
+  <si>
+    <t>Ünnepelje a globális kiadást!_x000D_
+_x000D_
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Hadiah Login yang ditingkatkan secara signifikan_x000D_
-Catatan Tambahan 2: Menambahkan fitur kebangkitan</t>
+Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: premi di accesso significativamente migliorati_x000D_
-Nota aggiuntiva 2: funzione di resurrezione aggiunta</t>
+Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרסים משופרים משמעותית_x000D_
-הערה נוספת 2: תכונת תחיית המתים נוספת</t>
-  </si>
-  <si>
-    <t>Rayakan pelepasan global!_x000D_
-_x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
-Nota tambahan 2: Menambah ciri Kebangkitan</t>
-  </si>
-  <si>
-    <t>Comemore a liberação global!_x000D_
-_x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Nota adicional: Recompensas de login significativamente melhoradas_x000D_
-Nota adicional 2: recurso de ressurreição adicionado</t>
-  </si>
-  <si>
-    <t>Sărbătoriți lansarea globală!_x000D_
-_x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Notă suplimentară: Îmbunătățirea semnificativă a recompenselor de conectare_x000D_
-Notă suplimentară 2: Funcția de înviere adăugată</t>
-  </si>
-  <si>
-    <t>Отпразднуйте глобальный выпуск!_x000D_
-_x000D_
-Войдите каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительное примечание: значительно улучшенные награды входа в систему_x000D_
-Дополнительное примечание 2: добавленная функция воскресения</t>
-  </si>
-  <si>
-    <t>Fira den globala utgåvan!_x000D_
-_x000D_
-Logga in varje dag för att ta emot presenterna!_x000D_
-_x000D_
-Ytterligare anmärkning: Betydande förbättrade inloggningsbelöningar_x000D_
-Ytterligare anmärkning 2: Tillagd uppståndelsefunktion</t>
-  </si>
-  <si>
-    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงการเข้าสู่ระบบอย่างมีนัยสำคัญ_x000D_
-หมายเหตุเพิ่มเติม 2: เพิ่มคุณสมบัติการฟื้นคืนชีพ</t>
-  </si>
-  <si>
-    <t>Святкуйте глобальний випуск!_x000D_
-_x000D_
-Увійдіть кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткова нотатка: значно покращена нагороди входу_x000D_
-Додаткова нотатка 2: Додана функція воскресіння</t>
-  </si>
-  <si>
-    <r>
-      <t>Kỷ niệm phát hành toàn cầu!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
-_x000D_
-L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u ý bổ sung: Phần th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ởng đăng nhập đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ợc cải thiện đáng kể_x000D_
-L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u ý bổ sung 2: Thêm tính năng phục sinh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>庆祝全球释放！_x000D_
-_x000D_
-每天登录才能收到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>礼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>品！_x000D_
-_x000D_
-附加说明：显着改善登录奖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">励_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>附加说明2：添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>活功能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>慶祝全球釋放！_x000D_
-_x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：顯著改善登錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>獎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>勵_x000D_
-附加說明2：添加複活功能</t>
-    </r>
-  </si>
-  <si>
-    <t>Feiern Sie die globale Veröffentlichung!_x000D_
-_x000D_
-Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
-_x000D_
-Zusätzlicher Hinweis: Erheblich verbesserte Login-Belohnungen_x000D_
-Zusätzlicher Hinweis 2: Auferstehungsfunktion hinzugefügt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
-_x000D_
-Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
-_x000D_
-Πρόσθετη σημείωση: σημαντικά βελτιωμένες ανταμοιβές σύνδεσης_x000D_
-Πρόσθετη σημείωση 2: Προστέθηκε η δυνατότητα ανάκαμψης</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Juhli maailmanlaajuista julkaisua!_x000D_
-_x000D_
-Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
-_x000D_
-Muita huomautuksia: Parannetaan merkittävästi kirjautumispalkintoja_x000D_
-Muita huomautuksia 2: Lisätty ylösnousemusominaisuus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Célébrez la version globale!_x000D_
-_x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Remarque supplémentaire: récompenses de connexion considérablement améliorées_x000D_
-Remarque supplémentaire 2: Fonction de résurrection ajoutée</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Célébrez la version globale!_x000D_
-_x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Note supplémentaire: récompenses de connexion considérablement améliorées_x000D_
-Note supplémentaire 2: Fonction de résurrection ajoutée</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ünnepelje a globális kiadást!_x000D_
-_x000D_
-Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
-_x000D_
-Kiegészítő megjegyzés: Jelentősen javított bejelentkezési jutalmak_x000D_
-Kiegészítő megjegyzés 2: hozzáadott feltámadás funkció</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק</t>
   </si>
   <si>
     <r>
@@ -1586,64 +1379,420 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加注：ログイン報酬が大幅に改善されました_x000D_
-追加注2：復活機能を追加しました</t>
+追加の注意：章を再試行するときに高速な進捗</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>況を有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>効</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にするシステムを追加しました</t>
+    </r>
+  </si>
+  <si>
+    <t>글로벌 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가</t>
+  </si>
+  <si>
+    <t>Rayakan pelepasan global!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab</t>
+  </si>
+  <si>
+    <t>Vier de wereldwijde release!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk</t>
+  </si>
+  <si>
+    <t>Świętuj globalne wydanie!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału</t>
+  </si>
+  <si>
+    <t>Comemore a liberação global!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo</t>
+  </si>
+  <si>
+    <t>Sărbătoriți lansarea globală!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol</t>
+  </si>
+  <si>
+    <t>Отпразднуйте глобальный выпуск!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы</t>
+  </si>
+  <si>
+    <t>Oslávte globálne vydanie!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly</t>
+  </si>
+  <si>
+    <t>Fira den globala utgåvan!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel</t>
+  </si>
+  <si>
+    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง</t>
+  </si>
+  <si>
+    <t>Küresel yayınları kutlayın!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi</t>
+  </si>
+  <si>
+    <t>Святкуйте глобальний випуск!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави</t>
+  </si>
+  <si>
+    <r>
+      <t>Kỷ niệm phát hành toàn cầu!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n khi thử lại một ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>庆祝全球释放！_x000D_
+_x000D_
+每天登录才能收到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物！_x000D_
+_x000D_
+附加说明：添加一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统以在重试章节时启用更快的进度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>慶祝全球釋放！_x000D_
+_x000D_
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加一個系統以在重試章節時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用更快的進度</t>
+    </r>
+  </si>
+  <si>
+    <t>영어(미국)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글로벌 오픈 경축!_x000D_
-_x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
-_x000D_
-추가사항 : 로그인 보상 대폭 향상_x000D_
-추가사항2 : 부활 피쳐 추가</t>
+    <t>그리스어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vier de wereldwijde release!_x000D_
-_x000D_
-Log in elke dag om de geschenken te ontvangen!_x000D_
-_x000D_
-Extra noot: aanzienlijk verbeterde aanmeldingsbeloningen_x000D_
-Extra noot 2: Toegevoegd opstandingsfunctie</t>
+    <t>네덜란드어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Świętuj globalne wydanie!_x000D_
-_x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Dodatkowa Uwaga: Znacznie ulepszone nagrody logowania_x000D_
-Dodatkowa Uwaga 2: Dodano funkcję zmartwychwstania</t>
+    <t>독일어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oslávte globálne vydanie!_x000D_
-_x000D_
-Prihláste sa každý deň, aby ste dostali dary!_x000D_
-_x000D_
-Dodatočná poznámka: Výrazne vylepšené prihlasovacie odmeny_x000D_
-Dodatočná poznámka 2: Pridaná funkcia vzkriesenia</t>
+    <t>러시아어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Küresel yayınları kutlayın!_x000D_
-_x000D_
-Hediyeleri almak için her gün giriş yapın!_x000D_
-_x000D_
-Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
-Ek not 2: Dinleme özelliği eklendi</t>
+    <t>루마니아어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지정 캐릭터 PP</t>
-  </si>
-  <si>
-    <t>Actor1005</t>
-  </si>
-  <si>
-    <t>지정 캐릭터 LBP1</t>
+    <t>말레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베트남어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스웨덴어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인어(멕시코)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인어(스페인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로바키아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랍어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우크라이나어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어(간체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어(번체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터키어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈어(브라질)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈어(포르투갈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴란드어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스어(캐나다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀란드어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헝가리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히브리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이폰 순서 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3650,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
@@ -6850,10 +6999,10 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D168" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6877,10 +7026,10 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D169" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7114,10 +7263,10 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D180" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E180">
         <v>70</v>
@@ -7141,10 +7290,10 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D181" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -10816,10 +10965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
-  <dimension ref="A1:AQ46"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10832,7 +10981,7 @@
     <col min="6" max="43" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>123</v>
       </c>
@@ -10945,7 +11094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>124</v>
       </c>
@@ -11055,120 +11204,120 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AK3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AJ3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="AO3" s="4" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="H4" t="str">
         <f>"&lt;"&amp;H1&amp;"&gt;
 "&amp;H3&amp;"
@@ -11177,8 +11326,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Significantly improved login rewards
-Additional note 2: Added resurrection feature
+Additional note: Added a system to enable faster progress when retrying a chapter
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11192,8 +11340,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: محسنة بشكل ملحوظ مكافآت تسجيل الدخول_x000D_
-ملاحظة إضافية 2: ميزة القيامة المضافة
+ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل
 &lt;/ar&gt;
 </v>
       </c>
@@ -11204,8 +11351,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Значна палепшаная Узнагароды Увайсці_x000D_
-Дадатковая Заўвага 2: Дададзеная Уваскрэсенне Функцыя
+Дадатковая Заўвага: Дададзеная сістэма для таго, каб больш хутчэй прагрэс, калі паўторна паўтору кіраўніка
 &lt;/be&gt;
 </v>
       </c>
@@ -11216,8 +11362,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Значително подобрени награди за вход_x000D_
-Допълнителна забележка 2: Добавена функция за възкресение
+Допълнителна бележка: Добавена е система, която да позволи по-бърз напредък при повторение на глава
 &lt;/bg&gt;
 </v>
       </c>
@@ -11228,8 +11373,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: výrazně zlepšené přihlašovací odměny_x000D_
-Další poznámka 2: Přidána funkce vzkříšení
+Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11240,8 +11384,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Erheblich verbesserte Login-Belohnungen_x000D_
-Zusätzlicher Hinweis 2: Auferstehungsfunktion hinzugefügt
+Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11252,8 +11395,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: σημαντικά βελτιωμένες ανταμοιβές σύνδεσης_x000D_
-Πρόσθετη σημείωση 2: Προστέθηκε η δυνατότητα ανάκαμψης
+Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11264,8 +11406,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11276,8 +11417,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11288,8 +11428,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11300,8 +11439,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannetaan merkittävästi kirjautumispalkintoja_x000D_
-Muita huomautuksia 2: Lisätty ylösnousemusominaisuus
+Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11312,8 +11450,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: récompenses de connexion considérablement améliorées_x000D_
-Remarque supplémentaire 2: Fonction de résurrection ajoutée
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11324,8 +11461,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: récompenses de connexion considérablement améliorées_x000D_
-Note supplémentaire 2: Fonction de résurrection ajoutée
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11336,8 +11472,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Jelentősen javított bejelentkezési jutalmak_x000D_
-Kiegészítő megjegyzés 2: hozzáadott feltámadás funkció
+Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11348,8 +11483,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Hadiah Login yang ditingkatkan secara signifikan_x000D_
-Catatan Tambahan 2: Menambahkan fitur kebangkitan
+Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab
 &lt;/id&gt;
 </v>
       </c>
@@ -11360,8 +11494,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: premi di accesso significativamente migliorati_x000D_
-Nota aggiuntiva 2: funzione di resurrezione aggiunta
+Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11372,8 +11505,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרסים משופרים משמעותית_x000D_
-הערה נוספת 2: תכונת תחיית המתים נוספת
+הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11384,8 +11516,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加注：ログイン報酬が大幅に改善されました_x000D_
-追加注2：復活機能を追加しました
+追加の注意：章を再試行するときに高速な進捗状況を有効にするシステムを追加しました
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11396,8 +11527,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항 : 로그인 보상 대폭 향상_x000D_
-추가사항2 : 부활 피쳐 추가
+추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11408,8 +11538,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
-Nota tambahan 2: Menambah ciri Kebangkitan
+Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
 &lt;/ms&gt;
 </v>
       </c>
@@ -11420,8 +11549,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
-Nota tambahan 2: Menambah ciri Kebangkitan
+Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11432,8 +11560,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: aanzienlijk verbeterde aanmeldingsbeloningen_x000D_
-Extra noot 2: Toegevoegd opstandingsfunctie
+Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11444,8 +11571,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Znacznie ulepszone nagrody logowania_x000D_
-Dodatkowa Uwaga 2: Dodano funkcję zmartwychwstania
+Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11456,8 +11582,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Recompensas de login significativamente melhoradas_x000D_
-Nota adicional 2: recurso de ressurreição adicionado
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11468,8 +11593,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Recompensas de login significativamente melhoradas_x000D_
-Nota adicional 2: recurso de ressurreição adicionado
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11480,8 +11604,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Îmbunătățirea semnificativă a recompenselor de conectare_x000D_
-Notă suplimentară 2: Funcția de înviere adăugată
+Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol
 &lt;/ro&gt;
 </v>
       </c>
@@ -11492,8 +11615,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: значительно улучшенные награды входа в систему_x000D_
-Дополнительное примечание 2: добавленная функция воскресения
+Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11504,8 +11626,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Výrazne vylepšené prihlasovacie odmeny_x000D_
-Dodatočná poznámka 2: Pridaná funkcia vzkriesenia
+Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly
 &lt;/sk&gt;
 </v>
       </c>
@@ -11516,8 +11637,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Betydande förbättrade inloggningsbelöningar_x000D_
-Ytterligare anmärkning 2: Tillagd uppståndelsefunktion
+Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11528,8 +11648,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงการเข้าสู่ระบบอย่างมีนัยสำคัญ_x000D_
-หมายเหตุเพิ่มเติม 2: เพิ่มคุณสมบัติการฟื้นคืนชีพ
+หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง
 &lt;/th&gt;
 </v>
       </c>
@@ -11540,8 +11659,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
-Ek not 2: Dinleme özelliği eklendi
+Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11552,8 +11670,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: значно покращена нагороди входу_x000D_
-Додаткова нотатка 2: Додана функція воскресіння
+Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави
 &lt;/uk&gt;
 </v>
       </c>
@@ -11564,8 +11681,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Phần thưởng đăng nhập được cải thiện đáng kể_x000D_
-Lưu ý bổ sung 2: Thêm tính năng phục sinh
+Lưu ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh hơn khi thử lại một chương
 &lt;/vi&gt;
 </v>
       </c>
@@ -11574,10 +11690,9 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：显着改善登录奖励_x000D_
-附加说明2：添加复活功能
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加说明：添加一个系统以在重试章节时启用更快的进度
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11588,8 +11703,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：顯著改善登錄獎勵_x000D_
-附加說明2：添加複活功能
+附加說明：添加一個系統以在重試章節時啟用更快的進度
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11600,305 +11714,279 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：顯著改善登錄獎勵_x000D_
-附加說明2：添加複活功能
+附加說明：添加一個系統以在重試章節時啟用更快的進度
 &lt;/zh-TW&gt;
 </v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="H6" t="str">
         <f>CONCATENATE(H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4,AD4,AE4,AF4,AG4,AH4,AI4,AJ4,AK4,AL4,AM4,AN4,AO4,AP4,AQ4)</f>
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Significantly improved login rewards
-Additional note 2: Added resurrection feature
+Additional note: Added a system to enable faster progress when retrying a chapter
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: محسنة بشكل ملحوظ مكافآت تسجيل الدخول_x000D_
-ملاحظة إضافية 2: ميزة القيامة المضافة
+ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Значна палепшаная Узнагароды Увайсці_x000D_
-Дадатковая Заўвага 2: Дададзеная Уваскрэсенне Функцыя
+Дадатковая Заўвага: Дададзеная сістэма для таго, каб больш хутчэй прагрэс, калі паўторна паўтору кіраўніка
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Значително подобрени награди за вход_x000D_
-Допълнителна забележка 2: Добавена функция за възкресение
+Допълнителна бележка: Добавена е система, която да позволи по-бърз напредък при повторение на глава
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: výrazně zlepšené přihlašovací odměny_x000D_
-Další poznámka 2: Přidána funkce vzkříšení
+Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Erheblich verbesserte Login-Belohnungen_x000D_
-Zusätzlicher Hinweis 2: Auferstehungsfunktion hinzugefügt
+Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: σημαντικά βελτιωμένες ανταμοιβές σύνδεσης_x000D_
-Πρόσθετη σημείωση 2: Προστέθηκε η δυνατότητα ανάκαμψης
+Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mejoró significativamente las recompensas de inicio de sesión_x000D_
-Nota adicional 2: Función de resurrección añadida
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannetaan merkittävästi kirjautumispalkintoja_x000D_
-Muita huomautuksia 2: Lisätty ylösnousemusominaisuus
+Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: récompenses de connexion considérablement améliorées_x000D_
-Remarque supplémentaire 2: Fonction de résurrection ajoutée
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: récompenses de connexion considérablement améliorées_x000D_
-Note supplémentaire 2: Fonction de résurrection ajoutée
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Jelentősen javított bejelentkezési jutalmak_x000D_
-Kiegészítő megjegyzés 2: hozzáadott feltámadás funkció
+Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Hadiah Login yang ditingkatkan secara signifikan_x000D_
-Catatan Tambahan 2: Menambahkan fitur kebangkitan
+Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: premi di accesso significativamente migliorati_x000D_
-Nota aggiuntiva 2: funzione di resurrezione aggiunta
+Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרסים משופרים משמעותית_x000D_
-הערה נוספת 2: תכונת תחיית המתים נוספת
+הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加注：ログイン報酬が大幅に改善されました_x000D_
-追加注2：復活機能を追加しました
+追加の注意：章を再試行するときに高速な進捗状況を有効にするシステムを追加しました
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항 : 로그인 보상 대폭 향상_x000D_
-추가사항2 : 부활 피쳐 추가
+추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
-Nota tambahan 2: Menambah ciri Kebangkitan
+Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Ganjaran log masuk yang lebih baik_x000D_
-Nota tambahan 2: Menambah ciri Kebangkitan
+Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: aanzienlijk verbeterde aanmeldingsbeloningen_x000D_
-Extra noot 2: Toegevoegd opstandingsfunctie
+Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Znacznie ulepszone nagrody logowania_x000D_
-Dodatkowa Uwaga 2: Dodano funkcję zmartwychwstania
+Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Recompensas de login significativamente melhoradas_x000D_
-Nota adicional 2: recurso de ressurreição adicionado
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Recompensas de login significativamente melhoradas_x000D_
-Nota adicional 2: recurso de ressurreição adicionado
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Îmbunătățirea semnificativă a recompenselor de conectare_x000D_
-Notă suplimentară 2: Funcția de înviere adăugată
+Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: значительно улучшенные награды входа в систему_x000D_
-Дополнительное примечание 2: добавленная функция воскресения
+Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Výrazne vylepšené prihlasovacie odmeny_x000D_
-Dodatočná poznámka 2: Pridaná funkcia vzkriesenia
+Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Betydande förbättrade inloggningsbelöningar_x000D_
-Ytterligare anmärkning 2: Tillagd uppståndelsefunktion
+Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงการเข้าสู่ระบบอย่างมีนัยสำคัญ_x000D_
-หมายเหตุเพิ่มเติม 2: เพิ่มคุณสมบัติการฟื้นคืนชีพ
+หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: önemli ölçüde geliştirilmiş giriş ödülleri_x000D_
-Ek not 2: Dinleme özelliği eklendi
+Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: значно покращена нагороди входу_x000D_
-Додаткова нотатка 2: Додана функція воскресіння
+Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Phần thưởng đăng nhập được cải thiện đáng kể_x000D_
-Lưu ý bổ sung 2: Thêm tính năng phục sinh
+Lưu ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh hơn khi thử lại một chương
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：显着改善登录奖励_x000D_
-附加说明2：添加复活功能
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加说明：添加一个系统以在重试章节时启用更快的进度
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：顯著改善登錄獎勵_x000D_
-附加說明2：添加複活功能
+附加說明：添加一個系統以在重試章節時啟用更快的進度
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：顯著改善登錄獎勵_x000D_
-附加說明2：添加複活功能
+附加說明：添加一個系統以在重試章節時啟用更快的進度
 &lt;/zh-TW&gt;
 </v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AS7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(COUNTA(D:D)-1-SUM(B:B)=0,"카운트 정상: "&amp;SUM(B:B),"카운트가 이상함")</f>
         <v>카운트 정상: 36</v>
@@ -11910,8 +11998,16 @@
       <c r="I8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AS9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -11921,8 +12017,230 @@
       <c r="E10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f>CONCATENATE(H4,N4,AC4,M4,AH4,AG4,AA4,AN4,AJ4,O4,P4,AI4,I4,AM4,W4,V4,Y4,AO4,AQ4,L4,AK4,AL4,AE4,AF4,AD4,T4,S4,R4,Z4,U4,X4)</f>
+        <v xml:space="preserve">&lt;en-US&gt;
+Celebrate the global release!
+Log in every day to receive the gifts!
+Additional note: Added a system to enable faster progress when retrying a chapter
+&lt;/en-US&gt;
+&lt;el-GR&gt;
+Γιορτάστε την παγκόσμια έκδοση!_x000D_
+_x000D_
+Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
+_x000D_
+Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου
+&lt;/el-GR&gt;
+&lt;nl-NL&gt;
+Vier de wereldwijde release!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk
+&lt;/nl-NL&gt;
+&lt;de-DE&gt;
+Feiern Sie die globale Veröffentlichung!_x000D_
+_x000D_
+Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
+_x000D_
+Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren
+&lt;/de-DE&gt;
+&lt;ru-RU&gt;
+Отпразднуйте глобальный выпуск!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы
+&lt;/ru-RU&gt;
+&lt;ro&gt;
+Sărbătoriți lansarea globală!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol
+&lt;/ro&gt;
+&lt;ms&gt;
+Rayakan pelepasan global!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
+&lt;/ms&gt;
+&lt;vi&gt;
+Kỷ niệm phát hành toàn cầu!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+Lưu ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh hơn khi thử lại một chương
+&lt;/vi&gt;
+&lt;sv-SE&gt;
+Fira den globala utgåvan!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel
+&lt;/sv-SE&gt;
+&lt;es-419&gt;
+¡Celebra el lanzamiento global!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+&lt;/es-419&gt;
+&lt;es-ES&gt;
+¡Celebra el lanzamiento global!_x000D_
+_x000D_
+¡Inicia sesión todos los días para recibir los regalos!_x000D_
+_x000D_
+Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+&lt;/es-ES&gt;
+&lt;sk&gt;
+Oslávte globálne vydanie!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly
+&lt;/sk&gt;
+&lt;ar&gt;
+احتفل بالإفراج العالمي!_x000D_
+_x000D_
+تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
+_x000D_
+ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل
+&lt;/ar&gt;
+&lt;uk&gt;
+Святкуйте глобальний випуск!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави
+&lt;/uk&gt;
+&lt;it-IT&gt;
+Festeggia la versione globale!_x000D_
+_x000D_
+Accedi ogni giorno per ricevere i regali!_x000D_
+_x000D_
+Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo
+&lt;/it-IT&gt;
+&lt;id&gt;
+Rayakan rilis global!_x000D_
+_x000D_
+Masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab
+&lt;/id&gt;
+&lt;ja-JP&gt;
+グローバルリリースを祝いましょう！_x000D_
+_x000D_
+ギフトを受け取るために毎日ログインしてください！_x000D_
+_x000D_
+追加の注意：章を再試行するときに高速な進捗状況を有効にするシステムを追加しました
+&lt;/ja-JP&gt;
+&lt;zh-CN&gt;
+庆祝全球释放！_x000D_
+_x000D_
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加说明：添加一个系统以在重试章节时启用更快的进度
+&lt;/zh-CN&gt;
+&lt;zh-TW&gt;
+慶祝全球釋放！_x000D_
+_x000D_
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加一個系統以在重試章節時啟用更快的進度
+&lt;/zh-TW&gt;
+&lt;cs-CZ&gt;
+Oslavte globální vydání!_x000D_
+_x000D_
+Přihlaste se každý den, abyste obdrželi dárky!_x000D_
+_x000D_
+Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly
+&lt;/cs-CZ&gt;
+&lt;th&gt;
+เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง
+&lt;/th&gt;
+&lt;tr-TR&gt;
+Küresel yayınları kutlayın!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi
+&lt;/tr-TR&gt;
+&lt;pt-BR&gt;
+Comemore a liberação global!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+&lt;/pt-BR&gt;
+&lt;pt-PT&gt;
+Comemore a liberação global!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+&lt;/pt-PT&gt;
+&lt;pl-PL&gt;
+Świętuj globalne wydanie!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału
+&lt;/pl-PL&gt;
+&lt;fr-FR&gt;
+Célébrez la version globale!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+&lt;/fr-FR&gt;
+&lt;fr-CA&gt;
+Célébrez la version globale!_x000D_
+_x000D_
+Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
+_x000D_
+Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+&lt;/fr-CA&gt;
+&lt;fi-FI&gt;
+Juhli maailmanlaajuista julkaisua!_x000D_
+_x000D_
+Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
+_x000D_
+Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen
+&lt;/fi-FI&gt;
+&lt;ko-KR&gt;
+글로벌 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가
+&lt;/ko-KR&gt;
+&lt;hu-HU&gt;
+Ünnepelje a globális kiadást!_x000D_
+_x000D_
+Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
+_x000D_
+Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor
+&lt;/hu-HU&gt;
+&lt;iw-IL&gt;
+לחגוג את המהדורה העולמית!_x000D_
+_x000D_
+התחבר כל יום כדי לקבל את המתנות!_x000D_
+_x000D_
+הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק
+&lt;/iw-IL&gt;
+</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -11936,8 +12254,11 @@
       <c r="E11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -11952,8 +12273,11 @@
         <f>A25</f>
         <v>ar</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -11968,8 +12292,11 @@
         <f>A26</f>
         <v>be</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -11984,8 +12311,11 @@
         <f>A27</f>
         <v>bg</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -12000,8 +12330,11 @@
         <f>A28</f>
         <v>cs</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -12016,8 +12349,11 @@
         <f>A17</f>
         <v>de</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -12032,8 +12368,11 @@
         <f>A31</f>
         <v>el</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -12048,8 +12387,11 @@
         <f>A21</f>
         <v>es</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -12064,8 +12406,11 @@
         <f>A21</f>
         <v>es</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -12080,8 +12425,11 @@
         <f>A21</f>
         <v>es</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -12096,8 +12444,11 @@
         <f>A30</f>
         <v>fi</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -12112,8 +12463,11 @@
         <f>A16</f>
         <v>fr</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -12128,8 +12482,11 @@
         <f>A16</f>
         <v>fr</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -12144,8 +12501,11 @@
         <f>A33</f>
         <v>hu</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -12160,8 +12520,11 @@
         <f>A18</f>
         <v>id</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -12176,8 +12539,11 @@
         <f>A19</f>
         <v>it</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -12192,8 +12558,11 @@
         <f>A32</f>
         <v>he</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -12208,8 +12577,11 @@
         <f>A13</f>
         <v>ja</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -12223,8 +12595,11 @@
       <c r="E29" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -12239,8 +12614,11 @@
         <f>A34</f>
         <v>ms</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -12255,8 +12633,11 @@
         <f>A34</f>
         <v>ms</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -12271,8 +12652,11 @@
         <f>A29</f>
         <v>nl</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -12287,8 +12671,11 @@
         <f>A35</f>
         <v>pl</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -12303,8 +12690,11 @@
         <f>A24</f>
         <v>pt</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -12319,8 +12709,11 @@
         <f>A24</f>
         <v>pt</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -12335,8 +12728,11 @@
         <f>A36</f>
         <v>ro</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AS36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -12352,7 +12748,7 @@
         <v>ru</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -12368,7 +12764,7 @@
         <v>sk</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -12384,7 +12780,7 @@
         <v>sv</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -12400,7 +12796,7 @@
         <v>th</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>206</v>
       </c>
@@ -12409,7 +12805,7 @@
         <v>tr</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>207</v>
       </c>
@@ -12418,7 +12814,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>208</v>
       </c>
@@ -12427,7 +12823,7 @@
         <v>vi</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>209</v>
       </c>
@@ -12436,7 +12832,7 @@
         <v>zh-CN</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>211</v>
       </c>
@@ -12445,7 +12841,7 @@
         <v>zh-TW</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>212</v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458142E9-8CFB-4FD7-A99B-273B0812EEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0C946-70D7-4C37-99C2-C4E7E84E7C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="336">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,9 +1138,6 @@
     <t>Equip2301</t>
   </si>
   <si>
-    <t>Equip2101</t>
-  </si>
-  <si>
     <t>Equip4201</t>
   </si>
   <si>
@@ -1204,16 +1201,144 @@
     <t>지정 캐릭터 LBP1</t>
   </si>
   <si>
+    <t>영어(미국)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리스어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네덜란드어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러시아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루마니아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베트남어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스웨덴어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인어(멕시코)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인어(스페인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로바키아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랍어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우크라이나어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어(간체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어(번체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터키어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈어(브라질)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈어(포르투갈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴란드어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스어(캐나다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀란드어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헝가리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히브리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이폰 순서 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가</t>
+추가사항: 이펙트 최적화 및 빌드 안정성 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added a system to enable faster progress when retrying a chapter</t>
+Additional note: Effects optimization and build stability enhancements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1221,91 +1346,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل</t>
+ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзеная сістэма для таго, каб больш хутчэй прагрэс, калі паўторна паўтору кіраўніка</t>
+Дадатковая Заўвага: Эфекты Аптымізацыя і пабудаваць паляпшэнне стабільнасці</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: Добавена е система, която да позволи по-бърз напредък при повторение на глава</t>
+Допълнителна забележка: Ефекти Оптимизация и изграждане на подобрения на стабилността</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly</t>
+Další poznámka: optimalizace efektů a vytváření vylepšení stability</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren</t>
+Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου</t>
+Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo</t>
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen</t>
+Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre</t>
+Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor</t>
+Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab</t>
+Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo</t>
+Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק</t>
+הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות</t>
   </si>
   <si>
     <r>
@@ -1379,29 +1504,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：章を再試行するときに高速な進捗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>況を有</t>
+追加の注意：</t>
     </r>
     <r>
       <rPr>
@@ -1423,7 +1526,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>にするシステムを追加しました</t>
+      <t>果最適化とビルド安定性の向上</t>
     </r>
   </si>
   <si>
@@ -1431,84 +1534,115 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가</t>
+추가사항: 이펙트 최적화 및 빌드 안정성 강화</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab</t>
+Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk</t>
+Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału</t>
+Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo</t>
+Nota adicional: otimização de efeitos e aprimoramentos de estabilidade</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol</t>
+Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы</t>
+Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly</t>
+Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel</t>
+Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง</t>
+หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi</t>
+Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави</t>
+Додаткова нотатка: оптимізація ефектів та підвищення стабільності</t>
+  </si>
+  <si>
+    <r>
+      <t>慶祝全球釋放！_x000D_
+_x000D_
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：效果優化和構建穩定性增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1537,7 +1671,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh h</t>
+      <t xml:space="preserve">u ý bổ sung: Tối </t>
     </r>
     <r>
       <rPr>
@@ -1547,7 +1681,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ơ</t>
+      <t>ư</t>
     </r>
     <r>
       <rPr>
@@ -1558,28 +1692,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n khi thử lại một ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ng</t>
+      <t>u hóa hiệu ứng và xây dựng các cải tiến ổn định</t>
     </r>
   </si>
   <si>
@@ -1610,7 +1723,7 @@
       </rPr>
       <t>物！_x000D_
 _x000D_
-附加说明：添加一</t>
+附加说明：效果</t>
     </r>
     <r>
       <rPr>
@@ -1618,10 +1731,10 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="128"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>个</t>
+      <t>优</t>
     </r>
     <r>
       <rPr>
@@ -1632,16 +1745,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>系统以在重试章节时启用更快的进度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>慶祝全球釋放！_x000D_
-_x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加一個系統以在重試章節時</t>
+      <t>化和</t>
     </r>
     <r>
       <rPr>
@@ -1652,146 +1756,25 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>啟</t>
+      <t>构</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>用更快的進度</t>
+      <t>建稳定性增强功能</t>
     </r>
   </si>
   <si>
-    <t>영어(미국)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리스어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네덜란드어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독일어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>러시아어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루마니아어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베트남어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스웨덴어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페인어(멕시코)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페인어(스페인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로바키아어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아랍어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우크라이나어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이탈리아어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인도네시아어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국어(간체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국어(번체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터키어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르투갈어(브라질)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르투갈어(포르투갈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴란드어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스어(캐나다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헝가리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히브리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이폰 순서 참고</t>
+    <t>Equip7302</t>
+  </si>
+  <si>
+    <t>Equip1101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3359,8 +3342,8 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3799,9 +3782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6456,7 +6439,7 @@
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6999,10 +6982,10 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
+        <v>268</v>
+      </c>
+      <c r="D168" t="s">
         <v>269</v>
-      </c>
-      <c r="D168" t="s">
-        <v>270</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -7026,10 +7009,10 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7263,10 +7246,10 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
+        <v>268</v>
+      </c>
+      <c r="D180" t="s">
         <v>269</v>
-      </c>
-      <c r="D180" t="s">
-        <v>270</v>
       </c>
       <c r="E180">
         <v>70</v>
@@ -7290,10 +7273,10 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D181" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7320,7 +7303,7 @@
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7329,7 +7312,7 @@
         <v>96</v>
       </c>
       <c r="H182">
-        <v>22000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -7440,7 +7423,7 @@
         <v>106</v>
       </c>
       <c r="D187" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7449,7 +7432,7 @@
         <v>96</v>
       </c>
       <c r="H187">
-        <v>800</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -7464,7 +7447,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7473,7 +7456,7 @@
         <v>96</v>
       </c>
       <c r="H188">
-        <v>700</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -7548,7 +7531,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7557,7 +7540,7 @@
         <v>96</v>
       </c>
       <c r="H194">
-        <v>23000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -7623,13 +7606,13 @@
         <v>51915</v>
       </c>
       <c r="E197">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F197" t="s">
         <v>96</v>
       </c>
       <c r="H197">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7668,7 +7651,7 @@
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7677,7 +7660,7 @@
         <v>96</v>
       </c>
       <c r="H199">
-        <v>22500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -7692,7 +7675,7 @@
         <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -7701,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="H200">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -7716,16 +7699,16 @@
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H201">
-        <v>2900</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -7896,7 +7879,7 @@
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -7944,7 +7927,7 @@
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8124,7 +8107,7 @@
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -8172,7 +8155,7 @@
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -8232,7 +8215,7 @@
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8916,7 +8899,7 @@
         <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9084,7 +9067,7 @@
         <v>106</v>
       </c>
       <c r="D273" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -9168,7 +9151,7 @@
         <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9264,7 +9247,7 @@
         <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9288,7 +9271,7 @@
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9372,7 +9355,7 @@
         <v>106</v>
       </c>
       <c r="D290" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9396,7 +9379,7 @@
         <v>106</v>
       </c>
       <c r="D291" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -9516,7 +9499,7 @@
         <v>106</v>
       </c>
       <c r="D296" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9768,7 +9751,7 @@
         <v>106</v>
       </c>
       <c r="D309" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -9972,7 +9955,7 @@
         <v>106</v>
       </c>
       <c r="D320" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -9996,7 +9979,7 @@
         <v>106</v>
       </c>
       <c r="D321" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -10080,7 +10063,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -10200,7 +10183,7 @@
         <v>106</v>
       </c>
       <c r="D332" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -10224,7 +10207,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10284,7 +10267,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10404,7 +10387,7 @@
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10428,7 +10411,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10536,7 +10519,7 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -10680,7 +10663,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10740,7 +10723,7 @@
         <v>106</v>
       </c>
       <c r="D362" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -10908,7 +10891,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -10967,7 +10950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -11206,115 +11189,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -11326,7 +11309,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added a system to enable faster progress when retrying a chapter
+Additional note: Effects optimization and build stability enhancements
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11340,7 +11323,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل
+ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار
 &lt;/ar&gt;
 </v>
       </c>
@@ -11351,7 +11334,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзеная сістэма для таго, каб больш хутчэй прагрэс, калі паўторна паўтору кіраўніка
+Дадатковая Заўвага: Эфекты Аптымізацыя і пабудаваць паляпшэнне стабільнасці
 &lt;/be&gt;
 </v>
       </c>
@@ -11362,7 +11345,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: Добавена е система, която да позволи по-бърз напредък при повторение на глава
+Допълнителна забележка: Ефекти Оптимизация и изграждане на подобрения на стабилността
 &lt;/bg&gt;
 </v>
       </c>
@@ -11373,7 +11356,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly
+Další poznámka: optimalizace efektů a vytváření vylepšení stability
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11384,7 +11367,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren
+Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11395,7 +11378,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου
+Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11406,7 +11389,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11417,7 +11400,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11428,7 +11411,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11439,7 +11422,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen
+Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11450,7 +11433,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11461,7 +11444,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11472,7 +11455,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor
+Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11483,7 +11466,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab
+Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas
 &lt;/id&gt;
 </v>
       </c>
@@ -11494,7 +11477,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo
+Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11505,7 +11488,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק
+הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11516,7 +11499,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：章を再試行するときに高速な進捗状況を有効にするシステムを追加しました
+追加の注意：効果最適化とビルド安定性の向上
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11527,7 +11510,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가
+추가사항: 이펙트 최적화 및 빌드 안정성 강화
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11538,7 +11521,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
+Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
 &lt;/ms&gt;
 </v>
       </c>
@@ -11549,7 +11532,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
+Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11560,7 +11543,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk
+Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11571,7 +11554,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału
+Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11582,7 +11565,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11593,7 +11576,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11604,7 +11587,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol
+Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate
 &lt;/ro&gt;
 </v>
       </c>
@@ -11615,7 +11598,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы
+Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11626,7 +11609,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly
+Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability
 &lt;/sk&gt;
 </v>
       </c>
@@ -11637,7 +11620,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel
+Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11648,7 +11631,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง
+หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ
 &lt;/th&gt;
 </v>
       </c>
@@ -11659,7 +11642,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi
+Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11670,7 +11653,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави
+Додаткова нотатка: оптимізація ефектів та підвищення стабільності
 &lt;/uk&gt;
 </v>
       </c>
@@ -11681,7 +11664,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh hơn khi thử lại một chương
+Lưu ý bổ sung: Tối ưu hóa hiệu ứng và xây dựng các cải tiến ổn định
 &lt;/vi&gt;
 </v>
       </c>
@@ -11692,7 +11675,7 @@
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：添加一个系统以在重试章节时启用更快的进度
+附加说明：效果优化和构建稳定性增强功能
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11703,7 +11686,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：添加一個系統以在重試章節時啟用更快的進度
+附加說明：效果優化和構建穩定性增強功能
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11714,12 +11697,12 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：添加一個系統以在重試章節時啟用更快的進度
+附加說明：效果優化和構建穩定性增強功能
 &lt;/zh-TW&gt;
 </v>
       </c>
       <c r="AS4" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
@@ -11728,262 +11711,262 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added a system to enable faster progress when retrying a chapter
+Additional note: Effects optimization and build stability enhancements
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل
+ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзеная сістэма для таго, каб больш хутчэй прагрэс, калі паўторна паўтору кіраўніка
+Дадатковая Заўвага: Эфекты Аптымізацыя і пабудаваць паляпшэнне стабільнасці
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: Добавена е система, която да позволи по-бърз напредък при повторение на глава
+Допълнителна забележка: Ефекти Оптимизация и изграждане на подобрения на стабилността
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly
+Další poznámka: optimalizace efektů a vytváření vylepšení stability
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren
+Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου
+Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen
+Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor
+Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab
+Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo
+Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק
+הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：章を再試行するときに高速な進捗状況を有効にするシステムを追加しました
+追加の注意：効果最適化とビルド安定性の向上
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가
+추가사항: 이펙트 최적화 및 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
+Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
+Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk
+Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału
+Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol
+Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы
+Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly
+Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel
+Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง
+หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi
+Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави
+Додаткова нотатка: оптимізація ефектів та підвищення стабільності
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh hơn khi thử lại một chương
+Lưu ý bổ sung: Tối ưu hóa hiệu ứng và xây dựng các cải tiến ổn định
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：添加一个系统以在重试章节时启用更快的进度
+附加说明：效果优化和构建稳定性增强功能
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：添加一個系統以在重試章節時啟用更快的進度
+附加說明：效果優化和構建穩定性增強功能
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：添加一個系統以在重試章節時啟用更快的進度
+附加說明：效果優化和構建穩定性增強功能
 &lt;/zh-TW&gt;
 </v>
       </c>
       <c r="AS6" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
@@ -11999,12 +11982,12 @@
         <v>217</v>
       </c>
       <c r="AS8" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS9" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -12018,226 +12001,205 @@
         <v>214</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(H4,N4,AC4,M4,AH4,AG4,AA4,AN4,AJ4,O4,P4,AI4,I4,AM4,W4,V4,Y4,AO4,AQ4,L4,AK4,AL4,AE4,AF4,AD4,T4,S4,R4,Z4,U4,X4)</f>
+        <f>CONCATENATE(H4,N4,AC4,M4,AH4,AG4,AA4,AN4,AJ4,P4,AI4,I4,AM4,W4,V4,Y4,AO4,AQ4,L4,AK4,AL4,AF4,AD4,T4,R4,Z4,U4,X4)</f>
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added a system to enable faster progress when retrying a chapter
+Additional note: Effects optimization and build stability enhancements
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκε ένα σύστημα που θα επιτρέψει ταχύτερη πρόοδο κατά την επανάληψη ενός κεφαλαίου
+Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: een systeem toegevoegd om snellere vooruitgang mogelijk te maken bij het opnieuw proberen van een hoofdstuk
+Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Ein System hinzugefügt, um einen schnelleren Fortschritt beim Wiederzielen eines Kapitels zu aktivieren
+Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлена ​​система, позволяющая быстрее прогрессу при повторной попытке главы
+Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: A fost adăugat un sistem care să permită progresul mai rapid atunci când reîncercați un capitol
+Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah sistem untuk membolehkan kemajuan yang lebih cepat apabila mencuba semula bab
+Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm một hệ thống để cho phép tiến trình nhanh hơn khi thử lại một chương
+Lưu ý bổ sung: Tối ưu hóa hiệu ứng và xây dựng các cải tiến ổn định
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Lades till ett system för att möjliggöra snabbare framsteg när du stannar ett kapitel
+Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar
 &lt;/sv-SE&gt;
-&lt;es-419&gt;
-¡Celebra el lanzamiento global!_x000D_
-_x000D_
-¡Inicia sesión todos los días para recibir los regalos!_x000D_
-_x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
-&lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: agregó un sistema para permitir un progreso más rápido al volver a intentar un capítulo
+Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridal systém, ktorý umožňuje rýchlejší pokrok pri opakovaní kapitoly
+Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة نظام لتمكين تقدم أسرع عند إعادة محاولة الفصل
+ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додана система, щоб увімкнути швидший прогрес при повторенні глави
+Додаткова нотатка: оптимізація ефектів та підвищення стабільності
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ha aggiunto un sistema per abilitare progressi più veloci durante la riproduzione di un capitolo
+Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan sistem untuk memungkinkan kemajuan yang lebih cepat saat mencoba kembali bab
+Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：章を再試行するときに高速な進捗状況を有効にするシステムを追加しました
+追加の注意：効果最適化とビルド安定性の向上
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：添加一个系统以在重试章节时启用更快的进度
+附加说明：效果优化和构建稳定性增强功能
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：添加一個系統以在重試章節時啟用更快的進度
+附加說明：效果優化和構建穩定性增強功能
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno systém, který umožňuje rychlejší pokrok při opakování kapitoly
+Další poznámka: optimalizace efektů a vytváření vylepšení stability
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มระบบเพื่อเปิดใช้งานความคืบหน้าได้เร็วขึ้นเมื่อลองอีกครั้ง
+หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Bir bölümü yeniden denirken daha hızlı ilerlemeyi etkinleştirmek için bir sistem eklendi
+Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri
 &lt;/tr-TR&gt;
-&lt;pt-BR&gt;
-Comemore a liberação global!_x000D_
-_x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
-&lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado um sistema para permitir um progresso mais rápido ao tentar novamente um capítulo
+Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Dodano system, który umożliwia szybsze postępy podczas ponawiania rozdziału
+Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
+Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
 &lt;/fr-FR&gt;
-&lt;fr-CA&gt;
-Célébrez la version globale!_x000D_
-_x000D_
-Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
-_x000D_
-Remarque supplémentaire: Ajout d'un système pour permettre des progrès plus rapides lors de la réparation d'un chapitre
-&lt;/fr-CA&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty järjestelmä, joka mahdollistaa nopeamman edistyksen uudelleen, kun yrität uudelleen
+Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 챕터 재도전 시 빠른 진행 가능하도록 시스템 추가
+추가사항: 이펙트 최적화 및 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott egy rendszert, hogy gyorsabban haladjon a fejezet újrapróbálkozásakor
+Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת מערכת כדי לאפשר התקדמות מהירה יותר בעת ניסיון מחדש של פרק
+הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>
       <c r="AS10" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
@@ -12255,7 +12217,7 @@
         <v>125</v>
       </c>
       <c r="AS11" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -12274,7 +12236,7 @@
         <v>ar</v>
       </c>
       <c r="AS12" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -12293,7 +12255,7 @@
         <v>be</v>
       </c>
       <c r="AS13" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
@@ -12312,7 +12274,7 @@
         <v>bg</v>
       </c>
       <c r="AS14" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
@@ -12331,7 +12293,7 @@
         <v>cs</v>
       </c>
       <c r="AS15" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
@@ -12350,7 +12312,7 @@
         <v>de</v>
       </c>
       <c r="AS16" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
@@ -12369,7 +12331,7 @@
         <v>el</v>
       </c>
       <c r="AS17" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
@@ -12388,7 +12350,7 @@
         <v>es</v>
       </c>
       <c r="AS18" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
@@ -12407,7 +12369,7 @@
         <v>es</v>
       </c>
       <c r="AS19" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
@@ -12426,7 +12388,7 @@
         <v>es</v>
       </c>
       <c r="AS20" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
@@ -12445,7 +12407,7 @@
         <v>fi</v>
       </c>
       <c r="AS21" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
@@ -12464,7 +12426,7 @@
         <v>fr</v>
       </c>
       <c r="AS22" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
@@ -12483,7 +12445,7 @@
         <v>fr</v>
       </c>
       <c r="AS23" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
@@ -12502,7 +12464,7 @@
         <v>hu</v>
       </c>
       <c r="AS24" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
@@ -12521,7 +12483,7 @@
         <v>id</v>
       </c>
       <c r="AS25" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
@@ -12540,7 +12502,7 @@
         <v>it</v>
       </c>
       <c r="AS26" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
@@ -12559,7 +12521,7 @@
         <v>he</v>
       </c>
       <c r="AS27" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
@@ -12578,7 +12540,7 @@
         <v>ja</v>
       </c>
       <c r="AS28" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
@@ -12596,7 +12558,7 @@
         <v>216</v>
       </c>
       <c r="AS29" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
@@ -12615,7 +12577,7 @@
         <v>ms</v>
       </c>
       <c r="AS30" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
@@ -12634,7 +12596,7 @@
         <v>ms</v>
       </c>
       <c r="AS31" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -12653,7 +12615,7 @@
         <v>nl</v>
       </c>
       <c r="AS32" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
@@ -12672,7 +12634,7 @@
         <v>pl</v>
       </c>
       <c r="AS33" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.3">
@@ -12691,7 +12653,7 @@
         <v>pt</v>
       </c>
       <c r="AS34" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.3">
@@ -12710,7 +12672,7 @@
         <v>pt</v>
       </c>
       <c r="AS35" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.3">
@@ -12729,7 +12691,7 @@
         <v>ro</v>
       </c>
       <c r="AS36" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0C946-70D7-4C37-99C2-C4E7E84E7C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D533AE1-B2E7-42FE-9160-4237CDCC6C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="337">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,9 +1145,6 @@
   </si>
   <si>
     <t>Equip7201</t>
-  </si>
-  <si>
-    <t>Equip7102</t>
   </si>
   <si>
     <t>Equip2002</t>
@@ -1776,6 +1773,12 @@
   <si>
     <t>Equip1101</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip8002</t>
+  </si>
+  <si>
+    <t>Equip4202</t>
   </si>
 </sst>
 </file>
@@ -3783,8 +3786,8 @@
   <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D199" sqref="D199"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6439,7 +6442,7 @@
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6982,10 +6985,10 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" t="s">
         <v>268</v>
-      </c>
-      <c r="D168" t="s">
-        <v>269</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -7009,10 +7012,10 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D169" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7246,10 +7249,10 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
+        <v>267</v>
+      </c>
+      <c r="D180" t="s">
         <v>268</v>
-      </c>
-      <c r="D180" t="s">
-        <v>269</v>
       </c>
       <c r="E180">
         <v>70</v>
@@ -7273,10 +7276,10 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D181" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7447,7 +7450,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7531,7 +7534,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7699,7 +7702,7 @@
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -7756,19 +7759,16 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>106</v>
-      </c>
-      <c r="D206" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H206">
-        <v>74000</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -7783,7 +7783,7 @@
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -7903,7 +7903,7 @@
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -7912,7 +7912,7 @@
         <v>96</v>
       </c>
       <c r="H212">
-        <v>1500</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -7987,7 +7987,7 @@
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -8011,7 +8011,7 @@
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -8020,7 +8020,7 @@
         <v>96</v>
       </c>
       <c r="H219">
-        <v>3600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -8131,7 +8131,7 @@
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8140,7 +8140,7 @@
         <v>96</v>
       </c>
       <c r="H224">
-        <v>800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -8155,16 +8155,16 @@
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H225">
-        <v>3600</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -8215,7 +8215,7 @@
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -8899,7 +8899,7 @@
         <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9151,7 +9151,7 @@
         <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9247,7 +9247,7 @@
         <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9271,7 +9271,7 @@
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9355,7 +9355,7 @@
         <v>106</v>
       </c>
       <c r="D290" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9499,7 +9499,7 @@
         <v>106</v>
       </c>
       <c r="D296" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>106</v>
       </c>
       <c r="D309" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>106</v>
       </c>
       <c r="D320" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>106</v>
       </c>
       <c r="D321" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -10063,7 +10063,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -10207,7 +10207,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10267,7 +10267,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10387,7 +10387,7 @@
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10411,7 +10411,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10723,7 +10723,7 @@
         <v>106</v>
       </c>
       <c r="D362" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -10891,7 +10891,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -11189,115 +11189,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -11702,7 +11702,7 @@
 </v>
       </c>
       <c r="AS4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
@@ -11961,12 +11961,12 @@
 </v>
       </c>
       <c r="AS6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
@@ -11982,12 +11982,12 @@
         <v>217</v>
       </c>
       <c r="AS8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -12199,7 +12199,7 @@
 </v>
       </c>
       <c r="AS10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
@@ -12217,7 +12217,7 @@
         <v>125</v>
       </c>
       <c r="AS11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -12236,7 +12236,7 @@
         <v>ar</v>
       </c>
       <c r="AS12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -12255,7 +12255,7 @@
         <v>be</v>
       </c>
       <c r="AS13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
@@ -12274,7 +12274,7 @@
         <v>bg</v>
       </c>
       <c r="AS14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
@@ -12293,7 +12293,7 @@
         <v>cs</v>
       </c>
       <c r="AS15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
@@ -12312,7 +12312,7 @@
         <v>de</v>
       </c>
       <c r="AS16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
@@ -12331,7 +12331,7 @@
         <v>el</v>
       </c>
       <c r="AS17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
@@ -12350,7 +12350,7 @@
         <v>es</v>
       </c>
       <c r="AS18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
@@ -12369,7 +12369,7 @@
         <v>es</v>
       </c>
       <c r="AS19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
@@ -12388,7 +12388,7 @@
         <v>es</v>
       </c>
       <c r="AS20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
@@ -12407,7 +12407,7 @@
         <v>fi</v>
       </c>
       <c r="AS21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
@@ -12426,7 +12426,7 @@
         <v>fr</v>
       </c>
       <c r="AS22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
@@ -12445,7 +12445,7 @@
         <v>fr</v>
       </c>
       <c r="AS23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
@@ -12464,7 +12464,7 @@
         <v>hu</v>
       </c>
       <c r="AS24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
@@ -12483,7 +12483,7 @@
         <v>id</v>
       </c>
       <c r="AS25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
@@ -12502,7 +12502,7 @@
         <v>it</v>
       </c>
       <c r="AS26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
@@ -12521,7 +12521,7 @@
         <v>he</v>
       </c>
       <c r="AS27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
@@ -12540,7 +12540,7 @@
         <v>ja</v>
       </c>
       <c r="AS28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
@@ -12558,7 +12558,7 @@
         <v>216</v>
       </c>
       <c r="AS29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
@@ -12577,7 +12577,7 @@
         <v>ms</v>
       </c>
       <c r="AS30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
@@ -12596,7 +12596,7 @@
         <v>ms</v>
       </c>
       <c r="AS31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -12615,7 +12615,7 @@
         <v>nl</v>
       </c>
       <c r="AS32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
@@ -12634,7 +12634,7 @@
         <v>pl</v>
       </c>
       <c r="AS33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.3">
@@ -12653,7 +12653,7 @@
         <v>pt</v>
       </c>
       <c r="AS34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.3">
@@ -12672,7 +12672,7 @@
         <v>pt</v>
       </c>
       <c r="AS35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.3">
@@ -12691,7 +12691,7 @@
         <v>ro</v>
       </c>
       <c r="AS36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D533AE1-B2E7-42FE-9160-4237CDCC6C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F970FD0B-3835-4154-BD01-F6058EA95518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -1326,16 +1326,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Equip7302</t>
+  </si>
+  <si>
+    <t>Equip1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip8002</t>
+  </si>
+  <si>
+    <t>Equip4202</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 이펙트 최적화 및 빌드 안정성 강화</t>
+추가사항: UI 개선 및 빌드 안정성 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Effects optimization and build stability enhancements</t>
+Additional note: Improved UI and build stability enhancements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1343,91 +1356,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار</t>
+ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Эфекты Аптымізацыя і пабудаваць паляпшэнне стабільнасці</t>
+Дадатковая Заўвага: Палепшаная UI і пабудаваць паляпшэнне стабільнасці</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Ефекти Оптимизация и изграждане на подобрения на стабилността</t>
+Допълнителна бележка: подобрена UI и изграждане на подобрения на стабилността</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: optimalizace efektů a vytváření vylepšení stability</t>
+Další poznámka: Vylepšené vylepšení stability UI a Sestavení</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität</t>
+Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας</t>
+Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad</t>
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset</t>
+Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité</t>
+Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése</t>
+Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas</t>
+Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità</t>
+Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות</t>
+הערה נוספת: UI משופרת לבנות שיפורים יציבות</t>
   </si>
   <si>
     <r>
@@ -1501,7 +1514,128 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：</t>
+追加の注意：改善されたUIとビルド安定性の向上</t>
+    </r>
+  </si>
+  <si>
+    <t>글로벌 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
+_x000D_
+추가사항: UI 개선 및 빌드 안정성 강화</t>
+  </si>
+  <si>
+    <t>Rayakan pelepasan global!_x000D_
+_x000D_
+Log masuk setiap hari untuk menerima hadiah!_x000D_
+_x000D_
+NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan</t>
+  </si>
+  <si>
+    <t>Vier de wereldwijde release!_x000D_
+_x000D_
+Log in elke dag om de geschenken te ontvangen!_x000D_
+_x000D_
+Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op</t>
+  </si>
+  <si>
+    <t>Świętuj globalne wydanie!_x000D_
+_x000D_
+Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
+_x000D_
+Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika</t>
+  </si>
+  <si>
+    <t>Comemore a liberação global!_x000D_
+_x000D_
+Faça o login todos os dias para receber os presentes!_x000D_
+_x000D_
+NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade</t>
+  </si>
+  <si>
+    <t>Sărbătoriți lansarea globală!_x000D_
+_x000D_
+Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
+_x000D_
+Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate</t>
+  </si>
+  <si>
+    <t>Отпразднуйте глобальный выпуск!_x000D_
+_x000D_
+Войдите каждый день, чтобы получить подарки!_x000D_
+_x000D_
+Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса</t>
+  </si>
+  <si>
+    <t>Oslávte globálne vydanie!_x000D_
+_x000D_
+Prihláste sa každý deň, aby ste dostali dary!_x000D_
+_x000D_
+Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability</t>
+  </si>
+  <si>
+    <t>Fira den globala utgåvan!_x000D_
+_x000D_
+Logga in varje dag för att ta emot presenterna!_x000D_
+_x000D_
+Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar</t>
+  </si>
+  <si>
+    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
+_x000D_
+เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
+_x000D_
+หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร</t>
+  </si>
+  <si>
+    <t>Küresel yayınları kutlayın!_x000D_
+_x000D_
+Hediyeleri almak için her gün giriş yapın!_x000D_
+_x000D_
+Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun</t>
+  </si>
+  <si>
+    <t>Святкуйте глобальний випуск!_x000D_
+_x000D_
+Увійдіть кожен день, щоб отримати подарунки!_x000D_
+_x000D_
+Додаткова нотатка: покращено UI та створюють покращення стабільності</t>
+  </si>
+  <si>
+    <r>
+      <t>Kỷ niệm phát hành toàn cầu!_x000D_
+_x000D_
+Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
+_x000D_
+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>庆祝全球释放！_x000D_
+_x000D_
+每天登录才能收到</t>
     </r>
     <r>
       <rPr>
@@ -1512,111 +1646,62 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>効</t>
+      <t>礼</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品！_x000D_
+_x000D_
+附加说明：改进的UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>果最適化とビルド安定性の向上</t>
+      <t>构</t>
     </r>
-  </si>
-  <si>
-    <t>글로벌 오픈 경축!_x000D_
-_x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
-_x000D_
-추가사항: 이펙트 최적화 및 빌드 안정성 강화</t>
-  </si>
-  <si>
-    <t>Rayakan pelepasan global!_x000D_
-_x000D_
-Log masuk setiap hari untuk menerima hadiah!_x000D_
-_x000D_
-Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan</t>
-  </si>
-  <si>
-    <t>Vier de wereldwijde release!_x000D_
-_x000D_
-Log in elke dag om de geschenken te ontvangen!_x000D_
-_x000D_
-Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen</t>
-  </si>
-  <si>
-    <t>Świętuj globalne wydanie!_x000D_
-_x000D_
-Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
-_x000D_
-Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności</t>
-  </si>
-  <si>
-    <t>Comemore a liberação global!_x000D_
-_x000D_
-Faça o login todos os dias para receber os presentes!_x000D_
-_x000D_
-Nota adicional: otimização de efeitos e aprimoramentos de estabilidade</t>
-  </si>
-  <si>
-    <t>Sărbătoriți lansarea globală!_x000D_
-_x000D_
-Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
-_x000D_
-Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate</t>
-  </si>
-  <si>
-    <t>Отпразднуйте глобальный выпуск!_x000D_
-_x000D_
-Войдите каждый день, чтобы получить подарки!_x000D_
-_x000D_
-Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости</t>
-  </si>
-  <si>
-    <t>Oslávte globálne vydanie!_x000D_
-_x000D_
-Prihláste sa každý deň, aby ste dostali dary!_x000D_
-_x000D_
-Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability</t>
-  </si>
-  <si>
-    <t>Fira den globala utgåvan!_x000D_
-_x000D_
-Logga in varje dag för att ta emot presenterna!_x000D_
-_x000D_
-Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar</t>
-  </si>
-  <si>
-    <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
-_x000D_
-เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
-_x000D_
-หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ</t>
-  </si>
-  <si>
-    <t>Küresel yayınları kutlayın!_x000D_
-_x000D_
-Hediyeleri almak için her gün giriş yapın!_x000D_
-_x000D_
-Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri</t>
-  </si>
-  <si>
-    <t>Святкуйте глобальний випуск!_x000D_
-_x000D_
-Увійдіть кожен день, щоб отримати подарунки!_x000D_
-_x000D_
-Додаткова нотатка: оптимізація ефектів та підвищення стабільності</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建稳定性增强功能</t>
+    </r>
   </si>
   <si>
     <r>
       <t>慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：效果優化和構建穩定性增</t>
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：改進的UI並構建穩定性增</t>
     </r>
     <r>
       <rPr>
@@ -1640,145 +1725,6 @@
       </rPr>
       <t>功能</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Kỷ niệm phát hành toàn cầu!_x000D_
-_x000D_
-Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
-_x000D_
-L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">u ý bổ sung: Tối </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u hóa hiệu ứng và xây dựng các cải tiến ổn định</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>庆祝全球释放！_x000D_
-_x000D_
-每天登录才能收到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>礼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>物！_x000D_
-_x000D_
-附加说明：效果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>化和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建稳定性增强功能</t>
-    </r>
-  </si>
-  <si>
-    <t>Equip7302</t>
-  </si>
-  <si>
-    <t>Equip1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip8002</t>
-  </si>
-  <si>
-    <t>Equip4202</t>
   </si>
 </sst>
 </file>
@@ -3785,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
@@ -7450,7 +7396,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7534,7 +7480,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -8131,7 +8077,7 @@
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8359,7 +8305,7 @@
         <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -10950,8 +10896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11189,115 +11135,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -11309,7 +11255,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Effects optimization and build stability enhancements
+Additional note: Improved UI and build stability enhancements
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11323,7 +11269,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار
+ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار
 &lt;/ar&gt;
 </v>
       </c>
@@ -11334,7 +11280,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Эфекты Аптымізацыя і пабудаваць паляпшэнне стабільнасці
+Дадатковая Заўвага: Палепшаная UI і пабудаваць паляпшэнне стабільнасці
 &lt;/be&gt;
 </v>
       </c>
@@ -11345,7 +11291,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Ефекти Оптимизация и изграждане на подобрения на стабилността
+Допълнителна бележка: подобрена UI и изграждане на подобрения на стабилността
 &lt;/bg&gt;
 </v>
       </c>
@@ -11356,7 +11302,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: optimalizace efektů a vytváření vylepšení stability
+Další poznámka: Vylepšené vylepšení stability UI a Sestavení
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11367,7 +11313,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität
+Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11378,7 +11324,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας
+Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11389,7 +11335,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11400,7 +11346,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11411,7 +11357,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11422,7 +11368,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset
+Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11433,7 +11379,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
+Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11444,7 +11390,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
+Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11455,7 +11401,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése
+Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11466,7 +11412,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas
+Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas
 &lt;/id&gt;
 </v>
       </c>
@@ -11477,7 +11423,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità
+Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11488,7 +11434,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות
+הערה נוספת: UI משופרת לבנות שיפורים יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11499,7 +11445,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：効果最適化とビルド安定性の向上
+追加の注意：改善されたUIとビルド安定性の向上
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11510,7 +11456,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 이펙트 최적화 및 빌드 안정성 강화
+추가사항: UI 개선 및 빌드 안정성 강화
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11521,7 +11467,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
+NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
 &lt;/ms&gt;
 </v>
       </c>
@@ -11532,7 +11478,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
+NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11543,7 +11489,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen
+Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11554,7 +11500,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności
+Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11565,7 +11511,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
+NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11576,7 +11522,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
+NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11587,7 +11533,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate
+Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate
 &lt;/ro&gt;
 </v>
       </c>
@@ -11598,7 +11544,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости
+Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11609,7 +11555,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability
+Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability
 &lt;/sk&gt;
 </v>
       </c>
@@ -11620,7 +11566,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar
+Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11631,7 +11577,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ
+หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร
 &lt;/th&gt;
 </v>
       </c>
@@ -11642,7 +11588,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri
+Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11653,7 +11599,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: оптимізація ефектів та підвищення стабільності
+Додаткова нотатка: покращено UI та створюють покращення стабільності
 &lt;/uk&gt;
 </v>
       </c>
@@ -11664,7 +11610,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Tối ưu hóa hiệu ứng và xây dựng các cải tiến ổn định
+Lưu ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định
 &lt;/vi&gt;
 </v>
       </c>
@@ -11673,9 +11619,9 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：效果优化和构建稳定性增强功能
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：改进的UI并构建稳定性增强功能
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11684,9 +11630,9 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：效果優化和構建穩定性增強功能
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：改進的UI並構建穩定性增強功能
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11695,9 +11641,9 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：效果優化和構建穩定性增強功能
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：改進的UI並構建穩定性增強功能
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11711,252 +11657,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Effects optimization and build stability enhancements
+Additional note: Improved UI and build stability enhancements
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار
+ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Эфекты Аптымізацыя і пабудаваць паляпшэнне стабільнасці
+Дадатковая Заўвага: Палепшаная UI і пабудаваць паляпшэнне стабільнасці
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Ефекти Оптимизация и изграждане на подобрения на стабилността
+Допълнителна бележка: подобрена UI и изграждане на подобрения на стабилността
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: optimalizace efektů a vytváření vylepšení stability
+Další poznámka: Vylepšené vylepšení stability UI a Sestavení
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität
+Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας
+Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset
+Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
+Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
+Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése
+Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas
+Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità
+Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות
+הערה נוספת: UI משופרת לבנות שיפורים יציבות
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：効果最適化とビルド安定性の向上
+追加の注意：改善されたUIとビルド安定性の向上
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 이펙트 최적화 및 빌드 안정성 강화
+추가사항: UI 개선 및 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
+NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
+NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen
+Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności
+Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
+NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
+NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate
+Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости
+Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability
+Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar
+Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ
+หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri
+Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: оптимізація ефектів та підвищення стабільності
+Додаткова нотатка: покращено UI та створюють покращення стабільності
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Tối ưu hóa hiệu ứng và xây dựng các cải tiến ổn định
+Lưu ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：效果优化和构建稳定性增强功能
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：改进的UI并构建稳定性增强功能
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：效果優化和構建穩定性增強功能
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：改進的UI並構建穩定性增強功能
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：效果優化和構建穩定性增強功能
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：改進的UI並構建穩定性增強功能
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -12005,196 +11951,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Effects optimization and build stability enhancements
+Additional note: Improved UI and build stability enhancements
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Επιδράσεις βελτιστοποίησης και οικοδόμηση βελτιώσεων σταθερότητας
+Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Effecten Optimalisatie en Bouw Stabiliteitsverbeteringen
+Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Effekte Optimierung und Verbesserungen der Stabilität
+Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: оптимизация эффектов и повышения стабильности устойчивости
+Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Optimizarea efectelor și construirea îmbunătățirilor de stabilitate
+Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Pengoptimuman Kesan dan membina peningkatan kestabilan
+NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Tối ưu hóa hiệu ứng và xây dựng các cải tiến ổn định
+Lưu ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Effekter optimering och bygga stabilitetsförbättringar
+Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Optimización de efectos y creación de mejoras de estabilidad
+NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Optimalizácia účinkov a vybudovanie vylepšenia stability
+Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تأثيرات الأمثل وبناء تحسينات الاستقرار
+ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: оптимізація ефектів та підвищення стабільності
+Додаткова нотатка: покращено UI та створюють покращення стабільності
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: ottimizzazione degli effetti e miglioramenti della stabilità
+Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Efek Optimasi dan Membangun Peningkatan Stabilitas
+Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：効果最適化とビルド安定性の向上
+追加の注意：改善されたUIとビルド安定性の向上
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：效果优化和构建稳定性增强功能
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：改进的UI并构建稳定性增强功能
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：效果優化和構建穩定性增強功能
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：改進的UI並構建穩定性增強功能
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: optimalizace efektů a vytváření vylepšení stability
+Další poznámka: Vylepšené vylepšení stability UI a Sestavení
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เอฟเฟกต์การเพิ่มประสิทธิภาพและสร้างการปรับปรุงเสถียรภาพ
+หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: efektler optimizasyonu ve inşa stabilite geliştirmeleri
+Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: otimização de efeitos e aprimoramentos de estabilidade
+NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Optymalizacja efektów i zbuduj ulepszenia stabilności
+Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: optimisation des effets et renforcement des améliorations de stabilité
+Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Vaikutus Optimointi ja rakentaa vakausparannukset
+Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 이펙트 최적화 및 빌드 안정성 강화
+추가사항: UI 개선 및 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Effektek optimalizálása és stabilitási fejlesztések építése
+Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: אפקטים אופטימיזציה לבנות שיפורים יציבות
+הערה נוספת: UI משופרת לבנות שיפורים יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F970FD0B-3835-4154-BD01-F6058EA95518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2F4CC-CE84-4BDC-947C-41A7264C5B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="343">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1725,6 +1725,24 @@
       </rPr>
       <t>功能</t>
     </r>
+  </si>
+  <si>
+    <t>Equip7102</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
+  </si>
+  <si>
+    <t>Actor0007</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>Actor2120</t>
+  </si>
+  <si>
+    <t>지정 캐릭터</t>
   </si>
 </sst>
 </file>
@@ -3731,9 +3749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -8509,16 +8527,16 @@
         <v>106</v>
       </c>
       <c r="D247" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="E247">
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H247">
-        <v>98</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -8533,16 +8551,16 @@
         <v>106</v>
       </c>
       <c r="D248" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E248">
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H248">
-        <v>3500</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -8577,6 +8595,24 @@
       <c r="B250">
         <v>8</v>
       </c>
+      <c r="C250" t="s">
+        <v>269</v>
+      </c>
+      <c r="D250" t="s">
+        <v>338</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>98</v>
+      </c>
+      <c r="G250">
+        <v>55</v>
+      </c>
+      <c r="H250">
+        <v>37</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
@@ -8586,6 +8622,24 @@
       <c r="B251">
         <v>9</v>
       </c>
+      <c r="C251" t="s">
+        <v>269</v>
+      </c>
+      <c r="D251" t="s">
+        <v>339</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>98</v>
+      </c>
+      <c r="G251">
+        <v>55</v>
+      </c>
+      <c r="H251">
+        <v>37</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
@@ -8595,6 +8649,24 @@
       <c r="B252">
         <v>10</v>
       </c>
+      <c r="C252" t="s">
+        <v>267</v>
+      </c>
+      <c r="D252" t="s">
+        <v>341</v>
+      </c>
+      <c r="E252">
+        <v>140</v>
+      </c>
+      <c r="F252" t="s">
+        <v>98</v>
+      </c>
+      <c r="G252">
+        <v>135</v>
+      </c>
+      <c r="H252">
+        <v>77</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
@@ -8604,6 +8676,24 @@
       <c r="B253">
         <v>11</v>
       </c>
+      <c r="C253" t="s">
+        <v>342</v>
+      </c>
+      <c r="D253" t="s">
+        <v>341</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>98</v>
+      </c>
+      <c r="G253">
+        <v>209</v>
+      </c>
+      <c r="H253">
+        <v>99</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
@@ -8805,6 +8895,24 @@
       <c r="B262">
         <v>8</v>
       </c>
+      <c r="C262" t="s">
+        <v>269</v>
+      </c>
+      <c r="D262" t="s">
+        <v>340</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>98</v>
+      </c>
+      <c r="G262">
+        <v>209</v>
+      </c>
+      <c r="H262">
+        <v>129</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
@@ -8814,6 +8922,24 @@
       <c r="B263">
         <v>9</v>
       </c>
+      <c r="C263" t="s">
+        <v>267</v>
+      </c>
+      <c r="D263" t="s">
+        <v>339</v>
+      </c>
+      <c r="E263">
+        <v>80</v>
+      </c>
+      <c r="F263" t="s">
+        <v>98</v>
+      </c>
+      <c r="G263">
+        <v>50</v>
+      </c>
+      <c r="H263">
+        <v>33</v>
+      </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
@@ -8823,6 +8949,24 @@
       <c r="B264">
         <v>10</v>
       </c>
+      <c r="C264" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" t="s">
+        <v>341</v>
+      </c>
+      <c r="E264">
+        <v>140</v>
+      </c>
+      <c r="F264" t="s">
+        <v>98</v>
+      </c>
+      <c r="G264">
+        <v>135</v>
+      </c>
+      <c r="H264">
+        <v>77</v>
+      </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
@@ -8831,6 +8975,24 @@
       </c>
       <c r="B265">
         <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>342</v>
+      </c>
+      <c r="D265" t="s">
+        <v>341</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>98</v>
+      </c>
+      <c r="G265">
+        <v>209</v>
+      </c>
+      <c r="H265">
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -10896,7 +11058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2F4CC-CE84-4BDC-947C-41A7264C5B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6F5E0-D8DF-4DB0-AC88-86B1C3389CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="343">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,16 +1339,34 @@
     <t>Equip4202</t>
   </si>
   <si>
+    <t>Equip7102</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
+  </si>
+  <si>
+    <t>Actor0007</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>Actor2120</t>
+  </si>
+  <si>
+    <t>지정 캐릭터</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: UI 개선 및 빌드 안정성 강화</t>
+추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved UI and build stability enhancements</t>
+Additional note: Added Guide Quests and improved Side Quests UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1356,91 +1374,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار</t>
+ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Палепшаная UI і пабудаваць паляпшэнне стабільнасці</t>
+Дадатковая Заўвага: Дададзеныя кіраўніцтва квэсты і палепшаныя бакавыя заданні UI</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: подобрена UI и изграждане на подобрения на стабилността</t>
+Допълнителна забележка: Добавени водещи куестове и подобрени странични куестове UI</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené vylepšení stability UI a Sestavení</t>
+Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen</t>
+Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας</t>
+Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad</t>
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset</t>
+Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité</t>
+Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése</t>
+Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas</t>
+Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione</t>
+Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: UI משופרת לבנות שיפורים יציבות</t>
+הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI</t>
   </si>
   <si>
     <r>
@@ -1514,7 +1532,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：改善されたUIとビルド安定性の向上</t>
+追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました</t>
     </r>
   </si>
   <si>
@@ -1522,84 +1540,84 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: UI 개선 및 빌드 안정성 강화</t>
+추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan</t>
+Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op</t>
+Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika</t>
+Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade</t>
+Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate</t>
+Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса</t>
+Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability</t>
+Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar</t>
+Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร</t>
+หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun</t>
+Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращено UI та створюють покращення стабільності</t>
+Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI</t>
   </si>
   <si>
     <r>
@@ -1628,7 +1646,28 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định</t>
+      <t>u ý bổ sung: Đã thêm H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI</t>
     </r>
   </si>
   <si>
@@ -1659,97 +1698,22 @@
       </rPr>
       <t>品！_x000D_
 _x000D_
-附加说明：改进的UI</t>
+附加说明：添加了指南任务和改进的侧任务UI</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>并</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建稳定性增强功能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>慶祝全球釋放！_x000D_
-_x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：改進的UI並構建穩定性增</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>強</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>功能</t>
-    </r>
-  </si>
-  <si>
-    <t>Equip7102</t>
-  </si>
-  <si>
-    <t>Actor2010</t>
-  </si>
-  <si>
-    <t>Actor0007</t>
-  </si>
-  <si>
-    <t>Actor2103</t>
-  </si>
-  <si>
-    <t>Actor2120</t>
-  </si>
-  <si>
-    <t>지정 캐릭터</t>
+  </si>
+  <si>
+    <t>慶祝全球釋放！_x000D_
+_x000D_
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了指南任務和改進的側任務UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,14 +1764,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3309,8 +3265,8 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3750,8 +3706,8 @@
   <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -8527,7 +8483,7 @@
         <v>106</v>
       </c>
       <c r="D247" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -8599,7 +8555,7 @@
         <v>269</v>
       </c>
       <c r="D250" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -8626,7 +8582,7 @@
         <v>269</v>
       </c>
       <c r="D251" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -8653,7 +8609,7 @@
         <v>267</v>
       </c>
       <c r="D252" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E252">
         <v>140</v>
@@ -8677,10 +8633,10 @@
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D253" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -8899,7 +8855,7 @@
         <v>269</v>
       </c>
       <c r="D262" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -8926,7 +8882,7 @@
         <v>267</v>
       </c>
       <c r="D263" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="E263">
         <v>80</v>
@@ -8953,7 +8909,7 @@
         <v>267</v>
       </c>
       <c r="D264" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E264">
         <v>140</v>
@@ -8977,10 +8933,10 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D265" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -9007,7 +8963,7 @@
         <v>106</v>
       </c>
       <c r="D266" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9016,7 +8972,7 @@
         <v>96</v>
       </c>
       <c r="H266">
-        <v>2200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -9058,13 +9014,13 @@
         <v>68138</v>
       </c>
       <c r="E268">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F268" t="s">
         <v>96</v>
       </c>
       <c r="H268">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -9124,19 +9080,19 @@
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>109</v>
-      </c>
-      <c r="D271">
-        <v>87049</v>
+        <v>106</v>
+      </c>
+      <c r="D271" t="s">
+        <v>256</v>
       </c>
       <c r="E271">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F271" t="s">
         <v>96</v>
       </c>
       <c r="H271">
-        <v>1400</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -9151,7 +9107,7 @@
         <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -9286,13 +9242,13 @@
         <v>80746</v>
       </c>
       <c r="E280">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F280" t="s">
         <v>96</v>
       </c>
       <c r="H280">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -9310,13 +9266,13 @@
         <v>4623</v>
       </c>
       <c r="E281">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F281" t="s">
         <v>96</v>
       </c>
       <c r="H281">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -9334,13 +9290,13 @@
         <v>53553</v>
       </c>
       <c r="E282">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F282" t="s">
         <v>96</v>
       </c>
       <c r="H282">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -9355,16 +9311,16 @@
         <v>106</v>
       </c>
       <c r="D283" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E283">
         <v>1</v>
       </c>
       <c r="F283" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H283">
-        <v>11</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -9403,7 +9359,7 @@
         <v>106</v>
       </c>
       <c r="D285" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -9412,7 +9368,7 @@
         <v>96</v>
       </c>
       <c r="H285">
-        <v>7600</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -11058,7 +11014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -11297,115 +11253,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -11417,7 +11373,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved UI and build stability enhancements
+Additional note: Added Guide Quests and improved Side Quests UI
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11431,7 +11387,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار
+ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI
 &lt;/ar&gt;
 </v>
       </c>
@@ -11442,7 +11398,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Палепшаная UI і пабудаваць паляпшэнне стабільнасці
+Дадатковая Заўвага: Дададзеныя кіраўніцтва квэсты і палепшаныя бакавыя заданні UI
 &lt;/be&gt;
 </v>
       </c>
@@ -11453,7 +11409,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: подобрена UI и изграждане на подобрения на стабилността
+Допълнителна забележка: Добавени водещи куестове и подобрени странични куестове UI
 &lt;/bg&gt;
 </v>
       </c>
@@ -11464,7 +11420,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené vylepšení stability UI a Sestavení
+Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11475,7 +11431,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen
+Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11486,7 +11442,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας
+Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11497,7 +11453,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11508,7 +11464,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11519,7 +11475,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11530,7 +11486,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset
+Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11541,7 +11497,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
+Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11552,7 +11508,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
+Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11563,7 +11519,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése
+Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11574,7 +11530,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas
+Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI
 &lt;/id&gt;
 </v>
       </c>
@@ -11585,7 +11541,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione
+Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11596,7 +11552,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: UI משופרת לבנות שיפורים יציבות
+הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11607,7 +11563,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：改善されたUIとビルド安定性の向上
+追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11618,7 +11574,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: UI 개선 및 빌드 안정성 강화
+추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11629,7 +11585,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
+Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
 &lt;/ms&gt;
 </v>
       </c>
@@ -11640,7 +11596,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
+Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11651,7 +11607,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op
+Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11662,7 +11618,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika
+Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11673,7 +11629,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
+Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11684,7 +11640,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
+Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11695,7 +11651,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate
+Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI
 &lt;/ro&gt;
 </v>
       </c>
@@ -11706,7 +11662,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса
+Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11717,7 +11673,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability
+Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI
 &lt;/sk&gt;
 </v>
       </c>
@@ -11728,7 +11684,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar
+Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11739,7 +11695,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร
+หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI
 &lt;/th&gt;
 </v>
       </c>
@@ -11750,7 +11706,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun
+Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11761,7 +11717,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращено UI та створюють покращення стабільності
+Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI
 &lt;/uk&gt;
 </v>
       </c>
@@ -11772,7 +11728,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định
+Lưu ý bổ sung: Đã thêm Hướng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI
 &lt;/vi&gt;
 </v>
       </c>
@@ -11783,7 +11739,7 @@
 _x000D_
 每天登录才能收到礼品！_x000D_
 _x000D_
-附加说明：改进的UI并构建稳定性增强功能
+附加说明：添加了指南任务和改进的侧任务UI
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11792,9 +11748,9 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：改進的UI並構建穩定性增強功能
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了指南任務和改進的側任務UI
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11803,9 +11759,9 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：改進的UI並構建穩定性增強功能
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了指南任務和改進的側任務UI
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11819,252 +11775,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved UI and build stability enhancements
+Additional note: Added Guide Quests and improved Side Quests UI
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار
+ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Палепшаная UI і пабудаваць паляпшэнне стабільнасці
+Дадатковая Заўвага: Дададзеныя кіраўніцтва квэсты і палепшаныя бакавыя заданні UI
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: подобрена UI и изграждане на подобрения на стабилността
+Допълнителна забележка: Добавени водещи куестове и подобрени странични куестове UI
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené vylepšení stability UI a Sestavení
+Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen
+Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας
+Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset
+Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
+Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
+Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése
+Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas
+Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione
+Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: UI משופרת לבנות שיפורים יציבות
+הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：改善されたUIとビルド安定性の向上
+追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: UI 개선 및 빌드 안정성 강화
+추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
+Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
+Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op
+Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika
+Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
+Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
+Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate
+Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса
+Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability
+Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar
+Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร
+หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun
+Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращено UI та створюють покращення стабільності
+Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định
+Lưu ý bổ sung: Đã thêm Hướng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼品！_x000D_
 _x000D_
-附加说明：改进的UI并构建稳定性增强功能
+附加说明：添加了指南任务和改进的侧任务UI
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：改進的UI並構建穩定性增強功能
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了指南任務和改進的側任務UI
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：改進的UI並構建穩定性增強功能
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了指南任務和改進的側任務UI
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -12113,196 +12069,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved UI and build stability enhancements
+Additional note: Added Guide Quests and improved Side Quests UI
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη UI και οικοδομήσουμε τις βελτιώσεις της σταθερότητας
+Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde UI en bouw de stabiliteitsverbeteringen op
+Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzeroberfläche und Stabilitätsverbesserungen
+Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенные улучшения устойчивости использования пользовательского интерфейса
+Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea UI și construirea îmbunătățirilor de stabilitate
+Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: UI yang lebih baik dan membina penambahbaikan kestabilan
+Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện UI và xây dựng các cải tiến ổn định
+Lưu ý bổ sung: Đã thêm Hướng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad UI och bygga stabilitetsförbättringar
+Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-NOTA ADICIONAL: Mejora de la UI mejorada y crea mejoras de estabilidad
+Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené vylepšenia stability UI a budovanie stability
+Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين UI وبناء تحسينات الاستقرار
+ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращено UI та створюють покращення стабільності
+Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento dell'UI e potenziamenti di stabilità della costruzione
+Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: UI yang ditingkatkan dan membangun peningkatan stabilitas
+Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：改善されたUIとビルド安定性の向上
+追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼品！_x000D_
 _x000D_
-附加说明：改进的UI并构建稳定性增强功能
+附加说明：添加了指南任务和改进的侧任务UI
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：改進的UI並構建穩定性增強功能
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了指南任務和改進的側任務UI
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené vylepšení stability UI a Sestavení
+Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุง UI และการปรับปรุงความเสถียร
+หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Geliştirilmiş UI ve stabilite geliştirmeleri oluşturun
+Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da interface do usuário e aprimoramentos de estabilidade
+Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszone ulepszenia stabilności interfejsu użytkownika
+Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Note supplémentaire: UI améliorée et renforcer les améliorations de la stabilité
+Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu UI ja rakentaa vakausparannukset
+Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: UI 개선 및 빌드 안정성 강화
+추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javult az UI és a stabilitási fejlesztések kiépítése
+Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: UI משופרת לבנות שיפורים יציבות
+הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6F5E0-D8DF-4DB0-AC88-86B1C3389CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC675423-E8ED-4232-A439-CE6123163086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="341">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,9 +1105,6 @@
     <t>Equip1101</t>
   </si>
   <si>
-    <t>Equip8101</t>
-  </si>
-  <si>
     <t>Equip5101</t>
   </si>
   <si>
@@ -1160,9 +1157,6 @@
   </si>
   <si>
     <t>Equip8302</t>
-  </si>
-  <si>
-    <t>Equip4102</t>
   </si>
   <si>
     <t>Equip4301</t>
@@ -3706,8 +3700,8 @@
   <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C278" sqref="C278"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6362,7 +6356,7 @@
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6470,7 +6464,7 @@
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6638,7 +6632,7 @@
         <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6722,7 +6716,7 @@
         <v>106</v>
       </c>
       <c r="D159" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -6866,7 +6860,7 @@
         <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -6905,10 +6899,10 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D168" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -6932,10 +6926,10 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D169" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7082,7 +7076,7 @@
         <v>106</v>
       </c>
       <c r="D175" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7106,7 +7100,7 @@
         <v>106</v>
       </c>
       <c r="D176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7130,7 +7124,7 @@
         <v>106</v>
       </c>
       <c r="D177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7169,10 +7163,10 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D180" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E180">
         <v>70</v>
@@ -7196,10 +7190,10 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D181" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7250,7 +7244,7 @@
         <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7370,7 +7364,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7394,7 +7388,7 @@
         <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7454,7 +7448,7 @@
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7478,7 +7472,7 @@
         <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7622,7 +7616,7 @@
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -7703,7 +7697,7 @@
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -7799,7 +7793,7 @@
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -7847,7 +7841,7 @@
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7907,7 +7901,7 @@
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -7931,7 +7925,7 @@
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -8027,7 +8021,7 @@
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -8051,7 +8045,7 @@
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8135,7 +8129,7 @@
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8279,7 +8273,7 @@
         <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -8483,7 +8477,7 @@
         <v>106</v>
       </c>
       <c r="D247" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -8531,7 +8525,7 @@
         <v>106</v>
       </c>
       <c r="D249" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -8552,10 +8546,10 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D250" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -8579,10 +8573,10 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D251" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -8606,10 +8600,10 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D252" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E252">
         <v>140</v>
@@ -8633,10 +8627,10 @@
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D253" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -8852,10 +8846,10 @@
         <v>8</v>
       </c>
       <c r="C262" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D262" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -8879,10 +8873,10 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D263" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E263">
         <v>80</v>
@@ -8906,10 +8900,10 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D264" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E264">
         <v>140</v>
@@ -8933,10 +8927,10 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D265" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -8987,7 +8981,7 @@
         <v>106</v>
       </c>
       <c r="D267" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -9083,7 +9077,7 @@
         <v>106</v>
       </c>
       <c r="D271" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -9107,7 +9101,7 @@
         <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -9131,7 +9125,7 @@
         <v>106</v>
       </c>
       <c r="D273" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -9215,7 +9209,7 @@
         <v>106</v>
       </c>
       <c r="D279" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9335,7 +9329,7 @@
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9359,7 +9353,7 @@
         <v>106</v>
       </c>
       <c r="D285" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -9419,7 +9413,7 @@
         <v>106</v>
       </c>
       <c r="D290" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9428,7 +9422,7 @@
         <v>96</v>
       </c>
       <c r="H290">
-        <v>1300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -9443,7 +9437,7 @@
         <v>106</v>
       </c>
       <c r="D291" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -9452,7 +9446,7 @@
         <v>98</v>
       </c>
       <c r="H291">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -9488,7 +9482,7 @@
         <v>3</v>
       </c>
       <c r="C293" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D293">
         <v>25033</v>
@@ -9536,19 +9530,19 @@
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>109</v>
-      </c>
-      <c r="D295">
-        <v>28096</v>
+        <v>106</v>
+      </c>
+      <c r="D295" t="s">
+        <v>257</v>
       </c>
       <c r="E295">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F295" t="s">
         <v>96</v>
       </c>
       <c r="H295">
-        <v>1000</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -9563,16 +9557,16 @@
         <v>106</v>
       </c>
       <c r="D296" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="E296">
         <v>1</v>
       </c>
       <c r="F296" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H296">
-        <v>12</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -9647,7 +9641,7 @@
         <v>106</v>
       </c>
       <c r="D302" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -9656,7 +9650,7 @@
         <v>96</v>
       </c>
       <c r="H302">
-        <v>900</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -9671,7 +9665,7 @@
         <v>106</v>
       </c>
       <c r="D303" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -9680,7 +9674,7 @@
         <v>96</v>
       </c>
       <c r="H303">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -9764,19 +9758,19 @@
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>109</v>
-      </c>
-      <c r="D307">
-        <v>5051</v>
+        <v>106</v>
+      </c>
+      <c r="D307" t="s">
+        <v>226</v>
       </c>
       <c r="E307">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F307" t="s">
         <v>96</v>
       </c>
       <c r="H307">
-        <v>900</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -9791,16 +9785,16 @@
         <v>106</v>
       </c>
       <c r="D308" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="E308">
         <v>1</v>
       </c>
       <c r="F308" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H308">
-        <v>74900</v>
+        <v>43</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -9815,7 +9809,7 @@
         <v>106</v>
       </c>
       <c r="D309" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -9875,7 +9869,7 @@
         <v>106</v>
       </c>
       <c r="D314" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -9884,7 +9878,7 @@
         <v>96</v>
       </c>
       <c r="H314">
-        <v>74400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -9899,7 +9893,7 @@
         <v>106</v>
       </c>
       <c r="D315" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -9995,7 +9989,7 @@
         <v>106</v>
       </c>
       <c r="D319" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -10004,7 +9998,7 @@
         <v>96</v>
       </c>
       <c r="H319">
-        <v>8300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -10019,7 +10013,7 @@
         <v>106</v>
       </c>
       <c r="D320" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -10043,7 +10037,7 @@
         <v>106</v>
       </c>
       <c r="D321" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -10127,7 +10121,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -10247,7 +10241,7 @@
         <v>106</v>
       </c>
       <c r="D332" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -10271,7 +10265,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10331,7 +10325,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10451,7 +10445,7 @@
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10475,7 +10469,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10583,7 +10577,7 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -10727,7 +10721,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10787,7 +10781,7 @@
         <v>106</v>
       </c>
       <c r="D362" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -10811,7 +10805,7 @@
         <v>106</v>
       </c>
       <c r="D363" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -10955,7 +10949,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -11253,115 +11247,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AK3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AL3" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AM3" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AO3" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AO3" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -11766,7 +11760,7 @@
 </v>
       </c>
       <c r="AS4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
@@ -12025,12 +12019,12 @@
 </v>
       </c>
       <c r="AS6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
@@ -12046,12 +12040,12 @@
         <v>217</v>
       </c>
       <c r="AS8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -12263,7 +12257,7 @@
 </v>
       </c>
       <c r="AS10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
@@ -12281,7 +12275,7 @@
         <v>125</v>
       </c>
       <c r="AS11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -12300,7 +12294,7 @@
         <v>ar</v>
       </c>
       <c r="AS12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -12319,7 +12313,7 @@
         <v>be</v>
       </c>
       <c r="AS13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
@@ -12338,7 +12332,7 @@
         <v>bg</v>
       </c>
       <c r="AS14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
@@ -12357,7 +12351,7 @@
         <v>cs</v>
       </c>
       <c r="AS15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
@@ -12376,7 +12370,7 @@
         <v>de</v>
       </c>
       <c r="AS16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
@@ -12395,7 +12389,7 @@
         <v>el</v>
       </c>
       <c r="AS17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
@@ -12414,7 +12408,7 @@
         <v>es</v>
       </c>
       <c r="AS18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
@@ -12433,7 +12427,7 @@
         <v>es</v>
       </c>
       <c r="AS19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
@@ -12452,7 +12446,7 @@
         <v>es</v>
       </c>
       <c r="AS20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
@@ -12471,7 +12465,7 @@
         <v>fi</v>
       </c>
       <c r="AS21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
@@ -12490,7 +12484,7 @@
         <v>fr</v>
       </c>
       <c r="AS22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
@@ -12509,7 +12503,7 @@
         <v>fr</v>
       </c>
       <c r="AS23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
@@ -12528,7 +12522,7 @@
         <v>hu</v>
       </c>
       <c r="AS24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
@@ -12547,7 +12541,7 @@
         <v>id</v>
       </c>
       <c r="AS25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
@@ -12566,7 +12560,7 @@
         <v>it</v>
       </c>
       <c r="AS26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
@@ -12585,7 +12579,7 @@
         <v>he</v>
       </c>
       <c r="AS27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
@@ -12604,7 +12598,7 @@
         <v>ja</v>
       </c>
       <c r="AS28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
@@ -12622,7 +12616,7 @@
         <v>216</v>
       </c>
       <c r="AS29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
@@ -12641,7 +12635,7 @@
         <v>ms</v>
       </c>
       <c r="AS30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
@@ -12660,7 +12654,7 @@
         <v>ms</v>
       </c>
       <c r="AS31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -12679,7 +12673,7 @@
         <v>nl</v>
       </c>
       <c r="AS32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
@@ -12698,7 +12692,7 @@
         <v>pl</v>
       </c>
       <c r="AS33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.3">
@@ -12717,7 +12711,7 @@
         <v>pt</v>
       </c>
       <c r="AS34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.3">
@@ -12736,7 +12730,7 @@
         <v>pt</v>
       </c>
       <c r="AS35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.3">
@@ -12755,7 +12749,7 @@
         <v>ro</v>
       </c>
       <c r="AS36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC675423-E8ED-4232-A439-CE6123163086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E9546-4F12-40B8-9808-754CED66244F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -1354,13 +1354,13 @@
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상</t>
+추가사항: 카오스 모드 개선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added Guide Quests and improved Side Quests UI</t>
+Additional note: Chaos Mode Improvement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,91 +1368,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI</t>
+ملاحظة إضافية: تحسين وضع الفوضى</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзеныя кіраўніцтва квэсты і палепшаныя бакавыя заданні UI</t>
+Дадатковая Заўвага: Паляпшэнне рэжыму хаосу</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавени водещи куестове и подобрени странични куестове UI</t>
+Допълнителна забележка: Подобряване на режима на хаос</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI</t>
+Další poznámka: zlepšení režimu chaosu</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI</t>
+Zusätzlicher Hinweis: Verbesserung der Chaos-Modus</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI</t>
+Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI</t>
+Nota Adicional: Mejora del modo CHAOS</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI</t>
+Muita huomautusta: CHAOS-tilan parantaminen</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI</t>
+Remarque supplémentaire: amélioration du mode Chaos</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui</t>
+Kiegészítő megjegyzés: Chaos módjavítás</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI</t>
+Catatan Tambahan: Perbaikan Mode Chaos</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui</t>
+Nota aggiuntiva: miglioramento della modalità Chaos</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI</t>
+הערה נוספת: שיפור מצב הכאוס</t>
   </si>
   <si>
     <r>
@@ -1526,92 +1526,114 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました</t>
+追加の注意：カオスモ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ド改善</t>
+    </r>
   </si>
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상</t>
+추가사항: 카오스 모드 개선</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI</t>
+Nota Tambahan: Penambahbaikan Mod Chaos</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI</t>
+Extra noot: Verbetering van de chaos-modus</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI</t>
+Uwaga dodatkowa: poprawa trybu chaosu</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI</t>
+Nota adicional: Melhoria do modo Caos</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI</t>
+Notă suplimentară: îmbunătățirea modului haos</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI</t>
+Дополнительное примечание: улучшение режима хаоса</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI</t>
+Dodatočná poznámka: Zlepšenie režimu chaosu</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI</t>
+Ytterligare anmärkning: Chaos Mode förbättring</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI</t>
+หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI</t>
+Ek not: kaos modu iyileştirme</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI</t>
+Додаткова нотатка: поліпшення режиму Chaos</t>
   </si>
   <si>
     <r>
@@ -1640,28 +1662,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Đã thêm H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ớng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI</t>
+      <t>u ý bổ sung: Cải thiện chế độ Chaos</t>
     </r>
   </si>
   <si>
@@ -1690,17 +1691,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品！_x000D_
-_x000D_
-附加说明：添加了指南任务和改进的侧任务UI</t>
+      <t>物！_x000D_
+_x000D_
+附加注意：混沌模式改进</t>
     </r>
   </si>
   <si>
     <t>慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了指南任務和改進的側任務UI</t>
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加註意：混沌模式改進</t>
   </si>
 </sst>
 </file>
@@ -3699,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C314" sqref="C314"/>
     </sheetView>
@@ -11008,7 +11009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -11367,7 +11368,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added Guide Quests and improved Side Quests UI
+Additional note: Chaos Mode Improvement
 &lt;/en-US&gt;
 </v>
       </c>
@@ -11381,7 +11382,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI
+ملاحظة إضافية: تحسين وضع الفوضى
 &lt;/ar&gt;
 </v>
       </c>
@@ -11392,7 +11393,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзеныя кіраўніцтва квэсты і палепшаныя бакавыя заданні UI
+Дадатковая Заўвага: Паляпшэнне рэжыму хаосу
 &lt;/be&gt;
 </v>
       </c>
@@ -11403,7 +11404,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавени водещи куестове и подобрени странични куестове UI
+Допълнителна забележка: Подобряване на режима на хаос
 &lt;/bg&gt;
 </v>
       </c>
@@ -11414,7 +11415,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI
+Další poznámka: zlepšení režimu chaosu
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -11425,7 +11426,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI
+Zusätzlicher Hinweis: Verbesserung der Chaos-Modus
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -11436,7 +11437,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI
+Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -11447,7 +11448,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-419&gt;
 </v>
       </c>
@@ -11458,7 +11459,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -11469,7 +11470,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-US&gt;
 </v>
       </c>
@@ -11480,7 +11481,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI
+Muita huomautusta: CHAOS-tilan parantaminen
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -11491,7 +11492,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
+Remarque supplémentaire: amélioration du mode Chaos
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -11502,7 +11503,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
+Remarque supplémentaire: amélioration du mode Chaos
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -11513,7 +11514,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui
+Kiegészítő megjegyzés: Chaos módjavítás
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -11524,7 +11525,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI
+Catatan Tambahan: Perbaikan Mode Chaos
 &lt;/id&gt;
 </v>
       </c>
@@ -11535,7 +11536,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui
+Nota aggiuntiva: miglioramento della modalità Chaos
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -11546,7 +11547,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI
+הערה נוספת: שיפור מצב הכאוס
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -11557,7 +11558,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました
+追加の注意：カオスモード改善
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -11568,7 +11569,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상
+추가사항: 카오스 모드 개선
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -11579,7 +11580,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
+Nota Tambahan: Penambahbaikan Mod Chaos
 &lt;/ms&gt;
 </v>
       </c>
@@ -11590,7 +11591,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
+Nota Tambahan: Penambahbaikan Mod Chaos
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -11601,7 +11602,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI
+Extra noot: Verbetering van de chaos-modus
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -11612,7 +11613,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI
+Uwaga dodatkowa: poprawa trybu chaosu
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -11623,7 +11624,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
+Nota adicional: Melhoria do modo Caos
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -11634,7 +11635,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
+Nota adicional: Melhoria do modo Caos
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -11645,7 +11646,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI
+Notă suplimentară: îmbunătățirea modului haos
 &lt;/ro&gt;
 </v>
       </c>
@@ -11656,7 +11657,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI
+Дополнительное примечание: улучшение режима хаоса
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -11667,7 +11668,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI
+Dodatočná poznámka: Zlepšenie režimu chaosu
 &lt;/sk&gt;
 </v>
       </c>
@@ -11678,7 +11679,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI
+Ytterligare anmärkning: Chaos Mode förbättring
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -11689,7 +11690,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI
+หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos
 &lt;/th&gt;
 </v>
       </c>
@@ -11700,7 +11701,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI
+Ek not: kaos modu iyileştirme
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -11711,7 +11712,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI
+Додаткова нотатка: поліпшення режиму Chaos
 &lt;/uk&gt;
 </v>
       </c>
@@ -11722,7 +11723,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm Hướng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI
+Lưu ý bổ sung: Cải thiện chế độ Chaos
 &lt;/vi&gt;
 </v>
       </c>
@@ -11731,9 +11732,9 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：添加了指南任务和改进的侧任务UI
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加注意：混沌模式改进
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -11742,9 +11743,9 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了指南任務和改進的側任務UI
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加註意：混沌模式改進
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -11753,9 +11754,9 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了指南任務和改進的側任務UI
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加註意：混沌模式改進
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -11769,252 +11770,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added Guide Quests and improved Side Quests UI
+Additional note: Chaos Mode Improvement
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI
+ملاحظة إضافية: تحسين وضع الفوضى
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзеныя кіраўніцтва квэсты і палепшаныя бакавыя заданні UI
+Дадатковая Заўвага: Паляпшэнне рэжыму хаосу
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавени водещи куестове и подобрени странични куестове UI
+Допълнителна забележка: Подобряване на режима на хаос
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI
+Další poznámka: zlepšení režimu chaosu
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI
+Zusätzlicher Hinweis: Verbesserung der Chaos-Modus
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI
+Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI
+Muita huomautusta: CHAOS-tilan parantaminen
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
+Remarque supplémentaire: amélioration du mode Chaos
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
+Remarque supplémentaire: amélioration du mode Chaos
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui
+Kiegészítő megjegyzés: Chaos módjavítás
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI
+Catatan Tambahan: Perbaikan Mode Chaos
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui
+Nota aggiuntiva: miglioramento della modalità Chaos
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI
+הערה נוספת: שיפור מצב הכאוס
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました
+追加の注意：カオスモード改善
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상
+추가사항: 카오스 모드 개선
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
+Nota Tambahan: Penambahbaikan Mod Chaos
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
+Nota Tambahan: Penambahbaikan Mod Chaos
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI
+Extra noot: Verbetering van de chaos-modus
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI
+Uwaga dodatkowa: poprawa trybu chaosu
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
+Nota adicional: Melhoria do modo Caos
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
+Nota adicional: Melhoria do modo Caos
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI
+Notă suplimentară: îmbunătățirea modului haos
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI
+Дополнительное примечание: улучшение режима хаоса
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI
+Dodatočná poznámka: Zlepšenie režimu chaosu
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI
+Ytterligare anmärkning: Chaos Mode förbättring
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI
+หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI
+Ek not: kaos modu iyileştirme
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI
+Додаткова нотатка: поліпшення режиму Chaos
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm Hướng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI
+Lưu ý bổ sung: Cải thiện chế độ Chaos
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：添加了指南任务和改进的侧任务UI
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加注意：混沌模式改进
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了指南任務和改進的側任務UI
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加註意：混沌模式改進
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了指南任務和改進的側任務UI
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加註意：混沌模式改進
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -12063,196 +12064,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added Guide Quests and improved Side Quests UI
+Additional note: Chaos Mode Improvement
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Προστέθηκαν αναζητήσεις οδηγών και βελτιωμένες πλευρικές αναζητήσεις UI
+Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: gids-speurtochten toegevoegd en verbeterde zijtochten UI
+Extra noot: Verbetering van de chaos-modus
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Hinzugefügte Führungsquests und verbesserte Seitenquests UI
+Zusätzlicher Hinweis: Verbesserung der Chaos-Modus
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавленные руководящие квесты и улучшенные боковые квесты UI
+Дополнительное примечание: улучшение режима хаоса
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Questuri de ghidare adăugate și questuri laterale îmbunătățite UI
+Notă suplimentară: îmbunătățirea modului haos
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Menambah pencarian panduan dan pencarian sampingan yang lebih baik UI
+Nota Tambahan: Penambahbaikan Mod Chaos
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm Hướng dẫn Nhiệm vụ và Cải thiện nhiệm vụ phụ UI
+Lưu ý bổ sung: Cải thiện chế độ Chaos
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagd guide Quests och förbättrade sidokostnader UI
+Ytterligare anmärkning: Chaos Mode förbättring
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Se agregaron misiones de guía y mejores misiones laterales UI
+Nota Adicional: Mejora del modo CHAOS
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Pridané sprievodné úlohy a vylepšené vedľajšie questy UI
+Dodatočná poznámka: Zlepšenie režimu chaosu
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: أوهام دليل الإضافية والمهام الجانبية المحسنة UI
+ملاحظة إضافية: تحسين وضع الفوضى
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано керівництво Квест та поліпшення бічних квестів UI
+Додаткова нотатка: поліпшення режиму Chaos
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: le missioni di guida aggiuntive e le missioni laterali migliorate ui
+Nota aggiuntiva: miglioramento della modalità Chaos
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan Quests Guide dan Quests Side yang ditingkatkan UI
+Catatan Tambahan: Perbaikan Mode Chaos
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：ガイドクエストと向上したサイドクエストUIを追加しました
+追加の注意：カオスモード改善
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加说明：添加了指南任务和改进的侧任务UI
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加注意：混沌模式改进
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了指南任務和改進的側任務UI
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加註意：混沌模式改進
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidané vodítko questy a zlepšené boční questy UI
+Další poznámka: zlepšení režimu chaosu
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มเควสต์คู่มือและปรับปรุง Quests ด้านข้าง UI
+หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Eklenen Kılavuz Görevleri ve Geliştirilmiş Yan Görevler UI
+Ek not: kaos modu iyileştirme
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Quests de guia adicionados e missões laterais aprimoradas UI
+Nota adicional: Melhoria do modo Caos
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano zadania przewodników i ulepszone zadania boczne UI
+Uwaga dodatkowa: poprawa trybu chaosu
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Quêtes de guidage ajoutés et quêtes secondaires améliorés UI
+Remarque supplémentaire: amélioration du mode Chaos
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty opas Quests ja Parannettu sivu Quests UI
+Muita huomautusta: CHAOS-tilan parantaminen
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 가이드 퀘스트 추가 및 서브 퀘스트 UI 향상
+추가사항: 카오스 모드 개선
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott útmutató küldetések és jobb oldali küldetések ui
+Kiegészítő megjegyzés: Chaos módjavítás
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספת משימות מדריך ומשופרים בצד UI
+הערה נוספת: שיפור מצב הכאוס
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E9546-4F12-40B8-9808-754CED66244F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B62CE-BD92-4619-ADBA-612B0692481A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="345">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,6 +1702,18 @@
 每天登錄才能收到禮品！_x000D_
 _x000D_
 附加註意：混沌模式改進</t>
+  </si>
+  <si>
+    <t>Equip0101</t>
+  </si>
+  <si>
+    <t>Equip2401</t>
+  </si>
+  <si>
+    <t>Equip1001</t>
+  </si>
+  <si>
+    <t>Equip5102</t>
   </si>
 </sst>
 </file>
@@ -3700,9 +3712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C314" sqref="C314"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -9870,16 +9882,19 @@
         <v>106</v>
       </c>
       <c r="D314" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="E314">
         <v>1</v>
       </c>
       <c r="F314" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="G314">
+        <v>169</v>
       </c>
       <c r="H314">
-        <v>7700</v>
+        <v>129</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -9894,16 +9909,16 @@
         <v>106</v>
       </c>
       <c r="D315" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="E315">
         <v>1</v>
       </c>
       <c r="F315" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H315">
-        <v>34</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -9915,19 +9930,19 @@
         <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>109</v>
-      </c>
-      <c r="D316">
-        <v>36392</v>
+        <v>106</v>
+      </c>
+      <c r="D316" t="s">
+        <v>252</v>
       </c>
       <c r="E316">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F316" t="s">
         <v>96</v>
       </c>
       <c r="H316">
-        <v>1100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -9939,19 +9954,19 @@
         <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>110</v>
-      </c>
-      <c r="D317">
-        <v>1938</v>
+        <v>106</v>
+      </c>
+      <c r="D317" t="s">
+        <v>341</v>
       </c>
       <c r="E317">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F317" t="s">
         <v>96</v>
       </c>
       <c r="H317">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -9963,19 +9978,19 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>110</v>
-      </c>
-      <c r="D318">
-        <v>10707</v>
+        <v>106</v>
+      </c>
+      <c r="D318" t="s">
+        <v>247</v>
       </c>
       <c r="E318">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F318" t="s">
         <v>96</v>
       </c>
       <c r="H318">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -9990,16 +10005,16 @@
         <v>106</v>
       </c>
       <c r="D319" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E319">
         <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H319">
-        <v>1500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -10023,7 +10038,7 @@
         <v>96</v>
       </c>
       <c r="H320">
-        <v>2000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -10047,7 +10062,7 @@
         <v>96</v>
       </c>
       <c r="H321">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -10098,7 +10113,7 @@
         <v>106</v>
       </c>
       <c r="D326" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -10107,7 +10122,7 @@
         <v>96</v>
       </c>
       <c r="H326">
-        <v>1300</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -10122,7 +10137,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -10131,7 +10146,7 @@
         <v>96</v>
       </c>
       <c r="H327">
-        <v>22000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -10143,19 +10158,19 @@
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>109</v>
-      </c>
-      <c r="D328">
-        <v>84983</v>
+        <v>106</v>
+      </c>
+      <c r="D328" t="s">
+        <v>232</v>
       </c>
       <c r="E328">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F328" t="s">
         <v>96</v>
       </c>
       <c r="H328">
-        <v>1400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -10167,19 +10182,19 @@
         <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>110</v>
-      </c>
-      <c r="D329">
-        <v>30283</v>
+        <v>106</v>
+      </c>
+      <c r="D329" t="s">
+        <v>246</v>
       </c>
       <c r="E329">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F329" t="s">
         <v>96</v>
       </c>
       <c r="H329">
-        <v>1000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -10191,19 +10206,19 @@
         <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>110</v>
-      </c>
-      <c r="D330">
-        <v>14175</v>
+        <v>106</v>
+      </c>
+      <c r="D330" t="s">
+        <v>344</v>
       </c>
       <c r="E330">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F330" t="s">
         <v>96</v>
       </c>
       <c r="H330">
-        <v>900</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -10218,16 +10233,16 @@
         <v>106</v>
       </c>
       <c r="D331" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E331">
         <v>1</v>
       </c>
       <c r="F331" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H331">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -10242,7 +10257,7 @@
         <v>106</v>
       </c>
       <c r="D332" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -10251,7 +10266,7 @@
         <v>96</v>
       </c>
       <c r="H332">
-        <v>2600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -10266,7 +10281,7 @@
         <v>106</v>
       </c>
       <c r="D333" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10275,7 +10290,7 @@
         <v>96</v>
       </c>
       <c r="H333">
-        <v>2000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -10326,7 +10341,7 @@
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10335,7 +10350,7 @@
         <v>96</v>
       </c>
       <c r="H338">
-        <v>29800</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -10359,7 +10374,7 @@
         <v>96</v>
       </c>
       <c r="H339">
-        <v>1300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -10371,19 +10386,19 @@
         <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>109</v>
-      </c>
-      <c r="D340">
-        <v>34952</v>
+        <v>106</v>
+      </c>
+      <c r="D340" t="s">
+        <v>234</v>
       </c>
       <c r="E340">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F340" t="s">
         <v>96</v>
       </c>
       <c r="H340">
-        <v>1100</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -10395,19 +10410,19 @@
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>110</v>
-      </c>
-      <c r="D341">
-        <v>46336</v>
+        <v>106</v>
+      </c>
+      <c r="D341" t="s">
+        <v>242</v>
       </c>
       <c r="E341">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F341" t="s">
         <v>96</v>
       </c>
       <c r="H341">
-        <v>1100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -10419,19 +10434,19 @@
         <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>110</v>
-      </c>
-      <c r="D342">
-        <v>58093</v>
+        <v>106</v>
+      </c>
+      <c r="D342" t="s">
+        <v>240</v>
       </c>
       <c r="E342">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F342" t="s">
         <v>96</v>
       </c>
       <c r="H342">
-        <v>1200</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -10470,7 +10485,7 @@
         <v>106</v>
       </c>
       <c r="D344" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10479,7 +10494,7 @@
         <v>96</v>
       </c>
       <c r="H344">
-        <v>1500</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -10494,7 +10509,7 @@
         <v>106</v>
       </c>
       <c r="D345" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -10503,7 +10518,7 @@
         <v>96</v>
       </c>
       <c r="H345">
-        <v>3900</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -11009,7 +11024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B62CE-BD92-4619-ADBA-612B0692481A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7F36C-9236-4919-ADAF-A88C0AE8C529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="343">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1704,16 +1704,10 @@
 附加註意：混沌模式改進</t>
   </si>
   <si>
-    <t>Equip0101</t>
-  </si>
-  <si>
     <t>Equip2401</t>
   </si>
   <si>
     <t>Equip1001</t>
-  </si>
-  <si>
-    <t>Equip5102</t>
   </si>
 </sst>
 </file>
@@ -3713,8 +3707,8 @@
   <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C337" sqref="C337"/>
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -9882,7 +9876,7 @@
         <v>106</v>
       </c>
       <c r="D314" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -9930,19 +9924,19 @@
         <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>106</v>
-      </c>
-      <c r="D316" t="s">
-        <v>252</v>
+        <v>109</v>
+      </c>
+      <c r="D316">
+        <v>36392</v>
       </c>
       <c r="E316">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F316" t="s">
         <v>96</v>
       </c>
       <c r="H316">
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -9954,19 +9948,19 @@
         <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>106</v>
-      </c>
-      <c r="D317" t="s">
-        <v>341</v>
+        <v>110</v>
+      </c>
+      <c r="D317">
+        <v>1938</v>
       </c>
       <c r="E317">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F317" t="s">
         <v>96</v>
       </c>
       <c r="H317">
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -9978,19 +9972,19 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>106</v>
-      </c>
-      <c r="D318" t="s">
-        <v>247</v>
+        <v>110</v>
+      </c>
+      <c r="D318">
+        <v>10707</v>
       </c>
       <c r="E318">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F318" t="s">
         <v>96</v>
       </c>
       <c r="H318">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -10137,7 +10131,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -10158,19 +10152,19 @@
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>106</v>
-      </c>
-      <c r="D328" t="s">
-        <v>232</v>
+        <v>109</v>
+      </c>
+      <c r="D328">
+        <v>84983</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F328" t="s">
         <v>96</v>
       </c>
       <c r="H328">
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -10182,19 +10176,19 @@
         <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>106</v>
-      </c>
-      <c r="D329" t="s">
-        <v>246</v>
+        <v>110</v>
+      </c>
+      <c r="D329">
+        <v>30283</v>
       </c>
       <c r="E329">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F329" t="s">
         <v>96</v>
       </c>
       <c r="H329">
-        <v>3300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -10206,19 +10200,19 @@
         <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>106</v>
-      </c>
-      <c r="D330" t="s">
-        <v>344</v>
+        <v>110</v>
+      </c>
+      <c r="D330">
+        <v>14175</v>
       </c>
       <c r="E330">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F330" t="s">
         <v>96</v>
       </c>
       <c r="H330">
-        <v>1300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -10386,19 +10380,19 @@
         <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>106</v>
-      </c>
-      <c r="D340" t="s">
-        <v>234</v>
+        <v>109</v>
+      </c>
+      <c r="D340">
+        <v>34952</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F340" t="s">
         <v>96</v>
       </c>
       <c r="H340">
-        <v>1400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -10410,19 +10404,19 @@
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>106</v>
-      </c>
-      <c r="D341" t="s">
-        <v>242</v>
+        <v>110</v>
+      </c>
+      <c r="D341">
+        <v>46336</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F341" t="s">
         <v>96</v>
       </c>
       <c r="H341">
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -10434,19 +10428,19 @@
         <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>106</v>
-      </c>
-      <c r="D342" t="s">
-        <v>240</v>
+        <v>110</v>
+      </c>
+      <c r="D342">
+        <v>58093</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F342" t="s">
         <v>96</v>
       </c>
       <c r="H342">
-        <v>7100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7F36C-9236-4919-ADAF-A88C0AE8C529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A4D2D-224F-412C-9E6B-7922D23ABBB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="352">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1708,6 +1708,33 @@
   </si>
   <si>
     <t>Equip1001</t>
+  </si>
+  <si>
+    <t>Equip4102</t>
+  </si>
+  <si>
+    <t>Equip2101</t>
+  </si>
+  <si>
+    <t>Equip8101</t>
+  </si>
+  <si>
+    <t>Equip5102</t>
+  </si>
+  <si>
+    <t>Equip8001</t>
+  </si>
+  <si>
+    <t>Equip5202</t>
+  </si>
+  <si>
+    <t>Equip2201</t>
+  </si>
+  <si>
+    <t>Equip3202</t>
+  </si>
+  <si>
+    <t>Equip0101</t>
   </si>
 </sst>
 </file>
@@ -3263,11 +3290,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B80691B-1071-4FE3-B654-3C7D8A917A79}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3308,7 +3335,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A39" ca="1" si="0">OFFSET(A4,-1,0)+1</f>
+        <f t="shared" ref="A4:A59" ca="1" si="0">OFFSET(A4,-1,0)+1</f>
         <v>44348</v>
       </c>
       <c r="B4" t="s">
@@ -3654,46 +3681,328 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44377</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44378</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44379</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44380</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44381</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44382</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44383</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44384</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44385</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44386</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44387</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44388</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44389</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44390</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44391</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44392</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44393</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44394</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44395</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44396</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44397</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44398</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44399</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44400</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44401</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44402</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44403</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -3704,11 +4013,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C374" sqref="C374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -10298,7 +10607,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f t="shared" ref="A335:A373" ca="1" si="5">OFFSET(A335,-12,0)+1</f>
+        <f t="shared" ref="A335:A398" ca="1" si="5">OFFSET(A335,-12,0)+1</f>
         <v>44373</v>
       </c>
       <c r="B335">
@@ -10563,7 +10872,7 @@
         <v>106</v>
       </c>
       <c r="D350" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="E350">
         <v>1</v>
@@ -10587,16 +10896,16 @@
         <v>106</v>
       </c>
       <c r="D351" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E351">
         <v>1</v>
       </c>
       <c r="F351" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H351">
-        <v>1500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -10731,7 +11040,7 @@
         <v>106</v>
       </c>
       <c r="D357" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -10815,7 +11124,7 @@
         <v>106</v>
       </c>
       <c r="D363" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -10824,7 +11133,7 @@
         <v>96</v>
       </c>
       <c r="H363">
-        <v>800</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -10866,13 +11175,13 @@
         <v>71291</v>
       </c>
       <c r="E365">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F365" t="s">
         <v>96</v>
       </c>
       <c r="H365">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -10911,7 +11220,7 @@
         <v>106</v>
       </c>
       <c r="D367" t="s">
-        <v>114</v>
+        <v>343</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -10959,7 +11268,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -11004,6 +11313,6360 @@
         <v>44376</v>
       </c>
       <c r="B373">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>106</v>
+      </c>
+      <c r="D374" t="s">
+        <v>228</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374" t="s">
+        <v>96</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375" t="s">
+        <v>106</v>
+      </c>
+      <c r="D375" t="s">
+        <v>234</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375" t="s">
+        <v>96</v>
+      </c>
+      <c r="H375">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376" t="s">
+        <v>109</v>
+      </c>
+      <c r="D376">
+        <v>63660</v>
+      </c>
+      <c r="E376">
+        <v>12</v>
+      </c>
+      <c r="F376" t="s">
+        <v>96</v>
+      </c>
+      <c r="H376">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377" t="s">
+        <v>110</v>
+      </c>
+      <c r="D377">
+        <v>98140</v>
+      </c>
+      <c r="E377">
+        <v>10</v>
+      </c>
+      <c r="F377" t="s">
+        <v>96</v>
+      </c>
+      <c r="H377">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+      <c r="C378" t="s">
+        <v>110</v>
+      </c>
+      <c r="D378">
+        <v>98567</v>
+      </c>
+      <c r="E378">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>96</v>
+      </c>
+      <c r="H378">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B379">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>106</v>
+      </c>
+      <c r="D379" t="s">
+        <v>243</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379" t="s">
+        <v>96</v>
+      </c>
+      <c r="H379">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B380">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>106</v>
+      </c>
+      <c r="D380" t="s">
+        <v>120</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380" t="s">
+        <v>96</v>
+      </c>
+      <c r="H380">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B381">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>106</v>
+      </c>
+      <c r="D381" t="s">
+        <v>350</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381" t="s">
+        <v>96</v>
+      </c>
+      <c r="H381">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B382">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B383">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B384">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44377</v>
+      </c>
+      <c r="B385">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>106</v>
+      </c>
+      <c r="D386" t="s">
+        <v>248</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386" t="s">
+        <v>98</v>
+      </c>
+      <c r="H386">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387" t="s">
+        <v>106</v>
+      </c>
+      <c r="D387" t="s">
+        <v>264</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387" t="s">
+        <v>96</v>
+      </c>
+      <c r="H387">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388" t="s">
+        <v>109</v>
+      </c>
+      <c r="D388">
+        <v>99358</v>
+      </c>
+      <c r="E388">
+        <v>14</v>
+      </c>
+      <c r="F388" t="s">
+        <v>96</v>
+      </c>
+      <c r="H388">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389" t="s">
+        <v>109</v>
+      </c>
+      <c r="D389">
+        <v>91869</v>
+      </c>
+      <c r="E389">
+        <v>14</v>
+      </c>
+      <c r="F389" t="s">
+        <v>96</v>
+      </c>
+      <c r="H389">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B390">
+        <v>4</v>
+      </c>
+      <c r="C390" t="s">
+        <v>110</v>
+      </c>
+      <c r="D390">
+        <v>18038</v>
+      </c>
+      <c r="E390">
+        <v>10</v>
+      </c>
+      <c r="F390" t="s">
+        <v>96</v>
+      </c>
+      <c r="H390">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B391">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>106</v>
+      </c>
+      <c r="D391" t="s">
+        <v>249</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391" t="s">
+        <v>96</v>
+      </c>
+      <c r="H391">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B392">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>106</v>
+      </c>
+      <c r="D392" t="s">
+        <v>108</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392" t="s">
+        <v>96</v>
+      </c>
+      <c r="H392">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B393">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>106</v>
+      </c>
+      <c r="D393" t="s">
+        <v>108</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393" t="s">
+        <v>96</v>
+      </c>
+      <c r="H393">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B395">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B396">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="B397">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44379</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398" t="s">
+        <v>231</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398" t="s">
+        <v>98</v>
+      </c>
+      <c r="H398">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <f t="shared" ref="A399:A462" ca="1" si="6">OFFSET(A399,-12,0)+1</f>
+        <v>44379</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>106</v>
+      </c>
+      <c r="D399" t="s">
+        <v>118</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399" t="s">
+        <v>98</v>
+      </c>
+      <c r="H399">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400" t="s">
+        <v>109</v>
+      </c>
+      <c r="D400">
+        <v>36443</v>
+      </c>
+      <c r="E400">
+        <v>11</v>
+      </c>
+      <c r="F400" t="s">
+        <v>96</v>
+      </c>
+      <c r="H400">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B401">
+        <v>3</v>
+      </c>
+      <c r="C401" t="s">
+        <v>110</v>
+      </c>
+      <c r="D401">
+        <v>94285</v>
+      </c>
+      <c r="E401">
+        <v>14</v>
+      </c>
+      <c r="F401" t="s">
+        <v>96</v>
+      </c>
+      <c r="H401">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B402">
+        <v>4</v>
+      </c>
+      <c r="C402" t="s">
+        <v>110</v>
+      </c>
+      <c r="D402">
+        <v>55264</v>
+      </c>
+      <c r="E402">
+        <v>12</v>
+      </c>
+      <c r="F402" t="s">
+        <v>96</v>
+      </c>
+      <c r="H402">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>106</v>
+      </c>
+      <c r="D403" t="s">
+        <v>239</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403" t="s">
+        <v>96</v>
+      </c>
+      <c r="H403">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B404">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>106</v>
+      </c>
+      <c r="D404" t="s">
+        <v>264</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404" t="s">
+        <v>96</v>
+      </c>
+      <c r="H404">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B405">
+        <v>7</v>
+      </c>
+      <c r="C405" t="s">
+        <v>106</v>
+      </c>
+      <c r="D405" t="s">
+        <v>304</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405" t="s">
+        <v>96</v>
+      </c>
+      <c r="H405">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B407">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B408">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44379</v>
+      </c>
+      <c r="B409">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410" t="s">
+        <v>106</v>
+      </c>
+      <c r="D410" t="s">
+        <v>222</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410" t="s">
+        <v>96</v>
+      </c>
+      <c r="H410">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411" t="s">
+        <v>106</v>
+      </c>
+      <c r="D411" t="s">
+        <v>236</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411" t="s">
+        <v>98</v>
+      </c>
+      <c r="H411">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412" t="s">
+        <v>109</v>
+      </c>
+      <c r="D412">
+        <v>73751</v>
+      </c>
+      <c r="E412">
+        <v>13</v>
+      </c>
+      <c r="F412" t="s">
+        <v>96</v>
+      </c>
+      <c r="H412">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
+      <c r="C413" t="s">
+        <v>110</v>
+      </c>
+      <c r="D413">
+        <v>94568</v>
+      </c>
+      <c r="E413">
+        <v>14</v>
+      </c>
+      <c r="F413" t="s">
+        <v>96</v>
+      </c>
+      <c r="H413">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B414">
+        <v>4</v>
+      </c>
+      <c r="C414" t="s">
+        <v>110</v>
+      </c>
+      <c r="D414">
+        <v>79591</v>
+      </c>
+      <c r="E414">
+        <v>13</v>
+      </c>
+      <c r="F414" t="s">
+        <v>96</v>
+      </c>
+      <c r="H414">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>110</v>
+      </c>
+      <c r="D415">
+        <v>8050</v>
+      </c>
+      <c r="E415">
+        <v>9</v>
+      </c>
+      <c r="F415" t="s">
+        <v>96</v>
+      </c>
+      <c r="H415">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B416">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>106</v>
+      </c>
+      <c r="D416" t="s">
+        <v>244</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416" t="s">
+        <v>98</v>
+      </c>
+      <c r="H416">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B417">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>106</v>
+      </c>
+      <c r="D417" t="s">
+        <v>111</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417" t="s">
+        <v>96</v>
+      </c>
+      <c r="H417">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B418">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B419">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B420">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44380</v>
+      </c>
+      <c r="B421">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422" t="s">
+        <v>106</v>
+      </c>
+      <c r="D422" t="s">
+        <v>114</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422" t="s">
+        <v>96</v>
+      </c>
+      <c r="H422">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423" t="s">
+        <v>106</v>
+      </c>
+      <c r="D423" t="s">
+        <v>258</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423" t="s">
+        <v>96</v>
+      </c>
+      <c r="H423">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+      <c r="C424" t="s">
+        <v>109</v>
+      </c>
+      <c r="D424">
+        <v>33231</v>
+      </c>
+      <c r="E424">
+        <v>10</v>
+      </c>
+      <c r="F424" t="s">
+        <v>96</v>
+      </c>
+      <c r="H424">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B425">
+        <v>3</v>
+      </c>
+      <c r="C425" t="s">
+        <v>110</v>
+      </c>
+      <c r="D425">
+        <v>7107</v>
+      </c>
+      <c r="E425">
+        <v>9</v>
+      </c>
+      <c r="F425" t="s">
+        <v>96</v>
+      </c>
+      <c r="H425">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B426">
+        <v>4</v>
+      </c>
+      <c r="C426" t="s">
+        <v>110</v>
+      </c>
+      <c r="D426">
+        <v>265</v>
+      </c>
+      <c r="E426">
+        <v>9</v>
+      </c>
+      <c r="F426" t="s">
+        <v>96</v>
+      </c>
+      <c r="H426">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B427">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>106</v>
+      </c>
+      <c r="D427" t="s">
+        <v>249</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="F427" t="s">
+        <v>96</v>
+      </c>
+      <c r="H427">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B428">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s">
+        <v>106</v>
+      </c>
+      <c r="D428" t="s">
+        <v>237</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="F428" t="s">
+        <v>98</v>
+      </c>
+      <c r="H428">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B429">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>106</v>
+      </c>
+      <c r="D429" t="s">
+        <v>222</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="F429" t="s">
+        <v>96</v>
+      </c>
+      <c r="H429">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B430">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B431">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B432">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44381</v>
+      </c>
+      <c r="B433">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434" t="s">
+        <v>106</v>
+      </c>
+      <c r="D434" t="s">
+        <v>304</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434" t="s">
+        <v>96</v>
+      </c>
+      <c r="H434">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435" t="s">
+        <v>106</v>
+      </c>
+      <c r="D435" t="s">
+        <v>232</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435" t="s">
+        <v>96</v>
+      </c>
+      <c r="H435">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B436">
+        <v>2</v>
+      </c>
+      <c r="C436" t="s">
+        <v>109</v>
+      </c>
+      <c r="D436">
+        <v>37314</v>
+      </c>
+      <c r="E436">
+        <v>11</v>
+      </c>
+      <c r="F436" t="s">
+        <v>96</v>
+      </c>
+      <c r="H436">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B437">
+        <v>3</v>
+      </c>
+      <c r="C437" t="s">
+        <v>110</v>
+      </c>
+      <c r="D437">
+        <v>3955</v>
+      </c>
+      <c r="E437">
+        <v>9</v>
+      </c>
+      <c r="F437" t="s">
+        <v>96</v>
+      </c>
+      <c r="H437">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B438">
+        <v>4</v>
+      </c>
+      <c r="C438" t="s">
+        <v>110</v>
+      </c>
+      <c r="D438">
+        <v>88860</v>
+      </c>
+      <c r="E438">
+        <v>14</v>
+      </c>
+      <c r="F438" t="s">
+        <v>96</v>
+      </c>
+      <c r="H438">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B439">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>109</v>
+      </c>
+      <c r="D439">
+        <v>78754</v>
+      </c>
+      <c r="E439">
+        <v>13</v>
+      </c>
+      <c r="F439" t="s">
+        <v>96</v>
+      </c>
+      <c r="H439">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B440">
+        <v>6</v>
+      </c>
+      <c r="C440" t="s">
+        <v>106</v>
+      </c>
+      <c r="D440" t="s">
+        <v>242</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440" t="s">
+        <v>96</v>
+      </c>
+      <c r="H440">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B441">
+        <v>7</v>
+      </c>
+      <c r="C441" t="s">
+        <v>106</v>
+      </c>
+      <c r="D441" t="s">
+        <v>342</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441" t="s">
+        <v>96</v>
+      </c>
+      <c r="H441">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B442">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B443">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B444">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="B445">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446" t="s">
+        <v>113</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446" t="s">
+        <v>98</v>
+      </c>
+      <c r="H446">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447" t="s">
+        <v>106</v>
+      </c>
+      <c r="D447" t="s">
+        <v>254</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+      <c r="F447" t="s">
+        <v>96</v>
+      </c>
+      <c r="H447">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+      <c r="C448" t="s">
+        <v>109</v>
+      </c>
+      <c r="D448">
+        <v>14549</v>
+      </c>
+      <c r="E448">
+        <v>9</v>
+      </c>
+      <c r="F448" t="s">
+        <v>96</v>
+      </c>
+      <c r="H448">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B449">
+        <v>3</v>
+      </c>
+      <c r="C449" t="s">
+        <v>109</v>
+      </c>
+      <c r="D449">
+        <v>6437</v>
+      </c>
+      <c r="E449">
+        <v>9</v>
+      </c>
+      <c r="F449" t="s">
+        <v>96</v>
+      </c>
+      <c r="H449">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B450">
+        <v>4</v>
+      </c>
+      <c r="C450" t="s">
+        <v>110</v>
+      </c>
+      <c r="D450">
+        <v>88038</v>
+      </c>
+      <c r="E450">
+        <v>14</v>
+      </c>
+      <c r="F450" t="s">
+        <v>96</v>
+      </c>
+      <c r="H450">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B451">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>109</v>
+      </c>
+      <c r="D451">
+        <v>53507</v>
+      </c>
+      <c r="E451">
+        <v>12</v>
+      </c>
+      <c r="F451" t="s">
+        <v>96</v>
+      </c>
+      <c r="H451">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B452">
+        <v>6</v>
+      </c>
+      <c r="C452" t="s">
+        <v>106</v>
+      </c>
+      <c r="D452" t="s">
+        <v>227</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
+      <c r="F452" t="s">
+        <v>96</v>
+      </c>
+      <c r="H452">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B453">
+        <v>7</v>
+      </c>
+      <c r="C453" t="s">
+        <v>106</v>
+      </c>
+      <c r="D453" t="s">
+        <v>345</v>
+      </c>
+      <c r="E453">
+        <v>1</v>
+      </c>
+      <c r="F453" t="s">
+        <v>96</v>
+      </c>
+      <c r="H453">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B455">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B456">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44383</v>
+      </c>
+      <c r="B457">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44384</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458" t="s">
+        <v>106</v>
+      </c>
+      <c r="D458" t="s">
+        <v>119</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458" t="s">
+        <v>98</v>
+      </c>
+      <c r="H458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44384</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459" t="s">
+        <v>106</v>
+      </c>
+      <c r="D459" t="s">
+        <v>221</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459" t="s">
+        <v>96</v>
+      </c>
+      <c r="H459">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44384</v>
+      </c>
+      <c r="B460">
+        <v>2</v>
+      </c>
+      <c r="C460" t="s">
+        <v>109</v>
+      </c>
+      <c r="D460">
+        <v>20128</v>
+      </c>
+      <c r="E460">
+        <v>10</v>
+      </c>
+      <c r="F460" t="s">
+        <v>96</v>
+      </c>
+      <c r="H460">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44384</v>
+      </c>
+      <c r="B461">
+        <v>3</v>
+      </c>
+      <c r="C461" t="s">
+        <v>110</v>
+      </c>
+      <c r="D461">
+        <v>31576</v>
+      </c>
+      <c r="E461">
+        <v>10</v>
+      </c>
+      <c r="F461" t="s">
+        <v>96</v>
+      </c>
+      <c r="H461">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44384</v>
+      </c>
+      <c r="B462">
+        <v>4</v>
+      </c>
+      <c r="C462" t="s">
+        <v>110</v>
+      </c>
+      <c r="D462">
+        <v>94367</v>
+      </c>
+      <c r="E462">
+        <v>14</v>
+      </c>
+      <c r="F462" t="s">
+        <v>96</v>
+      </c>
+      <c r="H462">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <f t="shared" ref="A463:A526" ca="1" si="7">OFFSET(A463,-12,0)+1</f>
+        <v>44384</v>
+      </c>
+      <c r="B463">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>106</v>
+      </c>
+      <c r="D463" t="s">
+        <v>219</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
+      <c r="F463" t="s">
+        <v>96</v>
+      </c>
+      <c r="H463">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44384</v>
+      </c>
+      <c r="B464">
+        <v>6</v>
+      </c>
+      <c r="C464" t="s">
+        <v>106</v>
+      </c>
+      <c r="D464" t="s">
+        <v>227</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464" t="s">
+        <v>96</v>
+      </c>
+      <c r="H464">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44384</v>
+      </c>
+      <c r="B465">
+        <v>7</v>
+      </c>
+      <c r="C465" t="s">
+        <v>106</v>
+      </c>
+      <c r="D465" t="s">
+        <v>233</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465" t="s">
+        <v>96</v>
+      </c>
+      <c r="H465">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44384</v>
+      </c>
+      <c r="B466">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44384</v>
+      </c>
+      <c r="B467">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44384</v>
+      </c>
+      <c r="B468">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44384</v>
+      </c>
+      <c r="B469">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470" t="s">
+        <v>106</v>
+      </c>
+      <c r="D470" t="s">
+        <v>258</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470" t="s">
+        <v>98</v>
+      </c>
+      <c r="H470">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471" t="s">
+        <v>106</v>
+      </c>
+      <c r="D471" t="s">
+        <v>240</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471" t="s">
+        <v>96</v>
+      </c>
+      <c r="H471">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+      <c r="C472" t="s">
+        <v>109</v>
+      </c>
+      <c r="D472">
+        <v>9503</v>
+      </c>
+      <c r="E472">
+        <v>9</v>
+      </c>
+      <c r="F472" t="s">
+        <v>96</v>
+      </c>
+      <c r="H472">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B473">
+        <v>3</v>
+      </c>
+      <c r="C473" t="s">
+        <v>109</v>
+      </c>
+      <c r="D473">
+        <v>38090</v>
+      </c>
+      <c r="E473">
+        <v>11</v>
+      </c>
+      <c r="F473" t="s">
+        <v>96</v>
+      </c>
+      <c r="H473">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
+      </c>
+      <c r="C474" t="s">
+        <v>110</v>
+      </c>
+      <c r="D474">
+        <v>46233</v>
+      </c>
+      <c r="E474">
+        <v>11</v>
+      </c>
+      <c r="F474" t="s">
+        <v>96</v>
+      </c>
+      <c r="H474">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B475">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>106</v>
+      </c>
+      <c r="D475" t="s">
+        <v>118</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475" t="s">
+        <v>98</v>
+      </c>
+      <c r="H475">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B476">
+        <v>6</v>
+      </c>
+      <c r="C476" t="s">
+        <v>106</v>
+      </c>
+      <c r="D476" t="s">
+        <v>242</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476" t="s">
+        <v>96</v>
+      </c>
+      <c r="H476">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B477">
+        <v>7</v>
+      </c>
+      <c r="C477" t="s">
+        <v>106</v>
+      </c>
+      <c r="D477" t="s">
+        <v>227</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477" t="s">
+        <v>96</v>
+      </c>
+      <c r="H477">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B478">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B479">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B480">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44385</v>
+      </c>
+      <c r="B481">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482" t="s">
+        <v>106</v>
+      </c>
+      <c r="D482" t="s">
+        <v>258</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482" t="s">
+        <v>98</v>
+      </c>
+      <c r="H482">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483" t="s">
+        <v>106</v>
+      </c>
+      <c r="D483" t="s">
+        <v>243</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483" t="s">
+        <v>96</v>
+      </c>
+      <c r="H483">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484" t="s">
+        <v>109</v>
+      </c>
+      <c r="D484">
+        <v>90489</v>
+      </c>
+      <c r="E484">
+        <v>14</v>
+      </c>
+      <c r="F484" t="s">
+        <v>96</v>
+      </c>
+      <c r="H484">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B485">
+        <v>3</v>
+      </c>
+      <c r="C485" t="s">
+        <v>110</v>
+      </c>
+      <c r="D485">
+        <v>26063</v>
+      </c>
+      <c r="E485">
+        <v>10</v>
+      </c>
+      <c r="F485" t="s">
+        <v>96</v>
+      </c>
+      <c r="H485">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B486">
+        <v>4</v>
+      </c>
+      <c r="C486" t="s">
+        <v>110</v>
+      </c>
+      <c r="D486">
+        <v>74661</v>
+      </c>
+      <c r="E486">
+        <v>13</v>
+      </c>
+      <c r="F486" t="s">
+        <v>96</v>
+      </c>
+      <c r="H486">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B487">
+        <v>5</v>
+      </c>
+      <c r="C487" t="s">
+        <v>106</v>
+      </c>
+      <c r="D487" t="s">
+        <v>120</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487" t="s">
+        <v>96</v>
+      </c>
+      <c r="H487">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B488">
+        <v>6</v>
+      </c>
+      <c r="C488" t="s">
+        <v>106</v>
+      </c>
+      <c r="D488" t="s">
+        <v>262</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+      <c r="F488" t="s">
+        <v>96</v>
+      </c>
+      <c r="H488">
+        <v>29300</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B489">
+        <v>7</v>
+      </c>
+      <c r="C489" t="s">
+        <v>106</v>
+      </c>
+      <c r="D489" t="s">
+        <v>258</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489" t="s">
+        <v>96</v>
+      </c>
+      <c r="H489">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B490">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B491">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B492">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44386</v>
+      </c>
+      <c r="B493">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494" t="s">
+        <v>106</v>
+      </c>
+      <c r="D494" t="s">
+        <v>260</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494" t="s">
+        <v>96</v>
+      </c>
+      <c r="H494">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495" t="s">
+        <v>106</v>
+      </c>
+      <c r="D495" t="s">
+        <v>346</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495" t="s">
+        <v>96</v>
+      </c>
+      <c r="H495">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496" t="s">
+        <v>109</v>
+      </c>
+      <c r="D496">
+        <v>36875</v>
+      </c>
+      <c r="E496">
+        <v>11</v>
+      </c>
+      <c r="F496" t="s">
+        <v>96</v>
+      </c>
+      <c r="H496">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B497">
+        <v>3</v>
+      </c>
+      <c r="C497" t="s">
+        <v>110</v>
+      </c>
+      <c r="D497">
+        <v>25208</v>
+      </c>
+      <c r="E497">
+        <v>10</v>
+      </c>
+      <c r="F497" t="s">
+        <v>96</v>
+      </c>
+      <c r="H497">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B498">
+        <v>4</v>
+      </c>
+      <c r="C498" t="s">
+        <v>110</v>
+      </c>
+      <c r="D498">
+        <v>56571</v>
+      </c>
+      <c r="E498">
+        <v>12</v>
+      </c>
+      <c r="F498" t="s">
+        <v>96</v>
+      </c>
+      <c r="H498">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B499">
+        <v>5</v>
+      </c>
+      <c r="C499" t="s">
+        <v>106</v>
+      </c>
+      <c r="D499" t="s">
+        <v>229</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499" t="s">
+        <v>96</v>
+      </c>
+      <c r="H499">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B500">
+        <v>6</v>
+      </c>
+      <c r="C500" t="s">
+        <v>106</v>
+      </c>
+      <c r="D500" t="s">
+        <v>246</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500" t="s">
+        <v>96</v>
+      </c>
+      <c r="H500">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B501">
+        <v>7</v>
+      </c>
+      <c r="C501" t="s">
+        <v>106</v>
+      </c>
+      <c r="D501" t="s">
+        <v>300</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501" t="s">
+        <v>96</v>
+      </c>
+      <c r="H501">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B502">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B503">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B504">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44387</v>
+      </c>
+      <c r="B505">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506" t="s">
+        <v>113</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506" t="s">
+        <v>98</v>
+      </c>
+      <c r="H506">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+      <c r="C507" t="s">
+        <v>106</v>
+      </c>
+      <c r="D507" t="s">
+        <v>220</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507" t="s">
+        <v>98</v>
+      </c>
+      <c r="H507">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508" t="s">
+        <v>109</v>
+      </c>
+      <c r="D508">
+        <v>18914</v>
+      </c>
+      <c r="E508">
+        <v>10</v>
+      </c>
+      <c r="F508" t="s">
+        <v>96</v>
+      </c>
+      <c r="H508">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B509">
+        <v>3</v>
+      </c>
+      <c r="C509" t="s">
+        <v>110</v>
+      </c>
+      <c r="D509">
+        <v>18862</v>
+      </c>
+      <c r="E509">
+        <v>10</v>
+      </c>
+      <c r="F509" t="s">
+        <v>96</v>
+      </c>
+      <c r="H509">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B510">
+        <v>4</v>
+      </c>
+      <c r="C510" t="s">
+        <v>110</v>
+      </c>
+      <c r="D510">
+        <v>81752</v>
+      </c>
+      <c r="E510">
+        <v>13</v>
+      </c>
+      <c r="F510" t="s">
+        <v>96</v>
+      </c>
+      <c r="H510">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B511">
+        <v>5</v>
+      </c>
+      <c r="C511" t="s">
+        <v>110</v>
+      </c>
+      <c r="D511">
+        <v>60496</v>
+      </c>
+      <c r="E511">
+        <v>12</v>
+      </c>
+      <c r="F511" t="s">
+        <v>96</v>
+      </c>
+      <c r="H511">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B512">
+        <v>6</v>
+      </c>
+      <c r="C512" t="s">
+        <v>106</v>
+      </c>
+      <c r="D512" t="s">
+        <v>226</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512" t="s">
+        <v>96</v>
+      </c>
+      <c r="H512">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B513">
+        <v>7</v>
+      </c>
+      <c r="C513" t="s">
+        <v>106</v>
+      </c>
+      <c r="D513" t="s">
+        <v>107</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513" t="s">
+        <v>96</v>
+      </c>
+      <c r="H513">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B514">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B515">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B516">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44388</v>
+      </c>
+      <c r="B517">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+      <c r="C518" t="s">
+        <v>231</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518" t="s">
+        <v>98</v>
+      </c>
+      <c r="H518">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519" t="s">
+        <v>106</v>
+      </c>
+      <c r="D519" t="s">
+        <v>114</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519" t="s">
+        <v>96</v>
+      </c>
+      <c r="H519">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+      <c r="C520" t="s">
+        <v>109</v>
+      </c>
+      <c r="D520">
+        <v>19697</v>
+      </c>
+      <c r="E520">
+        <v>10</v>
+      </c>
+      <c r="F520" t="s">
+        <v>96</v>
+      </c>
+      <c r="H520">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B521">
+        <v>3</v>
+      </c>
+      <c r="C521" t="s">
+        <v>110</v>
+      </c>
+      <c r="D521">
+        <v>52969</v>
+      </c>
+      <c r="E521">
+        <v>12</v>
+      </c>
+      <c r="F521" t="s">
+        <v>96</v>
+      </c>
+      <c r="H521">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B522">
+        <v>4</v>
+      </c>
+      <c r="C522" t="s">
+        <v>110</v>
+      </c>
+      <c r="D522">
+        <v>69726</v>
+      </c>
+      <c r="E522">
+        <v>13</v>
+      </c>
+      <c r="F522" t="s">
+        <v>96</v>
+      </c>
+      <c r="H522">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B523">
+        <v>5</v>
+      </c>
+      <c r="C523" t="s">
+        <v>109</v>
+      </c>
+      <c r="D523">
+        <v>67379</v>
+      </c>
+      <c r="E523">
+        <v>13</v>
+      </c>
+      <c r="F523" t="s">
+        <v>96</v>
+      </c>
+      <c r="H523">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B524">
+        <v>6</v>
+      </c>
+      <c r="C524" t="s">
+        <v>106</v>
+      </c>
+      <c r="D524" t="s">
+        <v>115</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524" t="s">
+        <v>96</v>
+      </c>
+      <c r="H524">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B525">
+        <v>7</v>
+      </c>
+      <c r="C525" t="s">
+        <v>106</v>
+      </c>
+      <c r="D525" t="s">
+        <v>347</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525" t="s">
+        <v>96</v>
+      </c>
+      <c r="H525">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44389</v>
+      </c>
+      <c r="B526">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <f t="shared" ref="A527:A590" ca="1" si="8">OFFSET(A527,-12,0)+1</f>
+        <v>44389</v>
+      </c>
+      <c r="B527">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44389</v>
+      </c>
+      <c r="B528">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44389</v>
+      </c>
+      <c r="B529">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+      <c r="C530" t="s">
+        <v>106</v>
+      </c>
+      <c r="D530" t="s">
+        <v>342</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530" t="s">
+        <v>96</v>
+      </c>
+      <c r="H530">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+      <c r="C531" t="s">
+        <v>106</v>
+      </c>
+      <c r="D531" t="s">
+        <v>219</v>
+      </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
+      <c r="F531" t="s">
+        <v>96</v>
+      </c>
+      <c r="H531">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+      <c r="C532" t="s">
+        <v>109</v>
+      </c>
+      <c r="D532">
+        <v>12663</v>
+      </c>
+      <c r="E532">
+        <v>9</v>
+      </c>
+      <c r="F532" t="s">
+        <v>96</v>
+      </c>
+      <c r="H532">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B533">
+        <v>3</v>
+      </c>
+      <c r="C533" t="s">
+        <v>109</v>
+      </c>
+      <c r="D533">
+        <v>29794</v>
+      </c>
+      <c r="E533">
+        <v>10</v>
+      </c>
+      <c r="F533" t="s">
+        <v>96</v>
+      </c>
+      <c r="H533">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B534">
+        <v>4</v>
+      </c>
+      <c r="C534" t="s">
+        <v>110</v>
+      </c>
+      <c r="D534">
+        <v>75071</v>
+      </c>
+      <c r="E534">
+        <v>13</v>
+      </c>
+      <c r="F534" t="s">
+        <v>96</v>
+      </c>
+      <c r="H534">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B535">
+        <v>5</v>
+      </c>
+      <c r="C535" t="s">
+        <v>106</v>
+      </c>
+      <c r="D535" t="s">
+        <v>236</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535" t="s">
+        <v>96</v>
+      </c>
+      <c r="H535">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B536">
+        <v>6</v>
+      </c>
+      <c r="C536" t="s">
+        <v>106</v>
+      </c>
+      <c r="D536" t="s">
+        <v>304</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536" t="s">
+        <v>96</v>
+      </c>
+      <c r="H536">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B537">
+        <v>7</v>
+      </c>
+      <c r="C537" t="s">
+        <v>106</v>
+      </c>
+      <c r="D537" t="s">
+        <v>240</v>
+      </c>
+      <c r="E537">
+        <v>1</v>
+      </c>
+      <c r="F537" t="s">
+        <v>98</v>
+      </c>
+      <c r="H537">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B539">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B540">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44390</v>
+      </c>
+      <c r="B541">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+      <c r="C542" t="s">
+        <v>231</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542" t="s">
+        <v>98</v>
+      </c>
+      <c r="H542">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+      <c r="C543" t="s">
+        <v>106</v>
+      </c>
+      <c r="D543" t="s">
+        <v>227</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543" t="s">
+        <v>98</v>
+      </c>
+      <c r="H543">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
+      <c r="C544" t="s">
+        <v>109</v>
+      </c>
+      <c r="D544">
+        <v>80085</v>
+      </c>
+      <c r="E544">
+        <v>13</v>
+      </c>
+      <c r="F544" t="s">
+        <v>96</v>
+      </c>
+      <c r="H544">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B545">
+        <v>3</v>
+      </c>
+      <c r="C545" t="s">
+        <v>110</v>
+      </c>
+      <c r="D545">
+        <v>38810</v>
+      </c>
+      <c r="E545">
+        <v>11</v>
+      </c>
+      <c r="F545" t="s">
+        <v>96</v>
+      </c>
+      <c r="H545">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B546">
+        <v>4</v>
+      </c>
+      <c r="C546" t="s">
+        <v>110</v>
+      </c>
+      <c r="D546">
+        <v>79684</v>
+      </c>
+      <c r="E546">
+        <v>13</v>
+      </c>
+      <c r="F546" t="s">
+        <v>96</v>
+      </c>
+      <c r="H546">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B547">
+        <v>5</v>
+      </c>
+      <c r="C547" t="s">
+        <v>106</v>
+      </c>
+      <c r="D547" t="s">
+        <v>119</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+      <c r="F547" t="s">
+        <v>96</v>
+      </c>
+      <c r="H547">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B548">
+        <v>6</v>
+      </c>
+      <c r="C548" t="s">
+        <v>106</v>
+      </c>
+      <c r="D548" t="s">
+        <v>300</v>
+      </c>
+      <c r="E548">
+        <v>1</v>
+      </c>
+      <c r="F548" t="s">
+        <v>96</v>
+      </c>
+      <c r="H548">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B549">
+        <v>7</v>
+      </c>
+      <c r="C549" t="s">
+        <v>106</v>
+      </c>
+      <c r="D549" t="s">
+        <v>345</v>
+      </c>
+      <c r="E549">
+        <v>1</v>
+      </c>
+      <c r="F549" t="s">
+        <v>96</v>
+      </c>
+      <c r="H549">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B550">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B551">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B552">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44391</v>
+      </c>
+      <c r="B553">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+      <c r="C554" t="s">
+        <v>106</v>
+      </c>
+      <c r="D554" t="s">
+        <v>222</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554" t="s">
+        <v>96</v>
+      </c>
+      <c r="H554">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555" t="s">
+        <v>106</v>
+      </c>
+      <c r="D555" t="s">
+        <v>264</v>
+      </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
+      <c r="F555" t="s">
+        <v>96</v>
+      </c>
+      <c r="H555">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+      <c r="C556" t="s">
+        <v>109</v>
+      </c>
+      <c r="D556">
+        <v>33450</v>
+      </c>
+      <c r="E556">
+        <v>11</v>
+      </c>
+      <c r="F556" t="s">
+        <v>96</v>
+      </c>
+      <c r="H556">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B557">
+        <v>3</v>
+      </c>
+      <c r="C557" t="s">
+        <v>110</v>
+      </c>
+      <c r="D557">
+        <v>84704</v>
+      </c>
+      <c r="E557">
+        <v>14</v>
+      </c>
+      <c r="F557" t="s">
+        <v>96</v>
+      </c>
+      <c r="H557">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B558">
+        <v>4</v>
+      </c>
+      <c r="C558" t="s">
+        <v>110</v>
+      </c>
+      <c r="D558">
+        <v>20169</v>
+      </c>
+      <c r="E558">
+        <v>10</v>
+      </c>
+      <c r="F558" t="s">
+        <v>96</v>
+      </c>
+      <c r="H558">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B559">
+        <v>5</v>
+      </c>
+      <c r="C559" t="s">
+        <v>106</v>
+      </c>
+      <c r="D559" t="s">
+        <v>348</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559" t="s">
+        <v>96</v>
+      </c>
+      <c r="H559">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B560">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s">
+        <v>106</v>
+      </c>
+      <c r="D560" t="s">
+        <v>116</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560" t="s">
+        <v>96</v>
+      </c>
+      <c r="H560">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B561">
+        <v>7</v>
+      </c>
+      <c r="C561" t="s">
+        <v>106</v>
+      </c>
+      <c r="D561" t="s">
+        <v>302</v>
+      </c>
+      <c r="E561">
+        <v>1</v>
+      </c>
+      <c r="F561" t="s">
+        <v>96</v>
+      </c>
+      <c r="H561">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B563">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B564">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44392</v>
+      </c>
+      <c r="B565">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+      <c r="C566" t="s">
+        <v>106</v>
+      </c>
+      <c r="D566" t="s">
+        <v>122</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>96</v>
+      </c>
+      <c r="H566">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+      <c r="C567" t="s">
+        <v>106</v>
+      </c>
+      <c r="D567" t="s">
+        <v>235</v>
+      </c>
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567" t="s">
+        <v>96</v>
+      </c>
+      <c r="H567">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B568">
+        <v>2</v>
+      </c>
+      <c r="C568" t="s">
+        <v>109</v>
+      </c>
+      <c r="D568">
+        <v>11315</v>
+      </c>
+      <c r="E568">
+        <v>9</v>
+      </c>
+      <c r="F568" t="s">
+        <v>96</v>
+      </c>
+      <c r="H568">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B569">
+        <v>3</v>
+      </c>
+      <c r="C569" t="s">
+        <v>109</v>
+      </c>
+      <c r="D569">
+        <v>85863</v>
+      </c>
+      <c r="E569">
+        <v>14</v>
+      </c>
+      <c r="F569" t="s">
+        <v>96</v>
+      </c>
+      <c r="H569">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B570">
+        <v>4</v>
+      </c>
+      <c r="C570" t="s">
+        <v>110</v>
+      </c>
+      <c r="D570">
+        <v>83631</v>
+      </c>
+      <c r="E570">
+        <v>14</v>
+      </c>
+      <c r="F570" t="s">
+        <v>96</v>
+      </c>
+      <c r="H570">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B571">
+        <v>5</v>
+      </c>
+      <c r="C571" t="s">
+        <v>106</v>
+      </c>
+      <c r="D571" t="s">
+        <v>345</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571" t="s">
+        <v>96</v>
+      </c>
+      <c r="H571">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B572">
+        <v>6</v>
+      </c>
+      <c r="C572" t="s">
+        <v>106</v>
+      </c>
+      <c r="D572" t="s">
+        <v>253</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572" t="s">
+        <v>96</v>
+      </c>
+      <c r="H572">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B573">
+        <v>7</v>
+      </c>
+      <c r="C573" t="s">
+        <v>106</v>
+      </c>
+      <c r="D573" t="s">
+        <v>262</v>
+      </c>
+      <c r="E573">
+        <v>1</v>
+      </c>
+      <c r="F573" t="s">
+        <v>96</v>
+      </c>
+      <c r="H573">
+        <v>29300</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B574">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B575">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B576">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44393</v>
+      </c>
+      <c r="B577">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+      <c r="C578" t="s">
+        <v>106</v>
+      </c>
+      <c r="D578" t="s">
+        <v>345</v>
+      </c>
+      <c r="E578">
+        <v>1</v>
+      </c>
+      <c r="F578" t="s">
+        <v>96</v>
+      </c>
+      <c r="H578">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+      <c r="C579" t="s">
+        <v>106</v>
+      </c>
+      <c r="D579" t="s">
+        <v>349</v>
+      </c>
+      <c r="E579">
+        <v>1</v>
+      </c>
+      <c r="F579" t="s">
+        <v>98</v>
+      </c>
+      <c r="H579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B580">
+        <v>2</v>
+      </c>
+      <c r="C580" t="s">
+        <v>109</v>
+      </c>
+      <c r="D580">
+        <v>86575</v>
+      </c>
+      <c r="E580">
+        <v>14</v>
+      </c>
+      <c r="F580" t="s">
+        <v>96</v>
+      </c>
+      <c r="H580">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B581">
+        <v>3</v>
+      </c>
+      <c r="C581" t="s">
+        <v>110</v>
+      </c>
+      <c r="D581">
+        <v>24840</v>
+      </c>
+      <c r="E581">
+        <v>10</v>
+      </c>
+      <c r="F581" t="s">
+        <v>96</v>
+      </c>
+      <c r="H581">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B582">
+        <v>4</v>
+      </c>
+      <c r="C582" t="s">
+        <v>110</v>
+      </c>
+      <c r="D582">
+        <v>10498</v>
+      </c>
+      <c r="E582">
+        <v>9</v>
+      </c>
+      <c r="F582" t="s">
+        <v>96</v>
+      </c>
+      <c r="H582">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B583">
+        <v>5</v>
+      </c>
+      <c r="C583" t="s">
+        <v>106</v>
+      </c>
+      <c r="D583" t="s">
+        <v>304</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583" t="s">
+        <v>96</v>
+      </c>
+      <c r="H583">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B584">
+        <v>6</v>
+      </c>
+      <c r="C584" t="s">
+        <v>106</v>
+      </c>
+      <c r="D584" t="s">
+        <v>251</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>98</v>
+      </c>
+      <c r="H584">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B585">
+        <v>7</v>
+      </c>
+      <c r="C585" t="s">
+        <v>106</v>
+      </c>
+      <c r="D585" t="s">
+        <v>232</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585" t="s">
+        <v>96</v>
+      </c>
+      <c r="H585">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B587">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B588">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44394</v>
+      </c>
+      <c r="B589">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>44395</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+      <c r="C590" t="s">
+        <v>106</v>
+      </c>
+      <c r="D590" t="s">
+        <v>116</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590" t="s">
+        <v>96</v>
+      </c>
+      <c r="H590">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <f t="shared" ref="A591:A654" ca="1" si="9">OFFSET(A591,-12,0)+1</f>
+        <v>44395</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591" t="s">
+        <v>106</v>
+      </c>
+      <c r="D591" t="s">
+        <v>108</v>
+      </c>
+      <c r="E591">
+        <v>1</v>
+      </c>
+      <c r="F591" t="s">
+        <v>96</v>
+      </c>
+      <c r="H591">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B592">
+        <v>2</v>
+      </c>
+      <c r="C592" t="s">
+        <v>109</v>
+      </c>
+      <c r="D592">
+        <v>22126</v>
+      </c>
+      <c r="E592">
+        <v>10</v>
+      </c>
+      <c r="F592" t="s">
+        <v>96</v>
+      </c>
+      <c r="H592">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B593">
+        <v>3</v>
+      </c>
+      <c r="C593" t="s">
+        <v>110</v>
+      </c>
+      <c r="D593">
+        <v>3427</v>
+      </c>
+      <c r="E593">
+        <v>9</v>
+      </c>
+      <c r="F593" t="s">
+        <v>96</v>
+      </c>
+      <c r="H593">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B594">
+        <v>4</v>
+      </c>
+      <c r="C594" t="s">
+        <v>110</v>
+      </c>
+      <c r="D594">
+        <v>85725</v>
+      </c>
+      <c r="E594">
+        <v>14</v>
+      </c>
+      <c r="F594" t="s">
+        <v>96</v>
+      </c>
+      <c r="H594">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B595">
+        <v>5</v>
+      </c>
+      <c r="C595" t="s">
+        <v>106</v>
+      </c>
+      <c r="D595" t="s">
+        <v>239</v>
+      </c>
+      <c r="E595">
+        <v>1</v>
+      </c>
+      <c r="F595" t="s">
+        <v>96</v>
+      </c>
+      <c r="H595">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B596">
+        <v>6</v>
+      </c>
+      <c r="C596" t="s">
+        <v>106</v>
+      </c>
+      <c r="D596" t="s">
+        <v>230</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596" t="s">
+        <v>96</v>
+      </c>
+      <c r="H596">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B597">
+        <v>7</v>
+      </c>
+      <c r="C597" t="s">
+        <v>106</v>
+      </c>
+      <c r="D597" t="s">
+        <v>347</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597" t="s">
+        <v>96</v>
+      </c>
+      <c r="H597">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B598">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B599">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B600">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44395</v>
+      </c>
+      <c r="B601">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+      <c r="C602" t="s">
+        <v>106</v>
+      </c>
+      <c r="D602" t="s">
+        <v>344</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602" t="s">
+        <v>96</v>
+      </c>
+      <c r="H602">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+      <c r="C603" t="s">
+        <v>106</v>
+      </c>
+      <c r="D603" t="s">
+        <v>115</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603" t="s">
+        <v>98</v>
+      </c>
+      <c r="H603">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B604">
+        <v>2</v>
+      </c>
+      <c r="C604" t="s">
+        <v>109</v>
+      </c>
+      <c r="D604">
+        <v>57917</v>
+      </c>
+      <c r="E604">
+        <v>12</v>
+      </c>
+      <c r="F604" t="s">
+        <v>96</v>
+      </c>
+      <c r="H604">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B605">
+        <v>3</v>
+      </c>
+      <c r="C605" t="s">
+        <v>110</v>
+      </c>
+      <c r="D605">
+        <v>13618</v>
+      </c>
+      <c r="E605">
+        <v>9</v>
+      </c>
+      <c r="F605" t="s">
+        <v>96</v>
+      </c>
+      <c r="H605">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B606">
+        <v>4</v>
+      </c>
+      <c r="C606" t="s">
+        <v>110</v>
+      </c>
+      <c r="D606">
+        <v>52601</v>
+      </c>
+      <c r="E606">
+        <v>12</v>
+      </c>
+      <c r="F606" t="s">
+        <v>96</v>
+      </c>
+      <c r="H606">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B607">
+        <v>5</v>
+      </c>
+      <c r="C607" t="s">
+        <v>106</v>
+      </c>
+      <c r="D607" t="s">
+        <v>240</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607" t="s">
+        <v>96</v>
+      </c>
+      <c r="H607">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B608">
+        <v>6</v>
+      </c>
+      <c r="C608" t="s">
+        <v>106</v>
+      </c>
+      <c r="D608" t="s">
+        <v>226</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608" t="s">
+        <v>96</v>
+      </c>
+      <c r="H608">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B609">
+        <v>7</v>
+      </c>
+      <c r="C609" t="s">
+        <v>106</v>
+      </c>
+      <c r="D609" t="s">
+        <v>302</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609" t="s">
+        <v>96</v>
+      </c>
+      <c r="H609">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B610">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B611">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B612">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44396</v>
+      </c>
+      <c r="B613">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B614">
+        <v>0</v>
+      </c>
+      <c r="C614" t="s">
+        <v>106</v>
+      </c>
+      <c r="D614" t="s">
+        <v>114</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614" t="s">
+        <v>96</v>
+      </c>
+      <c r="H614">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B615">
+        <v>1</v>
+      </c>
+      <c r="C615" t="s">
+        <v>106</v>
+      </c>
+      <c r="D615" t="s">
+        <v>348</v>
+      </c>
+      <c r="E615">
+        <v>1</v>
+      </c>
+      <c r="F615" t="s">
+        <v>98</v>
+      </c>
+      <c r="H615">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B616">
+        <v>2</v>
+      </c>
+      <c r="C616" t="s">
+        <v>109</v>
+      </c>
+      <c r="D616">
+        <v>88102</v>
+      </c>
+      <c r="E616">
+        <v>14</v>
+      </c>
+      <c r="F616" t="s">
+        <v>96</v>
+      </c>
+      <c r="H616">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B617">
+        <v>3</v>
+      </c>
+      <c r="C617" t="s">
+        <v>110</v>
+      </c>
+      <c r="D617">
+        <v>69160</v>
+      </c>
+      <c r="E617">
+        <v>13</v>
+      </c>
+      <c r="F617" t="s">
+        <v>96</v>
+      </c>
+      <c r="H617">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B618">
+        <v>4</v>
+      </c>
+      <c r="C618" t="s">
+        <v>110</v>
+      </c>
+      <c r="D618">
+        <v>81403</v>
+      </c>
+      <c r="E618">
+        <v>13</v>
+      </c>
+      <c r="F618" t="s">
+        <v>96</v>
+      </c>
+      <c r="H618">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B619">
+        <v>5</v>
+      </c>
+      <c r="C619" t="s">
+        <v>106</v>
+      </c>
+      <c r="D619" t="s">
+        <v>342</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
+      </c>
+      <c r="F619" t="s">
+        <v>96</v>
+      </c>
+      <c r="H619">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B620">
+        <v>6</v>
+      </c>
+      <c r="C620" t="s">
+        <v>106</v>
+      </c>
+      <c r="D620" t="s">
+        <v>304</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620" t="s">
+        <v>96</v>
+      </c>
+      <c r="H620">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B621">
+        <v>7</v>
+      </c>
+      <c r="C621" t="s">
+        <v>106</v>
+      </c>
+      <c r="D621" t="s">
+        <v>347</v>
+      </c>
+      <c r="E621">
+        <v>1</v>
+      </c>
+      <c r="F621" t="s">
+        <v>96</v>
+      </c>
+      <c r="H621">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B622">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B623">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B624">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44397</v>
+      </c>
+      <c r="B625">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+      <c r="C626" t="s">
+        <v>106</v>
+      </c>
+      <c r="D626" t="s">
+        <v>236</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="F626" t="s">
+        <v>98</v>
+      </c>
+      <c r="H626">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+      <c r="C627" t="s">
+        <v>106</v>
+      </c>
+      <c r="D627" t="s">
+        <v>263</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+      <c r="F627" t="s">
+        <v>96</v>
+      </c>
+      <c r="H627">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B628">
+        <v>2</v>
+      </c>
+      <c r="C628" t="s">
+        <v>109</v>
+      </c>
+      <c r="D628">
+        <v>6467</v>
+      </c>
+      <c r="E628">
+        <v>9</v>
+      </c>
+      <c r="F628" t="s">
+        <v>96</v>
+      </c>
+      <c r="H628">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B629">
+        <v>3</v>
+      </c>
+      <c r="C629" t="s">
+        <v>110</v>
+      </c>
+      <c r="D629">
+        <v>43155</v>
+      </c>
+      <c r="E629">
+        <v>11</v>
+      </c>
+      <c r="F629" t="s">
+        <v>96</v>
+      </c>
+      <c r="H629">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B630">
+        <v>4</v>
+      </c>
+      <c r="C630" t="s">
+        <v>110</v>
+      </c>
+      <c r="D630">
+        <v>94861</v>
+      </c>
+      <c r="E630">
+        <v>14</v>
+      </c>
+      <c r="F630" t="s">
+        <v>96</v>
+      </c>
+      <c r="H630">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B631">
+        <v>5</v>
+      </c>
+      <c r="C631" t="s">
+        <v>106</v>
+      </c>
+      <c r="D631" t="s">
+        <v>221</v>
+      </c>
+      <c r="E631">
+        <v>1</v>
+      </c>
+      <c r="F631" t="s">
+        <v>96</v>
+      </c>
+      <c r="H631">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B632">
+        <v>6</v>
+      </c>
+      <c r="C632" t="s">
+        <v>106</v>
+      </c>
+      <c r="D632" t="s">
+        <v>252</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+      <c r="F632" t="s">
+        <v>96</v>
+      </c>
+      <c r="H632">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B633">
+        <v>7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>106</v>
+      </c>
+      <c r="D633" t="s">
+        <v>254</v>
+      </c>
+      <c r="E633">
+        <v>1</v>
+      </c>
+      <c r="F633" t="s">
+        <v>96</v>
+      </c>
+      <c r="H633">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B634">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B635">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B636">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44398</v>
+      </c>
+      <c r="B637">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B638">
+        <v>0</v>
+      </c>
+      <c r="C638" t="s">
+        <v>106</v>
+      </c>
+      <c r="D638" t="s">
+        <v>235</v>
+      </c>
+      <c r="E638">
+        <v>1</v>
+      </c>
+      <c r="F638" t="s">
+        <v>96</v>
+      </c>
+      <c r="H638">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+      <c r="C639" t="s">
+        <v>106</v>
+      </c>
+      <c r="D639" t="s">
+        <v>347</v>
+      </c>
+      <c r="E639">
+        <v>1</v>
+      </c>
+      <c r="F639" t="s">
+        <v>96</v>
+      </c>
+      <c r="H639">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B640">
+        <v>2</v>
+      </c>
+      <c r="C640" t="s">
+        <v>109</v>
+      </c>
+      <c r="D640">
+        <v>92746</v>
+      </c>
+      <c r="E640">
+        <v>14</v>
+      </c>
+      <c r="F640" t="s">
+        <v>96</v>
+      </c>
+      <c r="H640">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B641">
+        <v>3</v>
+      </c>
+      <c r="C641" t="s">
+        <v>109</v>
+      </c>
+      <c r="D641">
+        <v>38584</v>
+      </c>
+      <c r="E641">
+        <v>11</v>
+      </c>
+      <c r="F641" t="s">
+        <v>96</v>
+      </c>
+      <c r="H641">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B642">
+        <v>4</v>
+      </c>
+      <c r="C642" t="s">
+        <v>110</v>
+      </c>
+      <c r="D642">
+        <v>45187</v>
+      </c>
+      <c r="E642">
+        <v>11</v>
+      </c>
+      <c r="F642" t="s">
+        <v>96</v>
+      </c>
+      <c r="H642">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B643">
+        <v>5</v>
+      </c>
+      <c r="C643" t="s">
+        <v>106</v>
+      </c>
+      <c r="D643" t="s">
+        <v>223</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+      <c r="F643" t="s">
+        <v>98</v>
+      </c>
+      <c r="H643">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B644">
+        <v>6</v>
+      </c>
+      <c r="C644" t="s">
+        <v>106</v>
+      </c>
+      <c r="D644" t="s">
+        <v>111</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="F644" t="s">
+        <v>96</v>
+      </c>
+      <c r="H644">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B645">
+        <v>7</v>
+      </c>
+      <c r="C645" t="s">
+        <v>106</v>
+      </c>
+      <c r="D645" t="s">
+        <v>228</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+      <c r="F645" t="s">
+        <v>96</v>
+      </c>
+      <c r="H645">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B646">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B647">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B648">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44399</v>
+      </c>
+      <c r="B649">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44400</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+      <c r="C650" t="s">
+        <v>106</v>
+      </c>
+      <c r="D650" t="s">
+        <v>119</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+      <c r="F650" t="s">
+        <v>96</v>
+      </c>
+      <c r="H650">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44400</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+      <c r="C651" t="s">
+        <v>106</v>
+      </c>
+      <c r="D651" t="s">
+        <v>264</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651" t="s">
+        <v>96</v>
+      </c>
+      <c r="H651">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44400</v>
+      </c>
+      <c r="B652">
+        <v>2</v>
+      </c>
+      <c r="C652" t="s">
+        <v>109</v>
+      </c>
+      <c r="D652">
+        <v>98118</v>
+      </c>
+      <c r="E652">
+        <v>14</v>
+      </c>
+      <c r="F652" t="s">
+        <v>96</v>
+      </c>
+      <c r="H652">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44400</v>
+      </c>
+      <c r="B653">
+        <v>3</v>
+      </c>
+      <c r="C653" t="s">
+        <v>110</v>
+      </c>
+      <c r="D653">
+        <v>10153</v>
+      </c>
+      <c r="E653">
+        <v>9</v>
+      </c>
+      <c r="F653" t="s">
+        <v>96</v>
+      </c>
+      <c r="H653">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44400</v>
+      </c>
+      <c r="B654">
+        <v>4</v>
+      </c>
+      <c r="C654" t="s">
+        <v>110</v>
+      </c>
+      <c r="D654">
+        <v>98421</v>
+      </c>
+      <c r="E654">
+        <v>14</v>
+      </c>
+      <c r="F654" t="s">
+        <v>96</v>
+      </c>
+      <c r="H654">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <f t="shared" ref="A655:A718" ca="1" si="10">OFFSET(A655,-12,0)+1</f>
+        <v>44400</v>
+      </c>
+      <c r="B655">
+        <v>5</v>
+      </c>
+      <c r="C655" t="s">
+        <v>106</v>
+      </c>
+      <c r="D655" t="s">
+        <v>120</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+      <c r="F655" t="s">
+        <v>96</v>
+      </c>
+      <c r="H655">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44400</v>
+      </c>
+      <c r="B656">
+        <v>6</v>
+      </c>
+      <c r="C656" t="s">
+        <v>106</v>
+      </c>
+      <c r="D656" t="s">
+        <v>350</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656" t="s">
+        <v>96</v>
+      </c>
+      <c r="H656">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44400</v>
+      </c>
+      <c r="B657">
+        <v>7</v>
+      </c>
+      <c r="C657" t="s">
+        <v>106</v>
+      </c>
+      <c r="D657" t="s">
+        <v>256</v>
+      </c>
+      <c r="E657">
+        <v>1</v>
+      </c>
+      <c r="F657" t="s">
+        <v>96</v>
+      </c>
+      <c r="H657">
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44400</v>
+      </c>
+      <c r="B658">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44400</v>
+      </c>
+      <c r="B659">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44400</v>
+      </c>
+      <c r="B660">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44400</v>
+      </c>
+      <c r="B661">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B662">
+        <v>0</v>
+      </c>
+      <c r="C662" t="s">
+        <v>113</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662" t="s">
+        <v>98</v>
+      </c>
+      <c r="H662">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+      <c r="C663" t="s">
+        <v>106</v>
+      </c>
+      <c r="D663" t="s">
+        <v>351</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+      <c r="F663" t="s">
+        <v>96</v>
+      </c>
+      <c r="H663">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B664">
+        <v>2</v>
+      </c>
+      <c r="C664" t="s">
+        <v>109</v>
+      </c>
+      <c r="D664">
+        <v>52405</v>
+      </c>
+      <c r="E664">
+        <v>12</v>
+      </c>
+      <c r="F664" t="s">
+        <v>96</v>
+      </c>
+      <c r="H664">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B665">
+        <v>3</v>
+      </c>
+      <c r="C665" t="s">
+        <v>110</v>
+      </c>
+      <c r="D665">
+        <v>11471</v>
+      </c>
+      <c r="E665">
+        <v>9</v>
+      </c>
+      <c r="F665" t="s">
+        <v>96</v>
+      </c>
+      <c r="H665">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B666">
+        <v>4</v>
+      </c>
+      <c r="C666" t="s">
+        <v>110</v>
+      </c>
+      <c r="D666">
+        <v>95704</v>
+      </c>
+      <c r="E666">
+        <v>14</v>
+      </c>
+      <c r="F666" t="s">
+        <v>96</v>
+      </c>
+      <c r="H666">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B667">
+        <v>5</v>
+      </c>
+      <c r="C667" t="s">
+        <v>109</v>
+      </c>
+      <c r="D667">
+        <v>15462</v>
+      </c>
+      <c r="E667">
+        <v>9</v>
+      </c>
+      <c r="F667" t="s">
+        <v>96</v>
+      </c>
+      <c r="H667">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B668">
+        <v>6</v>
+      </c>
+      <c r="C668" t="s">
+        <v>106</v>
+      </c>
+      <c r="D668" t="s">
+        <v>118</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+      <c r="F668" t="s">
+        <v>96</v>
+      </c>
+      <c r="H668">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B669">
+        <v>7</v>
+      </c>
+      <c r="C669" t="s">
+        <v>106</v>
+      </c>
+      <c r="D669" t="s">
+        <v>342</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+      <c r="F669" t="s">
+        <v>96</v>
+      </c>
+      <c r="H669">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B670">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B671">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B672">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44401</v>
+      </c>
+      <c r="B673">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B674">
+        <v>0</v>
+      </c>
+      <c r="C674" t="s">
+        <v>106</v>
+      </c>
+      <c r="D674" t="s">
+        <v>250</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+      <c r="F674" t="s">
+        <v>96</v>
+      </c>
+      <c r="H674">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+      <c r="C675" t="s">
+        <v>106</v>
+      </c>
+      <c r="D675" t="s">
+        <v>344</v>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+      <c r="F675" t="s">
+        <v>96</v>
+      </c>
+      <c r="H675">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B676">
+        <v>2</v>
+      </c>
+      <c r="C676" t="s">
+        <v>109</v>
+      </c>
+      <c r="D676">
+        <v>84832</v>
+      </c>
+      <c r="E676">
+        <v>14</v>
+      </c>
+      <c r="F676" t="s">
+        <v>96</v>
+      </c>
+      <c r="H676">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B677">
+        <v>3</v>
+      </c>
+      <c r="C677" t="s">
+        <v>110</v>
+      </c>
+      <c r="D677">
+        <v>94548</v>
+      </c>
+      <c r="E677">
+        <v>14</v>
+      </c>
+      <c r="F677" t="s">
+        <v>96</v>
+      </c>
+      <c r="H677">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B678">
+        <v>4</v>
+      </c>
+      <c r="C678" t="s">
+        <v>110</v>
+      </c>
+      <c r="D678">
+        <v>14628</v>
+      </c>
+      <c r="E678">
+        <v>9</v>
+      </c>
+      <c r="F678" t="s">
+        <v>96</v>
+      </c>
+      <c r="H678">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B679">
+        <v>5</v>
+      </c>
+      <c r="C679" t="s">
+        <v>109</v>
+      </c>
+      <c r="D679">
+        <v>31175</v>
+      </c>
+      <c r="E679">
+        <v>10</v>
+      </c>
+      <c r="F679" t="s">
+        <v>96</v>
+      </c>
+      <c r="H679">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B680">
+        <v>6</v>
+      </c>
+      <c r="C680" t="s">
+        <v>106</v>
+      </c>
+      <c r="D680" t="s">
+        <v>230</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+      <c r="F680" t="s">
+        <v>96</v>
+      </c>
+      <c r="H680">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B681">
+        <v>7</v>
+      </c>
+      <c r="C681" t="s">
+        <v>106</v>
+      </c>
+      <c r="D681" t="s">
+        <v>344</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+      <c r="F681" t="s">
+        <v>96</v>
+      </c>
+      <c r="H681">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B682">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B683">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B684">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44402</v>
+      </c>
+      <c r="B685">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+      <c r="C686" t="s">
+        <v>106</v>
+      </c>
+      <c r="D686" t="s">
+        <v>253</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686" t="s">
+        <v>96</v>
+      </c>
+      <c r="H686">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B687">
+        <v>1</v>
+      </c>
+      <c r="C687" t="s">
+        <v>106</v>
+      </c>
+      <c r="D687" t="s">
+        <v>230</v>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+      <c r="F687" t="s">
+        <v>96</v>
+      </c>
+      <c r="H687">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B688">
+        <v>2</v>
+      </c>
+      <c r="C688" t="s">
+        <v>109</v>
+      </c>
+      <c r="D688">
+        <v>56908</v>
+      </c>
+      <c r="E688">
+        <v>12</v>
+      </c>
+      <c r="F688" t="s">
+        <v>96</v>
+      </c>
+      <c r="H688">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B689">
+        <v>3</v>
+      </c>
+      <c r="C689" t="s">
+        <v>110</v>
+      </c>
+      <c r="D689">
+        <v>5727</v>
+      </c>
+      <c r="E689">
+        <v>9</v>
+      </c>
+      <c r="F689" t="s">
+        <v>96</v>
+      </c>
+      <c r="H689">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B690">
+        <v>4</v>
+      </c>
+      <c r="C690" t="s">
+        <v>110</v>
+      </c>
+      <c r="D690">
+        <v>4971</v>
+      </c>
+      <c r="E690">
+        <v>9</v>
+      </c>
+      <c r="F690" t="s">
+        <v>96</v>
+      </c>
+      <c r="H690">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B691">
+        <v>5</v>
+      </c>
+      <c r="C691" t="s">
+        <v>110</v>
+      </c>
+      <c r="D691">
+        <v>79985</v>
+      </c>
+      <c r="E691">
+        <v>13</v>
+      </c>
+      <c r="F691" t="s">
+        <v>96</v>
+      </c>
+      <c r="H691">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B692">
+        <v>6</v>
+      </c>
+      <c r="C692" t="s">
+        <v>106</v>
+      </c>
+      <c r="D692" t="s">
+        <v>117</v>
+      </c>
+      <c r="E692">
+        <v>1</v>
+      </c>
+      <c r="F692" t="s">
+        <v>96</v>
+      </c>
+      <c r="H692">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B693">
+        <v>7</v>
+      </c>
+      <c r="C693" t="s">
+        <v>106</v>
+      </c>
+      <c r="D693" t="s">
+        <v>234</v>
+      </c>
+      <c r="E693">
+        <v>1</v>
+      </c>
+      <c r="F693" t="s">
+        <v>96</v>
+      </c>
+      <c r="H693">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B694">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B695">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B696">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44403</v>
+      </c>
+      <c r="B697">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B700">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B701">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B703">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B704">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B705">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B706">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B707">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B708">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44404</v>
+      </c>
+      <c r="B709">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B713">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B714">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B715">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B716">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B717">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>44405</v>
+      </c>
+      <c r="B718">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <f t="shared" ref="A719:A721" ca="1" si="11">OFFSET(A719,-12,0)+1</f>
+        <v>44405</v>
+      </c>
+      <c r="B719">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>44405</v>
+      </c>
+      <c r="B720">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>44405</v>
+      </c>
+      <c r="B721">
         <v>11</v>
       </c>
     </row>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A4D2D-224F-412C-9E6B-7922D23ABBB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EC8A3-EE90-474B-A082-B90579EC0A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="353">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,16 +1351,49 @@
     <t>지정 캐릭터</t>
   </si>
   <si>
+    <t>Equip2401</t>
+  </si>
+  <si>
+    <t>Equip1001</t>
+  </si>
+  <si>
+    <t>Equip4102</t>
+  </si>
+  <si>
+    <t>Equip2101</t>
+  </si>
+  <si>
+    <t>Equip8101</t>
+  </si>
+  <si>
+    <t>Equip5102</t>
+  </si>
+  <si>
+    <t>Equip8001</t>
+  </si>
+  <si>
+    <t>Equip5202</t>
+  </si>
+  <si>
+    <t>Equip2201</t>
+  </si>
+  <si>
+    <t>Equip3202</t>
+  </si>
+  <si>
+    <t>Equip0101</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 카오스 모드 개선</t>
+추가사항: 신규 컨텐츠 토벌전 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chaos Mode Improvement</t>
+Additional note: Added New Content Slay Mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,91 +1401,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين وضع الفوضى</t>
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Паляпшэнне рэжыму хаосу</t>
+Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Подобряване на режима на хаос</t>
+Допълнителна забележка: Добавен е нов режим на убийство</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: zlepšení režimu chaosu</t>
+Další Poznámka: Přidáno nový režim zabít obsah</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserung der Chaos-Modus</t>
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους</t>
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS</t>
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautusta: CHAOS-tilan parantaminen</t>
+Muita huomautuksia: Lisätty uusi sisältölautaustila</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration du mode Chaos</t>
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Chaos módjavítás</t>
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Perbaikan Mode Chaos</t>
+Catatan Tambahan: Menambahkan mode pembantuan konten baru</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della modalità Chaos</t>
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: שיפור מצב הכאוס</t>
+הערה נוספת: הוספה מצב חדש תוכן מרובי</t>
   </si>
   <si>
     <r>
@@ -1526,7 +1559,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：カオスモ</t>
+追加の注意：新しいコンテンツスレイモ</t>
     </r>
     <r>
       <rPr>
@@ -1548,7 +1581,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ド改善</t>
+      <t>ドを追加しました</t>
     </r>
   </si>
   <si>
@@ -1556,84 +1589,84 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 카오스 모드 개선</t>
+추가사항: 신규 컨텐츠 토벌전 추가</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Penambahbaikan Mod Chaos</t>
+Nota Tambahan: Menambah mod Slay Kandungan Baru</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Verbetering van de chaos-modus</t>
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: poprawa trybu chaosu</t>
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Melhoria do modo Caos</t>
+Nota adicional: Adicionado novo modo de slay de conteúdo</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea modului haos</t>
+Notă suplimentară: a adăugat un nou mod de slay conținut</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшение режима хаоса</t>
+Дополнительное примечание: добавлен новый режим SLAY CONTENT</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Zlepšenie režimu chaosu</t>
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Chaos Mode förbättring</t>
+Ytterligare anmärkning: Tillagt nytt innehållsläge</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos</t>
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: kaos modu iyileştirme</t>
+Ek Not: Yeni İçerik Slayası Modu eklendi</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: поліпшення режиму Chaos</t>
+Додаткова нотатка: Додано новий режим ущеплення вмісту</t>
   </si>
   <si>
     <r>
@@ -1662,7 +1695,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Cải thiện chế độ Chaos</t>
+      <t>u ý bổ sung: Đã thêm chế độ Slay nội dung mới</t>
     </r>
   </si>
   <si>
@@ -1693,48 +1726,40 @@
       </rPr>
       <t>物！_x000D_
 _x000D_
-附加注意：混沌模式改进</t>
+附加说明：添加了新的</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容略微模式</t>
+    </r>
   </si>
   <si>
     <t>慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加註意：混沌模式改進</t>
-  </si>
-  <si>
-    <t>Equip2401</t>
-  </si>
-  <si>
-    <t>Equip1001</t>
-  </si>
-  <si>
-    <t>Equip4102</t>
-  </si>
-  <si>
-    <t>Equip2101</t>
-  </si>
-  <si>
-    <t>Equip8101</t>
-  </si>
-  <si>
-    <t>Equip5102</t>
-  </si>
-  <si>
-    <t>Equip8001</t>
-  </si>
-  <si>
-    <t>Equip5202</t>
-  </si>
-  <si>
-    <t>Equip2201</t>
-  </si>
-  <si>
-    <t>Equip3202</t>
-  </si>
-  <si>
-    <t>Equip0101</t>
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式</t>
+  </si>
+  <si>
+    <t>Equip0401</t>
   </si>
 </sst>
 </file>
@@ -4016,8 +4041,8 @@
   <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C374" sqref="C374"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -10185,7 +10210,7 @@
         <v>106</v>
       </c>
       <c r="D314" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -10440,7 +10465,7 @@
         <v>106</v>
       </c>
       <c r="D327" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -11097,10 +11122,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>106</v>
-      </c>
-      <c r="D362" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -11109,7 +11131,7 @@
         <v>98</v>
       </c>
       <c r="H362">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -11145,19 +11167,19 @@
         <v>2</v>
       </c>
       <c r="C364" t="s">
-        <v>109</v>
-      </c>
-      <c r="D364">
-        <v>10094</v>
+        <v>106</v>
+      </c>
+      <c r="D364" t="s">
+        <v>264</v>
       </c>
       <c r="E364">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F364" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H364">
-        <v>900</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -11169,10 +11191,10 @@
         <v>3</v>
       </c>
       <c r="C365" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D365">
-        <v>71291</v>
+        <v>10094</v>
       </c>
       <c r="E365">
         <v>11</v>
@@ -11196,7 +11218,7 @@
         <v>110</v>
       </c>
       <c r="D366">
-        <v>4931</v>
+        <v>71291</v>
       </c>
       <c r="E366">
         <v>9</v>
@@ -11220,7 +11242,7 @@
         <v>106</v>
       </c>
       <c r="D367" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -11268,7 +11290,7 @@
         <v>106</v>
       </c>
       <c r="D369" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -11373,19 +11395,19 @@
         <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>109</v>
-      </c>
-      <c r="D376">
-        <v>63660</v>
+        <v>106</v>
+      </c>
+      <c r="D376" t="s">
+        <v>318</v>
       </c>
       <c r="E376">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F376" t="s">
         <v>96</v>
       </c>
       <c r="H376">
-        <v>1200</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -11421,19 +11443,19 @@
         <v>4</v>
       </c>
       <c r="C378" t="s">
-        <v>110</v>
-      </c>
-      <c r="D378">
-        <v>98567</v>
+        <v>106</v>
+      </c>
+      <c r="D378" t="s">
+        <v>263</v>
       </c>
       <c r="E378">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F378" t="s">
         <v>96</v>
       </c>
       <c r="H378">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -11496,7 +11518,7 @@
         <v>106</v>
       </c>
       <c r="D381" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -11601,19 +11623,19 @@
         <v>2</v>
       </c>
       <c r="C388" t="s">
-        <v>109</v>
-      </c>
-      <c r="D388">
-        <v>99358</v>
+        <v>106</v>
+      </c>
+      <c r="D388" t="s">
+        <v>122</v>
       </c>
       <c r="E388">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F388" t="s">
         <v>96</v>
       </c>
       <c r="H388">
-        <v>1400</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -11625,19 +11647,22 @@
         <v>3</v>
       </c>
       <c r="C389" t="s">
-        <v>109</v>
-      </c>
-      <c r="D389">
-        <v>91869</v>
+        <v>106</v>
+      </c>
+      <c r="D389" t="s">
+        <v>352</v>
       </c>
       <c r="E389">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F389" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="G389">
+        <v>139</v>
       </c>
       <c r="H389">
-        <v>1400</v>
+        <v>59</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -11649,19 +11674,19 @@
         <v>4</v>
       </c>
       <c r="C390" t="s">
-        <v>110</v>
-      </c>
-      <c r="D390">
-        <v>18038</v>
+        <v>106</v>
+      </c>
+      <c r="D390" t="s">
+        <v>254</v>
       </c>
       <c r="E390">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F390" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H390">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -11724,7 +11749,7 @@
         <v>106</v>
       </c>
       <c r="D393" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E393">
         <v>1</v>
@@ -11781,16 +11806,19 @@
         <v>0</v>
       </c>
       <c r="C398" t="s">
-        <v>231</v>
+        <v>106</v>
+      </c>
+      <c r="D398" t="s">
+        <v>119</v>
       </c>
       <c r="E398">
         <v>1</v>
       </c>
       <c r="F398" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H398">
-        <v>149</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -11805,16 +11833,16 @@
         <v>106</v>
       </c>
       <c r="D399" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="E399">
         <v>1</v>
       </c>
       <c r="F399" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H399">
-        <v>96</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -11826,19 +11854,19 @@
         <v>2</v>
       </c>
       <c r="C400" t="s">
-        <v>109</v>
-      </c>
-      <c r="D400">
-        <v>36443</v>
+        <v>106</v>
+      </c>
+      <c r="D400" t="s">
+        <v>219</v>
       </c>
       <c r="E400">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F400" t="s">
         <v>96</v>
       </c>
       <c r="H400">
-        <v>1100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -11856,13 +11884,13 @@
         <v>94285</v>
       </c>
       <c r="E401">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F401" t="s">
         <v>96</v>
       </c>
       <c r="H401">
-        <v>1400</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -11874,19 +11902,19 @@
         <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>110</v>
-      </c>
-      <c r="D402">
-        <v>55264</v>
+        <v>106</v>
+      </c>
+      <c r="D402" t="s">
+        <v>220</v>
       </c>
       <c r="E402">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F402" t="s">
         <v>96</v>
       </c>
       <c r="H402">
-        <v>1200</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -11925,7 +11953,7 @@
         <v>106</v>
       </c>
       <c r="D404" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -12009,7 +12037,7 @@
         <v>106</v>
       </c>
       <c r="D410" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -12018,7 +12046,7 @@
         <v>96</v>
       </c>
       <c r="H410">
-        <v>7800</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -12060,13 +12088,13 @@
         <v>73751</v>
       </c>
       <c r="E412">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F412" t="s">
         <v>96</v>
       </c>
       <c r="H412">
-        <v>1300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -12087,10 +12115,10 @@
         <v>14</v>
       </c>
       <c r="F413" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H413">
-        <v>1400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -12102,19 +12130,19 @@
         <v>4</v>
       </c>
       <c r="C414" t="s">
-        <v>110</v>
-      </c>
-      <c r="D414">
-        <v>79591</v>
+        <v>106</v>
+      </c>
+      <c r="D414" t="s">
+        <v>222</v>
       </c>
       <c r="E414">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F414" t="s">
         <v>96</v>
       </c>
       <c r="H414">
-        <v>1300</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -12126,19 +12154,19 @@
         <v>5</v>
       </c>
       <c r="C415" t="s">
-        <v>110</v>
-      </c>
-      <c r="D415">
-        <v>8050</v>
+        <v>106</v>
+      </c>
+      <c r="D415" t="s">
+        <v>259</v>
       </c>
       <c r="E415">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F415" t="s">
         <v>96</v>
       </c>
       <c r="H415">
-        <v>900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -12294,7 +12322,7 @@
         <v>96</v>
       </c>
       <c r="H424">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -12318,7 +12346,7 @@
         <v>96</v>
       </c>
       <c r="H425">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -12339,10 +12367,10 @@
         <v>9</v>
       </c>
       <c r="F426" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H426">
-        <v>900</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -12522,7 +12550,7 @@
         <v>96</v>
       </c>
       <c r="H436">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -12546,7 +12574,7 @@
         <v>96</v>
       </c>
       <c r="H437">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -12567,10 +12595,10 @@
         <v>14</v>
       </c>
       <c r="F438" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H438">
-        <v>1400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -12594,7 +12622,7 @@
         <v>96</v>
       </c>
       <c r="H439">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -12633,7 +12661,7 @@
         <v>106</v>
       </c>
       <c r="D441" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E441">
         <v>1</v>
@@ -12747,7 +12775,7 @@
         <v>96</v>
       </c>
       <c r="H448">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -12771,7 +12799,7 @@
         <v>96</v>
       </c>
       <c r="H449">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -12795,7 +12823,7 @@
         <v>96</v>
       </c>
       <c r="H450">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -12819,7 +12847,7 @@
         <v>96</v>
       </c>
       <c r="H451">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -12858,7 +12886,7 @@
         <v>106</v>
       </c>
       <c r="D453" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E453">
         <v>1</v>
@@ -12975,7 +13003,7 @@
         <v>96</v>
       </c>
       <c r="H460">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -12999,7 +13027,7 @@
         <v>96</v>
       </c>
       <c r="H461">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -13023,7 +13051,7 @@
         <v>96</v>
       </c>
       <c r="H462">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -13203,7 +13231,7 @@
         <v>96</v>
       </c>
       <c r="H472">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.3">
@@ -13227,7 +13255,7 @@
         <v>96</v>
       </c>
       <c r="H473">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
@@ -13251,7 +13279,7 @@
         <v>96</v>
       </c>
       <c r="H474">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
@@ -13431,7 +13459,7 @@
         <v>96</v>
       </c>
       <c r="H484">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
@@ -13455,7 +13483,7 @@
         <v>96</v>
       </c>
       <c r="H485">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
@@ -13479,7 +13507,7 @@
         <v>96</v>
       </c>
       <c r="H486">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
@@ -13626,7 +13654,7 @@
         <v>106</v>
       </c>
       <c r="D495" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="E495">
         <v>1</v>
@@ -13659,7 +13687,7 @@
         <v>96</v>
       </c>
       <c r="H496">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -13683,7 +13711,7 @@
         <v>96</v>
       </c>
       <c r="H497">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
@@ -13707,7 +13735,7 @@
         <v>96</v>
       </c>
       <c r="H498">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
@@ -13884,7 +13912,7 @@
         <v>96</v>
       </c>
       <c r="H508">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -13908,7 +13936,7 @@
         <v>96</v>
       </c>
       <c r="H509">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -13932,7 +13960,7 @@
         <v>96</v>
       </c>
       <c r="H510">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
@@ -13956,7 +13984,7 @@
         <v>96</v>
       </c>
       <c r="H511">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
@@ -14109,7 +14137,7 @@
         <v>96</v>
       </c>
       <c r="H520">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
@@ -14133,7 +14161,7 @@
         <v>96</v>
       </c>
       <c r="H521">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.3">
@@ -14157,7 +14185,7 @@
         <v>96</v>
       </c>
       <c r="H522">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.3">
@@ -14181,7 +14209,7 @@
         <v>96</v>
       </c>
       <c r="H523">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
@@ -14220,7 +14248,7 @@
         <v>106</v>
       </c>
       <c r="D525" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E525">
         <v>1</v>
@@ -14280,7 +14308,7 @@
         <v>106</v>
       </c>
       <c r="D530" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E530">
         <v>1</v>
@@ -14337,7 +14365,7 @@
         <v>96</v>
       </c>
       <c r="H532">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
@@ -14361,7 +14389,7 @@
         <v>96</v>
       </c>
       <c r="H533">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
@@ -14385,7 +14413,7 @@
         <v>96</v>
       </c>
       <c r="H534">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.3">
@@ -14562,7 +14590,7 @@
         <v>96</v>
       </c>
       <c r="H544">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.3">
@@ -14586,7 +14614,7 @@
         <v>96</v>
       </c>
       <c r="H545">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.3">
@@ -14610,7 +14638,7 @@
         <v>96</v>
       </c>
       <c r="H546">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.3">
@@ -14673,7 +14701,7 @@
         <v>106</v>
       </c>
       <c r="D549" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E549">
         <v>1</v>
@@ -14790,7 +14818,7 @@
         <v>96</v>
       </c>
       <c r="H556">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.3">
@@ -14814,7 +14842,7 @@
         <v>96</v>
       </c>
       <c r="H557">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
@@ -14838,7 +14866,7 @@
         <v>96</v>
       </c>
       <c r="H558">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
@@ -14853,7 +14881,7 @@
         <v>106</v>
       </c>
       <c r="D559" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="E559">
         <v>1</v>
@@ -15018,7 +15046,7 @@
         <v>96</v>
       </c>
       <c r="H568">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.3">
@@ -15042,7 +15070,7 @@
         <v>96</v>
       </c>
       <c r="H569">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.3">
@@ -15066,7 +15094,7 @@
         <v>96</v>
       </c>
       <c r="H570">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.3">
@@ -15081,7 +15109,7 @@
         <v>106</v>
       </c>
       <c r="D571" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E571">
         <v>1</v>
@@ -15189,7 +15217,7 @@
         <v>106</v>
       </c>
       <c r="D578" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -15213,7 +15241,7 @@
         <v>106</v>
       </c>
       <c r="D579" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="E579">
         <v>1</v>
@@ -15246,7 +15274,7 @@
         <v>96</v>
       </c>
       <c r="H580">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.3">
@@ -15270,7 +15298,7 @@
         <v>96</v>
       </c>
       <c r="H581">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
@@ -15294,7 +15322,7 @@
         <v>96</v>
       </c>
       <c r="H582">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.3">
@@ -15474,7 +15502,7 @@
         <v>96</v>
       </c>
       <c r="H592">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.3">
@@ -15498,7 +15526,7 @@
         <v>96</v>
       </c>
       <c r="H593">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.3">
@@ -15522,7 +15550,7 @@
         <v>96</v>
       </c>
       <c r="H594">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.3">
@@ -15585,7 +15613,7 @@
         <v>106</v>
       </c>
       <c r="D597" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E597">
         <v>1</v>
@@ -15645,7 +15673,7 @@
         <v>106</v>
       </c>
       <c r="D602" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E602">
         <v>1</v>
@@ -15702,7 +15730,7 @@
         <v>96</v>
       </c>
       <c r="H604">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
@@ -15726,7 +15754,7 @@
         <v>96</v>
       </c>
       <c r="H605">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.3">
@@ -15750,7 +15778,7 @@
         <v>96</v>
       </c>
       <c r="H606">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.3">
@@ -15897,7 +15925,7 @@
         <v>106</v>
       </c>
       <c r="D615" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="E615">
         <v>1</v>
@@ -15930,7 +15958,7 @@
         <v>96</v>
       </c>
       <c r="H616">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.3">
@@ -15954,7 +15982,7 @@
         <v>96</v>
       </c>
       <c r="H617">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -15978,7 +16006,7 @@
         <v>96</v>
       </c>
       <c r="H618">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.3">
@@ -15993,7 +16021,7 @@
         <v>106</v>
       </c>
       <c r="D619" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E619">
         <v>1</v>
@@ -16041,7 +16069,7 @@
         <v>106</v>
       </c>
       <c r="D621" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E621">
         <v>1</v>
@@ -16158,7 +16186,7 @@
         <v>96</v>
       </c>
       <c r="H628">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.3">
@@ -16182,7 +16210,7 @@
         <v>96</v>
       </c>
       <c r="H629">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.3">
@@ -16206,7 +16234,7 @@
         <v>96</v>
       </c>
       <c r="H630">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.3">
@@ -16353,7 +16381,7 @@
         <v>106</v>
       </c>
       <c r="D639" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E639">
         <v>1</v>
@@ -16386,7 +16414,7 @@
         <v>96</v>
       </c>
       <c r="H640">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.3">
@@ -16410,7 +16438,7 @@
         <v>96</v>
       </c>
       <c r="H641">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.3">
@@ -16434,7 +16462,7 @@
         <v>96</v>
       </c>
       <c r="H642">
-        <v>1100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.3">
@@ -16614,7 +16642,7 @@
         <v>96</v>
       </c>
       <c r="H652">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.3">
@@ -16638,7 +16666,7 @@
         <v>96</v>
       </c>
       <c r="H653">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.3">
@@ -16662,7 +16690,7 @@
         <v>96</v>
       </c>
       <c r="H654">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.3">
@@ -16701,7 +16729,7 @@
         <v>106</v>
       </c>
       <c r="D656" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="E656">
         <v>1</v>
@@ -16806,7 +16834,7 @@
         <v>106</v>
       </c>
       <c r="D663" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="E663">
         <v>1</v>
@@ -16839,7 +16867,7 @@
         <v>96</v>
       </c>
       <c r="H664">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
@@ -16863,7 +16891,7 @@
         <v>96</v>
       </c>
       <c r="H665">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
@@ -16887,7 +16915,7 @@
         <v>96</v>
       </c>
       <c r="H666">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
@@ -16911,7 +16939,7 @@
         <v>96</v>
       </c>
       <c r="H667">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
@@ -16950,7 +16978,7 @@
         <v>106</v>
       </c>
       <c r="D669" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E669">
         <v>1</v>
@@ -17034,7 +17062,7 @@
         <v>106</v>
       </c>
       <c r="D675" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E675">
         <v>1</v>
@@ -17067,7 +17095,7 @@
         <v>96</v>
       </c>
       <c r="H676">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.3">
@@ -17091,7 +17119,7 @@
         <v>96</v>
       </c>
       <c r="H677">
-        <v>1400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.3">
@@ -17115,7 +17143,7 @@
         <v>96</v>
       </c>
       <c r="H678">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.3">
@@ -17139,7 +17167,7 @@
         <v>96</v>
       </c>
       <c r="H679">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.3">
@@ -17178,7 +17206,7 @@
         <v>106</v>
       </c>
       <c r="D681" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E681">
         <v>1</v>
@@ -17295,7 +17323,7 @@
         <v>96</v>
       </c>
       <c r="H688">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.3">
@@ -17319,7 +17347,7 @@
         <v>96</v>
       </c>
       <c r="H689">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.3">
@@ -17343,7 +17371,7 @@
         <v>96</v>
       </c>
       <c r="H690">
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.3">
@@ -17367,7 +17395,7 @@
         <v>96</v>
       </c>
       <c r="H691">
-        <v>1300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.3">
@@ -17682,7 +17710,7 @@
   <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17920,115 +17948,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -18040,7 +18068,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chaos Mode Improvement
+Additional note: Added New Content Slay Mode
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18054,7 +18082,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين وضع الفوضى
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد
 &lt;/ar&gt;
 </v>
       </c>
@@ -18065,7 +18093,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Паляпшэнне рэжыму хаосу
+Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY
 &lt;/be&gt;
 </v>
       </c>
@@ -18076,7 +18104,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Подобряване на режима на хаос
+Допълнителна забележка: Добавен е нов режим на убийство
 &lt;/bg&gt;
 </v>
       </c>
@@ -18087,7 +18115,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: zlepšení režimu chaosu
+Další Poznámka: Přidáno nový režim zabít obsah
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18098,7 +18126,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserung der Chaos-Modus
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18109,7 +18137,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18120,7 +18148,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18131,7 +18159,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18142,7 +18170,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18153,7 +18181,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautusta: CHAOS-tilan parantaminen
+Muita huomautuksia: Lisätty uusi sisältölautaustila
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18164,7 +18192,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration du mode Chaos
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18175,7 +18203,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration du mode Chaos
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -18186,7 +18214,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Chaos módjavítás
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -18197,7 +18225,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Perbaikan Mode Chaos
+Catatan Tambahan: Menambahkan mode pembantuan konten baru
 &lt;/id&gt;
 </v>
       </c>
@@ -18208,7 +18236,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della modalità Chaos
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -18219,7 +18247,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: שיפור מצב הכאוס
+הערה נוספת: הוספה מצב חדש תוכן מרובי
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -18230,7 +18258,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：カオスモード改善
+追加の注意：新しいコンテンツスレイモードを追加しました
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -18241,7 +18269,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 카오스 모드 개선
+추가사항: 신규 컨텐츠 토벌전 추가
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -18252,7 +18280,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Penambahbaikan Mod Chaos
+Nota Tambahan: Menambah mod Slay Kandungan Baru
 &lt;/ms&gt;
 </v>
       </c>
@@ -18263,7 +18291,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Penambahbaikan Mod Chaos
+Nota Tambahan: Menambah mod Slay Kandungan Baru
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -18274,7 +18302,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Verbetering van de chaos-modus
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -18285,7 +18313,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: poprawa trybu chaosu
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -18296,7 +18324,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Melhoria do modo Caos
+Nota adicional: Adicionado novo modo de slay de conteúdo
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -18307,7 +18335,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Melhoria do modo Caos
+Nota adicional: Adicionado novo modo de slay de conteúdo
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -18318,7 +18346,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea modului haos
+Notă suplimentară: a adăugat un nou mod de slay conținut
 &lt;/ro&gt;
 </v>
       </c>
@@ -18329,7 +18357,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшение режима хаоса
+Дополнительное примечание: добавлен новый режим SLAY CONTENT
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -18340,7 +18368,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Zlepšenie režimu chaosu
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim
 &lt;/sk&gt;
 </v>
       </c>
@@ -18351,7 +18379,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Chaos Mode förbättring
+Ytterligare anmärkning: Tillagt nytt innehållsläge
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -18362,7 +18390,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่
 &lt;/th&gt;
 </v>
       </c>
@@ -18373,7 +18401,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: kaos modu iyileştirme
+Ek Not: Yeni İçerik Slayası Modu eklendi
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -18384,7 +18412,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: поліпшення режиму Chaos
+Додаткова нотатка: Додано новий режим ущеплення вмісту
 &lt;/uk&gt;
 </v>
       </c>
@@ -18395,7 +18423,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện chế độ Chaos
+Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới
 &lt;/vi&gt;
 </v>
       </c>
@@ -18406,7 +18434,7 @@
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加注意：混沌模式改进
+附加说明：添加了新的内容略微模式
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -18415,9 +18443,9 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加註意：混沌模式改進
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -18426,9 +18454,9 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加註意：混沌模式改進
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18442,252 +18470,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chaos Mode Improvement
+Additional note: Added New Content Slay Mode
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين وضع الفوضى
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Паляпшэнне рэжыму хаосу
+Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Подобряване на режима на хаос
+Допълнителна забележка: Добавен е нов режим на убийство
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: zlepšení režimu chaosu
+Další Poznámka: Přidáno nový režim zabít obsah
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserung der Chaos-Modus
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautusta: CHAOS-tilan parantaminen
+Muita huomautuksia: Lisätty uusi sisältölautaustila
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration du mode Chaos
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration du mode Chaos
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Chaos módjavítás
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Perbaikan Mode Chaos
+Catatan Tambahan: Menambahkan mode pembantuan konten baru
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della modalità Chaos
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: שיפור מצב הכאוס
+הערה נוספת: הוספה מצב חדש תוכן מרובי
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：カオスモード改善
+追加の注意：新しいコンテンツスレイモードを追加しました
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 카오스 모드 개선
+추가사항: 신규 컨텐츠 토벌전 추가
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Penambahbaikan Mod Chaos
+Nota Tambahan: Menambah mod Slay Kandungan Baru
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Penambahbaikan Mod Chaos
+Nota Tambahan: Menambah mod Slay Kandungan Baru
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Verbetering van de chaos-modus
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: poprawa trybu chaosu
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Melhoria do modo Caos
+Nota adicional: Adicionado novo modo de slay de conteúdo
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Melhoria do modo Caos
+Nota adicional: Adicionado novo modo de slay de conteúdo
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea modului haos
+Notă suplimentară: a adăugat un nou mod de slay conținut
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшение режима хаоса
+Дополнительное примечание: добавлен новый режим SLAY CONTENT
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Zlepšenie režimu chaosu
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Chaos Mode förbättring
+Ytterligare anmärkning: Tillagt nytt innehållsläge
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: kaos modu iyileştirme
+Ek Not: Yeni İçerik Slayası Modu eklendi
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: поліпшення режиму Chaos
+Додаткова нотатка: Додано новий режим ущеплення вмісту
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện chế độ Chaos
+Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加注意：混沌模式改进
+附加说明：添加了新的内容略微模式
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加註意：混沌模式改進
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加註意：混沌模式改進
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18736,196 +18764,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chaos Mode Improvement
+Additional note: Added New Content Slay Mode
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτίωση της λειτουργίας του χάους
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: Verbetering van de chaos-modus
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserung der Chaos-Modus
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшение режима хаоса
+Дополнительное примечание: добавлен новый режим SLAY CONTENT
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: îmbunătățirea modului haos
+Notă suplimentară: a adăugat un nou mod de slay conținut
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Penambahbaikan Mod Chaos
+Nota Tambahan: Menambah mod Slay Kandungan Baru
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện chế độ Chaos
+Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Chaos Mode förbättring
+Ytterligare anmärkning: Tillagt nytt innehållsläge
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora del modo CHAOS
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Zlepšenie režimu chaosu
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين وضع الفوضى
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: поліпшення режиму Chaos
+Додаткова нотатка: Додано новий режим ущеплення вмісту
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della modalità Chaos
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Perbaikan Mode Chaos
+Catatan Tambahan: Menambahkan mode pembantuan konten baru
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：カオスモード改善
+追加の注意：新しいコンテンツスレイモードを追加しました
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加注意：混沌模式改进
+附加说明：添加了新的内容略微模式
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加註意：混沌模式改進
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: zlepšení režimu chaosu
+Další Poznámka: Přidáno nový režim zabít obsah
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: การปรับปรุงโหมด Chaos
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: kaos modu iyileştirme
+Ek Not: Yeni İçerik Slayası Modu eklendi
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Melhoria do modo Caos
+Nota adicional: Adicionado novo modo de slay de conteúdo
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: poprawa trybu chaosu
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration du mode Chaos
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautusta: CHAOS-tilan parantaminen
+Muita huomautuksia: Lisätty uusi sisältölautaustila
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 카오스 모드 개선
+추가사항: 신규 컨텐츠 토벌전 추가
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Chaos módjavítás
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: שיפור מצב הכאוס
+הערה נוספת: הוספה מצב חדש תוכן מרובי
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EC8A3-EE90-474B-A082-B90579EC0A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98F58FC-D122-44E1-B9A1-E286671BE829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -1384,16 +1384,21 @@
     <t>Equip0101</t>
   </si>
   <si>
+    <t>Equip0401</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 신규 컨텐츠 토벌전 추가</t>
+추가사항: 신규 컨텐츠 토벌전 추가
+추가사항2: 프리징 이슈 등 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added New Content Slay Mode</t>
+Additional note: Added New Content Slay Mode
+Additional note 2: Fix freezing issues, etc.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1401,91 +1406,104 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد</t>
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
+ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY</t>
+Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY_x000D_
+Дадатковая Заўвага 2: Fix замарожвання пытанні і г.д.</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавен е нов режим на убийство</t>
+Допълнителна забележка: Добавен е нов режим на убийство_x000D_
+Допълнителна забележка 2: Поправяне на проблеми с замръзване и др.</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah</t>
+Další Poznámka: Přidáno nový režim zabít obsah_x000D_
+Další poznámka 2: Opravit bod zmrazení atd.</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt</t>
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
+Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου</t>
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
+Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido</t>
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölautaustila</t>
+Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
+Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu</t>
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
+Note supplémentaire 2: Correction des problèmes de congélation, etc.</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód</t>
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
+2. feljegyzés: Fix fagyasztási kérdések stb.</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru</t>
+Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
+Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto</t>
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
+Nota aggiuntiva 2: problema di congelamento fissa, ecc.</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי</t>
+הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
+הערה נוספת 2: תקן בעיות הקפאה, וכו '</t>
   </si>
   <si>
     <r>
@@ -1581,7 +1599,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ドを追加しました</t>
+      <t>ドを追加しました_x000D_
+追加注2：凍結の問題などを修正する</t>
     </r>
   </si>
   <si>
@@ -1589,84 +1608,96 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가</t>
+추가사항: 신규 컨텐츠 토벌전 추가_x000D_
+추가사항2: 프리징 이슈 등 수정</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru</t>
+Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
+Nota tambahan 2: Betulkan isu pembekuan, dsb.</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd</t>
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
+Extra noot 2: Fix Freezing-problemen, enz.</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content</t>
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
+Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo</t>
+Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
+Nota adicional 2: Corrigir problemas de congelamento, etc.</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut</t>
+Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
+Nota adăugată 2: Fixați problemele de înghețare etc.</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT</t>
+Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
+Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim</t>
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
+Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge</t>
+Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
+Ytterligare anmärkning 2: Fixa frysningsproblem etc.</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่</t>
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
+หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi</t>
+Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
+Ek Not 2: Donma sorunlarını, vb.</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту</t>
+Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
+Додаткова нотатка 2: Виправити проблеми заморожування тощо.</t>
   </si>
   <si>
     <r>
@@ -1695,7 +1726,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Đã thêm chế độ Slay nội dung mới</t>
+      <t>u ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.</t>
     </r>
   </si>
   <si>
@@ -1748,25 +1801,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>容略微模式</t>
+      <t>容略微模式_x000D_
+附加说明2：修</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冻结问题等</t>
+    </r>
   </si>
   <si>
     <t>慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式</t>
-  </si>
-  <si>
-    <t>Equip0401</t>
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式_x000D_
+附加說明2：修復凍結問題等</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1817,6 +1891,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4040,7 +4122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
     </sheetView>
@@ -11650,7 +11732,7 @@
         <v>106</v>
       </c>
       <c r="D389" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -17709,8 +17791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17948,115 +18030,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -18069,6 +18151,7 @@
 Celebrate the global release!
 Log in every day to receive the gifts!
 Additional note: Added New Content Slay Mode
+Additional note 2: Fix freezing issues, etc.
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18082,7 +18165,8 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
+ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.
 &lt;/ar&gt;
 </v>
       </c>
@@ -18093,7 +18177,8 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY
+Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY_x000D_
+Дадатковая Заўвага 2: Fix замарожвання пытанні і г.д.
 &lt;/be&gt;
 </v>
       </c>
@@ -18104,7 +18189,8 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавен е нов режим на убийство
+Допълнителна забележка: Добавен е нов режим на убийство_x000D_
+Допълнителна забележка 2: Поправяне на проблеми с замръзване и др.
 &lt;/bg&gt;
 </v>
       </c>
@@ -18115,7 +18201,8 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah
+Další Poznámka: Přidáno nový režim zabít obsah_x000D_
+Další poznámka 2: Opravit bod zmrazení atd.
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18126,7 +18213,8 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
+Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18137,7 +18225,8 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
+Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18148,7 +18237,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18159,7 +18249,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18170,7 +18261,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18181,7 +18273,8 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölautaustila
+Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
+Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18192,7 +18285,8 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
+Note supplémentaire 2: Correction des problèmes de congélation, etc.
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18203,7 +18297,8 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
+Note supplémentaire 2: Correction des problèmes de congélation, etc.
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -18214,7 +18309,8 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
+2. feljegyzés: Fix fagyasztási kérdések stb.
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -18225,7 +18321,8 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru
+Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
+Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.
 &lt;/id&gt;
 </v>
       </c>
@@ -18236,7 +18333,8 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
+Nota aggiuntiva 2: problema di congelamento fissa, ecc.
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -18247,7 +18345,8 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי
+הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
+הערה נוספת 2: תקן בעיות הקפאה, וכו '
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -18258,7 +18357,8 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモードを追加しました
+追加の注意：新しいコンテンツスレイモードを追加しました_x000D_
+追加注2：凍結の問題などを修正する
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -18269,7 +18369,8 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가
+추가사항: 신규 컨텐츠 토벌전 추가_x000D_
+추가사항2: 프리징 이슈 등 수정
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -18280,7 +18381,8 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru
+Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
+Nota tambahan 2: Betulkan isu pembekuan, dsb.
 &lt;/ms&gt;
 </v>
       </c>
@@ -18291,7 +18393,8 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru
+Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
+Nota tambahan 2: Betulkan isu pembekuan, dsb.
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -18302,7 +18405,8 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
+Extra noot 2: Fix Freezing-problemen, enz.
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -18313,7 +18417,8 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
+Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -18324,7 +18429,8 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo
+Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
+Nota adicional 2: Corrigir problemas de congelamento, etc.
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -18335,7 +18441,8 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo
+Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
+Nota adicional 2: Corrigir problemas de congelamento, etc.
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -18346,7 +18453,8 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut
+Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
+Nota adăugată 2: Fixați problemele de înghețare etc.
 &lt;/ro&gt;
 </v>
       </c>
@@ -18357,7 +18465,8 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT
+Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
+Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -18368,7 +18477,8 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
+Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.
 &lt;/sk&gt;
 </v>
       </c>
@@ -18379,7 +18489,8 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge
+Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
+Ytterligare anmärkning 2: Fixa frysningsproblem etc.
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -18390,7 +18501,8 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
+หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ
 &lt;/th&gt;
 </v>
       </c>
@@ -18401,7 +18513,8 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi
+Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
+Ek Not 2: Donma sorunlarını, vb.
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -18412,7 +18525,8 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту
+Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
+Додаткова нотатка 2: Виправити проблеми заморожування тощо.
 &lt;/uk&gt;
 </v>
       </c>
@@ -18423,7 +18537,8 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới
+Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
+Lưu ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.
 &lt;/vi&gt;
 </v>
       </c>
@@ -18434,7 +18549,8 @@
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：添加了新的内容略微模式
+附加说明：添加了新的内容略微模式_x000D_
+附加说明2：修复冻结问题等
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -18443,9 +18559,10 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式_x000D_
+附加說明2：修復凍結問題等
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -18454,9 +18571,10 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式_x000D_
+附加說明2：修復凍結問題等
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18471,251 +18589,287 @@
 Celebrate the global release!
 Log in every day to receive the gifts!
 Additional note: Added New Content Slay Mode
+Additional note 2: Fix freezing issues, etc.
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
+ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY
+Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY_x000D_
+Дадатковая Заўвага 2: Fix замарожвання пытанні і г.д.
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавен е нов режим на убийство
+Допълнителна забележка: Добавен е нов режим на убийство_x000D_
+Допълнителна забележка 2: Поправяне на проблеми с замръзване и др.
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah
+Další Poznámka: Přidáno nový režim zabít obsah_x000D_
+Další poznámka 2: Opravit bod zmrazení atd.
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
+Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
+Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölautaustila
+Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
+Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
+Note supplémentaire 2: Correction des problèmes de congélation, etc.
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
+Note supplémentaire 2: Correction des problèmes de congélation, etc.
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
+2. feljegyzés: Fix fagyasztási kérdések stb.
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru
+Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
+Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
+Nota aggiuntiva 2: problema di congelamento fissa, ecc.
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי
+הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
+הערה נוספת 2: תקן בעיות הקפאה, וכו '
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモードを追加しました
+追加の注意：新しいコンテンツスレイモードを追加しました_x000D_
+追加注2：凍結の問題などを修正する
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가
+추가사항: 신규 컨텐츠 토벌전 추가_x000D_
+추가사항2: 프리징 이슈 등 수정
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru
+Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
+Nota tambahan 2: Betulkan isu pembekuan, dsb.
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru
+Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
+Nota tambahan 2: Betulkan isu pembekuan, dsb.
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
+Extra noot 2: Fix Freezing-problemen, enz.
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
+Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo
+Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
+Nota adicional 2: Corrigir problemas de congelamento, etc.
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo
+Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
+Nota adicional 2: Corrigir problemas de congelamento, etc.
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut
+Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
+Nota adăugată 2: Fixați problemele de înghețare etc.
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT
+Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
+Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
+Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge
+Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
+Ytterligare anmärkning 2: Fixa frysningsproblem etc.
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
+หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi
+Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
+Ek Not 2: Donma sorunlarını, vb.
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту
+Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
+Додаткова нотатка 2: Виправити проблеми заморожування тощо.
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới
+Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
+Lưu ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：添加了新的内容略微模式
+附加说明：添加了新的内容略微模式_x000D_
+附加说明2：修复冻结问题等
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式_x000D_
+附加說明2：修復凍結問題等
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式_x000D_
+附加說明2：修復凍結問題等
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18765,195 +18919,223 @@
 Celebrate the global release!
 Log in every day to receive the gifts!
 Additional note: Added New Content Slay Mode
+Additional note 2: Fix freezing issues, etc.
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου
+Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
+Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd
+Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
+Extra noot 2: Fix Freezing-problemen, enz.
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt
+Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
+Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT
+Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
+Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut
+Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
+Nota adăugată 2: Fixați problemele de înghețare etc.
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru
+Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
+Nota tambahan 2: Betulkan isu pembekuan, dsb.
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới
+Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
+Lưu ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge
+Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
+Ytterligare anmärkning 2: Fixa frysningsproblem etc.
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido
+Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
+Nota adicional 2: Fije los problemas de congelación, etc.
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim
+Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
+Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد
+ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
+ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту
+Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
+Додаткова нотатка 2: Виправити проблеми заморожування тощо.
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto
+Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
+Nota aggiuntiva 2: problema di congelamento fissa, ecc.
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru
+Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
+Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモードを追加しました
+追加の注意：新しいコンテンツスレイモードを追加しました_x000D_
+追加注2：凍結の問題などを修正する
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：添加了新的内容略微模式
+附加说明：添加了新的内容略微模式_x000D_
+附加说明2：修复冻结问题等
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：添加了新的內容略微模式_x000D_
+附加說明2：修復凍結問題等
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah
+Další Poznámka: Přidáno nový režim zabít obsah_x000D_
+Další poznámka 2: Opravit bod zmrazení atd.
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่
+หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
+หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi
+Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
+Ek Not 2: Donma sorunlarını, vb.
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo
+Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
+Nota adicional 2: Corrigir problemas de congelamento, etc.
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content
+Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
+Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu
+Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
+Note supplémentaire 2: Correction des problèmes de congélation, etc.
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölautaustila
+Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
+Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가
+추가사항: 신규 컨텐츠 토벌전 추가_x000D_
+추가사항2: 프리징 이슈 등 수정
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód
+Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
+2. feljegyzés: Fix fagyasztási kérdések stb.
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי
+הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
+הערה נוספת 2: תקן בעיות הקפאה, וכו '
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98F58FC-D122-44E1-B9A1-E286671BE829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E04AC-158D-4333-A71F-A5A70CC819CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -1390,15 +1390,13 @@
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 신규 컨텐츠 토벌전 추가
-추가사항2: 프리징 이슈 등 수정</t>
+추가사항: 다크 모드 등 유저 편의 개선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added New Content Slay Mode
-Additional note 2: Fix freezing issues, etc.</t>
+Additional note: Improved user convenience, such as dark mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1406,104 +1404,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
-ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.</t>
+ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY_x000D_
-Дадатковая Заўвага 2: Fix замарожвання пытанні і г.д.</t>
+Дадатковая Заўвага: Палепшанае зручнасць карыстальніка, такія як цёмны рэжым</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавен е нов режим на убийство_x000D_
-Допълнителна забележка 2: Поправяне на проблеми с замръзване и др.</t>
+Допълнителна забележка: подобрено удобство на потребителя, като например тъмен режим</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah_x000D_
-Další poznámka 2: Opravit bod zmrazení atd.</t>
+Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
-Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.</t>
+Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
-Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.</t>
+Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.</t>
+Nota adicional: mayor comodidad del usuario, como el modo oscuro</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
-Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.</t>
+Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
-Note supplémentaire 2: Correction des problèmes de congélation, etc.</t>
+Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
-2. feljegyzés: Fix fagyasztási kérdések stb.</t>
+Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
-Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.</t>
+Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
-Nota aggiuntiva 2: problema di congelamento fissa, ecc.</t>
+Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
-הערה נוספת 2: תקן בעיות הקפאה, וכו '</t>
+הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה</t>
   </si>
   <si>
     <r>
@@ -1577,7 +1562,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモ</t>
+追加の注意：ダ</t>
     </r>
     <r>
       <rPr>
@@ -1599,105 +1584,158 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ドを追加しました_x000D_
-追加注2：凍結の問題などを修正する</t>
+      <t>クモ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドなどのユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利便性の向上</t>
+    </r>
   </si>
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가_x000D_
-추가사항2: 프리징 이슈 등 수정</t>
+추가사항: 다크 모드 등 유저 편의 개선</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
-Nota tambahan 2: Betulkan isu pembekuan, dsb.</t>
+Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
-Extra noot 2: Fix Freezing-problemen, enz.</t>
+Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
-Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.</t>
+Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
-Nota adicional 2: Corrigir problemas de congelamento, etc.</t>
+Nota adicional: melhoria de conveniência do usuário, como o modo escuro</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
-Nota adăugată 2: Fixați problemele de înghețare etc.</t>
+Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
-Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.</t>
+Дополнительное примечание: улучшенное удобство пользователя, например, темный режим</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
-Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.</t>
+Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
-Ytterligare anmärkning 2: Fixa frysningsproblem etc.</t>
+Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
-หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ</t>
+หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
-Ek Not 2: Donma sorunlarını, vb.</t>
+Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
-Додаткова нотатка 2: Виправити проблеми заморожування тощо.</t>
+Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим</t>
   </si>
   <si>
     <r>
@@ -1726,8 +1764,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
-L</t>
+      <t>u ý bổ sung: Cải thiện tiện lợi cho ng</t>
     </r>
     <r>
       <rPr>
@@ -1748,7 +1785,28 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.</t>
+      <t>ời dùng, chẳng hạn nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chế độ tối</t>
     </r>
   </si>
   <si>
@@ -1777,70 +1835,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>物！_x000D_
-_x000D_
-附加说明：添加了新的</t>
+      <t>品！_x000D_
+_x000D_
+附加说明：改进用户方便，如黑暗模式</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>容略微模式_x000D_
-附加说明2：修</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>冻结问题等</t>
-    </r>
   </si>
   <si>
     <t>慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式_x000D_
-附加說明2：修復凍結問題等</t>
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：改進用戶方便，如黑暗模式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1891,14 +1903,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3400,7 +3404,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -18150,8 +18154,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added New Content Slay Mode
-Additional note 2: Fix freezing issues, etc.
+Additional note: Improved user convenience, such as dark mode
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18165,8 +18168,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
-ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.
+ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم
 &lt;/ar&gt;
 </v>
       </c>
@@ -18177,8 +18179,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY_x000D_
-Дадатковая Заўвага 2: Fix замарожвання пытанні і г.д.
+Дадатковая Заўвага: Палепшанае зручнасць карыстальніка, такія як цёмны рэжым
 &lt;/be&gt;
 </v>
       </c>
@@ -18189,8 +18190,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавен е нов режим на убийство_x000D_
-Допълнителна забележка 2: Поправяне на проблеми с замръзване и др.
+Допълнителна забележка: подобрено удобство на потребителя, като например тъмен режим
 &lt;/bg&gt;
 </v>
       </c>
@@ -18201,8 +18201,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah_x000D_
-Další poznámka 2: Opravit bod zmrazení atd.
+Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18213,8 +18212,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
-Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.
+Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18225,8 +18223,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
-Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.
+Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18237,8 +18234,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18249,8 +18245,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18261,8 +18256,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18273,8 +18267,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
-Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.
+Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18285,8 +18278,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
-Note supplémentaire 2: Correction des problèmes de congélation, etc.
+Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18297,8 +18289,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
-Note supplémentaire 2: Correction des problèmes de congélation, etc.
+Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -18309,8 +18300,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
-2. feljegyzés: Fix fagyasztási kérdések stb.
+Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -18321,8 +18311,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
-Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.
+Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap
 &lt;/id&gt;
 </v>
       </c>
@@ -18333,8 +18322,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
-Nota aggiuntiva 2: problema di congelamento fissa, ecc.
+Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -18345,8 +18333,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
-הערה נוספת 2: תקן בעיות הקפאה, וכו '
+הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -18357,8 +18344,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモードを追加しました_x000D_
-追加注2：凍結の問題などを修正する
+追加の注意：ダークモードなどのユーザー利便性の向上
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -18369,8 +18355,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가_x000D_
-추가사항2: 프리징 이슈 등 수정
+추가사항: 다크 모드 등 유저 편의 개선
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -18381,8 +18366,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
-Nota tambahan 2: Betulkan isu pembekuan, dsb.
+Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
 &lt;/ms&gt;
 </v>
       </c>
@@ -18393,8 +18377,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
-Nota tambahan 2: Betulkan isu pembekuan, dsb.
+Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -18405,8 +18388,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
-Extra noot 2: Fix Freezing-problemen, enz.
+Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -18417,8 +18399,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
-Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.
+Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -18429,8 +18410,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
-Nota adicional 2: Corrigir problemas de congelamento, etc.
+Nota adicional: melhoria de conveniência do usuário, como o modo escuro
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -18441,8 +18421,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
-Nota adicional 2: Corrigir problemas de congelamento, etc.
+Nota adicional: melhoria de conveniência do usuário, como o modo escuro
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -18453,8 +18432,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
-Nota adăugată 2: Fixați problemele de înghețare etc.
+Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat
 &lt;/ro&gt;
 </v>
       </c>
@@ -18465,8 +18443,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
-Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.
+Дополнительное примечание: улучшенное удобство пользователя, например, темный режим
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -18477,8 +18454,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
-Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.
+Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim
 &lt;/sk&gt;
 </v>
       </c>
@@ -18489,8 +18465,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
-Ytterligare anmärkning 2: Fixa frysningsproblem etc.
+Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -18501,8 +18476,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
-หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ
+หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด
 &lt;/th&gt;
 </v>
       </c>
@@ -18513,8 +18487,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
-Ek Not 2: Donma sorunlarını, vb.
+Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -18525,8 +18498,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
-Додаткова нотатка 2: Виправити проблеми заморожування тощо.
+Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим
 &lt;/uk&gt;
 </v>
       </c>
@@ -18537,8 +18509,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
-Lưu ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.
+Lưu ý bổ sung: Cải thiện tiện lợi cho người dùng, chẳng hạn như chế độ tối
 &lt;/vi&gt;
 </v>
       </c>
@@ -18547,10 +18518,9 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：添加了新的内容略微模式_x000D_
-附加说明2：修复冻结问题等
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：改进用户方便，如黑暗模式
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -18559,10 +18529,9 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式_x000D_
-附加說明2：修復凍結問題等
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：改進用戶方便，如黑暗模式
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -18571,10 +18540,9 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式_x000D_
-附加說明2：修復凍結問題等
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：改進用戶方便，如黑暗模式
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18588,288 +18556,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added New Content Slay Mode
-Additional note 2: Fix freezing issues, etc.
+Additional note: Improved user convenience, such as dark mode
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
-ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.
+ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Дададзены рэжым новага кантэнту SLAY_x000D_
-Дадатковая Заўвага 2: Fix замарожвання пытанні і г.д.
+Дадатковая Заўвага: Палепшанае зручнасць карыстальніка, такія як цёмны рэжым
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Добавен е нов режим на убийство_x000D_
-Допълнителна забележка 2: Поправяне на проблеми с замръзване и др.
+Допълнителна забележка: подобрено удобство на потребителя, като например тъмен режим
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah_x000D_
-Další poznámka 2: Opravit bod zmrazení atd.
+Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
-Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.
+Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
-Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.
+Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
-Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.
+Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
-Note supplémentaire 2: Correction des problèmes de congélation, etc.
+Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
-Note supplémentaire 2: Correction des problèmes de congélation, etc.
+Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
-2. feljegyzés: Fix fagyasztási kérdések stb.
+Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
-Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.
+Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
-Nota aggiuntiva 2: problema di congelamento fissa, ecc.
+Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
-הערה נוספת 2: תקן בעיות הקפאה, וכו '
+הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモードを追加しました_x000D_
-追加注2：凍結の問題などを修正する
+追加の注意：ダークモードなどのユーザー利便性の向上
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가_x000D_
-추가사항2: 프리징 이슈 등 수정
+추가사항: 다크 모드 등 유저 편의 개선
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
-Nota tambahan 2: Betulkan isu pembekuan, dsb.
+Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
-Nota tambahan 2: Betulkan isu pembekuan, dsb.
+Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
-Extra noot 2: Fix Freezing-problemen, enz.
+Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
-Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.
+Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
-Nota adicional 2: Corrigir problemas de congelamento, etc.
+Nota adicional: melhoria de conveniência do usuário, como o modo escuro
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
-Nota adicional 2: Corrigir problemas de congelamento, etc.
+Nota adicional: melhoria de conveniência do usuário, como o modo escuro
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
-Nota adăugată 2: Fixați problemele de înghețare etc.
+Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
-Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.
+Дополнительное примечание: улучшенное удобство пользователя, например, темный режим
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
-Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.
+Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
-Ytterligare anmärkning 2: Fixa frysningsproblem etc.
+Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
-หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ
+หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
-Ek Not 2: Donma sorunlarını, vb.
+Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
-Додаткова нотатка 2: Виправити проблеми заморожування тощо.
+Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
-Lưu ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.
+Lưu ý bổ sung: Cải thiện tiện lợi cho người dùng, chẳng hạn như chế độ tối
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：添加了新的内容略微模式_x000D_
-附加说明2：修复冻结问题等
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：改进用户方便，如黑暗模式
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式_x000D_
-附加說明2：修復凍結問題等
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：改進用戶方便，如黑暗模式
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式_x000D_
-附加說明2：修復凍結問題等
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：改進用戶方便，如黑暗模式
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18918,224 +18850,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Added New Content Slay Mode
-Additional note 2: Fix freezing issues, etc.
+Additional note: Improved user convenience, such as dark mode
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη Σημείωση: Προστέθηκε νέα λειτουργία ολίσθησης περιεχομένου_x000D_
-Πρόσθετη σημείωση 2: Fix θέματα κατάψυξης κ.λπ.
+Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra OPMERKING: Nieuwe inhoudsdoodmodus toegevoegd_x000D_
-Extra noot 2: Fix Freezing-problemen, enz.
+Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Neue Inhalte-Slay-Modus hinzugefügt_x000D_
-Zusätzliche Anmerkung 2: Fixieren Sie das Einfrieren von Fragen usw.
+Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: добавлен новый режим SLAY CONTENT_x000D_
-Дополнительное примечание 2: Исправлены проблемы с замораживанием и т. Д.
+Дополнительное примечание: улучшенное удобство пользователя, например, темный режим
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: a adăugat un nou mod de slay conținut_x000D_
-Nota adăugată 2: Fixați problemele de înghețare etc.
+Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Menambah mod Slay Kandungan Baru_x000D_
-Nota tambahan 2: Betulkan isu pembekuan, dsb.
+Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã thêm chế độ Slay nội dung mới_x000D_
-Lưu ý bổ sung 2: Khắc phục sự cố đóng băng, v.v.
+Lưu ý bổ sung: Cải thiện tiện lợi cho người dùng, chẳng hạn như chế độ tối
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Tillagt nytt innehållsläge_x000D_
-Ytterligare anmärkning 2: Fixa frysningsproblem etc.
+Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Añadido nuevo contenido de contenido de contenido_x000D_
-Nota adicional 2: Fije los problemas de congelación, etc.
+Nota adicional: mayor comodidad del usuario, como el modo oscuro
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: Pridaný Nový obsah Slay Režim_x000D_
-Doplňujúca poznámka 2: Opravte problémy s mrazom, atď.
+Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إضافة وضع ذبح محتوى جديد_x000D_
-ملاحظة إضافية 2: إصلاح مشاكل التجميد، إلخ.
+ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Додано новий режим ущеплення вмісту_x000D_
-Додаткова нотатка 2: Виправити проблеми заморожування тощо.
+Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: aggiunta nuova modalità di slay contenuto_x000D_
-Nota aggiuntiva 2: problema di congelamento fissa, ecc.
+Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Menambahkan mode pembantuan konten baru_x000D_
-Catatan Tambahan 2: Perbaiki masalah pembekuan, dll.
+Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：新しいコンテンツスレイモードを追加しました_x000D_
-追加注2：凍結の問題などを修正する
+追加の注意：ダークモードなどのユーザー利便性の向上
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：添加了新的内容略微模式_x000D_
-附加说明2：修复冻结问题等
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：改进用户方便，如黑暗模式
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮品！_x000D_
-_x000D_
-附加說明：添加了新的內容略微模式_x000D_
-附加說明2：修復凍結問題等
+每天登錄才能收到禮物！_x000D_
+_x000D_
+附加說明：改進用戶方便，如黑暗模式
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Přidáno nový režim zabít obsah_x000D_
-Další poznámka 2: Opravit bod zmrazení atd.
+Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: เพิ่มโหมดการฆ่าเนื้อหาใหม่_x000D_
-หมายเหตุเพิ่มเติม 2: แก้ไขปัญหาการแช่แข็ง ฯลฯ
+หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Yeni İçerik Slayası Modu eklendi_x000D_
-Ek Not 2: Donma sorunlarını, vb.
+Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Adicionado novo modo de slay de conteúdo_x000D_
-Nota adicional 2: Corrigir problemas de congelamento, etc.
+Nota adicional: melhoria de conveniência do usuário, como o modo escuro
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Dodano nowy tryb SLAY Content_x000D_
-Dodatkowa Uwaga 2: Napraw problemy z zamrażaniem itp.
+Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Ajout d'un nouveau mode de désordre de contenu_x000D_
-Note supplémentaire 2: Correction des problèmes de congélation, etc.
+Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Lisätty uusi sisältölataustila_x000D_
-Lisätään huomautus 2: Korjaa jäätymiskysymykset jne.
+Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 신규 컨텐츠 토벌전 추가_x000D_
-추가사항2: 프리징 이슈 등 수정
+추가사항: 다크 모드 등 유저 편의 개선
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Hozzáadott új tartalom megtagadási mód_x000D_
-2. feljegyzés: Fix fagyasztási kérdések stb.
+Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: הוספה מצב חדש תוכן מרובי_x000D_
-הערה נוספת 2: תקן בעיות הקפאה, וכו '
+הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E04AC-158D-4333-A71F-A5A70CC819CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8B13B-3B48-4C1B-94FE-E23AF5A61AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="355">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,9 +647,6 @@
     <t>vl</t>
   </si>
   <si>
-    <t>밸류이상</t>
-  </si>
-  <si>
     <t>pt</t>
   </si>
   <si>
@@ -1390,13 +1387,13 @@
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 다크 모드 등 유저 편의 개선</t>
+추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved user convenience, such as dark mode</t>
+Additional note: Fixed the issue that the app immediately quits on iPhone XS Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1404,91 +1401,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم</t>
+ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Палепшанае зручнасць карыстальніка, такія як цёмны рэжым</t>
+Дадатковая Заўвага: Выпраўлена пытанне аб тым, што дадатак неадкладна завяршаецца на iPhone XS Max</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: подобрено удобство на потребителя, като например тъмен режим</t>
+Допълнителна забележка: Фиксирана въпроса, че приложението незабавно се отказва от iPhone Xs Max</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim</t>
+Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus</t>
+Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία</t>
+Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro</t>
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila</t>
+Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre</t>
+Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot</t>
+Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap</t>
+Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura</t>
+Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה</t>
+הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום</t>
   </si>
   <si>
     <r>
@@ -1562,180 +1559,92 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：ダ</t>
+追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>クモ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドなどのユ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ザ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>利便性の向上</t>
-    </r>
   </si>
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 다크 모드 등 유저 편의 개선</t>
+추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap</t>
+NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus</t>
+Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb</t>
+Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: melhoria de conveniência do usuário, como o modo escuro</t>
+Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat</t>
+Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенное удобство пользователя, например, темный режим</t>
+Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim</t>
+Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge</t>
+Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด</t>
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı</t>
+Ek Not: Uygulamanın hemen iPhone XS maks.</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим</t>
+Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX</t>
   </si>
   <si>
     <r>
@@ -1764,49 +1673,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Cải thiện tiện lợi cho ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ời dùng, chẳng hạn nh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chế độ tối</t>
+      <t>u ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max</t>
     </r>
   </si>
   <si>
@@ -1837,22 +1704,54 @@
       </rPr>
       <t>品！_x000D_
 _x000D_
-附加说明：改进用户方便，如黑暗模式</t>
+附加注意：修</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了应用程序立即在iPhone XS Max上退出的问题</t>
+    </r>
   </si>
   <si>
     <t>慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進用戶方便，如黑暗模式</t>
+附加註意：修復了應用程序立即在iPhone XS Max上退出的問題</t>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1401</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1903,6 +1802,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4126,9 +4033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4140,7 +4047,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
@@ -4149,16 +4056,16 @@
         <v>100</v>
       </c>
       <c r="E1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4169,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4192,10 +4099,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4215,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>4121</v>
@@ -4238,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>26429</v>
@@ -4261,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>62625</v>
@@ -4284,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7">
         <v>22920</v>
@@ -4307,10 +4214,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4330,10 +4237,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4386,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4407,10 +4314,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4431,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>42475</v>
@@ -4455,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17">
         <v>9817</v>
@@ -4479,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18">
         <v>28048</v>
@@ -4503,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>30799</v>
@@ -4527,10 +4434,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4551,10 +4458,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4611,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4635,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4659,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28">
         <v>79030</v>
@@ -4683,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29">
         <v>51018</v>
@@ -4707,7 +4614,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30">
         <v>71178</v>
@@ -4731,7 +4638,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31">
         <v>31111</v>
@@ -4755,10 +4662,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4779,10 +4686,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4839,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4863,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4887,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40">
         <v>39003</v>
@@ -4911,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41">
         <v>9563</v>
@@ -4935,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42">
         <v>97920</v>
@@ -4959,10 +4866,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4983,10 +4890,10 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5007,10 +4914,10 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5067,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5091,10 +4998,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5115,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52">
         <v>15474</v>
@@ -5139,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53">
         <v>11906</v>
@@ -5163,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54">
         <v>79980</v>
@@ -5187,7 +5094,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55">
         <v>94909</v>
@@ -5211,10 +5118,10 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5235,10 +5142,10 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5295,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5319,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5343,7 +5250,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64">
         <v>60742</v>
@@ -5367,7 +5274,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65">
         <v>69141</v>
@@ -5391,7 +5298,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66">
         <v>93170</v>
@@ -5415,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67">
         <v>27902</v>
@@ -5439,10 +5346,10 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5463,10 +5370,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -5523,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5547,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5571,7 +5478,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76">
         <v>65691</v>
@@ -5595,7 +5502,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D77">
         <v>62441</v>
@@ -5619,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D78">
         <v>14681</v>
@@ -5643,7 +5550,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79">
         <v>83002</v>
@@ -5667,10 +5574,10 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5691,10 +5598,10 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5751,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5775,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5799,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88">
         <v>54967</v>
@@ -5823,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89">
         <v>49424</v>
@@ -5847,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90">
         <v>72758</v>
@@ -5871,7 +5778,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91">
         <v>98994</v>
@@ -5895,10 +5802,10 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5919,10 +5826,10 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5979,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -6000,10 +5907,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6024,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100">
         <v>96249</v>
@@ -6048,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D101">
         <v>87336</v>
@@ -6072,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D102">
         <v>54274</v>
@@ -6096,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D103">
         <v>30259</v>
@@ -6120,10 +6027,10 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6144,10 +6051,10 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6204,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6228,10 +6135,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6252,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112">
         <v>30182</v>
@@ -6276,7 +6183,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113">
         <v>80383</v>
@@ -6300,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114">
         <v>40132</v>
@@ -6324,10 +6231,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6348,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6372,10 +6279,10 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6432,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6456,10 +6363,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6480,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D124">
         <v>93851</v>
@@ -6504,7 +6411,7 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D125">
         <v>58914</v>
@@ -6528,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D126">
         <v>6631</v>
@@ -6552,7 +6459,7 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D127">
         <v>81265</v>
@@ -6576,10 +6483,10 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6600,10 +6507,10 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6660,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6684,10 +6591,10 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6708,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D136">
         <v>80063</v>
@@ -6732,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D137">
         <v>55007</v>
@@ -6756,7 +6663,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D138">
         <v>55025</v>
@@ -6780,10 +6687,10 @@
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6804,10 +6711,10 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6828,10 +6735,10 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6888,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6912,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6936,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D148">
         <v>67404</v>
@@ -6960,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D149">
         <v>76281</v>
@@ -6984,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D150">
         <v>35712</v>
@@ -7008,7 +6915,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D151">
         <v>3678</v>
@@ -7032,10 +6939,10 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D152" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7056,10 +6963,10 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D153" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7116,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7140,10 +7047,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D159" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7164,7 +7071,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D160">
         <v>70350</v>
@@ -7188,7 +7095,7 @@
         <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D161">
         <v>2353</v>
@@ -7212,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D162">
         <v>98596</v>
@@ -7236,7 +7143,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D163">
         <v>25224</v>
@@ -7260,10 +7167,10 @@
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7284,10 +7191,10 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D165" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7326,10 +7233,10 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
+        <v>264</v>
+      </c>
+      <c r="D168" t="s">
         <v>265</v>
-      </c>
-      <c r="D168" t="s">
-        <v>266</v>
       </c>
       <c r="E168">
         <v>70</v>
@@ -7353,10 +7260,10 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7380,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7404,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D171" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -7428,7 +7335,7 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D172">
         <v>1779</v>
@@ -7452,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D173">
         <v>34479</v>
@@ -7476,7 +7383,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D174">
         <v>30428</v>
@@ -7500,10 +7407,10 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D175" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7524,10 +7431,10 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7548,10 +7455,10 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7590,10 +7497,10 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
+        <v>264</v>
+      </c>
+      <c r="D180" t="s">
         <v>265</v>
-      </c>
-      <c r="D180" t="s">
-        <v>266</v>
       </c>
       <c r="E180">
         <v>70</v>
@@ -7617,10 +7524,10 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7644,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
+        <v>105</v>
+      </c>
+      <c r="D182" t="s">
         <v>106</v>
-      </c>
-      <c r="D182" t="s">
-        <v>107</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7668,10 +7575,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7692,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D184">
         <v>9878</v>
@@ -7716,7 +7623,7 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D185">
         <v>56220</v>
@@ -7740,7 +7647,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D186">
         <v>43921</v>
@@ -7764,10 +7671,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D187" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7788,10 +7695,10 @@
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D188" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7812,10 +7719,10 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D189" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7872,10 +7779,10 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D194" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7896,10 +7803,10 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7920,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D196">
         <v>55087</v>
@@ -7944,7 +7851,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D197">
         <v>51915</v>
@@ -7968,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D198">
         <v>72846</v>
@@ -7992,10 +7899,10 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D199" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -8016,10 +7923,10 @@
         <v>6</v>
       </c>
       <c r="C200" t="s">
+        <v>105</v>
+      </c>
+      <c r="D200" t="s">
         <v>106</v>
-      </c>
-      <c r="D200" t="s">
-        <v>107</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -8040,10 +7947,10 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D201" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -8100,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -8121,10 +8028,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D207" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -8145,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D208">
         <v>68454</v>
@@ -8169,7 +8076,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D209">
         <v>74351</v>
@@ -8193,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D210">
         <v>96095</v>
@@ -8217,10 +8124,10 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -8241,10 +8148,10 @@
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D212" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -8265,10 +8172,10 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D213" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8325,10 +8232,10 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -8349,10 +8256,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -8373,7 +8280,7 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D220">
         <v>77197</v>
@@ -8397,7 +8304,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D221">
         <v>98918</v>
@@ -8421,7 +8328,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D222">
         <v>90626</v>
@@ -8445,10 +8352,10 @@
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D223" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -8469,10 +8376,10 @@
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D224" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8493,10 +8400,10 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -8553,10 +8460,10 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D230" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8577,10 +8484,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -8601,7 +8508,7 @@
         <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D232">
         <v>62291</v>
@@ -8625,7 +8532,7 @@
         <v>3</v>
       </c>
       <c r="C233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D233">
         <v>81398</v>
@@ -8649,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D234">
         <v>27136</v>
@@ -8673,7 +8580,7 @@
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D235">
         <v>64109</v>
@@ -8697,10 +8604,10 @@
         <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D236" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -8721,10 +8628,10 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D237" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -8781,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -8805,10 +8712,10 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D243" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -8829,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D244">
         <v>18043</v>
@@ -8853,7 +8760,7 @@
         <v>3</v>
       </c>
       <c r="C245" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D245">
         <v>72451</v>
@@ -8877,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D246">
         <v>11604</v>
@@ -8901,10 +8808,10 @@
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D247" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -8925,10 +8832,10 @@
         <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D248" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -8949,10 +8856,10 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -8973,10 +8880,10 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D250" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -9000,10 +8907,10 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D251" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -9027,10 +8934,10 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D252" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E252">
         <v>140</v>
@@ -9054,10 +8961,10 @@
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D253" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -9081,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D254" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -9105,10 +9012,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D255" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -9129,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D256">
         <v>53758</v>
@@ -9153,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D257">
         <v>28494</v>
@@ -9177,7 +9084,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D258">
         <v>96975</v>
@@ -9201,10 +9108,10 @@
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D259" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -9225,10 +9132,10 @@
         <v>6</v>
       </c>
       <c r="C260" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -9249,10 +9156,10 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D261" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -9273,10 +9180,10 @@
         <v>8</v>
       </c>
       <c r="C262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -9300,10 +9207,10 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E263">
         <v>80</v>
@@ -9327,10 +9234,10 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D264" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E264">
         <v>140</v>
@@ -9354,10 +9261,10 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D265" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -9381,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D266" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9405,10 +9312,10 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D267" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -9429,7 +9336,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D268">
         <v>68138</v>
@@ -9453,7 +9360,7 @@
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D269">
         <v>1275</v>
@@ -9477,7 +9384,7 @@
         <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D270">
         <v>51616</v>
@@ -9501,10 +9408,10 @@
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -9525,10 +9432,10 @@
         <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D272" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -9549,10 +9456,10 @@
         <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D273" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -9609,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D278" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -9633,10 +9540,10 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D279" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9657,7 +9564,7 @@
         <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D280">
         <v>80746</v>
@@ -9681,7 +9588,7 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D281">
         <v>4623</v>
@@ -9705,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D282">
         <v>53553</v>
@@ -9729,10 +9636,10 @@
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D283" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9753,10 +9660,10 @@
         <v>6</v>
       </c>
       <c r="C284" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D284" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9777,10 +9684,10 @@
         <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -9837,10 +9744,10 @@
         <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D290" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9861,10 +9768,10 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D291" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -9885,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D292">
         <v>49337</v>
@@ -9909,7 +9816,7 @@
         <v>3</v>
       </c>
       <c r="C293" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D293">
         <v>25033</v>
@@ -9933,7 +9840,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D294">
         <v>65020</v>
@@ -9957,10 +9864,10 @@
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -9981,10 +9888,10 @@
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D296" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -10005,10 +9912,10 @@
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D297" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -10065,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="C302" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D302" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -10089,10 +9996,10 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D303" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -10113,7 +10020,7 @@
         <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D304">
         <v>23688</v>
@@ -10137,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="C305" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D305">
         <v>51119</v>
@@ -10161,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D306">
         <v>74232</v>
@@ -10185,10 +10092,10 @@
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D307" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -10209,10 +10116,10 @@
         <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D308" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -10233,10 +10140,10 @@
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D309" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -10293,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="C314" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D314" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -10320,10 +10227,10 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D315" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -10344,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D316">
         <v>36392</v>
@@ -10368,7 +10275,7 @@
         <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D317">
         <v>1938</v>
@@ -10392,7 +10299,7 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D318">
         <v>10707</v>
@@ -10416,10 +10323,10 @@
         <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D319" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -10440,10 +10347,10 @@
         <v>6</v>
       </c>
       <c r="C320" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D320" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -10464,10 +10371,10 @@
         <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D321" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -10524,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="C326" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D326" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -10548,10 +10455,10 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D327" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -10572,7 +10479,7 @@
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D328">
         <v>84983</v>
@@ -10596,7 +10503,7 @@
         <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D329">
         <v>30283</v>
@@ -10620,7 +10527,7 @@
         <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D330">
         <v>14175</v>
@@ -10644,10 +10551,10 @@
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D331" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E331">
         <v>1</v>
@@ -10668,10 +10575,10 @@
         <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D332" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -10692,10 +10599,10 @@
         <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D333" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -10752,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="C338" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D338" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -10776,10 +10683,10 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D339" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -10800,7 +10707,7 @@
         <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D340">
         <v>34952</v>
@@ -10824,7 +10731,7 @@
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D341">
         <v>46336</v>
@@ -10848,7 +10755,7 @@
         <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D342">
         <v>58093</v>
@@ -10872,10 +10779,10 @@
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D343" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -10896,10 +10803,10 @@
         <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D344" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -10920,10 +10827,10 @@
         <v>7</v>
       </c>
       <c r="C345" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -10980,10 +10887,10 @@
         <v>0</v>
       </c>
       <c r="C350" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D350" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E350">
         <v>1</v>
@@ -11004,10 +10911,10 @@
         <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D351" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -11028,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="C352" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D352">
         <v>35730</v>
@@ -11052,7 +10959,7 @@
         <v>3</v>
       </c>
       <c r="C353" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D353">
         <v>13144</v>
@@ -11076,7 +10983,7 @@
         <v>4</v>
       </c>
       <c r="C354" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D354">
         <v>41165</v>
@@ -11100,10 +11007,10 @@
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D355" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -11124,10 +11031,10 @@
         <v>6</v>
       </c>
       <c r="C356" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D356" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -11148,10 +11055,10 @@
         <v>7</v>
       </c>
       <c r="C357" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D357" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -11208,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -11229,10 +11136,10 @@
         <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D363" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -11253,10 +11160,10 @@
         <v>2</v>
       </c>
       <c r="C364" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D364" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E364">
         <v>1</v>
@@ -11277,7 +11184,7 @@
         <v>3</v>
       </c>
       <c r="C365" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D365">
         <v>10094</v>
@@ -11301,7 +11208,7 @@
         <v>4</v>
       </c>
       <c r="C366" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D366">
         <v>71291</v>
@@ -11325,10 +11232,10 @@
         <v>5</v>
       </c>
       <c r="C367" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D367" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -11349,10 +11256,10 @@
         <v>6</v>
       </c>
       <c r="C368" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D368" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -11373,10 +11280,10 @@
         <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D369" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -11433,10 +11340,10 @@
         <v>0</v>
       </c>
       <c r="C374" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D374" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E374">
         <v>1</v>
@@ -11457,10 +11364,10 @@
         <v>1</v>
       </c>
       <c r="C375" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D375" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -11481,10 +11388,10 @@
         <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D376" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -11505,7 +11412,7 @@
         <v>3</v>
       </c>
       <c r="C377" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D377">
         <v>98140</v>
@@ -11529,10 +11436,10 @@
         <v>4</v>
       </c>
       <c r="C378" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D378" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E378">
         <v>1</v>
@@ -11553,10 +11460,10 @@
         <v>5</v>
       </c>
       <c r="C379" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D379" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -11577,10 +11484,10 @@
         <v>6</v>
       </c>
       <c r="C380" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D380" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E380">
         <v>1</v>
@@ -11601,10 +11508,10 @@
         <v>7</v>
       </c>
       <c r="C381" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D381" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -11661,10 +11568,10 @@
         <v>0</v>
       </c>
       <c r="C386" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D386" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E386">
         <v>1</v>
@@ -11685,10 +11592,10 @@
         <v>1</v>
       </c>
       <c r="C387" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D387" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -11709,10 +11616,10 @@
         <v>2</v>
       </c>
       <c r="C388" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D388" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -11733,10 +11640,10 @@
         <v>3</v>
       </c>
       <c r="C389" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D389" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -11760,10 +11667,10 @@
         <v>4</v>
       </c>
       <c r="C390" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D390" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E390">
         <v>1</v>
@@ -11784,10 +11691,10 @@
         <v>5</v>
       </c>
       <c r="C391" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D391" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E391">
         <v>1</v>
@@ -11808,10 +11715,10 @@
         <v>6</v>
       </c>
       <c r="C392" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D392" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E392">
         <v>1</v>
@@ -11832,10 +11739,10 @@
         <v>7</v>
       </c>
       <c r="C393" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D393" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E393">
         <v>1</v>
@@ -11892,10 +11799,10 @@
         <v>0</v>
       </c>
       <c r="C398" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D398" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E398">
         <v>1</v>
@@ -11916,10 +11823,10 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D399" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E399">
         <v>1</v>
@@ -11940,10 +11847,10 @@
         <v>2</v>
       </c>
       <c r="C400" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D400" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E400">
         <v>1</v>
@@ -11964,7 +11871,7 @@
         <v>3</v>
       </c>
       <c r="C401" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D401">
         <v>94285</v>
@@ -11988,10 +11895,10 @@
         <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D402" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E402">
         <v>1</v>
@@ -12012,10 +11919,10 @@
         <v>5</v>
       </c>
       <c r="C403" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D403" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E403">
         <v>1</v>
@@ -12036,10 +11943,10 @@
         <v>6</v>
       </c>
       <c r="C404" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D404" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -12060,10 +11967,10 @@
         <v>7</v>
       </c>
       <c r="C405" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D405" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -12120,10 +12027,10 @@
         <v>0</v>
       </c>
       <c r="C410" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D410" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -12144,19 +12051,19 @@
         <v>1</v>
       </c>
       <c r="C411" t="s">
-        <v>106</v>
-      </c>
-      <c r="D411" t="s">
-        <v>236</v>
+        <v>108</v>
+      </c>
+      <c r="D411">
+        <v>73751</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H411">
-        <v>10</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -12168,19 +12075,19 @@
         <v>2</v>
       </c>
       <c r="C412" t="s">
-        <v>109</v>
-      </c>
-      <c r="D412">
-        <v>73751</v>
+        <v>105</v>
+      </c>
+      <c r="D412" t="s">
+        <v>235</v>
       </c>
       <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412" t="s">
+        <v>98</v>
+      </c>
+      <c r="H412">
         <v>10</v>
-      </c>
-      <c r="F412" t="s">
-        <v>96</v>
-      </c>
-      <c r="H412">
-        <v>3000</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -12192,19 +12099,22 @@
         <v>3</v>
       </c>
       <c r="C413" t="s">
-        <v>110</v>
-      </c>
-      <c r="D413">
-        <v>94568</v>
+        <v>105</v>
+      </c>
+      <c r="D413" t="s">
+        <v>353</v>
       </c>
       <c r="E413">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F413" t="s">
         <v>98</v>
       </c>
+      <c r="G413">
+        <v>139</v>
+      </c>
       <c r="H413">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -12216,19 +12126,19 @@
         <v>4</v>
       </c>
       <c r="C414" t="s">
-        <v>106</v>
-      </c>
-      <c r="D414" t="s">
-        <v>222</v>
+        <v>109</v>
+      </c>
+      <c r="D414">
+        <v>94568</v>
       </c>
       <c r="E414">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F414" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H414">
-        <v>7800</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -12240,10 +12150,10 @@
         <v>5</v>
       </c>
       <c r="C415" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D415" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E415">
         <v>1</v>
@@ -12264,10 +12174,10 @@
         <v>6</v>
       </c>
       <c r="C416" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D416" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E416">
         <v>1</v>
@@ -12288,10 +12198,10 @@
         <v>7</v>
       </c>
       <c r="C417" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D417" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E417">
         <v>1</v>
@@ -12329,6 +12239,24 @@
       <c r="B420">
         <v>10</v>
       </c>
+      <c r="C420" t="s">
+        <v>308</v>
+      </c>
+      <c r="D420" t="s">
+        <v>354</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420" t="s">
+        <v>98</v>
+      </c>
+      <c r="G420">
+        <v>209</v>
+      </c>
+      <c r="H420">
+        <v>149</v>
+      </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
@@ -12338,6 +12266,24 @@
       <c r="B421">
         <v>11</v>
       </c>
+      <c r="C421" t="s">
+        <v>264</v>
+      </c>
+      <c r="D421" t="s">
+        <v>354</v>
+      </c>
+      <c r="E421">
+        <v>75</v>
+      </c>
+      <c r="F421" t="s">
+        <v>98</v>
+      </c>
+      <c r="G421">
+        <v>172</v>
+      </c>
+      <c r="H421">
+        <v>49</v>
+      </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
@@ -12348,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="C422" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D422" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -12372,19 +12318,19 @@
         <v>1</v>
       </c>
       <c r="C423" t="s">
-        <v>106</v>
-      </c>
-      <c r="D423" t="s">
-        <v>258</v>
+        <v>109</v>
+      </c>
+      <c r="D423">
+        <v>7107</v>
       </c>
       <c r="E423">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F423" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H423">
-        <v>7600</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -12396,19 +12342,19 @@
         <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>109</v>
-      </c>
-      <c r="D424">
-        <v>33231</v>
+        <v>105</v>
+      </c>
+      <c r="D424" t="s">
+        <v>257</v>
       </c>
       <c r="E424">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F424" t="s">
         <v>96</v>
       </c>
       <c r="H424">
-        <v>3000</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -12420,19 +12366,19 @@
         <v>3</v>
       </c>
       <c r="C425" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D425">
-        <v>7107</v>
+        <v>33231</v>
       </c>
       <c r="E425">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F425" t="s">
         <v>96</v>
       </c>
       <c r="H425">
-        <v>2700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -12444,19 +12390,22 @@
         <v>4</v>
       </c>
       <c r="C426" t="s">
-        <v>110</v>
-      </c>
-      <c r="D426">
-        <v>265</v>
+        <v>105</v>
+      </c>
+      <c r="D426" t="s">
+        <v>309</v>
       </c>
       <c r="E426">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F426" t="s">
         <v>98</v>
       </c>
+      <c r="G426">
+        <v>169</v>
+      </c>
       <c r="H426">
-        <v>4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -12468,19 +12417,19 @@
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>106</v>
-      </c>
-      <c r="D427" t="s">
-        <v>249</v>
+        <v>109</v>
+      </c>
+      <c r="D427">
+        <v>265</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F427" t="s">
         <v>96</v>
       </c>
       <c r="H427">
-        <v>2900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -12492,10 +12441,10 @@
         <v>6</v>
       </c>
       <c r="C428" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D428" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E428">
         <v>1</v>
@@ -12516,10 +12465,10 @@
         <v>7</v>
       </c>
       <c r="C429" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D429" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E429">
         <v>1</v>
@@ -12557,6 +12506,24 @@
       <c r="B432">
         <v>10</v>
       </c>
+      <c r="C432" t="s">
+        <v>308</v>
+      </c>
+      <c r="D432" t="s">
+        <v>354</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432" t="s">
+        <v>98</v>
+      </c>
+      <c r="G432">
+        <v>209</v>
+      </c>
+      <c r="H432">
+        <v>149</v>
+      </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
@@ -12566,6 +12533,24 @@
       <c r="B433">
         <v>11</v>
       </c>
+      <c r="C433" t="s">
+        <v>264</v>
+      </c>
+      <c r="D433" t="s">
+        <v>354</v>
+      </c>
+      <c r="E433">
+        <v>75</v>
+      </c>
+      <c r="F433" t="s">
+        <v>98</v>
+      </c>
+      <c r="G433">
+        <v>172</v>
+      </c>
+      <c r="H433">
+        <v>49</v>
+      </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
@@ -12576,10 +12561,10 @@
         <v>0</v>
       </c>
       <c r="C434" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D434" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E434">
         <v>1</v>
@@ -12600,10 +12585,10 @@
         <v>1</v>
       </c>
       <c r="C435" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D435" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E435">
         <v>1</v>
@@ -12624,7 +12609,7 @@
         <v>2</v>
       </c>
       <c r="C436" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D436">
         <v>37314</v>
@@ -12648,7 +12633,7 @@
         <v>3</v>
       </c>
       <c r="C437" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D437">
         <v>3955</v>
@@ -12672,7 +12657,7 @@
         <v>4</v>
       </c>
       <c r="C438" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D438">
         <v>88860</v>
@@ -12696,7 +12681,7 @@
         <v>5</v>
       </c>
       <c r="C439" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D439">
         <v>78754</v>
@@ -12720,10 +12705,10 @@
         <v>6</v>
       </c>
       <c r="C440" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D440" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E440">
         <v>1</v>
@@ -12744,10 +12729,10 @@
         <v>7</v>
       </c>
       <c r="C441" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D441" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E441">
         <v>1</v>
@@ -12804,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="C446" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E446">
         <v>1</v>
@@ -12825,10 +12810,10 @@
         <v>1</v>
       </c>
       <c r="C447" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D447" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E447">
         <v>1</v>
@@ -12849,7 +12834,7 @@
         <v>2</v>
       </c>
       <c r="C448" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D448">
         <v>14549</v>
@@ -12873,7 +12858,7 @@
         <v>3</v>
       </c>
       <c r="C449" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D449">
         <v>6437</v>
@@ -12897,7 +12882,7 @@
         <v>4</v>
       </c>
       <c r="C450" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D450">
         <v>88038</v>
@@ -12921,7 +12906,7 @@
         <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D451">
         <v>53507</v>
@@ -12945,10 +12930,10 @@
         <v>6</v>
       </c>
       <c r="C452" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D452" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E452">
         <v>1</v>
@@ -12969,10 +12954,10 @@
         <v>7</v>
       </c>
       <c r="C453" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D453" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E453">
         <v>1</v>
@@ -13029,10 +13014,10 @@
         <v>0</v>
       </c>
       <c r="C458" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D458" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E458">
         <v>1</v>
@@ -13053,10 +13038,10 @@
         <v>1</v>
       </c>
       <c r="C459" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D459" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E459">
         <v>1</v>
@@ -13077,7 +13062,7 @@
         <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D460">
         <v>20128</v>
@@ -13101,7 +13086,7 @@
         <v>3</v>
       </c>
       <c r="C461" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D461">
         <v>31576</v>
@@ -13125,7 +13110,7 @@
         <v>4</v>
       </c>
       <c r="C462" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D462">
         <v>94367</v>
@@ -13149,10 +13134,10 @@
         <v>5</v>
       </c>
       <c r="C463" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D463" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E463">
         <v>1</v>
@@ -13173,10 +13158,10 @@
         <v>6</v>
       </c>
       <c r="C464" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D464" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E464">
         <v>1</v>
@@ -13197,10 +13182,10 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D465" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E465">
         <v>1</v>
@@ -13257,10 +13242,10 @@
         <v>0</v>
       </c>
       <c r="C470" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D470" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E470">
         <v>1</v>
@@ -13281,10 +13266,10 @@
         <v>1</v>
       </c>
       <c r="C471" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D471" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E471">
         <v>1</v>
@@ -13305,7 +13290,7 @@
         <v>2</v>
       </c>
       <c r="C472" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D472">
         <v>9503</v>
@@ -13329,7 +13314,7 @@
         <v>3</v>
       </c>
       <c r="C473" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D473">
         <v>38090</v>
@@ -13353,7 +13338,7 @@
         <v>4</v>
       </c>
       <c r="C474" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D474">
         <v>46233</v>
@@ -13377,10 +13362,10 @@
         <v>5</v>
       </c>
       <c r="C475" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D475" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E475">
         <v>1</v>
@@ -13401,10 +13386,10 @@
         <v>6</v>
       </c>
       <c r="C476" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D476" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E476">
         <v>1</v>
@@ -13425,10 +13410,10 @@
         <v>7</v>
       </c>
       <c r="C477" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D477" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E477">
         <v>1</v>
@@ -13485,10 +13470,10 @@
         <v>0</v>
       </c>
       <c r="C482" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D482" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E482">
         <v>1</v>
@@ -13509,10 +13494,10 @@
         <v>1</v>
       </c>
       <c r="C483" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D483" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E483">
         <v>1</v>
@@ -13533,7 +13518,7 @@
         <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D484">
         <v>90489</v>
@@ -13557,7 +13542,7 @@
         <v>3</v>
       </c>
       <c r="C485" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D485">
         <v>26063</v>
@@ -13581,7 +13566,7 @@
         <v>4</v>
       </c>
       <c r="C486" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D486">
         <v>74661</v>
@@ -13605,10 +13590,10 @@
         <v>5</v>
       </c>
       <c r="C487" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D487" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E487">
         <v>1</v>
@@ -13629,10 +13614,10 @@
         <v>6</v>
       </c>
       <c r="C488" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D488" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E488">
         <v>1</v>
@@ -13653,10 +13638,10 @@
         <v>7</v>
       </c>
       <c r="C489" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D489" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E489">
         <v>1</v>
@@ -13713,10 +13698,10 @@
         <v>0</v>
       </c>
       <c r="C494" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D494" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E494">
         <v>1</v>
@@ -13737,10 +13722,10 @@
         <v>1</v>
       </c>
       <c r="C495" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D495" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E495">
         <v>1</v>
@@ -13761,7 +13746,7 @@
         <v>2</v>
       </c>
       <c r="C496" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D496">
         <v>36875</v>
@@ -13785,7 +13770,7 @@
         <v>3</v>
       </c>
       <c r="C497" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D497">
         <v>25208</v>
@@ -13809,7 +13794,7 @@
         <v>4</v>
       </c>
       <c r="C498" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D498">
         <v>56571</v>
@@ -13833,10 +13818,10 @@
         <v>5</v>
       </c>
       <c r="C499" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D499" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E499">
         <v>1</v>
@@ -13857,10 +13842,10 @@
         <v>6</v>
       </c>
       <c r="C500" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D500" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E500">
         <v>1</v>
@@ -13881,10 +13866,10 @@
         <v>7</v>
       </c>
       <c r="C501" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D501" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E501">
         <v>1</v>
@@ -13941,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="C506" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E506">
         <v>1</v>
@@ -13962,10 +13947,10 @@
         <v>1</v>
       </c>
       <c r="C507" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D507" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E507">
         <v>1</v>
@@ -13986,7 +13971,7 @@
         <v>2</v>
       </c>
       <c r="C508" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D508">
         <v>18914</v>
@@ -14010,7 +13995,7 @@
         <v>3</v>
       </c>
       <c r="C509" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D509">
         <v>18862</v>
@@ -14034,7 +14019,7 @@
         <v>4</v>
       </c>
       <c r="C510" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D510">
         <v>81752</v>
@@ -14058,7 +14043,7 @@
         <v>5</v>
       </c>
       <c r="C511" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D511">
         <v>60496</v>
@@ -14082,10 +14067,10 @@
         <v>6</v>
       </c>
       <c r="C512" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D512" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E512">
         <v>1</v>
@@ -14106,10 +14091,10 @@
         <v>7</v>
       </c>
       <c r="C513" t="s">
+        <v>105</v>
+      </c>
+      <c r="D513" t="s">
         <v>106</v>
-      </c>
-      <c r="D513" t="s">
-        <v>107</v>
       </c>
       <c r="E513">
         <v>1</v>
@@ -14166,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="C518" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E518">
         <v>1</v>
@@ -14187,10 +14172,10 @@
         <v>1</v>
       </c>
       <c r="C519" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D519" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E519">
         <v>1</v>
@@ -14211,7 +14196,7 @@
         <v>2</v>
       </c>
       <c r="C520" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D520">
         <v>19697</v>
@@ -14235,7 +14220,7 @@
         <v>3</v>
       </c>
       <c r="C521" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D521">
         <v>52969</v>
@@ -14259,7 +14244,7 @@
         <v>4</v>
       </c>
       <c r="C522" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D522">
         <v>69726</v>
@@ -14283,7 +14268,7 @@
         <v>5</v>
       </c>
       <c r="C523" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D523">
         <v>67379</v>
@@ -14307,10 +14292,10 @@
         <v>6</v>
       </c>
       <c r="C524" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D524" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E524">
         <v>1</v>
@@ -14331,10 +14316,10 @@
         <v>7</v>
       </c>
       <c r="C525" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D525" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E525">
         <v>1</v>
@@ -14391,10 +14376,10 @@
         <v>0</v>
       </c>
       <c r="C530" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E530">
         <v>1</v>
@@ -14415,10 +14400,10 @@
         <v>1</v>
       </c>
       <c r="C531" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D531" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E531">
         <v>1</v>
@@ -14439,7 +14424,7 @@
         <v>2</v>
       </c>
       <c r="C532" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D532">
         <v>12663</v>
@@ -14463,7 +14448,7 @@
         <v>3</v>
       </c>
       <c r="C533" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D533">
         <v>29794</v>
@@ -14487,7 +14472,7 @@
         <v>4</v>
       </c>
       <c r="C534" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D534">
         <v>75071</v>
@@ -14511,10 +14496,10 @@
         <v>5</v>
       </c>
       <c r="C535" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D535" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E535">
         <v>1</v>
@@ -14535,10 +14520,10 @@
         <v>6</v>
       </c>
       <c r="C536" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D536" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E536">
         <v>1</v>
@@ -14559,10 +14544,10 @@
         <v>7</v>
       </c>
       <c r="C537" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D537" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E537">
         <v>1</v>
@@ -14619,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="C542" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E542">
         <v>1</v>
@@ -14640,10 +14625,10 @@
         <v>1</v>
       </c>
       <c r="C543" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D543" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E543">
         <v>1</v>
@@ -14664,7 +14649,7 @@
         <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D544">
         <v>80085</v>
@@ -14688,7 +14673,7 @@
         <v>3</v>
       </c>
       <c r="C545" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D545">
         <v>38810</v>
@@ -14712,7 +14697,7 @@
         <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D546">
         <v>79684</v>
@@ -14736,10 +14721,10 @@
         <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D547" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E547">
         <v>1</v>
@@ -14760,10 +14745,10 @@
         <v>6</v>
       </c>
       <c r="C548" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D548" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E548">
         <v>1</v>
@@ -14784,10 +14769,10 @@
         <v>7</v>
       </c>
       <c r="C549" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D549" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E549">
         <v>1</v>
@@ -14844,10 +14829,10 @@
         <v>0</v>
       </c>
       <c r="C554" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D554" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E554">
         <v>1</v>
@@ -14868,10 +14853,10 @@
         <v>1</v>
       </c>
       <c r="C555" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D555" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E555">
         <v>1</v>
@@ -14892,7 +14877,7 @@
         <v>2</v>
       </c>
       <c r="C556" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D556">
         <v>33450</v>
@@ -14916,7 +14901,7 @@
         <v>3</v>
       </c>
       <c r="C557" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D557">
         <v>84704</v>
@@ -14940,7 +14925,7 @@
         <v>4</v>
       </c>
       <c r="C558" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D558">
         <v>20169</v>
@@ -14964,10 +14949,10 @@
         <v>5</v>
       </c>
       <c r="C559" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D559" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E559">
         <v>1</v>
@@ -14988,10 +14973,10 @@
         <v>6</v>
       </c>
       <c r="C560" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D560" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E560">
         <v>1</v>
@@ -15012,10 +14997,10 @@
         <v>7</v>
       </c>
       <c r="C561" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D561" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E561">
         <v>1</v>
@@ -15072,10 +15057,10 @@
         <v>0</v>
       </c>
       <c r="C566" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D566" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E566">
         <v>1</v>
@@ -15096,10 +15081,10 @@
         <v>1</v>
       </c>
       <c r="C567" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D567" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E567">
         <v>1</v>
@@ -15120,7 +15105,7 @@
         <v>2</v>
       </c>
       <c r="C568" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D568">
         <v>11315</v>
@@ -15144,7 +15129,7 @@
         <v>3</v>
       </c>
       <c r="C569" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D569">
         <v>85863</v>
@@ -15168,7 +15153,7 @@
         <v>4</v>
       </c>
       <c r="C570" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D570">
         <v>83631</v>
@@ -15192,10 +15177,10 @@
         <v>5</v>
       </c>
       <c r="C571" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D571" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E571">
         <v>1</v>
@@ -15216,10 +15201,10 @@
         <v>6</v>
       </c>
       <c r="C572" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D572" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E572">
         <v>1</v>
@@ -15240,10 +15225,10 @@
         <v>7</v>
       </c>
       <c r="C573" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D573" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E573">
         <v>1</v>
@@ -15300,10 +15285,10 @@
         <v>0</v>
       </c>
       <c r="C578" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D578" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -15324,10 +15309,10 @@
         <v>1</v>
       </c>
       <c r="C579" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D579" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E579">
         <v>1</v>
@@ -15348,7 +15333,7 @@
         <v>2</v>
       </c>
       <c r="C580" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D580">
         <v>86575</v>
@@ -15372,7 +15357,7 @@
         <v>3</v>
       </c>
       <c r="C581" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D581">
         <v>24840</v>
@@ -15396,7 +15381,7 @@
         <v>4</v>
       </c>
       <c r="C582" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D582">
         <v>10498</v>
@@ -15420,10 +15405,10 @@
         <v>5</v>
       </c>
       <c r="C583" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D583" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E583">
         <v>1</v>
@@ -15444,10 +15429,10 @@
         <v>6</v>
       </c>
       <c r="C584" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D584" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E584">
         <v>1</v>
@@ -15468,10 +15453,10 @@
         <v>7</v>
       </c>
       <c r="C585" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D585" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E585">
         <v>1</v>
@@ -15528,10 +15513,10 @@
         <v>0</v>
       </c>
       <c r="C590" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D590" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E590">
         <v>1</v>
@@ -15552,10 +15537,10 @@
         <v>1</v>
       </c>
       <c r="C591" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D591" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E591">
         <v>1</v>
@@ -15576,7 +15561,7 @@
         <v>2</v>
       </c>
       <c r="C592" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D592">
         <v>22126</v>
@@ -15600,7 +15585,7 @@
         <v>3</v>
       </c>
       <c r="C593" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D593">
         <v>3427</v>
@@ -15624,7 +15609,7 @@
         <v>4</v>
       </c>
       <c r="C594" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D594">
         <v>85725</v>
@@ -15648,10 +15633,10 @@
         <v>5</v>
       </c>
       <c r="C595" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D595" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E595">
         <v>1</v>
@@ -15672,10 +15657,10 @@
         <v>6</v>
       </c>
       <c r="C596" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D596" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E596">
         <v>1</v>
@@ -15696,10 +15681,10 @@
         <v>7</v>
       </c>
       <c r="C597" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D597" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E597">
         <v>1</v>
@@ -15756,10 +15741,10 @@
         <v>0</v>
       </c>
       <c r="C602" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D602" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E602">
         <v>1</v>
@@ -15780,10 +15765,10 @@
         <v>1</v>
       </c>
       <c r="C603" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D603" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E603">
         <v>1</v>
@@ -15804,7 +15789,7 @@
         <v>2</v>
       </c>
       <c r="C604" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D604">
         <v>57917</v>
@@ -15828,7 +15813,7 @@
         <v>3</v>
       </c>
       <c r="C605" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D605">
         <v>13618</v>
@@ -15852,7 +15837,7 @@
         <v>4</v>
       </c>
       <c r="C606" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D606">
         <v>52601</v>
@@ -15876,10 +15861,10 @@
         <v>5</v>
       </c>
       <c r="C607" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D607" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E607">
         <v>1</v>
@@ -15900,10 +15885,10 @@
         <v>6</v>
       </c>
       <c r="C608" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D608" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E608">
         <v>1</v>
@@ -15924,10 +15909,10 @@
         <v>7</v>
       </c>
       <c r="C609" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D609" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E609">
         <v>1</v>
@@ -15984,10 +15969,10 @@
         <v>0</v>
       </c>
       <c r="C614" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D614" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E614">
         <v>1</v>
@@ -16008,10 +15993,10 @@
         <v>1</v>
       </c>
       <c r="C615" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D615" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E615">
         <v>1</v>
@@ -16032,7 +16017,7 @@
         <v>2</v>
       </c>
       <c r="C616" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D616">
         <v>88102</v>
@@ -16056,7 +16041,7 @@
         <v>3</v>
       </c>
       <c r="C617" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D617">
         <v>69160</v>
@@ -16080,7 +16065,7 @@
         <v>4</v>
       </c>
       <c r="C618" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D618">
         <v>81403</v>
@@ -16104,10 +16089,10 @@
         <v>5</v>
       </c>
       <c r="C619" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D619" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E619">
         <v>1</v>
@@ -16128,10 +16113,10 @@
         <v>6</v>
       </c>
       <c r="C620" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D620" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E620">
         <v>1</v>
@@ -16152,10 +16137,10 @@
         <v>7</v>
       </c>
       <c r="C621" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D621" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E621">
         <v>1</v>
@@ -16212,10 +16197,10 @@
         <v>0</v>
       </c>
       <c r="C626" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D626" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E626">
         <v>1</v>
@@ -16236,10 +16221,10 @@
         <v>1</v>
       </c>
       <c r="C627" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D627" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E627">
         <v>1</v>
@@ -16260,7 +16245,7 @@
         <v>2</v>
       </c>
       <c r="C628" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D628">
         <v>6467</v>
@@ -16284,7 +16269,7 @@
         <v>3</v>
       </c>
       <c r="C629" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D629">
         <v>43155</v>
@@ -16308,7 +16293,7 @@
         <v>4</v>
       </c>
       <c r="C630" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D630">
         <v>94861</v>
@@ -16332,10 +16317,10 @@
         <v>5</v>
       </c>
       <c r="C631" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D631" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E631">
         <v>1</v>
@@ -16356,10 +16341,10 @@
         <v>6</v>
       </c>
       <c r="C632" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D632" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E632">
         <v>1</v>
@@ -16380,10 +16365,10 @@
         <v>7</v>
       </c>
       <c r="C633" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D633" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E633">
         <v>1</v>
@@ -16440,10 +16425,10 @@
         <v>0</v>
       </c>
       <c r="C638" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D638" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E638">
         <v>1</v>
@@ -16464,10 +16449,10 @@
         <v>1</v>
       </c>
       <c r="C639" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D639" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E639">
         <v>1</v>
@@ -16488,7 +16473,7 @@
         <v>2</v>
       </c>
       <c r="C640" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D640">
         <v>92746</v>
@@ -16512,7 +16497,7 @@
         <v>3</v>
       </c>
       <c r="C641" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D641">
         <v>38584</v>
@@ -16536,7 +16521,7 @@
         <v>4</v>
       </c>
       <c r="C642" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D642">
         <v>45187</v>
@@ -16560,10 +16545,10 @@
         <v>5</v>
       </c>
       <c r="C643" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D643" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E643">
         <v>1</v>
@@ -16584,10 +16569,10 @@
         <v>6</v>
       </c>
       <c r="C644" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D644" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E644">
         <v>1</v>
@@ -16608,10 +16593,10 @@
         <v>7</v>
       </c>
       <c r="C645" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D645" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E645">
         <v>1</v>
@@ -16668,10 +16653,10 @@
         <v>0</v>
       </c>
       <c r="C650" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D650" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E650">
         <v>1</v>
@@ -16692,10 +16677,10 @@
         <v>1</v>
       </c>
       <c r="C651" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D651" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E651">
         <v>1</v>
@@ -16716,7 +16701,7 @@
         <v>2</v>
       </c>
       <c r="C652" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D652">
         <v>98118</v>
@@ -16740,7 +16725,7 @@
         <v>3</v>
       </c>
       <c r="C653" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D653">
         <v>10153</v>
@@ -16764,7 +16749,7 @@
         <v>4</v>
       </c>
       <c r="C654" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D654">
         <v>98421</v>
@@ -16788,10 +16773,10 @@
         <v>5</v>
       </c>
       <c r="C655" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D655" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E655">
         <v>1</v>
@@ -16812,10 +16797,10 @@
         <v>6</v>
       </c>
       <c r="C656" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D656" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E656">
         <v>1</v>
@@ -16836,10 +16821,10 @@
         <v>7</v>
       </c>
       <c r="C657" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D657" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E657">
         <v>1</v>
@@ -16896,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="C662" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E662">
         <v>1</v>
@@ -16917,10 +16902,10 @@
         <v>1</v>
       </c>
       <c r="C663" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D663" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E663">
         <v>1</v>
@@ -16941,7 +16926,7 @@
         <v>2</v>
       </c>
       <c r="C664" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D664">
         <v>52405</v>
@@ -16965,7 +16950,7 @@
         <v>3</v>
       </c>
       <c r="C665" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D665">
         <v>11471</v>
@@ -16989,7 +16974,7 @@
         <v>4</v>
       </c>
       <c r="C666" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D666">
         <v>95704</v>
@@ -17013,7 +16998,7 @@
         <v>5</v>
       </c>
       <c r="C667" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D667">
         <v>15462</v>
@@ -17037,10 +17022,10 @@
         <v>6</v>
       </c>
       <c r="C668" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D668" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E668">
         <v>1</v>
@@ -17061,10 +17046,10 @@
         <v>7</v>
       </c>
       <c r="C669" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D669" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E669">
         <v>1</v>
@@ -17121,10 +17106,10 @@
         <v>0</v>
       </c>
       <c r="C674" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D674" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E674">
         <v>1</v>
@@ -17145,10 +17130,10 @@
         <v>1</v>
       </c>
       <c r="C675" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D675" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E675">
         <v>1</v>
@@ -17169,7 +17154,7 @@
         <v>2</v>
       </c>
       <c r="C676" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D676">
         <v>84832</v>
@@ -17193,7 +17178,7 @@
         <v>3</v>
       </c>
       <c r="C677" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D677">
         <v>94548</v>
@@ -17217,7 +17202,7 @@
         <v>4</v>
       </c>
       <c r="C678" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D678">
         <v>14628</v>
@@ -17241,7 +17226,7 @@
         <v>5</v>
       </c>
       <c r="C679" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D679">
         <v>31175</v>
@@ -17265,10 +17250,10 @@
         <v>6</v>
       </c>
       <c r="C680" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D680" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E680">
         <v>1</v>
@@ -17289,10 +17274,10 @@
         <v>7</v>
       </c>
       <c r="C681" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D681" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E681">
         <v>1</v>
@@ -17349,10 +17334,10 @@
         <v>0</v>
       </c>
       <c r="C686" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D686" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E686">
         <v>1</v>
@@ -17373,10 +17358,10 @@
         <v>1</v>
       </c>
       <c r="C687" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D687" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E687">
         <v>1</v>
@@ -17397,7 +17382,7 @@
         <v>2</v>
       </c>
       <c r="C688" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D688">
         <v>56908</v>
@@ -17421,7 +17406,7 @@
         <v>3</v>
       </c>
       <c r="C689" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D689">
         <v>5727</v>
@@ -17445,7 +17430,7 @@
         <v>4</v>
       </c>
       <c r="C690" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D690">
         <v>4971</v>
@@ -17469,7 +17454,7 @@
         <v>5</v>
       </c>
       <c r="C691" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D691">
         <v>79985</v>
@@ -17493,10 +17478,10 @@
         <v>6</v>
       </c>
       <c r="C692" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D692" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E692">
         <v>1</v>
@@ -17517,10 +17502,10 @@
         <v>7</v>
       </c>
       <c r="C693" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D693" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E693">
         <v>1</v>
@@ -17795,8 +17780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17811,338 +17796,338 @@
   <sheetData>
     <row r="1" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI1" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>149</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>136</v>
-      </c>
       <c r="AO1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>127</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>138</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>139</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" t="s">
         <v>140</v>
       </c>
-      <c r="M2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="AD2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK2" t="s">
         <v>134</v>
       </c>
-      <c r="P2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" t="s">
-        <v>132</v>
-      </c>
-      <c r="X2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AL2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO2" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>127</v>
       </c>
-      <c r="AP2" t="s">
-        <v>128</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -18154,7 +18139,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved user convenience, such as dark mode
+Additional note: Fixed the issue that the app immediately quits on iPhone XS Max
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18168,7 +18153,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم
+ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max
 &lt;/ar&gt;
 </v>
       </c>
@@ -18179,7 +18164,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Палепшанае зручнасць карыстальніка, такія як цёмны рэжым
+Дадатковая Заўвага: Выпраўлена пытанне аб тым, што дадатак неадкладна завяршаецца на iPhone XS Max
 &lt;/be&gt;
 </v>
       </c>
@@ -18190,7 +18175,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: подобрено удобство на потребителя, като например тъмен режим
+Допълнителна забележка: Фиксирана въпроса, че приложението незабавно се отказва от iPhone Xs Max
 &lt;/bg&gt;
 </v>
       </c>
@@ -18201,7 +18186,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim
+Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18212,7 +18197,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus
+Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18223,7 +18208,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία
+Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18234,7 +18219,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18245,7 +18230,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18256,7 +18241,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18267,7 +18252,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila
+Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18278,7 +18263,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
+Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18289,7 +18274,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
+Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -18300,7 +18285,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot
+Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -18311,7 +18296,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap
+Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max
 &lt;/id&gt;
 </v>
       </c>
@@ -18322,7 +18307,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura
+Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -18333,7 +18318,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה
+הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -18344,7 +18329,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：ダークモードなどのユーザー利便性の向上
+追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -18355,7 +18340,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 다크 모드 등 유저 편의 개선
+추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -18366,7 +18351,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
+NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
 &lt;/ms&gt;
 </v>
       </c>
@@ -18377,7 +18362,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
+NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -18388,7 +18373,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus
+Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -18399,7 +18384,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb
+Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -18410,7 +18395,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: melhoria de conveniência do usuário, como o modo escuro
+Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -18421,7 +18406,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: melhoria de conveniência do usuário, como o modo escuro
+Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -18432,7 +18417,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat
+Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max
 &lt;/ro&gt;
 </v>
       </c>
@@ -18443,7 +18428,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенное удобство пользователя, например, темный режим
+Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -18454,7 +18439,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim
+Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max
 &lt;/sk&gt;
 </v>
       </c>
@@ -18465,7 +18450,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge
+Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -18476,7 +18461,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที
 &lt;/th&gt;
 </v>
       </c>
@@ -18487,7 +18472,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı
+Ek Not: Uygulamanın hemen iPhone XS maks.
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -18498,7 +18483,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим
+Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX
 &lt;/uk&gt;
 </v>
       </c>
@@ -18509,7 +18494,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện tiện lợi cho người dùng, chẳng hạn như chế độ tối
+Lưu ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max
 &lt;/vi&gt;
 </v>
       </c>
@@ -18520,7 +18505,7 @@
 _x000D_
 每天登录才能收到礼品！_x000D_
 _x000D_
-附加说明：改进用户方便，如黑暗模式
+附加注意：修复了应用程序立即在iPhone XS Max上退出的问题
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -18531,7 +18516,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進用戶方便，如黑暗模式
+附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -18542,12 +18527,12 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進用戶方便，如黑暗模式
+附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
 &lt;/zh-TW&gt;
 </v>
       </c>
       <c r="AS4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
@@ -18556,262 +18541,262 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved user convenience, such as dark mode
+Additional note: Fixed the issue that the app immediately quits on iPhone XS Max
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم
+ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Палепшанае зручнасць карыстальніка, такія як цёмны рэжым
+Дадатковая Заўвага: Выпраўлена пытанне аб тым, што дадатак неадкладна завяршаецца на iPhone XS Max
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: подобрено удобство на потребителя, като например тъмен режим
+Допълнителна забележка: Фиксирана въпроса, че приложението незабавно се отказва от iPhone Xs Max
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim
+Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus
+Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία
+Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila
+Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
+Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
+Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot
+Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap
+Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura
+Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה
+הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：ダークモードなどのユーザー利便性の向上
+追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 다크 모드 등 유저 편의 개선
+추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
+NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
+NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus
+Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb
+Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: melhoria de conveniência do usuário, como o modo escuro
+Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: melhoria de conveniência do usuário, como o modo escuro
+Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat
+Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенное удобство пользователя, например, темный режим
+Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim
+Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge
+Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı
+Ek Not: Uygulamanın hemen iPhone XS maks.
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим
+Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện tiện lợi cho người dùng, chẳng hạn như chế độ tối
+Lưu ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼品！_x000D_
 _x000D_
-附加说明：改进用户方便，如黑暗模式
+附加注意：修复了应用程序立即在iPhone XS Max上退出的问题
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進用戶方便，如黑暗模式
+附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進用戶方便，如黑暗模式
+附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
 &lt;/zh-TW&gt;
 </v>
       </c>
       <c r="AS6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
@@ -18824,731 +18809,731 @@
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AS8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="AS9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" t="s">
         <v>213</v>
-      </c>
-      <c r="E10" t="s">
-        <v>214</v>
       </c>
       <c r="H10" t="str">
         <f>CONCATENATE(H4,N4,AC4,M4,AH4,AG4,AA4,AN4,AJ4,P4,AI4,I4,AM4,W4,V4,Y4,AO4,AQ4,L4,AK4,AL4,AF4,AD4,T4,R4,Z4,U4,X4)</f>
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved user convenience, such as dark mode
+Additional note: Fixed the issue that the app immediately quits on iPhone XS Max
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη ευκολία των χρηστών, όπως η σκοτεινή λειτουργία
+Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: verbeterde gebruikersgemak, zoals de donkere modus
+Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte Benutzerkomfort wie dunklem Modus
+Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: улучшенное удобство пользователя, например, темный режим
+Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Comoditate îmbunătățită a utilizatorului, cum ar fi modul întunecat
+Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: kemudahan pengguna yang lebih baik, seperti mod gelap
+NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện tiện lợi cho người dùng, chẳng hạn như chế độ tối
+Lưu ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad användarvänlighet, till exempel mörkt läge
+Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: mayor comodidad del usuario, como el modo oscuro
+Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšené užívateľské pohodlie, napríklad Tmavé režim
+Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين راحة المستخدم، مثل الوضع المظلم
+ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: вдосконалена зручність користувача, наприклад, темний режим
+Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: miglioramento della convenienza utente, come la modalità scura
+Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: peningkatan kenyamanan pengguna, seperti mode gelap
+Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：ダークモードなどのユーザー利便性の向上
+追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼品！_x000D_
 _x000D_
-附加说明：改进用户方便，如黑暗模式
+附加注意：修复了应用程序立即在iPhone XS Max上退出的问题
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進用戶方便，如黑暗模式
+附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšené uživatelské pohodlí, jako je tmavý režim
+Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ความสะดวกสบายของผู้ใช้ที่ดีขึ้นเช่นโหมดมืด
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Karanlık mod gibi gelişmiş kullanıcı rahatlığı
+Ek Not: Uygulamanın hemen iPhone XS maks.
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: melhoria de conveniência do usuário, como o modo escuro
+Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Ulepszona wygoda użytkownika, taka jak ciemny tryb
+Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: amélioration de la commodité de l'utilisateur, telle que le mode sombre
+Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu käyttäjän mukavuus, kuten pimeä tila
+Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 다크 모드 등 유저 편의 개선
+추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: javította a felhasználó kényelmét, például sötét módot
+Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: נוחות משתמש משופרת, כגון מצב כהה
+הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום
 &lt;/iw-IL&gt;
 </v>
       </c>
       <c r="AS10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B40" si="1">COUNTIF(E:E,A11)</f>
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AS11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" t="str">
         <f>A25</f>
         <v>ar</v>
       </c>
       <c r="AS12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" t="str">
         <f>A26</f>
         <v>be</v>
       </c>
       <c r="AS13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" t="str">
         <f>A27</f>
         <v>bg</v>
       </c>
       <c r="AS14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="str">
         <f>A28</f>
         <v>cs</v>
       </c>
       <c r="AS15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" t="str">
         <f>A17</f>
         <v>de</v>
       </c>
       <c r="AS16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" t="str">
         <f>A31</f>
         <v>el</v>
       </c>
       <c r="AS17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" t="str">
         <f>A21</f>
         <v>es</v>
       </c>
       <c r="AS18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" t="str">
         <f>A21</f>
         <v>es</v>
       </c>
       <c r="AS19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" t="str">
         <f>A21</f>
         <v>es</v>
       </c>
       <c r="AS20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" t="str">
         <f>A30</f>
         <v>fi</v>
       </c>
       <c r="AS21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" t="str">
         <f>A16</f>
         <v>fr</v>
       </c>
       <c r="AS22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" t="str">
         <f>A16</f>
         <v>fr</v>
       </c>
       <c r="AS23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" t="str">
         <f>A33</f>
         <v>hu</v>
       </c>
       <c r="AS24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" t="str">
         <f>A18</f>
         <v>id</v>
       </c>
       <c r="AS25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" t="str">
         <f>A19</f>
         <v>it</v>
       </c>
       <c r="AS26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" t="str">
         <f>A32</f>
         <v>he</v>
       </c>
       <c r="AS27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28" t="str">
         <f>A13</f>
         <v>ja</v>
       </c>
       <c r="AS28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AS29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" t="str">
         <f>A34</f>
         <v>ms</v>
       </c>
       <c r="AS30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" t="str">
         <f>A34</f>
         <v>ms</v>
       </c>
       <c r="AS31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" t="str">
         <f>A29</f>
         <v>nl</v>
       </c>
       <c r="AS32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" t="str">
         <f>A35</f>
         <v>pl</v>
       </c>
       <c r="AS33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" t="str">
         <f>A24</f>
         <v>pt</v>
       </c>
       <c r="AS34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" t="str">
         <f>A24</f>
         <v>pt</v>
       </c>
       <c r="AS35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" t="str">
         <f>A36</f>
         <v>ro</v>
       </c>
       <c r="AS36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" t="str">
         <f>A20</f>
@@ -19557,14 +19542,14 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" t="str">
         <f>A37</f>
@@ -19573,14 +19558,14 @@
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" t="str">
         <f>A38</f>
@@ -19589,14 +19574,14 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40" t="str">
         <f>A22</f>
@@ -19605,7 +19590,7 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" t="str">
         <f>A39</f>
@@ -19614,7 +19599,7 @@
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" t="str">
         <f>A40</f>
@@ -19623,7 +19608,7 @@
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E43" t="str">
         <f>A23</f>
@@ -19632,7 +19617,7 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" t="str">
         <f>A14</f>
@@ -19641,7 +19626,7 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" t="str">
         <f>A15</f>
@@ -19650,7 +19635,7 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E46" t="str">
         <f>A15</f>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8B13B-3B48-4C1B-94FE-E23AF5A61AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651B016-BD4F-4BF1-9F6A-54C6959551AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="355">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1384,16 +1384,26 @@
     <t>Equip0401</t>
   </si>
   <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1401</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정</t>
+추가사항: 아이폰 빌드 안정성 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Fixed the issue that the app immediately quits on iPhone XS Max</t>
+Additional note: Improved iPhone build stability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1401,91 +1411,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max</t>
+ملاحظة إضافية: تحسين الاستقرار في بناء iPhone</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Выпраўлена пытанне аб тым, што дадатак неадкладна завяршаецца на iPhone XS Max</t>
+Дадатковая Заўвага: Паляпшэнне iPhone стабільнасці зборкі</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Фиксирана въпроса, че приложението незабавно се отказва от iPhone Xs Max</t>
+Допълнителна забележка: Подобрената стабилност на iPhone</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX</t>
+Další poznámka: Vylepšená stabilita sestavení iPhone</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt</t>
+Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max</t>
+Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX</t>
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max</t>
+Muita huomautuksia: Parannettu iPhone rakentaa vakautta</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max</t>
+Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max</t>
+Kiegészítő megjegyzés: Javított iPhone építési stabilitás</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max</t>
+Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max</t>
+Nota aggiuntiva: stabilità di costruzione di iPhone migliorata</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום</t>
+הערה נוספת: משופרת iPhone לבנות יציבות</t>
   </si>
   <si>
     <r>
@@ -1559,7 +1569,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました</t>
+追加の注意：改良されたiPhoneビルド安定性</t>
     </r>
   </si>
   <si>
@@ -1567,84 +1577,84 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정</t>
+추가사항: 아이폰 빌드 안정성 강화</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max</t>
+Nota tambahan: Peningkatan iPhone membina kestabilan</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit</t>
+Extra noot: verbeterde iPhone-build stabiliteit</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max</t>
+Uwaga dodatkowa: Ulepszona stabilność budowy iPhone</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max</t>
+NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max</t>
+Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX</t>
+Дополнительное примечание: Улучшена стабильность сборки iPhone</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max</t>
+Dodatočná poznámka: Vylepšená stabilita iPhone</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max</t>
+Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที</t>
+หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Uygulamanın hemen iPhone XS maks.</t>
+Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX</t>
+Додаткова нотатка: покращена стабільність iPhone</t>
   </si>
   <si>
     <r>
@@ -1673,7 +1683,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max</t>
+      <t>u ý bổ sung: Cải thiện sự ổn định của iPhone Build</t>
     </r>
   </si>
   <si>
@@ -1702,9 +1712,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品！_x000D_
-_x000D_
-附加注意：修</t>
+      <t>物！_x000D_
+_x000D_
+附加说明：改进的iPhone</t>
     </r>
     <r>
       <rPr>
@@ -1715,7 +1725,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>复</t>
+      <t>构</t>
     </r>
     <r>
       <rPr>
@@ -1726,7 +1736,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>了应用程序立即在iPhone XS Max上退出的问题</t>
+      <t>建稳定性</t>
     </r>
   </si>
   <si>
@@ -1734,17 +1744,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加註意：修復了應用程序立即在iPhone XS Max上退出的問題</t>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip1401</t>
-  </si>
-  <si>
-    <t>Actor1109</t>
+附加說明：改進的iPhone構建穩定性</t>
   </si>
 </sst>
 </file>
@@ -3311,8 +3311,8 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4034,8 +4034,8 @@
   <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F447" sqref="F447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4056,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="F1" t="s">
         <v>101</v>
@@ -12102,7 +12102,7 @@
         <v>105</v>
       </c>
       <c r="D413" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E413">
         <v>1</v>
@@ -12243,7 +12243,7 @@
         <v>308</v>
       </c>
       <c r="D420" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E420">
         <v>1</v>
@@ -12270,7 +12270,7 @@
         <v>264</v>
       </c>
       <c r="D421" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E421">
         <v>75</v>
@@ -12510,7 +12510,7 @@
         <v>308</v>
       </c>
       <c r="D432" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -12537,7 +12537,7 @@
         <v>264</v>
       </c>
       <c r="D433" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E433">
         <v>75</v>
@@ -12564,7 +12564,7 @@
         <v>105</v>
       </c>
       <c r="D434" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E434">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>96</v>
       </c>
       <c r="H434">
-        <v>3800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -12618,10 +12618,10 @@
         <v>11</v>
       </c>
       <c r="F436" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H436">
-        <v>3300</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -12657,19 +12657,19 @@
         <v>4</v>
       </c>
       <c r="C438" t="s">
-        <v>109</v>
-      </c>
-      <c r="D438">
-        <v>88860</v>
+        <v>105</v>
+      </c>
+      <c r="D438" t="s">
+        <v>251</v>
       </c>
       <c r="E438">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F438" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H438">
-        <v>5</v>
+        <v>800</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -12681,19 +12681,19 @@
         <v>5</v>
       </c>
       <c r="C439" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D439">
-        <v>78754</v>
+        <v>88860</v>
       </c>
       <c r="E439">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F439" t="s">
         <v>96</v>
       </c>
       <c r="H439">
-        <v>3900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -12705,19 +12705,19 @@
         <v>6</v>
       </c>
       <c r="C440" t="s">
-        <v>105</v>
-      </c>
-      <c r="D440" t="s">
-        <v>241</v>
+        <v>108</v>
+      </c>
+      <c r="D440">
+        <v>78754</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F440" t="s">
         <v>96</v>
       </c>
       <c r="H440">
-        <v>800</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
@@ -12732,7 +12732,7 @@
         <v>105</v>
       </c>
       <c r="D441" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E441">
         <v>1</v>
@@ -12741,7 +12741,7 @@
         <v>96</v>
       </c>
       <c r="H441">
-        <v>700</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -12789,16 +12789,19 @@
         <v>0</v>
       </c>
       <c r="C446" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D446">
+        <v>14549</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F446" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H446">
-        <v>29</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
@@ -12834,19 +12837,19 @@
         <v>2</v>
       </c>
       <c r="C448" t="s">
-        <v>108</v>
-      </c>
-      <c r="D448">
-        <v>14549</v>
+        <v>105</v>
+      </c>
+      <c r="D448" t="s">
+        <v>121</v>
       </c>
       <c r="E448">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F448" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H448">
-        <v>2700</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -12882,19 +12885,19 @@
         <v>4</v>
       </c>
       <c r="C450" t="s">
-        <v>109</v>
-      </c>
-      <c r="D450">
-        <v>88038</v>
+        <v>105</v>
+      </c>
+      <c r="D450" t="s">
+        <v>262</v>
       </c>
       <c r="E450">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F450" t="s">
         <v>96</v>
       </c>
       <c r="H450">
-        <v>4200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -12906,19 +12909,19 @@
         <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>108</v>
-      </c>
-      <c r="D451">
-        <v>53507</v>
+        <v>105</v>
+      </c>
+      <c r="D451" t="s">
+        <v>226</v>
       </c>
       <c r="E451">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F451" t="s">
         <v>96</v>
       </c>
       <c r="H451">
-        <v>3600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -12930,19 +12933,19 @@
         <v>6</v>
       </c>
       <c r="C452" t="s">
-        <v>105</v>
-      </c>
-      <c r="D452" t="s">
-        <v>226</v>
+        <v>109</v>
+      </c>
+      <c r="D452">
+        <v>88038</v>
       </c>
       <c r="E452">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F452" t="s">
         <v>96</v>
       </c>
       <c r="H452">
-        <v>7200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -17780,8 +17783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18019,115 +18022,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -18139,7 +18142,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Fixed the issue that the app immediately quits on iPhone XS Max
+Additional note: Improved iPhone build stability
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18153,7 +18156,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max
+ملاحظة إضافية: تحسين الاستقرار في بناء iPhone
 &lt;/ar&gt;
 </v>
       </c>
@@ -18164,7 +18167,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Выпраўлена пытанне аб тым, што дадатак неадкладна завяршаецца на iPhone XS Max
+Дадатковая Заўвага: Паляпшэнне iPhone стабільнасці зборкі
 &lt;/be&gt;
 </v>
       </c>
@@ -18175,7 +18178,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Фиксирана въпроса, че приложението незабавно се отказва от iPhone Xs Max
+Допълнителна забележка: Подобрената стабилност на iPhone
 &lt;/bg&gt;
 </v>
       </c>
@@ -18186,7 +18189,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX
+Další poznámka: Vylepšená stabilita sestavení iPhone
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18197,7 +18200,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt
+Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18208,7 +18211,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max
+Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18219,7 +18222,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18230,7 +18233,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18241,7 +18244,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18252,7 +18255,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max
+Muita huomautuksia: Parannettu iPhone rakentaa vakautta
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18263,7 +18266,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
+Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18274,7 +18277,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
+Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -18285,7 +18288,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max
+Kiegészítő megjegyzés: Javított iPhone építési stabilitás
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -18296,7 +18299,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max
+Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan
 &lt;/id&gt;
 </v>
       </c>
@@ -18307,7 +18310,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max
+Nota aggiuntiva: stabilità di costruzione di iPhone migliorata
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -18318,7 +18321,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום
+הערה נוספת: משופרת iPhone לבנות יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -18329,7 +18332,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました
+追加の注意：改良されたiPhoneビルド安定性
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -18340,7 +18343,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정
+추가사항: 아이폰 빌드 안정성 강화
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -18351,7 +18354,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
+Nota tambahan: Peningkatan iPhone membina kestabilan
 &lt;/ms&gt;
 </v>
       </c>
@@ -18362,7 +18365,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
+Nota tambahan: Peningkatan iPhone membina kestabilan
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -18373,7 +18376,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit
+Extra noot: verbeterde iPhone-build stabiliteit
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -18384,7 +18387,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max
+Uwaga dodatkowa: Ulepszona stabilność budowy iPhone
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -18395,7 +18398,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
+NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -18406,7 +18409,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
+NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -18417,7 +18420,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max
+Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor
 &lt;/ro&gt;
 </v>
       </c>
@@ -18428,7 +18431,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX
+Дополнительное примечание: Улучшена стабильность сборки iPhone
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -18439,7 +18442,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max
+Dodatočná poznámka: Vylepšená stabilita iPhone
 &lt;/sk&gt;
 </v>
       </c>
@@ -18450,7 +18453,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max
+Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -18461,7 +18464,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที
+หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone
 &lt;/th&gt;
 </v>
       </c>
@@ -18472,7 +18475,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Uygulamanın hemen iPhone XS maks.
+Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -18483,7 +18486,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX
+Додаткова нотатка: покращена стабільність iPhone
 &lt;/uk&gt;
 </v>
       </c>
@@ -18494,7 +18497,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max
+Lưu ý bổ sung: Cải thiện sự ổn định của iPhone Build
 &lt;/vi&gt;
 </v>
       </c>
@@ -18503,9 +18506,9 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加注意：修复了应用程序立即在iPhone XS Max上退出的问题
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加说明：改进的iPhone构建稳定性
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -18516,7 +18519,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
+附加說明：改進的iPhone構建穩定性
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -18527,7 +18530,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
+附加說明：改進的iPhone構建穩定性
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18541,252 +18544,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Fixed the issue that the app immediately quits on iPhone XS Max
+Additional note: Improved iPhone build stability
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max
+ملاحظة إضافية: تحسين الاستقرار في بناء iPhone
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Выпраўлена пытанне аб тым, што дадатак неадкладна завяршаецца на iPhone XS Max
+Дадатковая Заўвага: Паляпшэнне iPhone стабільнасці зборкі
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Фиксирана въпроса, че приложението незабавно се отказва от iPhone Xs Max
+Допълнителна забележка: Подобрената стабилност на iPhone
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX
+Další poznámka: Vylepšená stabilita sestavení iPhone
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt
+Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max
+Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max
+Muita huomautuksia: Parannettu iPhone rakentaa vakautta
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
+Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
+Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max
+Kiegészítő megjegyzés: Javított iPhone építési stabilitás
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max
+Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max
+Nota aggiuntiva: stabilità di costruzione di iPhone migliorata
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום
+הערה נוספת: משופרת iPhone לבנות יציבות
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました
+追加の注意：改良されたiPhoneビルド安定性
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정
+추가사항: 아이폰 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
+Nota tambahan: Peningkatan iPhone membina kestabilan
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
+Nota tambahan: Peningkatan iPhone membina kestabilan
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit
+Extra noot: verbeterde iPhone-build stabiliteit
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max
+Uwaga dodatkowa: Ulepszona stabilność budowy iPhone
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
+NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
+NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max
+Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX
+Дополнительное примечание: Улучшена стабильность сборки iPhone
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max
+Dodatočná poznámka: Vylepšená stabilita iPhone
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max
+Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที
+หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Uygulamanın hemen iPhone XS maks.
+Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX
+Додаткова нотатка: покращена стабільність iPhone
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max
+Lưu ý bổ sung: Cải thiện sự ổn định của iPhone Build
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加注意：修复了应用程序立即在iPhone XS Max上退出的问题
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加说明：改进的iPhone构建稳定性
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
+附加說明：改進的iPhone構建穩定性
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
+附加說明：改進的iPhone構建穩定性
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18835,196 +18838,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Fixed the issue that the app immediately quits on iPhone XS Max
+Additional note: Improved iPhone build stability
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Διορθώθηκε το ζήτημα που η εφαρμογή κλείνει αμέσως στο iPhone XS Max
+Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: het probleem opgelost dat de app onmiddellijk op de iPhone XS MAX sluit
+Extra noot: verbeterde iPhone-build stabiliteit
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Das Problem wurde behoben, dass die App sofort auf iPhone XS max aufgibt
+Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Исправлена ​​проблема, которую приложение немедленно выходит на iPhone XS MAX
+Дополнительное примечание: Улучшена стабильность сборки iPhone
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Fixați problema că aplicația se oprește imediat pe iPhone XS Max
+Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-NOTA TAMBAHAN: Tetapkan isu yang APP segera berhenti pada iPhone XS Max
+Nota tambahan: Peningkatan iPhone membina kestabilan
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Đã khắc phục sự cố mà ứng dụng ngay lập tức thoát khỏi iPhone XS Max
+Lưu ý bổ sung: Cải thiện sự ổn định của iPhone Build
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Fixat problemet som appen omedelbart slutar på iPhone XS max
+Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota ADICIONAL: Se solucionó el problema de que la aplicación abandona inmediatamente en iPhone XS MAX
+Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Opravený problém, ktorý App okamžite ukončí na iPhone XS Max
+Dodatočná poznámka: Vylepšená stabilita iPhone
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: إصلاح المشكلة التي يستكشف التطبيق على الفور على iPhone XS Max
+ملاحظة إضافية: تحسين الاستقرار في بناء iPhone
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: Виправлена ​​проблема, яку додаток негайно виходить на iPhone XS MAX
+Додаткова нотатка: покращена стабільність iPhone
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: fissa il problema che l'app si chiude immediatamente su iPhone XS max
+Nota aggiuntiva: stabilità di costruzione di iPhone migliorata
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Memperbaiki masalah bahwa aplikasi segera berhenti di iPhone XS Max
+Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：アプリがすぐにiPhone XS MAXで終了する問題を修正しました
+追加の注意：改良されたiPhoneビルド安定性
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼品！_x000D_
-_x000D_
-附加注意：修复了应用程序立即在iPhone XS Max上退出的问题
+每天登录才能收到礼物！_x000D_
+_x000D_
+附加说明：改进的iPhone构建稳定性
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加註意：修復了應用程序立即在iPhone XS Max上退出的問題
+附加說明：改進的iPhone構建穩定性
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Opraveno problém, který aplikace okamžitě ukončí na iPhone XS MAX
+Další poznámka: Vylepšená stabilita sestavení iPhone
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แก้ไขปัญหาที่แอปออกจาก iPhone XS สูงสุดทันที
+หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Uygulamanın hemen iPhone XS maks.
+Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Nota adicional: Corrigido o problema que o aplicativo imediatamente é exibido no iPhone XS Max
+NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Naprawiono problem, że aplikacja natychmiast rzuca się na iPhone XS max
+Uwaga dodatkowa: Ulepszona stabilność budowy iPhone
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: corrigé le problème que l'application quitte immédiatement sur iPhone Xs Max
+Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Korjattu ongelma, jonka sovellus lopettaa välittömästi iPhone XS Max
+Muita huomautuksia: Parannettu iPhone rakentaa vakautta
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 XS Max 에서 게임이 곧바로 종료되는 문제 수정
+추가사항: 아이폰 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Rögzítette azt a problémát, hogy az alkalmazás azonnal kilép az iPhone XS max
+Kiegészítő megjegyzés: Javított iPhone építési stabilitás
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: תוקן את הבעיה שהאפליקציה מייצגת מיד ב- iPhone XS מקסימום
+הערה נוספת: משופרת iPhone לבנות יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651B016-BD4F-4BF1-9F6A-54C6959551AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E4534-F6AC-420B-A469-EAA4B9CBEC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -4034,8 +4034,8 @@
   <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F447" sqref="F447"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -13041,19 +13041,19 @@
         <v>1</v>
       </c>
       <c r="C459" t="s">
-        <v>105</v>
-      </c>
-      <c r="D459" t="s">
-        <v>220</v>
+        <v>109</v>
+      </c>
+      <c r="D459">
+        <v>31576</v>
       </c>
       <c r="E459">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F459" t="s">
         <v>96</v>
       </c>
       <c r="H459">
-        <v>800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -13065,19 +13065,19 @@
         <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D460">
-        <v>20128</v>
+        <v>94367</v>
       </c>
       <c r="E460">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F460" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H460">
-        <v>3000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -13089,19 +13089,19 @@
         <v>3</v>
       </c>
       <c r="C461" t="s">
-        <v>109</v>
-      </c>
-      <c r="D461">
-        <v>31576</v>
+        <v>105</v>
+      </c>
+      <c r="D461" t="s">
+        <v>232</v>
       </c>
       <c r="E461">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F461" t="s">
         <v>96</v>
       </c>
       <c r="H461">
-        <v>3000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -13113,19 +13113,19 @@
         <v>4</v>
       </c>
       <c r="C462" t="s">
-        <v>109</v>
-      </c>
-      <c r="D462">
-        <v>94367</v>
+        <v>105</v>
+      </c>
+      <c r="D462" t="s">
+        <v>220</v>
       </c>
       <c r="E462">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F462" t="s">
         <v>96</v>
       </c>
       <c r="H462">
-        <v>4200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -13164,16 +13164,16 @@
         <v>105</v>
       </c>
       <c r="D464" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E464">
         <v>1</v>
       </c>
       <c r="F464" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H464">
-        <v>7600</v>
+        <v>15</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
@@ -13185,19 +13185,19 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>105</v>
-      </c>
-      <c r="D465" t="s">
-        <v>232</v>
+        <v>108</v>
+      </c>
+      <c r="D465">
+        <v>20128</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F465" t="s">
         <v>96</v>
       </c>
       <c r="H465">
-        <v>700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
@@ -13245,19 +13245,19 @@
         <v>0</v>
       </c>
       <c r="C470" t="s">
-        <v>105</v>
-      </c>
-      <c r="D470" t="s">
-        <v>257</v>
+        <v>108</v>
+      </c>
+      <c r="D470">
+        <v>38090</v>
       </c>
       <c r="E470">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F470" t="s">
         <v>98</v>
       </c>
       <c r="H470">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
@@ -13293,19 +13293,19 @@
         <v>2</v>
       </c>
       <c r="C472" t="s">
-        <v>108</v>
-      </c>
-      <c r="D472">
-        <v>9503</v>
+        <v>105</v>
+      </c>
+      <c r="D472" t="s">
+        <v>241</v>
       </c>
       <c r="E472">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F472" t="s">
         <v>96</v>
       </c>
       <c r="H472">
-        <v>2700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.3">
@@ -13317,19 +13317,19 @@
         <v>3</v>
       </c>
       <c r="C473" t="s">
-        <v>108</v>
-      </c>
-      <c r="D473">
-        <v>38090</v>
+        <v>105</v>
+      </c>
+      <c r="D473" t="s">
+        <v>257</v>
       </c>
       <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473" t="s">
+        <v>98</v>
+      </c>
+      <c r="H473">
         <v>11</v>
-      </c>
-      <c r="F473" t="s">
-        <v>96</v>
-      </c>
-      <c r="H473">
-        <v>3300</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
@@ -13368,16 +13368,16 @@
         <v>105</v>
       </c>
       <c r="D475" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="E475">
         <v>1</v>
       </c>
       <c r="F475" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H475">
-        <v>96</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
@@ -13389,19 +13389,19 @@
         <v>6</v>
       </c>
       <c r="C476" t="s">
-        <v>105</v>
-      </c>
-      <c r="D476" t="s">
-        <v>241</v>
+        <v>108</v>
+      </c>
+      <c r="D476">
+        <v>9503</v>
       </c>
       <c r="E476">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F476" t="s">
         <v>96</v>
       </c>
       <c r="H476">
-        <v>600</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
@@ -13416,16 +13416,16 @@
         <v>105</v>
       </c>
       <c r="D477" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="E477">
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H477">
-        <v>7300</v>
+        <v>96</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
@@ -13476,7 +13476,7 @@
         <v>105</v>
       </c>
       <c r="D482" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E482">
         <v>1</v>
@@ -13497,19 +13497,19 @@
         <v>1</v>
       </c>
       <c r="C483" t="s">
-        <v>105</v>
-      </c>
-      <c r="D483" t="s">
-        <v>242</v>
+        <v>109</v>
+      </c>
+      <c r="D483">
+        <v>26063</v>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F483" t="s">
         <v>96</v>
       </c>
       <c r="H483">
-        <v>3400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
@@ -13521,19 +13521,19 @@
         <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>108</v>
-      </c>
-      <c r="D484">
-        <v>90489</v>
+        <v>105</v>
+      </c>
+      <c r="D484" t="s">
+        <v>242</v>
       </c>
       <c r="E484">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F484" t="s">
         <v>96</v>
       </c>
       <c r="H484">
-        <v>4200</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
@@ -13545,19 +13545,19 @@
         <v>3</v>
       </c>
       <c r="C485" t="s">
-        <v>109</v>
-      </c>
-      <c r="D485">
-        <v>26063</v>
+        <v>105</v>
+      </c>
+      <c r="D485" t="s">
+        <v>222</v>
       </c>
       <c r="E485">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F485" t="s">
         <v>96</v>
       </c>
       <c r="H485">
-        <v>3000</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
@@ -13569,19 +13569,19 @@
         <v>4</v>
       </c>
       <c r="C486" t="s">
-        <v>109</v>
-      </c>
-      <c r="D486">
-        <v>74661</v>
+        <v>105</v>
+      </c>
+      <c r="D486" t="s">
+        <v>119</v>
       </c>
       <c r="E486">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F486" t="s">
         <v>96</v>
       </c>
       <c r="H486">
-        <v>3900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
@@ -13593,19 +13593,19 @@
         <v>5</v>
       </c>
       <c r="C487" t="s">
-        <v>105</v>
-      </c>
-      <c r="D487" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="D487">
+        <v>74661</v>
       </c>
       <c r="E487">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F487" t="s">
         <v>96</v>
       </c>
       <c r="H487">
-        <v>1900</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
@@ -13641,19 +13641,19 @@
         <v>7</v>
       </c>
       <c r="C489" t="s">
-        <v>105</v>
-      </c>
-      <c r="D489" t="s">
-        <v>257</v>
+        <v>108</v>
+      </c>
+      <c r="D489">
+        <v>90489</v>
       </c>
       <c r="E489">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F489" t="s">
         <v>96</v>
       </c>
       <c r="H489">
-        <v>7900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E4534-F6AC-420B-A469-EAA4B9CBEC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D013C9-E066-4FAA-92E9-EA0CE9527195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -1397,13 +1397,13 @@
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 아이폰 빌드 안정성 강화</t>
+추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved iPhone build stability</t>
+Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1411,91 +1411,91 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين الاستقرار في بناء iPhone</t>
+ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Паляпшэнне iPhone стабільнасці зборкі</t>
+Дадатковая Заўвага: Кіраўнік 1 Уваскрэсенне Выпраўленая памылка Fix і Xperia пабудаваць павышэнне стабільнасці</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Подобрената стабилност на iPhone</t>
+Допълнителна бележка: Глава 1 Възкресение Функция за корекция и Xperia Изграждане на стабилност Подобряване</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšená stabilita sestavení iPhone</t>
+Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität</t>
+Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone</t>
+Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone</t>
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu iPhone rakentaa vakautta</t>
+Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone</t>
+Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javított iPhone építési stabilitás</t>
+Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan</t>
+Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: stabilità di costruzione di iPhone migliorata</t>
+Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: משופרת iPhone לבנות יציבות</t>
+הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות</t>
   </si>
   <si>
     <r>
@@ -1569,92 +1569,114 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意：改良されたiPhoneビルド安定性</t>
+追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化する</t>
+    </r>
   </si>
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 빌드 안정성 강화</t>
+추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Peningkatan iPhone membina kestabilan</t>
+Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: verbeterde iPhone-build stabiliteit</t>
+Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszona stabilność budowy iPhone</t>
+Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone</t>
+NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor</t>
+Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Улучшена стабильность сборки iPhone</t>
+Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšená stabilita iPhone</t>
+Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet</t>
+Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone</t>
+หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi</t>
+Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращена стабільність iPhone</t>
+Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності</t>
   </si>
   <si>
     <r>
@@ -1683,7 +1705,49 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Cải thiện sự ổn định của iPhone Build</t>
+      <t>u ý bổ sung: Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng ổn định</t>
     </r>
   </si>
   <si>
@@ -1714,7 +1778,51 @@
       </rPr>
       <t>物！_x000D_
 _x000D_
-附加说明：改进的iPhone</t>
+附加说明：第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活功能错误修</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和XPERIA</t>
     </r>
     <r>
       <rPr>
@@ -1736,15 +1844,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>建稳定性</t>
+      <t>建稳定性增强</t>
     </r>
   </si>
   <si>
-    <t>慶祝全球釋放！_x000D_
+    <r>
+      <t>慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進的iPhone構建穩定性</t>
+附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4033,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C485" sqref="C485"/>
     </sheetView>
@@ -17783,8 +17904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18142,7 +18263,7 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved iPhone build stability
+Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18156,7 +18277,7 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين الاستقرار في بناء iPhone
+ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار
 &lt;/ar&gt;
 </v>
       </c>
@@ -18167,7 +18288,7 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Паляпшэнне iPhone стабільнасці зборкі
+Дадатковая Заўвага: Кіраўнік 1 Уваскрэсенне Выпраўленая памылка Fix і Xperia пабудаваць павышэнне стабільнасці
 &lt;/be&gt;
 </v>
       </c>
@@ -18178,7 +18299,7 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Подобрената стабилност на iPhone
+Допълнителна бележка: Глава 1 Възкресение Функция за корекция и Xperia Изграждане на стабилност Подобряване
 &lt;/bg&gt;
 </v>
       </c>
@@ -18189,7 +18310,7 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšená stabilita sestavení iPhone
+Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18200,7 +18321,7 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität
+Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18211,7 +18332,7 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone
+Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18222,7 +18343,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18233,7 +18354,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18244,7 +18365,7 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18255,7 +18376,7 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu iPhone rakentaa vakautta
+Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18266,7 +18387,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
+Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18277,7 +18398,7 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
+Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -18288,7 +18409,7 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javított iPhone építési stabilitás
+Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -18299,7 +18420,7 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan
+Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement
 &lt;/id&gt;
 </v>
       </c>
@@ -18310,7 +18431,7 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: stabilità di costruzione di iPhone migliorata
+Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -18321,7 +18442,7 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: משופרת iPhone לבנות יציבות
+הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -18332,7 +18453,7 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：改良されたiPhoneビルド安定性
+追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を強化する
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -18343,7 +18464,7 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 빌드 안정성 강화
+추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -18354,7 +18475,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Peningkatan iPhone membina kestabilan
+Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
 &lt;/ms&gt;
 </v>
       </c>
@@ -18365,7 +18486,7 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Peningkatan iPhone membina kestabilan
+Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -18376,7 +18497,7 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: verbeterde iPhone-build stabiliteit
+Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -18387,7 +18508,7 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszona stabilność budowy iPhone
+Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -18398,7 +18519,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
+NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -18409,7 +18530,7 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
+NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -18420,7 +18541,7 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor
+Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității
 &lt;/ro&gt;
 </v>
       </c>
@@ -18431,7 +18552,7 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Улучшена стабильность сборки iPhone
+Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -18442,7 +18563,7 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšená stabilita iPhone
+Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia
 &lt;/sk&gt;
 </v>
       </c>
@@ -18453,7 +18574,7 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet
+Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -18464,7 +18585,7 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone
+หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง
 &lt;/th&gt;
 </v>
       </c>
@@ -18475,7 +18596,7 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi
+Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -18486,7 +18607,7 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращена стабільність iPhone
+Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності
 &lt;/uk&gt;
 </v>
       </c>
@@ -18497,7 +18618,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện sự ổn định của iPhone Build
+Lưu ý bổ sung: Chương 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng cường ổn định
 &lt;/vi&gt;
 </v>
       </c>
@@ -18508,7 +18629,7 @@
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：改进的iPhone构建稳定性
+附加说明：第1章复活功能错误修复和XPERIA构建稳定性增强
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -18519,7 +18640,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進的iPhone構建穩定性
+附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -18530,7 +18651,7 @@
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進的iPhone構建穩定性
+附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18544,252 +18665,252 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved iPhone build stability
+Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين الاستقرار في بناء iPhone
+ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Паляпшэнне iPhone стабільнасці зборкі
+Дадатковая Заўвага: Кіраўнік 1 Уваскрэсенне Выпраўленая памылка Fix і Xperia пабудаваць павышэнне стабільнасці
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна забележка: Подобрената стабилност на iPhone
+Допълнителна бележка: Глава 1 Възкресение Функция за корекция и Xperia Изграждане на стабилност Подобряване
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšená stabilita sestavení iPhone
+Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität
+Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone
+Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu iPhone rakentaa vakautta
+Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
+Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
+Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javított iPhone építési stabilitás
+Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan
+Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: stabilità di costruzione di iPhone migliorata
+Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: משופרת iPhone לבנות יציבות
+הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：改良されたiPhoneビルド安定性
+追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を強化する
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 빌드 안정성 강화
+추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Peningkatan iPhone membina kestabilan
+Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Peningkatan iPhone membina kestabilan
+Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: verbeterde iPhone-build stabiliteit
+Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszona stabilność budowy iPhone
+Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
+NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
+NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor
+Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Улучшена стабильность сборки iPhone
+Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšená stabilita iPhone
+Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet
+Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone
+หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi
+Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращена стабільність iPhone
+Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện sự ổn định của iPhone Build
+Lưu ý bổ sung: Chương 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng cường ổn định
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：改进的iPhone构建稳定性
+附加说明：第1章复活功能错误修复和XPERIA构建稳定性增强
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進的iPhone構建穩定性
+附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進的iPhone構建穩定性
+附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -18838,196 +18959,196 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Improved iPhone build stability
+Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Βελτιωμένη σταθερότητα οικοδόμησης iPhone
+Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra noot: verbeterde iPhone-build stabiliteit
+Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Verbesserte iPhone-Baustabilität
+Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Улучшена стабильность сборки iPhone
+Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Stabilitatea îmbunătățită a iPhone-urilor
+Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota tambahan: Peningkatan iPhone membina kestabilan
+Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Cải thiện sự ổn định của iPhone Build
+Lưu ý bổ sung: Chương 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng cường ổn định
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Förbättrad iPhone Byggstabilitet
+Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota Adicional: Mejora de la estabilidad de la construcción de iPhone
+Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Dodatočná poznámka: Vylepšená stabilita iPhone
+Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: تحسين الاستقرار في بناء iPhone
+ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова нотатка: покращена стабільність iPhone
+Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: stabilità di costruzione di iPhone migliorata
+Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Stabilitas Pembuatan iPhone yang Ditingkatkan
+Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意：改良されたiPhoneビルド安定性
+追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を強化する
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
 每天登录才能收到礼物！_x000D_
 _x000D_
-附加说明：改进的iPhone构建稳定性
+附加说明：第1章复活功能错误修复和XPERIA构建稳定性增强
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮物！_x000D_
 _x000D_
-附加說明：改進的iPhone構建穩定性
+附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další poznámka: Vylepšená stabilita sestavení iPhone
+Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: ปรับปรุงความเสถียรสร้าง iPhone
+หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek Not: Geliştirilmiş iPhone oluşturma stabilitesi
+Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Melhoria da estabilidade da construção do iPhone
+NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Uwaga dodatkowa: Ulepszona stabilność budowy iPhone
+Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Stabilité améliorée de la construction de l'iPhone
+Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Parannettu iPhone rakentaa vakautta
+Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 아이폰 빌드 안정성 강화
+추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: Javított iPhone építési stabilitás
+Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: משופרת iPhone לבנות יציבות
+הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D013C9-E066-4FAA-92E9-EA0CE9527195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD913A60-F43F-4E3D-A67C-AB3DA398A95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="361">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1866,6 +1866,30 @@
       </rPr>
       <t>強</t>
     </r>
+  </si>
+  <si>
+    <t>BossRewardTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvasionTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨확장에 따른 6난이도까지 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨확장에 따른 7난이도까지 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨확장에 따른 8난이도까지 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2285,11 +2309,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAA502-5474-4378-9590-CB2A58DB8512}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2402,16 +2426,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="D8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2422,139 +2446,139 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
       <c r="D11">
-        <v>1.9990000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>1.9990000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="D17">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2565,156 +2589,156 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2.9990000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26">
-        <v>3.9990000000000001</v>
-      </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>3.9990000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,94 +2749,94 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="D31">
-        <v>4.2</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="D32">
-        <v>4.5</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2823,41 +2847,38 @@
         <v>14</v>
       </c>
       <c r="D37">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>5.9989999999999997</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2868,10 +2889,10 @@
         <v>63</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2882,10 +2903,10 @@
         <v>55</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2896,38 +2917,38 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>6.2</v>
-      </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2938,80 +2959,83 @@
         <v>14</v>
       </c>
       <c r="D45">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>5.9989999999999997</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>7.5</v>
-      </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3022,24 +3046,24 @@
         <v>14</v>
       </c>
       <c r="D51">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3050,10 +3074,10 @@
         <v>14</v>
       </c>
       <c r="D53">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3064,274 +3088,265 @@
         <v>63</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>8.9990000000000006</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>8.9990000000000006</v>
-      </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>9.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D61">
-        <v>9.9990000000000006</v>
+        <v>7.8</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>10.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
       <c r="D64">
-        <v>10.999000000000001</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>8.5</v>
+      </c>
+      <c r="E65" t="s">
         <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>10.999000000000001</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>11.5</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="D68">
-        <v>11.6</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>360</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="D71">
-        <v>12.999000000000001</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3342,24 +3357,27 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D74">
-        <v>13.6</v>
+        <v>9.9990000000000006</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3370,57 +3388,344 @@
         <v>63</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="D76">
-        <v>14.2</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D77">
-        <v>14.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78">
+        <v>10.999000000000001</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>10.999000000000001</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80">
+        <v>10.999000000000001</v>
+      </c>
+      <c r="E80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>360</v>
+      </c>
+      <c r="D81">
+        <v>10.999000000000001</v>
+      </c>
+      <c r="E81" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>11.5</v>
+      </c>
+      <c r="E84" t="s">
         <v>5</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
         <v>14</v>
       </c>
-      <c r="D78">
+      <c r="D85">
+        <v>11.6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>355</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>12.2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89">
+        <v>12.999000000000001</v>
+      </c>
+      <c r="E89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>13.5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>13.6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>14.2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>14.5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98">
         <v>14.6</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E98" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E78">
-    <sortCondition ref="D2:D78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E98">
+    <sortCondition ref="D2:D98"/>
+    <sortCondition ref="A2:A98"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17904,7 +18209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD913A60-F43F-4E3D-A67C-AB3DA398A95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CD3CC-B528-4DEE-BE57-2731503F1D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="364">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1890,6 +1890,15 @@
   <si>
     <t>MapTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1108</t>
+  </si>
+  <si>
+    <t>Equip3401</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAA502-5474-4378-9590-CB2A58DB8512}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -4459,9 +4468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C485" sqref="C485"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -14175,19 +14184,19 @@
         <v>2</v>
       </c>
       <c r="C496" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D496">
-        <v>36875</v>
+        <v>25208</v>
       </c>
       <c r="E496">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F496" t="s">
         <v>96</v>
       </c>
       <c r="H496">
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -14199,19 +14208,16 @@
         <v>3</v>
       </c>
       <c r="C497" t="s">
-        <v>109</v>
-      </c>
-      <c r="D497">
-        <v>25208</v>
+        <v>112</v>
       </c>
       <c r="E497">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F497" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H497">
-        <v>3000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
@@ -14271,19 +14277,19 @@
         <v>6</v>
       </c>
       <c r="C500" t="s">
-        <v>105</v>
-      </c>
-      <c r="D500" t="s">
-        <v>245</v>
+        <v>108</v>
+      </c>
+      <c r="D500">
+        <v>36875</v>
       </c>
       <c r="E500">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F500" t="s">
         <v>96</v>
       </c>
       <c r="H500">
-        <v>2600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
@@ -14318,6 +14324,24 @@
       <c r="B502">
         <v>8</v>
       </c>
+      <c r="C502" t="s">
+        <v>308</v>
+      </c>
+      <c r="D502" t="s">
+        <v>361</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502" t="s">
+        <v>98</v>
+      </c>
+      <c r="G502">
+        <v>199</v>
+      </c>
+      <c r="H502">
+        <v>139</v>
+      </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
@@ -14327,6 +14351,24 @@
       <c r="B503">
         <v>9</v>
       </c>
+      <c r="C503" t="s">
+        <v>264</v>
+      </c>
+      <c r="D503" t="s">
+        <v>361</v>
+      </c>
+      <c r="E503">
+        <v>75</v>
+      </c>
+      <c r="F503" t="s">
+        <v>98</v>
+      </c>
+      <c r="G503">
+        <v>172</v>
+      </c>
+      <c r="H503">
+        <v>69</v>
+      </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
@@ -14355,16 +14397,19 @@
         <v>0</v>
       </c>
       <c r="C506" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="D506" t="s">
+        <v>233</v>
       </c>
       <c r="E506">
         <v>1</v>
       </c>
       <c r="F506" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H506">
-        <v>29</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
@@ -14376,19 +14421,19 @@
         <v>1</v>
       </c>
       <c r="C507" t="s">
-        <v>105</v>
-      </c>
-      <c r="D507" t="s">
-        <v>219</v>
+        <v>108</v>
+      </c>
+      <c r="D507">
+        <v>18914</v>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F507" t="s">
         <v>98</v>
       </c>
       <c r="H507">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
@@ -14400,19 +14445,19 @@
         <v>2</v>
       </c>
       <c r="C508" t="s">
-        <v>108</v>
-      </c>
-      <c r="D508">
-        <v>18914</v>
+        <v>105</v>
+      </c>
+      <c r="D508" t="s">
+        <v>106</v>
       </c>
       <c r="E508">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F508" t="s">
         <v>96</v>
       </c>
       <c r="H508">
-        <v>3000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -14424,19 +14469,22 @@
         <v>3</v>
       </c>
       <c r="C509" t="s">
-        <v>109</v>
-      </c>
-      <c r="D509">
-        <v>18862</v>
+        <v>105</v>
+      </c>
+      <c r="D509" t="s">
+        <v>362</v>
       </c>
       <c r="E509">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F509" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="G509">
+        <v>179</v>
       </c>
       <c r="H509">
-        <v>3000</v>
+        <v>149</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -14472,19 +14520,19 @@
         <v>5</v>
       </c>
       <c r="C511" t="s">
-        <v>109</v>
-      </c>
-      <c r="D511">
-        <v>60496</v>
+        <v>105</v>
+      </c>
+      <c r="D511" t="s">
+        <v>219</v>
       </c>
       <c r="E511">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F511" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H511">
-        <v>3600</v>
+        <v>16</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
@@ -14499,7 +14547,7 @@
         <v>105</v>
       </c>
       <c r="D512" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="E512">
         <v>1</v>
@@ -14520,19 +14568,19 @@
         <v>7</v>
       </c>
       <c r="C513" t="s">
-        <v>105</v>
-      </c>
-      <c r="D513" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="D513">
+        <v>60496</v>
       </c>
       <c r="E513">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F513" t="s">
         <v>96</v>
       </c>
       <c r="H513">
-        <v>700</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
@@ -14543,6 +14591,24 @@
       <c r="B514">
         <v>8</v>
       </c>
+      <c r="C514" t="s">
+        <v>308</v>
+      </c>
+      <c r="D514" t="s">
+        <v>363</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514" t="s">
+        <v>98</v>
+      </c>
+      <c r="G514">
+        <v>229</v>
+      </c>
+      <c r="H514">
+        <v>179</v>
+      </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
@@ -14551,6 +14617,24 @@
       </c>
       <c r="B515">
         <v>9</v>
+      </c>
+      <c r="C515" t="s">
+        <v>264</v>
+      </c>
+      <c r="D515" t="s">
+        <v>363</v>
+      </c>
+      <c r="E515">
+        <v>75</v>
+      </c>
+      <c r="F515" t="s">
+        <v>98</v>
+      </c>
+      <c r="G515">
+        <v>172</v>
+      </c>
+      <c r="H515">
+        <v>79</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CD3CC-B528-4DEE-BE57-2731503F1D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317DD4A-BBB3-494D-8AF2-DC5270D0AE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="368">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1899,6 +1899,18 @@
   </si>
   <si>
     <t>Actor2128</t>
+  </si>
+  <si>
+    <t>Actor0125</t>
+  </si>
+  <si>
+    <t>지정 캐릭터 LBP3</t>
+  </si>
+  <si>
+    <t>Actor3117</t>
+  </si>
+  <si>
+    <t>Equip0402</t>
   </si>
 </sst>
 </file>
@@ -3747,7 +3759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4469,8 +4481,8 @@
   <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C503" sqref="C503"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -14664,16 +14676,19 @@
         <v>0</v>
       </c>
       <c r="C518" t="s">
-        <v>230</v>
+        <v>108</v>
+      </c>
+      <c r="D518">
+        <v>52969</v>
       </c>
       <c r="E518">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H518">
-        <v>149</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
@@ -14709,19 +14724,19 @@
         <v>2</v>
       </c>
       <c r="C520" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D520">
         <v>19697</v>
       </c>
       <c r="E520">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F520" t="s">
         <v>96</v>
       </c>
       <c r="H520">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
@@ -14733,19 +14748,19 @@
         <v>3</v>
       </c>
       <c r="C521" t="s">
-        <v>109</v>
-      </c>
-      <c r="D521">
-        <v>52969</v>
+        <v>105</v>
+      </c>
+      <c r="D521" t="s">
+        <v>311</v>
       </c>
       <c r="E521">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F521" t="s">
         <v>96</v>
       </c>
       <c r="H521">
-        <v>3600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.3">
@@ -14766,10 +14781,10 @@
         <v>13</v>
       </c>
       <c r="F522" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H522">
-        <v>3900</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.3">
@@ -14781,19 +14796,19 @@
         <v>5</v>
       </c>
       <c r="C523" t="s">
-        <v>108</v>
-      </c>
-      <c r="D523">
-        <v>67379</v>
+        <v>105</v>
+      </c>
+      <c r="D523" t="s">
+        <v>229</v>
       </c>
       <c r="E523">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F523" t="s">
         <v>96</v>
       </c>
       <c r="H523">
-        <v>3900</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
@@ -14832,7 +14847,7 @@
         <v>105</v>
       </c>
       <c r="D525" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E525">
         <v>1</v>
@@ -14870,6 +14885,24 @@
       <c r="B528">
         <v>10</v>
       </c>
+      <c r="C528" t="s">
+        <v>308</v>
+      </c>
+      <c r="D528" t="s">
+        <v>364</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528" t="s">
+        <v>98</v>
+      </c>
+      <c r="G528">
+        <v>219</v>
+      </c>
+      <c r="H528">
+        <v>159</v>
+      </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
@@ -14879,6 +14912,24 @@
       <c r="B529">
         <v>11</v>
       </c>
+      <c r="C529" t="s">
+        <v>264</v>
+      </c>
+      <c r="D529" t="s">
+        <v>364</v>
+      </c>
+      <c r="E529">
+        <v>100</v>
+      </c>
+      <c r="F529" t="s">
+        <v>98</v>
+      </c>
+      <c r="G529">
+        <v>252</v>
+      </c>
+      <c r="H529">
+        <v>89</v>
+      </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
@@ -14937,19 +14988,19 @@
         <v>2</v>
       </c>
       <c r="C532" t="s">
-        <v>108</v>
-      </c>
-      <c r="D532">
-        <v>12663</v>
+        <v>105</v>
+      </c>
+      <c r="D532" t="s">
+        <v>247</v>
       </c>
       <c r="E532">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F532" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H532">
-        <v>2700</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
@@ -14961,19 +15012,22 @@
         <v>3</v>
       </c>
       <c r="C533" t="s">
-        <v>108</v>
-      </c>
-      <c r="D533">
-        <v>29794</v>
+        <v>105</v>
+      </c>
+      <c r="D533" t="s">
+        <v>367</v>
       </c>
       <c r="E533">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F533" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="G533">
+        <v>189</v>
       </c>
       <c r="H533">
-        <v>3000</v>
+        <v>99</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
@@ -14985,19 +15039,19 @@
         <v>4</v>
       </c>
       <c r="C534" t="s">
-        <v>109</v>
-      </c>
-      <c r="D534">
-        <v>75071</v>
+        <v>105</v>
+      </c>
+      <c r="D534" t="s">
+        <v>303</v>
       </c>
       <c r="E534">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F534" t="s">
         <v>96</v>
       </c>
       <c r="H534">
-        <v>3900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.3">
@@ -15009,19 +15063,19 @@
         <v>5</v>
       </c>
       <c r="C535" t="s">
-        <v>105</v>
-      </c>
-      <c r="D535" t="s">
-        <v>235</v>
+        <v>108</v>
+      </c>
+      <c r="D535">
+        <v>12663</v>
       </c>
       <c r="E535">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F535" t="s">
         <v>96</v>
       </c>
       <c r="H535">
-        <v>7100</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
@@ -15033,19 +15087,19 @@
         <v>6</v>
       </c>
       <c r="C536" t="s">
-        <v>105</v>
-      </c>
-      <c r="D536" t="s">
-        <v>303</v>
+        <v>108</v>
+      </c>
+      <c r="D536">
+        <v>29794</v>
       </c>
       <c r="E536">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F536" t="s">
         <v>96</v>
       </c>
       <c r="H536">
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.3">
@@ -15057,19 +15111,19 @@
         <v>7</v>
       </c>
       <c r="C537" t="s">
-        <v>105</v>
-      </c>
-      <c r="D537" t="s">
-        <v>239</v>
+        <v>109</v>
+      </c>
+      <c r="D537">
+        <v>75071</v>
       </c>
       <c r="E537">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F537" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H537">
-        <v>10</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
@@ -15098,6 +15152,24 @@
       <c r="B540">
         <v>10</v>
       </c>
+      <c r="C540" t="s">
+        <v>308</v>
+      </c>
+      <c r="D540" t="s">
+        <v>364</v>
+      </c>
+      <c r="E540">
+        <v>1</v>
+      </c>
+      <c r="F540" t="s">
+        <v>98</v>
+      </c>
+      <c r="G540">
+        <v>219</v>
+      </c>
+      <c r="H540">
+        <v>159</v>
+      </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
@@ -15107,6 +15179,24 @@
       <c r="B541">
         <v>11</v>
       </c>
+      <c r="C541" t="s">
+        <v>264</v>
+      </c>
+      <c r="D541" t="s">
+        <v>364</v>
+      </c>
+      <c r="E541">
+        <v>100</v>
+      </c>
+      <c r="F541" t="s">
+        <v>98</v>
+      </c>
+      <c r="G541">
+        <v>252</v>
+      </c>
+      <c r="H541">
+        <v>89</v>
+      </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
@@ -15117,16 +15207,19 @@
         <v>0</v>
       </c>
       <c r="C542" t="s">
-        <v>230</v>
+        <v>108</v>
+      </c>
+      <c r="D542">
+        <v>84704</v>
       </c>
       <c r="E542">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F542" t="s">
         <v>98</v>
       </c>
       <c r="H542">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.3">
@@ -15141,16 +15234,16 @@
         <v>105</v>
       </c>
       <c r="D543" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="E543">
         <v>1</v>
       </c>
       <c r="F543" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H543">
-        <v>11</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
@@ -15162,19 +15255,19 @@
         <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D544">
-        <v>80085</v>
+        <v>33450</v>
       </c>
       <c r="E544">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F544" t="s">
         <v>96</v>
       </c>
       <c r="H544">
-        <v>3900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.3">
@@ -15186,19 +15279,19 @@
         <v>3</v>
       </c>
       <c r="C545" t="s">
-        <v>109</v>
-      </c>
-      <c r="D545">
-        <v>38810</v>
+        <v>105</v>
+      </c>
+      <c r="D545" t="s">
+        <v>226</v>
       </c>
       <c r="E545">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F545" t="s">
         <v>96</v>
       </c>
       <c r="H545">
-        <v>3300</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.3">
@@ -15213,16 +15306,16 @@
         <v>109</v>
       </c>
       <c r="D546">
-        <v>79684</v>
+        <v>20169</v>
       </c>
       <c r="E546">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F546" t="s">
         <v>96</v>
       </c>
       <c r="H546">
-        <v>3900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.3">
@@ -15246,7 +15339,7 @@
         <v>96</v>
       </c>
       <c r="H547">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
@@ -15258,19 +15351,19 @@
         <v>6</v>
       </c>
       <c r="C548" t="s">
-        <v>105</v>
-      </c>
-      <c r="D548" t="s">
-        <v>299</v>
+        <v>108</v>
+      </c>
+      <c r="D548">
+        <v>84704</v>
       </c>
       <c r="E548">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F548" t="s">
         <v>96</v>
       </c>
       <c r="H548">
-        <v>22400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.3">
@@ -15285,7 +15378,7 @@
         <v>105</v>
       </c>
       <c r="D549" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E549">
         <v>1</v>
@@ -15294,7 +15387,7 @@
         <v>96</v>
       </c>
       <c r="H549">
-        <v>7800</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.3">
@@ -15305,6 +15398,24 @@
       <c r="B550">
         <v>8</v>
       </c>
+      <c r="C550" t="s">
+        <v>365</v>
+      </c>
+      <c r="D550" t="s">
+        <v>265</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550" t="s">
+        <v>98</v>
+      </c>
+      <c r="G550">
+        <v>100</v>
+      </c>
+      <c r="H550">
+        <v>49</v>
+      </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
@@ -15314,6 +15425,24 @@
       <c r="B551">
         <v>9</v>
       </c>
+      <c r="C551" t="s">
+        <v>365</v>
+      </c>
+      <c r="D551" t="s">
+        <v>304</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+      <c r="F551" t="s">
+        <v>98</v>
+      </c>
+      <c r="G551">
+        <v>100</v>
+      </c>
+      <c r="H551">
+        <v>49</v>
+      </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
@@ -15345,7 +15474,7 @@
         <v>105</v>
       </c>
       <c r="D554" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E554">
         <v>1</v>
@@ -15354,7 +15483,7 @@
         <v>96</v>
       </c>
       <c r="H554">
-        <v>7700</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.3">
@@ -15366,19 +15495,19 @@
         <v>1</v>
       </c>
       <c r="C555" t="s">
-        <v>105</v>
-      </c>
-      <c r="D555" t="s">
-        <v>263</v>
+        <v>109</v>
+      </c>
+      <c r="D555">
+        <v>79684</v>
       </c>
       <c r="E555">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F555" t="s">
         <v>96</v>
       </c>
       <c r="H555">
-        <v>7400</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.3">
@@ -15390,19 +15519,19 @@
         <v>2</v>
       </c>
       <c r="C556" t="s">
-        <v>108</v>
-      </c>
-      <c r="D556">
-        <v>33450</v>
+        <v>105</v>
+      </c>
+      <c r="D556" t="s">
+        <v>120</v>
       </c>
       <c r="E556">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F556" t="s">
         <v>96</v>
       </c>
       <c r="H556">
-        <v>3300</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.3">
@@ -15417,16 +15546,16 @@
         <v>109</v>
       </c>
       <c r="D557">
-        <v>84704</v>
+        <v>38810</v>
       </c>
       <c r="E557">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F557" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H557">
-        <v>4200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
@@ -15438,19 +15567,19 @@
         <v>4</v>
       </c>
       <c r="C558" t="s">
-        <v>109</v>
-      </c>
-      <c r="D558">
-        <v>20169</v>
+        <v>105</v>
+      </c>
+      <c r="D558" t="s">
+        <v>235</v>
       </c>
       <c r="E558">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F558" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H558">
-        <v>3000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
@@ -15462,19 +15591,19 @@
         <v>5</v>
       </c>
       <c r="C559" t="s">
-        <v>105</v>
-      </c>
-      <c r="D559" t="s">
-        <v>316</v>
+        <v>108</v>
+      </c>
+      <c r="D559">
+        <v>80085</v>
       </c>
       <c r="E559">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F559" t="s">
         <v>96</v>
       </c>
       <c r="H559">
-        <v>3300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.3">
@@ -15489,7 +15618,7 @@
         <v>105</v>
       </c>
       <c r="D560" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="E560">
         <v>1</v>
@@ -15498,7 +15627,7 @@
         <v>96</v>
       </c>
       <c r="H560">
-        <v>7600</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.3">
@@ -15513,7 +15642,7 @@
         <v>105</v>
       </c>
       <c r="D561" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E561">
         <v>1</v>
@@ -15522,7 +15651,7 @@
         <v>96</v>
       </c>
       <c r="H561">
-        <v>5100</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.3">
@@ -15551,6 +15680,24 @@
       <c r="B564">
         <v>10</v>
       </c>
+      <c r="C564" t="s">
+        <v>308</v>
+      </c>
+      <c r="D564" t="s">
+        <v>366</v>
+      </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564" t="s">
+        <v>98</v>
+      </c>
+      <c r="G564">
+        <v>219</v>
+      </c>
+      <c r="H564">
+        <v>169</v>
+      </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
@@ -15560,6 +15707,24 @@
       <c r="B565">
         <v>11</v>
       </c>
+      <c r="C565" t="s">
+        <v>264</v>
+      </c>
+      <c r="D565" t="s">
+        <v>366</v>
+      </c>
+      <c r="E565">
+        <v>80</v>
+      </c>
+      <c r="F565" t="s">
+        <v>98</v>
+      </c>
+      <c r="G565">
+        <v>188</v>
+      </c>
+      <c r="H565">
+        <v>79</v>
+      </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
@@ -15573,7 +15738,7 @@
         <v>105</v>
       </c>
       <c r="D566" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="E566">
         <v>1</v>
@@ -15627,10 +15792,10 @@
         <v>9</v>
       </c>
       <c r="F568" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H568">
-        <v>2700</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.3">
@@ -15642,19 +15807,22 @@
         <v>3</v>
       </c>
       <c r="C569" t="s">
-        <v>108</v>
-      </c>
-      <c r="D569">
-        <v>85863</v>
+        <v>105</v>
+      </c>
+      <c r="D569" t="s">
+        <v>309</v>
       </c>
       <c r="E569">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F569" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="G569">
+        <v>169</v>
       </c>
       <c r="H569">
-        <v>4200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.3">
@@ -15693,7 +15861,7 @@
         <v>105</v>
       </c>
       <c r="D571" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E571">
         <v>1</v>
@@ -15702,7 +15870,7 @@
         <v>96</v>
       </c>
       <c r="H571">
-        <v>7900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.3">
@@ -15714,19 +15882,19 @@
         <v>6</v>
       </c>
       <c r="C572" t="s">
-        <v>105</v>
-      </c>
-      <c r="D572" t="s">
-        <v>252</v>
+        <v>108</v>
+      </c>
+      <c r="D572">
+        <v>85863</v>
       </c>
       <c r="E572">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F572" t="s">
         <v>96</v>
       </c>
       <c r="H572">
-        <v>2100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.3">
@@ -15741,7 +15909,7 @@
         <v>105</v>
       </c>
       <c r="D573" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E573">
         <v>1</v>
@@ -15750,7 +15918,7 @@
         <v>96</v>
       </c>
       <c r="H573">
-        <v>29300</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.3">
@@ -15779,6 +15947,24 @@
       <c r="B576">
         <v>10</v>
       </c>
+      <c r="C576" t="s">
+        <v>308</v>
+      </c>
+      <c r="D576" t="s">
+        <v>366</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576" t="s">
+        <v>98</v>
+      </c>
+      <c r="G576">
+        <v>219</v>
+      </c>
+      <c r="H576">
+        <v>169</v>
+      </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
@@ -15787,6 +15973,24 @@
       </c>
       <c r="B577">
         <v>11</v>
+      </c>
+      <c r="C577" t="s">
+        <v>264</v>
+      </c>
+      <c r="D577" t="s">
+        <v>366</v>
+      </c>
+      <c r="E577">
+        <v>80</v>
+      </c>
+      <c r="F577" t="s">
+        <v>98</v>
+      </c>
+      <c r="G577">
+        <v>188</v>
+      </c>
+      <c r="H577">
+        <v>79</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317DD4A-BBB3-494D-8AF2-DC5270D0AE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A7C0B-3CF2-4865-B53E-DF072562D630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
     <sheet name="무료상점기록" sheetId="3" r:id="rId2"/>
     <sheet name="상점리스트기록" sheetId="2" r:id="rId3"/>
-    <sheet name="출시노트" sheetId="4" r:id="rId4"/>
+    <sheet name="오늘의체험기록" sheetId="5" r:id="rId4"/>
+    <sheet name="출시노트" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -300,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="405">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,16 +1395,63 @@
     <t>Actor1109</t>
   </si>
   <si>
+    <t>BossRewardTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvasionTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨확장에 따른 6난이도까지 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨확장에 따른 7난이도까지 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨확장에 따른 8난이도까지 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1108</t>
+  </si>
+  <si>
+    <t>Equip3401</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
+  </si>
+  <si>
+    <t>Actor0125</t>
+  </si>
+  <si>
+    <t>지정 캐릭터 LBP3</t>
+  </si>
+  <si>
+    <t>Actor3117</t>
+  </si>
+  <si>
+    <t>Equip0402</t>
+  </si>
+  <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화</t>
+추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상
+추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement</t>
+Additional Notes: Fixed some account access issues and improved user convenience
+Additional Notes 2: Modified boss HP question mark things and increased mana drop rate in Annihilation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1411,91 +1459,104 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار</t>
+ملاحظات إضافية: إصلاح بعض مشكلات الوصول إلى الحساب وتحسين راحة المستخدم_x000D_
+ملاحظات إضافية 2: مع تعديل مدرب HP سؤال علامة الأشياء وزيادة معدل انخفاض مانا في الإبادة</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Кіраўнік 1 Уваскрэсенне Выпраўленая памылка Fix і Xperia пабудаваць павышэнне стабільнасці</t>
+Дадатковыя нататкі: Фіксаваны некаторыя пытанні доступу да рахунку і палепшылася зручнасць карыстальніка_x000D_
+Дадатковыя Заўвагі 2: Мадыфікаваны бос HP Пытанні Марк рэчы і павелічэнне хуткасці падзення маны ў Annihilation</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: Глава 1 Възкресение Функция за корекция и Xperia Изграждане на стабилност Подобряване</t>
+Допълнителни бележки: фиксирани някои проблеми със сметката и подобрено удобство на потребителя_x000D_
+Допълнителни бележки 2: модифициран BOSS HP въпросник маркирайте нещата и повишена скорост на падане на мана в унищожението</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability</t>
+DALŠÍ POZNÁMKY: Opraveno nějaké otázky přístupu k účtu a vylepšené uživatelské pohodlí_x000D_
+Další poznámky 2: Modifikovaný šéf HP otazník značky a zvýšené MANA Drop sazba v zničení</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung</t>
+Zusätzliche Anmerkungen: Einige Access-Zugangsprobleme und verbesserter Benutzerkomfort_x000D_
+Zusätzliche Anmerkungen 2: Modified Boss HP Fragezeichen Dinge und erhöhte Mana-Drop-Rate in Vernichtung</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας</t>
+Πρόσθετες σημειώσεις: Σταθερά ορισμένα θέματα πρόσβασης λογαριασμού και βελτιωμένη ευκολία των χρηστών_x000D_
+Πρόσθετες σημειώσεις 2: Τροποποιημένο αφεντικό HP ερωτηματικό και αυξημένο ρυθμό πτώσης Mana στην εξόντωση</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad</t>
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen</t>
+Muita huomautuksia: Kiinteät tilin käyttöoikeudet ja parannettu käyttäjän mukavuus_x000D_
+Muita muistiinpanoja 2: Modified Boss HP: n kysymys merkitsee asioita ja lisääntynyt Mana pudotusnopeus tuhoamisessa</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration</t>
+Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
+NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását</t>
+Kiegészítő megjegyzések: Rögzített néhány fiók hozzáférési problémát és javította a felhasználó kényelmét_x000D_
+Kiegészítő megjegyzések 2: Módosított BOSS HP kérdőjel A dolgok és a megnövekedett mana csepp arány megsemmisítésben</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement</t>
+Catatan Tambahan: Memperbaiki beberapa masalah akses akun dan meningkatkan kenyamanan pengguna_x000D_
+Catatan Tambahan 2: Bos yang Dimodifikasi HP Mark Pertanyaan dan Peningkatan Tingkat Jatuhkan Mana dalam Penghancuran</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement</t>
+Note aggiuntive: risolvere alcuni problemi di accesso all'account e una migliore convenienza degli utenti_x000D_
+Note aggiuntive 2: Boss Modificato HP Punto interrogativo Cose e aumento del tasso di goccia di mana nell'annientamento</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות</t>
+הערות נוספות: תוקנו בעיות גישה לחשבון ונוחות משתמש משופרת_x000D_
+הערות נוספות 2: שונה הבוס HP שאלה סימן דברים והגדילה את שיעור ירידה של מאנה בהשמדה</t>
   </si>
   <si>
     <r>
@@ -1569,7 +1630,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を</t>
+追加の注意事項：アカウントアクセスの問題とユ</t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1641,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>強</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -1591,92 +1652,149 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>化する</t>
+      <t>ザ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利便性の向上を修正しました_x000D_
+追加の注意事項2：改良ボスHP疑問事項と消滅におけるマナドロップ率の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>増</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加</t>
+    </r>
   </si>
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화</t>
+추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상_x000D_
+추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan</t>
+Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
+Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement</t>
+Aanvullende opmerkingen: Sommige accounttoegangsproblemen opgelost en verbeterde gebruikersgemak_x000D_
+Extra opmerkingen 2: gemodificeerde baas HP Vraagteken Dingen en verhoogd Mana Drop-tarief in Annihilation</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement</t>
+Dodatkowe uwagi: Naprawiono niektóre problemy z dostępem do konta i ulepszoną wygodę użytkownika_x000D_
+Dodatkowe uwagi 2: Zmodyfikowany BOSS HP Zaznaczanie kwestii zapytania i zwiększenie szybkości kropli many w unicestwieniu</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement</t>
+Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
+Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității</t>
+Note suplimentare: fixați unele aspecte de acces la cont și o confort îmbunătățită a utilizatorului_x000D_
+Note suplimentare 2: BOSS modificat HP Întrebare Mark lucrurile și creșterea ratei de scădere a MANA în anihilare</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности</t>
+Дополнительные примечания: Исправлена ​​некоторые проблемы доступа к учетным ресурсам и улучшены удобства пользователя_x000D_
+Дополнительные примечания 2: модифицированный босс HP-вопросительный знак маркирует вещи и повышенную скорость падения MANA в уничтожении</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia</t>
+Ďalšie poznámky: Opravené niektoré otázky prístupu k účtu a vylepšené užívateľské pohodlie_x000D_
+Dodatočné poznámky 2: Modifikovaný šéf HP Otázka Označte veci a zvýšili rýchlosť DROPUMENTU v zničení</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement</t>
+Ytterligare anteckningar: Fixat några kontoåtkomstfrågor och förbättrad användarvänlighet_x000D_
+Ytterligare anmärkningar 2: Modifierad chef HP Question Mark Saker och ökad Mana Drop Rate i förintelse</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง</t>
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาการเข้าถึงบัญชีบางอย่างและปรับปรุงความสะดวกของผู้ใช้_x000D_
+หมายเหตุเพิ่มเติม 2: บอสตอบคำถาม HP ทำเครื่องหมายสิ่งต่าง ๆ และเพิ่มอัตราการดรอปมานาในการทำลายล้าง</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme</t>
+Ek notlar: Bazı hesap erişim sorunları ve geliştirilmiş kullanıcı rahatlığı düzeltildi_x000D_
+Ek Notlar 2: Değiştirilmiş Boss HP Soru İşaretleri İşleri ve Artan Mana Bırakma Oranını Annihilasyonda</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності</t>
+Додаткові примітки: виправлені проблеми з доступом до облікового запису та покращена зручність користувача_x000D_
+Додаткові примітки 2: Модифікований BOSS HP Питання Позначити речі та збільшення швидкості падіння мани при знищенні</t>
   </si>
   <si>
     <r>
@@ -1684,7 +1802,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-L</t>
+Ghi chú bổ sung: Đã sửa một số vấn đề truy cập tài khoản và cải thiện sự tiện lợi của ng</t>
     </r>
     <r>
       <rPr>
@@ -1705,49 +1823,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u ý bổ sung: Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ng 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ờng ổn định</t>
+      <t>ời dùng_x000D_
+Ghi chú bổ sung 2: Boss Boss Modified HP Dấu hỏi mọi thứ và tăng tỷ lệ thả Mana trong sự hủy diệt</t>
     </r>
   </si>
   <si>
@@ -1776,9 +1853,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>物！_x000D_
-_x000D_
-附加说明：第1章</t>
+      <t>品！_x000D_
+_x000D_
+附加说明：修</t>
     </r>
     <r>
       <rPr>
@@ -1800,7 +1877,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>活功能错误修</t>
+      <t>了一些帐户访问问题</t>
     </r>
     <r>
       <rPr>
@@ -1808,10 +1885,10 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>复</t>
+      <t>并</t>
     </r>
     <r>
       <rPr>
@@ -1822,7 +1899,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>和XPERIA</t>
+      <t>提高了用户便利性_x000D_
+附加说明2：修改的BOSS HP问</t>
     </r>
     <r>
       <rPr>
@@ -1830,10 +1908,10 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>构</t>
+      <t>号内</t>
     </r>
     <r>
       <rPr>
@@ -1844,16 +1922,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>建稳定性增强</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>慶祝全球釋放！_x000D_
-_x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增</t>
+      <t>容</t>
     </r>
     <r>
       <rPr>
@@ -1864,53 +1933,138 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>強</t>
+      <t>并</t>
     </r>
-  </si>
-  <si>
-    <t>BossRewardTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvasionTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨확장에 따른 6난이도까지 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨확장에 따른 7난이도까지 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨확장에 따른 8난이도까지 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor1108</t>
-  </si>
-  <si>
-    <t>Equip3401</t>
-  </si>
-  <si>
-    <t>Actor2128</t>
-  </si>
-  <si>
-    <t>Actor0125</t>
-  </si>
-  <si>
-    <t>지정 캐릭터 LBP3</t>
-  </si>
-  <si>
-    <t>Actor3117</t>
-  </si>
-  <si>
-    <t>Equip0402</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加了湮灭中的法力下降率</t>
+    </r>
+  </si>
+  <si>
+    <t>慶祝全球釋放！_x000D_
+_x000D_
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
+附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率</t>
+  </si>
+  <si>
+    <t>trp</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>wgGr0</t>
+  </si>
+  <si>
+    <t>wgGr1</t>
+  </si>
+  <si>
+    <t>wgGr2</t>
+  </si>
+  <si>
+    <t>wgGr3</t>
+  </si>
+  <si>
+    <t>wgLk</t>
+  </si>
+  <si>
+    <t>Actor1216m</t>
+  </si>
+  <si>
+    <t>Actor3117m</t>
+  </si>
+  <si>
+    <t>Actor0240m</t>
+  </si>
+  <si>
+    <t>Actor0024m</t>
+  </si>
+  <si>
+    <t>Actor3114m</t>
+  </si>
+  <si>
+    <t>Actor0007m</t>
+  </si>
+  <si>
+    <t>Actor2128m</t>
+  </si>
+  <si>
+    <t>Actor0125m</t>
+  </si>
+  <si>
+    <t>Actor1141m</t>
+  </si>
+  <si>
+    <t>Actor3022m</t>
+  </si>
+  <si>
+    <t>Actor0104m</t>
+  </si>
+  <si>
+    <t>Actor1039m</t>
+  </si>
+  <si>
+    <t>Actor1108m</t>
+  </si>
+  <si>
+    <t>Actor1005m</t>
+  </si>
+  <si>
+    <t>Actor0201m</t>
+  </si>
+  <si>
+    <t>Actor1029m</t>
+  </si>
+  <si>
+    <t>Actor3019m</t>
+  </si>
+  <si>
+    <t>Actor2238m</t>
+  </si>
+  <si>
+    <t>Actor2120m</t>
+  </si>
+  <si>
+    <t>Actor0030m</t>
+  </si>
+  <si>
+    <t>Actor3231m</t>
+  </si>
+  <si>
+    <t>Actor0113m</t>
+  </si>
+  <si>
+    <t>Actor2010m</t>
+  </si>
+  <si>
+    <t>Actor1002m</t>
+  </si>
+  <si>
+    <t>Actor0037m</t>
+  </si>
+  <si>
+    <t>Actor3021m</t>
   </si>
 </sst>
 </file>
@@ -2450,7 +2604,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2579,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2708,7 +2862,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2781,13 +2935,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="D31">
         <v>3.9990000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2795,13 +2949,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="D32">
         <v>3.9990000000000001</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2851,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2949,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -3050,7 +3204,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -3148,7 +3302,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D57">
         <v>7</v>
@@ -3246,7 +3400,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -3305,13 +3459,13 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="D68">
         <v>8.9990000000000006</v>
       </c>
       <c r="E68" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3319,13 +3473,13 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="D69">
         <v>8.9990000000000006</v>
       </c>
       <c r="E69" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3347,7 +3501,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D71">
         <v>9</v>
@@ -3420,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -3479,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="D80">
         <v>10.999000000000001</v>
       </c>
       <c r="E80" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3493,13 +3647,13 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="D81">
         <v>10.999000000000001</v>
       </c>
       <c r="E81" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D83">
         <v>11</v>
@@ -3577,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D87">
         <v>12</v>
@@ -3636,7 +3790,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D91">
         <v>13</v>
@@ -3692,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D95">
         <v>14</v>
@@ -3758,8 +3912,8 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4480,9 +4634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C518" sqref="C518"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4538,7 +4692,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44346</v>
       </c>
@@ -4561,7 +4715,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44346</v>
       </c>
@@ -4584,7 +4738,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44346</v>
       </c>
@@ -4607,7 +4761,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44346</v>
       </c>
@@ -4630,7 +4784,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44346</v>
       </c>
@@ -4653,7 +4807,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44346</v>
       </c>
@@ -4676,7 +4830,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44346</v>
       </c>
@@ -4699,7 +4853,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44346</v>
       </c>
@@ -4707,7 +4861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44346</v>
       </c>
@@ -4715,7 +4869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44346</v>
       </c>
@@ -4723,7 +4877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44346</v>
       </c>
@@ -4731,7 +4885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f ca="1">OFFSET(A14,-12,0)+1</f>
         <v>44347</v>
@@ -4752,7 +4906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A78" ca="1" si="0">OFFSET(A15,-12,0)+1</f>
         <v>44347</v>
@@ -4776,7 +4930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4800,7 +4954,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4824,7 +4978,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4848,7 +5002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4872,7 +5026,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4896,7 +5050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4920,7 +5074,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4929,7 +5083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4938,7 +5092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4947,7 +5101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44347</v>
@@ -4956,7 +5110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -4980,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5004,7 +5158,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5028,7 +5182,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5052,7 +5206,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5076,7 +5230,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5100,7 +5254,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5124,7 +5278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5148,7 +5302,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5157,7 +5311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5166,7 +5320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5175,7 +5329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5184,7 +5338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5208,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5232,7 +5386,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5256,7 +5410,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5280,7 +5434,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5304,7 +5458,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5328,7 +5482,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5352,7 +5506,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5376,7 +5530,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5385,7 +5539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5394,7 +5548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5403,7 +5557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5412,7 +5566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5436,7 +5590,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5460,7 +5614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5484,7 +5638,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5508,7 +5662,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5532,7 +5686,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5556,7 +5710,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5580,7 +5734,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5604,7 +5758,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5613,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5622,7 +5776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5631,7 +5785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5640,7 +5794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5664,7 +5818,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5688,7 +5842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5712,7 +5866,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5736,7 +5890,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5760,7 +5914,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5784,7 +5938,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5808,7 +5962,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5832,7 +5986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5841,7 +5995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5850,7 +6004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5859,7 +6013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5868,7 +6022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -5892,7 +6046,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -5916,7 +6070,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -5940,7 +6094,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -5964,7 +6118,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -5988,7 +6142,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" ref="A79:A142" ca="1" si="1">OFFSET(A79,-12,0)+1</f>
         <v>44352</v>
@@ -6012,7 +6166,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6036,7 +6190,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6060,7 +6214,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6069,7 +6223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6078,7 +6232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6087,7 +6241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6096,7 +6250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6120,7 +6274,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6144,7 +6298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6168,7 +6322,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6192,7 +6346,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6216,7 +6370,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6240,7 +6394,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6264,7 +6418,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6288,7 +6442,7 @@
         <v>28900</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6297,7 +6451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6306,7 +6460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6315,7 +6469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6324,7 +6478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6345,7 +6499,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6369,7 +6523,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6393,7 +6547,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6417,7 +6571,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6441,7 +6595,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6465,7 +6619,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6489,7 +6643,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6513,7 +6667,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6522,7 +6676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6531,7 +6685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6540,7 +6694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6549,7 +6703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6573,7 +6727,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6597,7 +6751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6621,7 +6775,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6645,7 +6799,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6669,7 +6823,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6693,7 +6847,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6717,7 +6871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6741,7 +6895,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6750,7 +6904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6759,7 +6913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6768,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6777,7 +6931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6801,7 +6955,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6825,7 +6979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6849,7 +7003,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6873,7 +7027,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6897,7 +7051,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6921,7 +7075,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6945,7 +7099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6969,7 +7123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6978,7 +7132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6987,7 +7141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6996,7 +7150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7005,7 +7159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7029,7 +7183,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7053,7 +7207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7077,7 +7231,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7101,7 +7255,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7125,7 +7279,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7149,7 +7303,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7173,7 +7327,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7197,7 +7351,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7206,7 +7360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" ref="A143:A206" ca="1" si="2">OFFSET(A143,-12,0)+1</f>
         <v>44357</v>
@@ -7215,7 +7369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44357</v>
@@ -7224,7 +7378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44357</v>
@@ -7233,7 +7387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7257,7 +7411,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7281,7 +7435,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7305,7 +7459,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7329,7 +7483,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7353,7 +7507,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7377,7 +7531,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7401,7 +7555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7425,7 +7579,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7434,7 +7588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7443,7 +7597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7452,7 +7606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7461,7 +7615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7485,7 +7639,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7509,7 +7663,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7533,7 +7687,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7557,7 +7711,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7581,7 +7735,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7605,7 +7759,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7629,7 +7783,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7653,7 +7807,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7662,7 +7816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7671,7 +7825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7698,7 +7852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7725,7 +7879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7749,7 +7903,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7773,7 +7927,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7797,7 +7951,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7821,7 +7975,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7845,7 +7999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7869,7 +8023,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7893,7 +8047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7917,7 +8071,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7926,7 +8080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7935,7 +8089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7962,7 +8116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7989,7 +8143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8013,7 +8167,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8037,7 +8191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8061,7 +8215,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8085,7 +8239,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8109,7 +8263,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8133,7 +8287,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8157,7 +8311,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8181,7 +8335,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8190,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8199,7 +8353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8208,7 +8362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8217,7 +8371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8241,7 +8395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8265,7 +8419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8289,7 +8443,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8313,7 +8467,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8337,7 +8491,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8361,7 +8515,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8385,7 +8539,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8409,7 +8563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8418,7 +8572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8427,7 +8581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8436,7 +8590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8445,7 +8599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44363</v>
@@ -8466,7 +8620,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" ref="A207:A270" ca="1" si="3">OFFSET(A207,-12,0)+1</f>
         <v>44363</v>
@@ -8490,7 +8644,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8514,7 +8668,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8538,7 +8692,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8562,7 +8716,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8586,7 +8740,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8610,7 +8764,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8634,7 +8788,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8643,7 +8797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8652,7 +8806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8661,7 +8815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8670,7 +8824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8694,7 +8848,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8718,7 +8872,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8742,7 +8896,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8766,7 +8920,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8790,7 +8944,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8814,7 +8968,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8838,7 +8992,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8862,7 +9016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8871,7 +9025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8880,7 +9034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8889,7 +9043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8898,7 +9052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -8922,7 +9076,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -8946,7 +9100,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -8970,7 +9124,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -8994,7 +9148,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9018,7 +9172,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9042,7 +9196,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9066,7 +9220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9090,7 +9244,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9099,7 +9253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9108,7 +9262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9117,7 +9271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9126,7 +9280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9150,7 +9304,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9174,7 +9328,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9198,7 +9352,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9222,7 +9376,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9246,7 +9400,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9270,7 +9424,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9294,7 +9448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9318,7 +9472,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9345,7 +9499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9372,7 +9526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9399,7 +9553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9426,7 +9580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9450,7 +9604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9474,7 +9628,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9498,7 +9652,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9522,7 +9676,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9546,7 +9700,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9570,7 +9724,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9594,7 +9748,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9618,7 +9772,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9645,7 +9799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9672,7 +9826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9699,7 +9853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9726,7 +9880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9750,7 +9904,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9774,7 +9928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9798,7 +9952,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9822,7 +9976,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9846,7 +10000,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" ref="A271:A334" ca="1" si="4">OFFSET(A271,-12,0)+1</f>
         <v>44368</v>
@@ -9870,7 +10024,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -9894,7 +10048,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -9918,7 +10072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -9927,7 +10081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -9936,7 +10090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -9945,7 +10099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -9954,7 +10108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -9978,7 +10132,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10002,7 +10156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10026,7 +10180,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10050,7 +10204,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10074,7 +10228,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10098,7 +10252,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10122,7 +10276,7 @@
         <v>74600</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10146,7 +10300,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10155,7 +10309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10164,7 +10318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10173,7 +10327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10182,7 +10336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10206,7 +10360,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10230,7 +10384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10254,7 +10408,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10278,7 +10432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10302,7 +10456,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10326,7 +10480,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10350,7 +10504,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10374,7 +10528,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10383,7 +10537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10392,7 +10546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10401,7 +10555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10410,7 +10564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10434,7 +10588,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10458,7 +10612,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10482,7 +10636,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10506,7 +10660,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10530,7 +10684,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10554,7 +10708,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10578,7 +10732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10602,7 +10756,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10611,7 +10765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10620,7 +10774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10629,7 +10783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10638,7 +10792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10665,7 +10819,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10689,7 +10843,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10713,7 +10867,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10737,7 +10891,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10761,7 +10915,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10785,7 +10939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10809,7 +10963,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10833,7 +10987,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10842,7 +10996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10851,7 +11005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10860,7 +11014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10869,7 +11023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -10893,7 +11047,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -10917,7 +11071,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -10941,7 +11095,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -10965,7 +11119,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -10989,7 +11143,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11013,7 +11167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11037,7 +11191,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11061,7 +11215,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11070,7 +11224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" ref="A335:A398" ca="1" si="5">OFFSET(A335,-12,0)+1</f>
         <v>44373</v>
@@ -11079,7 +11233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44373</v>
@@ -11088,7 +11242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44373</v>
@@ -11097,7 +11251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11121,7 +11275,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11145,7 +11299,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11169,7 +11323,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11193,7 +11347,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11217,7 +11371,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11241,7 +11395,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11265,7 +11419,7 @@
         <v>29100</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11289,7 +11443,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11298,7 +11452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11307,7 +11461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11316,7 +11470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11325,7 +11479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11349,7 +11503,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11373,7 +11527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11397,7 +11551,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11421,7 +11575,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11445,7 +11599,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11469,7 +11623,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11493,7 +11647,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11517,7 +11671,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11526,7 +11680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11535,7 +11689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11544,7 +11698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11553,7 +11707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11574,7 +11728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11598,7 +11752,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11622,7 +11776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11646,7 +11800,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11670,7 +11824,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11694,7 +11848,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11718,7 +11872,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11742,7 +11896,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11751,7 +11905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11760,7 +11914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11769,7 +11923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11778,7 +11932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11802,7 +11956,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11826,7 +11980,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11850,7 +12004,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11874,7 +12028,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11898,7 +12052,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11922,7 +12076,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11946,7 +12100,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11970,7 +12124,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11979,7 +12133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11988,7 +12142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11997,7 +12151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12006,7 +12160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44378</v>
@@ -14340,7 +14494,7 @@
         <v>308</v>
       </c>
       <c r="D502" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E502">
         <v>1</v>
@@ -14367,7 +14521,7 @@
         <v>264</v>
       </c>
       <c r="D503" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E503">
         <v>75</v>
@@ -14484,7 +14638,7 @@
         <v>105</v>
       </c>
       <c r="D509" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E509">
         <v>1</v>
@@ -14607,7 +14761,7 @@
         <v>308</v>
       </c>
       <c r="D514" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E514">
         <v>1</v>
@@ -14634,7 +14788,7 @@
         <v>264</v>
       </c>
       <c r="D515" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E515">
         <v>75</v>
@@ -14889,7 +15043,7 @@
         <v>308</v>
       </c>
       <c r="D528" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E528">
         <v>1</v>
@@ -14916,7 +15070,7 @@
         <v>264</v>
       </c>
       <c r="D529" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E529">
         <v>100</v>
@@ -15015,7 +15169,7 @@
         <v>105</v>
       </c>
       <c r="D533" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E533">
         <v>1</v>
@@ -15156,7 +15310,7 @@
         <v>308</v>
       </c>
       <c r="D540" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E540">
         <v>1</v>
@@ -15183,7 +15337,7 @@
         <v>264</v>
       </c>
       <c r="D541" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E541">
         <v>100</v>
@@ -15399,7 +15553,7 @@
         <v>8</v>
       </c>
       <c r="C550" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="D550" t="s">
         <v>265</v>
@@ -15426,7 +15580,7 @@
         <v>9</v>
       </c>
       <c r="C551" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="D551" t="s">
         <v>304</v>
@@ -15684,7 +15838,7 @@
         <v>308</v>
       </c>
       <c r="D564" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E564">
         <v>1</v>
@@ -15711,7 +15865,7 @@
         <v>264</v>
       </c>
       <c r="D565" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E565">
         <v>80</v>
@@ -15951,7 +16105,7 @@
         <v>308</v>
       </c>
       <c r="D576" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E576">
         <v>1</v>
@@ -15978,7 +16132,7 @@
         <v>264</v>
       </c>
       <c r="D577" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E577">
         <v>80</v>
@@ -18494,11 +18648,3038 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A65DBB-5221-440E-BBDA-048253EBFFA9}">
+  <dimension ref="A1:O63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f>A2+1</f>
+        <v>44379</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A63" si="0">A3+1</f>
+        <v>44379</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>44380</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>18</v>
+      </c>
+      <c r="O6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>44380</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>44381</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>44381</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>44382</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>44382</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>18</v>
+      </c>
+      <c r="O11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>44383</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>44383</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>44384</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>44384</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>44385</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>44385</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>18</v>
+      </c>
+      <c r="O17">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>44386</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>44386</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>44387</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>44387</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>44388</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>44388</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>18</v>
+      </c>
+      <c r="O23">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>44389</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>18</v>
+      </c>
+      <c r="O24">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>44389</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>18</v>
+      </c>
+      <c r="O25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>44390</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>18</v>
+      </c>
+      <c r="O26">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>44390</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>44391</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>44391</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>18</v>
+      </c>
+      <c r="O29">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>44392</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>44392</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>18</v>
+      </c>
+      <c r="O31">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>44393</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>44393</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>18</v>
+      </c>
+      <c r="O33">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>44394</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>18</v>
+      </c>
+      <c r="O34">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>44394</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>18</v>
+      </c>
+      <c r="O35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>44395</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>18</v>
+      </c>
+      <c r="O36">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>44395</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>18</v>
+      </c>
+      <c r="O37">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>44396</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>18</v>
+      </c>
+      <c r="O38">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>44396</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>18</v>
+      </c>
+      <c r="O39">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>44397</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>18</v>
+      </c>
+      <c r="O40">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>44397</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>18</v>
+      </c>
+      <c r="O41">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>44398</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>400</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>18</v>
+      </c>
+      <c r="O42">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>44398</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>18</v>
+      </c>
+      <c r="O43">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>44399</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>18</v>
+      </c>
+      <c r="O44">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44399</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>18</v>
+      </c>
+      <c r="O45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44400</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>18</v>
+      </c>
+      <c r="O46">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>44400</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>18</v>
+      </c>
+      <c r="O47">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>44401</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>396</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>18</v>
+      </c>
+      <c r="O48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>44401</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>393</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>18</v>
+      </c>
+      <c r="O49">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>44402</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>44402</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>18</v>
+      </c>
+      <c r="O51">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>44403</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>18</v>
+      </c>
+      <c r="O52">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>44403</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>397</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>18</v>
+      </c>
+      <c r="O53">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>44404</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>18</v>
+      </c>
+      <c r="O54">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>44404</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>18</v>
+      </c>
+      <c r="O55">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>44405</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>18</v>
+      </c>
+      <c r="O56">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>44405</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>18</v>
+      </c>
+      <c r="O57">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>44406</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>18</v>
+      </c>
+      <c r="O58">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>44406</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>44407</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>18</v>
+      </c>
+      <c r="O60">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>44407</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>18</v>
+      </c>
+      <c r="O61">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>44408</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>404</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>18</v>
+      </c>
+      <c r="O62">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>44408</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>388</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>18</v>
+      </c>
+      <c r="O63">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18736,115 +21917,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -18856,7 +22037,8 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement
+Additional Notes: Fixed some account access issues and improved user convenience
+Additional Notes 2: Modified boss HP question mark things and increased mana drop rate in Annihilation
 &lt;/en-US&gt;
 </v>
       </c>
@@ -18870,7 +22052,8 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار
+ملاحظات إضافية: إصلاح بعض مشكلات الوصول إلى الحساب وتحسين راحة المستخدم_x000D_
+ملاحظات إضافية 2: مع تعديل مدرب HP سؤال علامة الأشياء وزيادة معدل انخفاض مانا في الإبادة
 &lt;/ar&gt;
 </v>
       </c>
@@ -18881,7 +22064,8 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Кіраўнік 1 Уваскрэсенне Выпраўленая памылка Fix і Xperia пабудаваць павышэнне стабільнасці
+Дадатковыя нататкі: Фіксаваны некаторыя пытанні доступу да рахунку і палепшылася зручнасць карыстальніка_x000D_
+Дадатковыя Заўвагі 2: Мадыфікаваны бос HP Пытанні Марк рэчы і павелічэнне хуткасці падзення маны ў Annihilation
 &lt;/be&gt;
 </v>
       </c>
@@ -18892,7 +22076,8 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: Глава 1 Възкресение Функция за корекция и Xperia Изграждане на стабилност Подобряване
+Допълнителни бележки: фиксирани някои проблеми със сметката и подобрено удобство на потребителя_x000D_
+Допълнителни бележки 2: модифициран BOSS HP въпросник маркирайте нещата и повишена скорост на падане на мана в унищожението
 &lt;/bg&gt;
 </v>
       </c>
@@ -18903,7 +22088,8 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability
+DALŠÍ POZNÁMKY: Opraveno nějaké otázky přístupu k účtu a vylepšené uživatelské pohodlí_x000D_
+Další poznámky 2: Modifikovaný šéf HP otazník značky a zvýšené MANA Drop sazba v zničení
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -18914,7 +22100,8 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung
+Zusätzliche Anmerkungen: Einige Access-Zugangsprobleme und verbesserter Benutzerkomfort_x000D_
+Zusätzliche Anmerkungen 2: Modified Boss HP Fragezeichen Dinge und erhöhte Mana-Drop-Rate in Vernichtung
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -18925,7 +22112,8 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας
+Πρόσθετες σημειώσεις: Σταθερά ορισμένα θέματα πρόσβασης λογαριασμού και βελτιωμένη ευκολία των χρηστών_x000D_
+Πρόσθετες σημειώσεις 2: Τροποποιημένο αφεντικό HP ερωτηματικό και αυξημένο ρυθμό πτώσης Mana στην εξόντωση
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -18936,7 +22124,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-419&gt;
 </v>
       </c>
@@ -18947,7 +22136,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -18958,7 +22148,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-US&gt;
 </v>
       </c>
@@ -18969,7 +22160,8 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen
+Muita huomautuksia: Kiinteät tilin käyttöoikeudet ja parannettu käyttäjän mukavuus_x000D_
+Muita muistiinpanoja 2: Modified Boss HP: n kysymys merkitsee asioita ja lisääntynyt Mana pudotusnopeus tuhoamisessa
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -18980,7 +22172,8 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
+Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
+NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -18991,7 +22184,8 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
+Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
+NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -19002,7 +22196,8 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását
+Kiegészítő megjegyzések: Rögzített néhány fiók hozzáférési problémát és javította a felhasználó kényelmét_x000D_
+Kiegészítő megjegyzések 2: Módosított BOSS HP kérdőjel A dolgok és a megnövekedett mana csepp arány megsemmisítésben
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -19013,7 +22208,8 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement
+Catatan Tambahan: Memperbaiki beberapa masalah akses akun dan meningkatkan kenyamanan pengguna_x000D_
+Catatan Tambahan 2: Bos yang Dimodifikasi HP Mark Pertanyaan dan Peningkatan Tingkat Jatuhkan Mana dalam Penghancuran
 &lt;/id&gt;
 </v>
       </c>
@@ -19024,7 +22220,8 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement
+Note aggiuntive: risolvere alcuni problemi di accesso all'account e una migliore convenienza degli utenti_x000D_
+Note aggiuntive 2: Boss Modificato HP Punto interrogativo Cose e aumento del tasso di goccia di mana nell'annientamento
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -19035,7 +22232,8 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות
+הערות נוספות: תוקנו בעיות גישה לחשבון ונוחות משתמש משופרת_x000D_
+הערות נוספות 2: שונה הבוס HP שאלה סימן דברים והגדילה את שיעור ירידה של מאנה בהשמדה
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -19046,7 +22244,8 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を強化する
+追加の注意事項：アカウントアクセスの問題とユーザー利便性の向上を修正しました_x000D_
+追加の注意事項2：改良ボスHP疑問事項と消滅におけるマナドロップ率の増加
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -19057,7 +22256,8 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화
+추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상_x000D_
+추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승
 &lt;/ko-KR&gt;
 </v>
       </c>
@@ -19068,7 +22268,8 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
+Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
+Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan
 &lt;/ms&gt;
 </v>
       </c>
@@ -19079,7 +22280,8 @@
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
+Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
+Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan
 &lt;/ms-MY&gt;
 </v>
       </c>
@@ -19090,7 +22292,8 @@
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement
+Aanvullende opmerkingen: Sommige accounttoegangsproblemen opgelost en verbeterde gebruikersgemak_x000D_
+Extra opmerkingen 2: gemodificeerde baas HP Vraagteken Dingen en verhoogd Mana Drop-tarief in Annihilation
 &lt;/nl-NL&gt;
 </v>
       </c>
@@ -19101,7 +22304,8 @@
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement
+Dodatkowe uwagi: Naprawiono niektóre problemy z dostępem do konta i ulepszoną wygodę użytkownika_x000D_
+Dodatkowe uwagi 2: Zmodyfikowany BOSS HP Zaznaczanie kwestii zapytania i zwiększenie szybkości kropli many w unicestwieniu
 &lt;/pl-PL&gt;
 </v>
       </c>
@@ -19112,7 +22316,8 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
+Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
+Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação
 &lt;/pt-BR&gt;
 </v>
       </c>
@@ -19123,7 +22328,8 @@
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
+Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
+Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação
 &lt;/pt-PT&gt;
 </v>
       </c>
@@ -19134,7 +22340,8 @@
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității
+Note suplimentare: fixați unele aspecte de acces la cont și o confort îmbunătățită a utilizatorului_x000D_
+Note suplimentare 2: BOSS modificat HP Întrebare Mark lucrurile și creșterea ratei de scădere a MANA în anihilare
 &lt;/ro&gt;
 </v>
       </c>
@@ -19145,7 +22352,8 @@
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности
+Дополнительные примечания: Исправлена ​​некоторые проблемы доступа к учетным ресурсам и улучшены удобства пользователя_x000D_
+Дополнительные примечания 2: модифицированный босс HP-вопросительный знак маркирует вещи и повышенную скорость падения MANA в уничтожении
 &lt;/ru-RU&gt;
 </v>
       </c>
@@ -19156,7 +22364,8 @@
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia
+Ďalšie poznámky: Opravené niektoré otázky prístupu k účtu a vylepšené užívateľské pohodlie_x000D_
+Dodatočné poznámky 2: Modifikovaný šéf HP Otázka Označte veci a zvýšili rýchlosť DROPUMENTU v zničení
 &lt;/sk&gt;
 </v>
       </c>
@@ -19167,7 +22376,8 @@
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement
+Ytterligare anteckningar: Fixat några kontoåtkomstfrågor och förbättrad användarvänlighet_x000D_
+Ytterligare anmärkningar 2: Modifierad chef HP Question Mark Saker och ökad Mana Drop Rate i förintelse
 &lt;/sv-SE&gt;
 </v>
       </c>
@@ -19178,7 +22388,8 @@
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาการเข้าถึงบัญชีบางอย่างและปรับปรุงความสะดวกของผู้ใช้_x000D_
+หมายเหตุเพิ่มเติม 2: บอสตอบคำถาม HP ทำเครื่องหมายสิ่งต่าง ๆ และเพิ่มอัตราการดรอปมานาในการทำลายล้าง
 &lt;/th&gt;
 </v>
       </c>
@@ -19189,7 +22400,8 @@
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme
+Ek notlar: Bazı hesap erişim sorunları ve geliştirilmiş kullanıcı rahatlığı düzeltildi_x000D_
+Ek Notlar 2: Değiştirilmiş Boss HP Soru İşaretleri İşleri ve Artan Mana Bırakma Oranını Annihilasyonda
 &lt;/tr-TR&gt;
 </v>
       </c>
@@ -19200,7 +22412,8 @@
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності
+Додаткові примітки: виправлені проблеми з доступом до облікового запису та покращена зручність користувача_x000D_
+Додаткові примітки 2: Модифікований BOSS HP Питання Позначити речі та збільшення швидкості падіння мани при знищенні
 &lt;/uk&gt;
 </v>
       </c>
@@ -19211,7 +22424,8 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Chương 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng cường ổn định
+Ghi chú bổ sung: Đã sửa một số vấn đề truy cập tài khoản và cải thiện sự tiện lợi của người dùng_x000D_
+Ghi chú bổ sung 2: Boss Boss Modified HP Dấu hỏi mọi thứ và tăng tỷ lệ thả Mana trong sự hủy diệt
 &lt;/vi&gt;
 </v>
       </c>
@@ -19220,9 +22434,10 @@
         <v xml:space="preserve">&lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：第1章复活功能错误修复和XPERIA构建稳定性增强
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：修复了一些帐户访问问题并提高了用户便利性_x000D_
+附加说明2：修改的BOSS HP问号内容并增加了湮灭中的法力下降率
 &lt;/zh-CN&gt;
 </v>
       </c>
@@ -19231,9 +22446,10 @@
         <v xml:space="preserve">&lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
+附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率
 &lt;/zh-HK&gt;
 </v>
       </c>
@@ -19242,9 +22458,10 @@
         <v xml:space="preserve">&lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
+附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -19258,252 +22475,288 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement
+Additional Notes: Fixed some account access issues and improved user convenience
+Additional Notes 2: Modified boss HP question mark things and increased mana drop rate in Annihilation
 &lt;/en-US&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار
+ملاحظات إضافية: إصلاح بعض مشكلات الوصول إلى الحساب وتحسين راحة المستخدم_x000D_
+ملاحظات إضافية 2: مع تعديل مدرب HP سؤال علامة الأشياء وزيادة معدل انخفاض مانا في الإبادة
 &lt;/ar&gt;
 &lt;be&gt;
 Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковая Заўвага: Кіраўнік 1 Уваскрэсенне Выпраўленая памылка Fix і Xperia пабудаваць павышэнне стабільнасці
+Дадатковыя нататкі: Фіксаваны некаторыя пытанні доступу да рахунку і палепшылася зручнасць карыстальніка_x000D_
+Дадатковыя Заўвагі 2: Мадыфікаваны бос HP Пытанні Марк рэчы і павелічэнне хуткасці падзення маны ў Annihilation
 &lt;/be&gt;
 &lt;bg&gt;
 Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителна бележка: Глава 1 Възкресение Функция за корекция и Xperia Изграждане на стабилност Подобряване
+Допълнителни бележки: фиксирани някои проблеми със сметката и подобрено удобство на потребителя_x000D_
+Допълнителни бележки 2: модифициран BOSS HP въпросник маркирайте нещата и повишена скорост на падане на мана в унищожението
 &lt;/bg&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability
+DALŠÍ POZNÁMKY: Opraveno nějaké otázky přístupu k účtu a vylepšené uživatelské pohodlí_x000D_
+Další poznámky 2: Modifikovaný šéf HP otazník značky a zvýšené MANA Drop sazba v zničení
 &lt;/cs-CZ&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung
+Zusätzliche Anmerkungen: Einige Access-Zugangsprobleme und verbesserter Benutzerkomfort_x000D_
+Zusätzliche Anmerkungen 2: Modified Boss HP Fragezeichen Dinge und erhöhte Mana-Drop-Rate in Vernichtung
 &lt;/de-DE&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας
+Πρόσθετες σημειώσεις: Σταθερά ορισμένα θέματα πρόσβασης λογαριασμού και βελτιωμένη ευκολία των χρηστών_x000D_
+Πρόσθετες σημειώσεις 2: Τροποποιημένο αφεντικό HP ερωτηματικό και αυξημένο ρυθμό πτώσης Mana στην εξόντωση
 &lt;/el-GR&gt;
 &lt;es-419&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-419&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-ES&gt;
 &lt;es-US&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-US&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen
+Muita huomautuksia: Kiinteät tilin käyttöoikeudet ja parannettu käyttäjän mukavuus_x000D_
+Muita muistiinpanoja 2: Modified Boss HP: n kysymys merkitsee asioita ja lisääntynyt Mana pudotusnopeus tuhoamisessa
 &lt;/fi-FI&gt;
 &lt;fr-CA&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
+Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
+NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
 &lt;/fr-CA&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
+Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
+NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
 &lt;/fr-FR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását
+Kiegészítő megjegyzések: Rögzített néhány fiók hozzáférési problémát és javította a felhasználó kényelmét_x000D_
+Kiegészítő megjegyzések 2: Módosított BOSS HP kérdőjel A dolgok és a megnövekedett mana csepp arány megsemmisítésben
 &lt;/hu-HU&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement
+Catatan Tambahan: Memperbaiki beberapa masalah akses akun dan meningkatkan kenyamanan pengguna_x000D_
+Catatan Tambahan 2: Bos yang Dimodifikasi HP Mark Pertanyaan dan Peningkatan Tingkat Jatuhkan Mana dalam Penghancuran
 &lt;/id&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement
+Note aggiuntive: risolvere alcuni problemi di accesso all'account e una migliore convenienza degli utenti_x000D_
+Note aggiuntive 2: Boss Modificato HP Punto interrogativo Cose e aumento del tasso di goccia di mana nell'annientamento
 &lt;/it-IT&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות
+הערות נוספות: תוקנו בעיות גישה לחשבון ונוחות משתמש משופרת_x000D_
+הערות נוספות 2: שונה הבוס HP שאלה סימן דברים והגדילה את שיעור ירידה של מאנה בהשמדה
 &lt;/iw-IL&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を強化する
+追加の注意事項：アカウントアクセスの問題とユーザー利便性の向上を修正しました_x000D_
+追加の注意事項2：改良ボスHP疑問事項と消滅におけるマナドロップ率の増加
 &lt;/ja-JP&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화
+추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상_x000D_
+추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승
 &lt;/ko-KR&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
+Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
+Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan
 &lt;/ms&gt;
 &lt;ms-MY&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
+Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
+Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan
 &lt;/ms-MY&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement
+Aanvullende opmerkingen: Sommige accounttoegangsproblemen opgelost en verbeterde gebruikersgemak_x000D_
+Extra opmerkingen 2: gemodificeerde baas HP Vraagteken Dingen en verhoogd Mana Drop-tarief in Annihilation
 &lt;/nl-NL&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement
+Dodatkowe uwagi: Naprawiono niektóre problemy z dostępem do konta i ulepszoną wygodę użytkownika_x000D_
+Dodatkowe uwagi 2: Zmodyfikowany BOSS HP Zaznaczanie kwestii zapytania i zwiększenie szybkości kropli many w unicestwieniu
 &lt;/pl-PL&gt;
 &lt;pt-BR&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
+Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
+Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação
 &lt;/pt-BR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
+Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
+Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação
 &lt;/pt-PT&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității
+Note suplimentare: fixați unele aspecte de acces la cont și o confort îmbunătățită a utilizatorului_x000D_
+Note suplimentare 2: BOSS modificat HP Întrebare Mark lucrurile și creșterea ratei de scădere a MANA în anihilare
 &lt;/ro&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности
+Дополнительные примечания: Исправлена ​​некоторые проблемы доступа к учетным ресурсам и улучшены удобства пользователя_x000D_
+Дополнительные примечания 2: модифицированный босс HP-вопросительный знак маркирует вещи и повышенную скорость падения MANA в уничтожении
 &lt;/ru-RU&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia
+Ďalšie poznámky: Opravené niektoré otázky prístupu k účtu a vylepšené užívateľské pohodlie_x000D_
+Dodatočné poznámky 2: Modifikovaný šéf HP Otázka Označte veci a zvýšili rýchlosť DROPUMENTU v zničení
 &lt;/sk&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement
+Ytterligare anteckningar: Fixat några kontoåtkomstfrågor och förbättrad användarvänlighet_x000D_
+Ytterligare anmärkningar 2: Modifierad chef HP Question Mark Saker och ökad Mana Drop Rate i förintelse
 &lt;/sv-SE&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาการเข้าถึงบัญชีบางอย่างและปรับปรุงความสะดวกของผู้ใช้_x000D_
+หมายเหตุเพิ่มเติม 2: บอสตอบคำถาม HP ทำเครื่องหมายสิ่งต่าง ๆ และเพิ่มอัตราการดรอปมานาในการทำลายล้าง
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme
+Ek notlar: Bazı hesap erişim sorunları ve geliştirilmiş kullanıcı rahatlığı düzeltildi_x000D_
+Ek Notlar 2: Değiştirilmiş Boss HP Soru İşaretleri İşleri ve Artan Mana Bırakma Oranını Annihilasyonda
 &lt;/tr-TR&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності
+Додаткові примітки: виправлені проблеми з доступом до облікового запису та покращена зручність користувача_x000D_
+Додаткові примітки 2: Модифікований BOSS HP Питання Позначити речі та збільшення швидкості падіння мани при знищенні
 &lt;/uk&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Chương 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng cường ổn định
+Ghi chú bổ sung: Đã sửa một số vấn đề truy cập tài khoản và cải thiện sự tiện lợi của người dùng_x000D_
+Ghi chú bổ sung 2: Boss Boss Modified HP Dấu hỏi mọi thứ và tăng tỷ lệ thả Mana trong sự hủy diệt
 &lt;/vi&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：第1章复活功能错误修复和XPERIA构建稳定性增强
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：修复了一些帐户访问问题并提高了用户便利性_x000D_
+附加说明2：修改的BOSS HP问号内容并增加了湮灭中的法力下降率
 &lt;/zh-CN&gt;
 &lt;zh-HK&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
+附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率
 &lt;/zh-HK&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
+附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率
 &lt;/zh-TW&gt;
 </v>
       </c>
@@ -19552,196 +22805,224 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional note: Chapter 1 Resurrection Feature Bug Fix and Xperia Build Stability Enhancement
+Additional Notes: Fixed some account access issues and improved user convenience
+Additional Notes 2: Modified boss HP question mark things and increased mana drop rate in Annihilation
 &lt;/en-US&gt;
 &lt;el-GR&gt;
 Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετη σημείωση: Κεφάλαιο 1 Χαρακτηριστικό ανάστροφης Σφάλμα Σφάλμα και Xperia Δημιουργία Ενίσχυση Σταθερότητας
+Πρόσθετες σημειώσεις: Σταθερά ορισμένα θέματα πρόσβασης λογαριασμού και βελτιωμένη ευκολία των χρηστών_x000D_
+Πρόσθετες σημειώσεις 2: Τροποποιημένο αφεντικό HP ερωτηματικό και αυξημένο ρυθμό πτώσης Mana στην εξόντωση
 &lt;/el-GR&gt;
 &lt;nl-NL&gt;
 Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Extra opmerking: Hoofdstuk 1 Wederopstanding Functie Bug Fix en Xperia Build Stability Enhancement
+Aanvullende opmerkingen: Sommige accounttoegangsproblemen opgelost en verbeterde gebruikersgemak_x000D_
+Extra opmerkingen 2: gemodificeerde baas HP Vraagteken Dingen en verhoogd Mana Drop-tarief in Annihilation
 &lt;/nl-NL&gt;
 &lt;de-DE&gt;
 Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzlicher Hinweis: Kapitel 1 Auferstehungsfunktion Fehlerbehebung und Xperia-Stabilitätsstabilitätssteigerung
+Zusätzliche Anmerkungen: Einige Access-Zugangsprobleme und verbesserter Benutzerkomfort_x000D_
+Zusätzliche Anmerkungen 2: Modified Boss HP Fragezeichen Dinge und erhöhte Mana-Drop-Rate in Vernichtung
 &lt;/de-DE&gt;
 &lt;ru-RU&gt;
 Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительное примечание: Глава 1 Воскресение Функции исправления ошибки и повышение стабильности
+Дополнительные примечания: Исправлена ​​некоторые проблемы доступа к учетным ресурсам и улучшены удобства пользователя_x000D_
+Дополнительные примечания 2: модифицированный босс HP-вопросительный знак маркирует вещи и повышенную скорость падения MANA в уничтожении
 &lt;/ru-RU&gt;
 &lt;ro&gt;
 Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Notă suplimentară: Capitolul 1 Funcția de înviere Bug Fix și Xperia Construiți îmbunătățirea stabilității
+Note suplimentare: fixați unele aspecte de acces la cont și o confort îmbunătățită a utilizatorului_x000D_
+Note suplimentare 2: BOSS modificat HP Întrebare Mark lucrurile și creșterea ratei de scădere a MANA în anihilare
 &lt;/ro&gt;
 &lt;ms&gt;
 Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Bab 1 Kebangkitan Ciri Bug Bugi dan Xperia Membina Peningkatan Kestabilan
+Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
+Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan
 &lt;/ms&gt;
 &lt;vi&gt;
 Kỷ niệm phát hành toàn cầu!_x000D_
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Lưu ý bổ sung: Chương 1 Tính năng phục sinh Sửa lỗi và Xperia xây dựng sự tăng cường ổn định
+Ghi chú bổ sung: Đã sửa một số vấn đề truy cập tài khoản và cải thiện sự tiện lợi của người dùng_x000D_
+Ghi chú bổ sung 2: Boss Boss Modified HP Dấu hỏi mọi thứ và tăng tỷ lệ thả Mana trong sự hủy diệt
 &lt;/vi&gt;
 &lt;sv-SE&gt;
 Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anmärkning: Kapitel 1 Uppståndelse Funktion Bug Fix och Xperia Build Stability Enhancement
+Ytterligare anteckningar: Fixat några kontoåtkomstfrågor och förbättrad användarvänlighet_x000D_
+Ytterligare anmärkningar 2: Modifierad chef HP Question Mark Saker och ökad Mana Drop Rate i förintelse
 &lt;/sv-SE&gt;
 &lt;es-ES&gt;
 ¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Nota adicional: Capítulo 1 Función de resurrección Función de error y Xperia Crear la mejora de la estabilidad
+Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
+Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
 &lt;/es-ES&gt;
 &lt;sk&gt;
 Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Doplňujúca poznámka: KAPITOLA 1 RESBEROVANIE CHOTIVE FUNKCIE Bug Fix a Xperia Build Stabilita Vylepšenia
+Ďalšie poznámky: Opravené niektoré otázky prístupu k účtu a vylepšené užívateľské pohodlie_x000D_
+Dodatočné poznámky 2: Modifikovaný šéf HP Otázka Označte veci a zvýšili rýchlosť DROPUMENTU v zničení
 &lt;/sk&gt;
 &lt;ar&gt;
 احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظة إضافية: الفصل 1 القيامة ميزة علة إصلاح و XPERIA بناء تعزيز الاستقرار
+ملاحظات إضافية: إصلاح بعض مشكلات الوصول إلى الحساب وتحسين راحة المستخدم_x000D_
+ملاحظات إضافية 2: مع تعديل مدرب HP سؤال علامة الأشياء وزيادة معدل انخفاض مانا في الإبادة
 &lt;/ar&gt;
 &lt;uk&gt;
 Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткова примітка: Розділ 1 Воскресіння Функція виправлення помилок та Xperia створює покращення стабільності
+Додаткові примітки: виправлені проблеми з доступом до облікового запису та покращена зручність користувача_x000D_
+Додаткові примітки 2: Модифікований BOSS HP Питання Позначити речі та збільшення швидкості падіння мани при знищенні
 &lt;/uk&gt;
 &lt;it-IT&gt;
 Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Nota aggiuntiva: Capitolo 1 Caratteristica di risurrezione Bug Fix e Xperia Build Stability Enhancement
+Note aggiuntive: risolvere alcuni problemi di accesso all'account e una migliore convenienza degli utenti_x000D_
+Note aggiuntive 2: Boss Modificato HP Punto interrogativo Cose e aumento del tasso di goccia di mana nell'annientamento
 &lt;/it-IT&gt;
 &lt;id&gt;
 Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Bab 1 Resurrection Feature Bug Fix dan Xperia Build Stability Enhancement
+Catatan Tambahan: Memperbaiki beberapa masalah akses akun dan meningkatkan kenyamanan pengguna_x000D_
+Catatan Tambahan 2: Bos yang Dimodifikasi HP Mark Pertanyaan dan Peningkatan Tingkat Jatuhkan Mana dalam Penghancuran
 &lt;/id&gt;
 &lt;ja-JP&gt;
 グローバルリリースを祝いましょう！_x000D_
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意事項：第1章復活機能のバグ修正とXperiaの安定性の向上を強化する
+追加の注意事項：アカウントアクセスの問題とユーザー利便性の向上を修正しました_x000D_
+追加の注意事項2：改良ボスHP疑問事項と消滅におけるマナドロップ率の増加
 &lt;/ja-JP&gt;
 &lt;zh-CN&gt;
 庆祝全球释放！_x000D_
 _x000D_
-每天登录才能收到礼物！_x000D_
-_x000D_
-附加说明：第1章复活功能错误修复和XPERIA构建稳定性增强
+每天登录才能收到礼品！_x000D_
+_x000D_
+附加说明：修复了一些帐户访问问题并提高了用户便利性_x000D_
+附加说明2：修改的BOSS HP问号内容并增加了湮灭中的法力下降率
 &lt;/zh-CN&gt;
 &lt;zh-TW&gt;
 慶祝全球釋放！_x000D_
 _x000D_
-每天登錄才能收到禮物！_x000D_
-_x000D_
-附加說明：第1章復活功能錯誤修復和XPERIA構建穩定性增強
+每天登錄才能收到禮品！_x000D_
+_x000D_
+附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
+附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率
 &lt;/zh-TW&gt;
 &lt;cs-CZ&gt;
 Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-Další Poznámka: Kapitola 1 Funkce vzkříšení Funkce Oprava chyb a Xperia Build Enhancement Stability
+DALŠÍ POZNÁMKY: Opraveno nějaké otázky přístupu k účtu a vylepšené uživatelské pohodlí_x000D_
+Další poznámky 2: Modifikovaný šéf HP otazník značky a zvýšené MANA Drop sazba v zničení
 &lt;/cs-CZ&gt;
 &lt;th&gt;
 เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: บทที่ 1 การฟื้นคืนชีพคุณลักษณะการฟื้นคืนชีพแก้ไขข้อบกพร่องและการปรับปรุงความเสถียรของ Xperia สร้าง
+หมายเหตุเพิ่มเติม: แก้ไขปัญหาการเข้าถึงบัญชีบางอย่างและปรับปรุงความสะดวกของผู้ใช้_x000D_
+หมายเหตุเพิ่มเติม 2: บอสตอบคำถาม HP ทำเครื่องหมายสิ่งต่าง ๆ และเพิ่มอัตราการดรอปมานาในการทำลายล้าง
 &lt;/th&gt;
 &lt;tr-TR&gt;
 Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek not: Bölüm 1 diriliş özelliği hata düzeltme ve Xperia inşa stabilite geliştirme
+Ek notlar: Bazı hesap erişim sorunları ve geliştirilmiş kullanıcı rahatlığı düzeltildi_x000D_
+Ek Notlar 2: Değiştirilmiş Boss HP Soru İşaretleri İşleri ve Artan Mana Bırakma Oranını Annihilasyonda
 &lt;/tr-TR&gt;
 &lt;pt-PT&gt;
 Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-NOTA ADICIONAL: Capítulo 1 RESTECTION RESTAUNT Bug Fix e Xperia Build Stability Enhancement
+Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
+Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação
 &lt;/pt-PT&gt;
 &lt;pl-PL&gt;
 Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowa Uwaga: Rozdział 1 Funkcja Zmartwychwstania Funkcja Bug Napraw i Xperia Buduj Stabilność Enhancement
+Dodatkowe uwagi: Naprawiono niektóre problemy z dostępem do konta i ulepszoną wygodę użytkownika_x000D_
+Dodatkowe uwagi 2: Zmodyfikowany BOSS HP Zaznaczanie kwestii zapytania i zwiększenie szybkości kropli many w unicestwieniu
 &lt;/pl-PL&gt;
 &lt;fr-FR&gt;
 Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Remarque supplémentaire: Chapitre 1 Fonction de résurrection Fix de bogue et Xperia Build Build Stability amélioration
+Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
+NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
 &lt;/fr-FR&gt;
 &lt;fi-FI&gt;
 Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Luku 1 Resurrection ominaisuus Bug Fix ja Xperia Rakenna vakauden parantaminen
+Muita huomautuksia: Kiinteät tilin käyttöoikeudet ja parannettu käyttäjän mukavuus_x000D_
+Muita muistiinpanoja 2: Modified Boss HP: n kysymys merkitsee asioita ja lisääntynyt Mana pudotusnopeus tuhoamisessa
 &lt;/fi-FI&gt;
 &lt;ko-KR&gt;
 글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 1챕터 부활 피쳐 버그 수정 및 엑스페리아 빌드 안정성 강화
+추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상_x000D_
+추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승
 &lt;/ko-KR&gt;
 &lt;hu-HU&gt;
 Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzés: 1. fejezet feltámadás funkció hibajavítás és Xperia építi a stabilitás javítását
+Kiegészítő megjegyzések: Rögzített néhány fiók hozzáférési problémát és javította a felhasználó kényelmét_x000D_
+Kiegészítő megjegyzések 2: Módosított BOSS HP kérdőjel A dolgok és a megnövekedett mana csepp arány megsemmisítésben
 &lt;/hu-HU&gt;
 &lt;iw-IL&gt;
 לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערה נוספת: פרק 1 תחיית המתים תכונה באג תיקון ו Xperia לבנות שיפור יציבות
+הערות נוספות: תוקנו בעיות גישה לחשבון ונוחות משתמש משופרת_x000D_
+הערות נוספות 2: שונה הבוס HP שאלה סימן דברים והגדילה את שיעור ירידה של מאנה בהשמדה
 &lt;/iw-IL&gt;
 </v>
       </c>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A7C0B-3CF2-4865-B53E-DF072562D630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837AF93-B487-41FB-8BC3-35AB50C7FFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="401">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1998,18 +1998,9 @@
     <t>Actor0240m</t>
   </si>
   <si>
-    <t>Actor0024m</t>
-  </si>
-  <si>
     <t>Actor3114m</t>
   </si>
   <si>
-    <t>Actor0007m</t>
-  </si>
-  <si>
-    <t>Actor2128m</t>
-  </si>
-  <si>
     <t>Actor0125m</t>
   </si>
   <si>
@@ -2020,9 +2011,6 @@
   </si>
   <si>
     <t>Actor0104m</t>
-  </si>
-  <si>
-    <t>Actor1039m</t>
   </si>
   <si>
     <t>Actor1108m</t>
@@ -18649,11 +18637,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A65DBB-5221-440E-BBDA-048253EBFFA9}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18708,10 +18696,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44378</v>
+        <v>44390</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>379</v>
@@ -18726,10 +18714,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -18750,15 +18738,18 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44378</v>
+        <v>44390</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -18770,10 +18761,10 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -18799,14 +18790,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>A2+1</f>
-        <v>44379</v>
+        <f t="shared" ref="A4:A40" si="0">A2+1</f>
+        <v>44391</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -18842,19 +18833,19 @@
         <v>18</v>
       </c>
       <c r="O4">
-        <v>248</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A63" si="0">A3+1</f>
-        <v>44379</v>
+        <f t="shared" si="0"/>
+        <v>44391</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -18890,19 +18881,19 @@
         <v>18</v>
       </c>
       <c r="O5">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>44380</v>
+        <v>44392</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -18938,19 +18929,19 @@
         <v>18</v>
       </c>
       <c r="O6">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>44380</v>
+        <v>44392</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -18962,10 +18953,10 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>15</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -18986,19 +18977,19 @@
         <v>18</v>
       </c>
       <c r="O7">
-        <v>260</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>44381</v>
+        <v>44393</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -19010,10 +19001,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -19034,19 +19025,19 @@
         <v>18</v>
       </c>
       <c r="O8">
-        <v>297</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>44381</v>
+        <v>44393</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -19058,10 +19049,10 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>15</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -19082,19 +19073,19 @@
         <v>18</v>
       </c>
       <c r="O9">
-        <v>223</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>44382</v>
+        <v>44394</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -19106,10 +19097,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -19130,19 +19121,19 @@
         <v>18</v>
       </c>
       <c r="O10">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>44382</v>
+        <v>44394</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -19154,10 +19145,10 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>15</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -19178,19 +19169,19 @@
         <v>18</v>
       </c>
       <c r="O11">
-        <v>223</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>44383</v>
+        <v>44395</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -19202,10 +19193,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -19226,19 +19217,19 @@
         <v>18</v>
       </c>
       <c r="O12">
-        <v>202</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>44383</v>
+        <v>44395</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -19250,10 +19241,10 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>15</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -19274,19 +19265,18 @@
         <v>18</v>
       </c>
       <c r="O13">
-        <v>288</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>44384</v>
+        <v>44395</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -19298,10 +19288,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -19322,19 +19312,19 @@
         <v>18</v>
       </c>
       <c r="O14">
-        <v>117</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>44384</v>
+        <f>A12+1</f>
+        <v>44396</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -19370,19 +19360,19 @@
         <v>18</v>
       </c>
       <c r="O15">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>44385</v>
+        <f>A13+1</f>
+        <v>44396</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -19418,19 +19408,19 @@
         <v>18</v>
       </c>
       <c r="O16">
-        <v>244</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>44385</v>
+        <v>44397</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -19466,19 +19456,19 @@
         <v>18</v>
       </c>
       <c r="O17">
-        <v>315</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>44386</v>
+        <v>44397</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -19514,19 +19504,19 @@
         <v>18</v>
       </c>
       <c r="O18">
-        <v>160</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>44386</v>
+        <v>44398</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -19562,19 +19552,19 @@
         <v>18</v>
       </c>
       <c r="O19">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>44387</v>
+        <v>44398</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -19610,16 +19600,19 @@
         <v>18</v>
       </c>
       <c r="O20">
-        <v>356</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>44387</v>
+        <v>44399</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>397</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -19655,19 +19648,19 @@
         <v>18</v>
       </c>
       <c r="O21">
-        <v>244</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>44388</v>
+        <v>44399</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -19703,19 +19696,19 @@
         <v>18</v>
       </c>
       <c r="O22">
-        <v>181</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>44388</v>
+        <v>44400</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -19751,16 +19744,19 @@
         <v>18</v>
       </c>
       <c r="O23">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>44389</v>
+        <v>44400</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>398</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -19796,16 +19792,19 @@
         <v>18</v>
       </c>
       <c r="O24">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>44389</v>
+        <v>44401</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>392</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -19841,19 +19840,19 @@
         <v>18</v>
       </c>
       <c r="O25">
-        <v>321</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>44390</v>
+        <v>44401</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -19889,16 +19888,16 @@
         <v>18</v>
       </c>
       <c r="O26">
-        <v>211</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>44390</v>
+        <v>44402</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>394</v>
@@ -19937,19 +19936,19 @@
         <v>18</v>
       </c>
       <c r="O27">
-        <v>223</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>44391</v>
+        <v>44402</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -19985,19 +19984,19 @@
         <v>18</v>
       </c>
       <c r="O28">
-        <v>324</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>44391</v>
+        <v>44403</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -20033,19 +20032,19 @@
         <v>18</v>
       </c>
       <c r="O29">
-        <v>125</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>44392</v>
+        <v>44403</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -20081,19 +20080,19 @@
         <v>18</v>
       </c>
       <c r="O30">
-        <v>344</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>44392</v>
+        <v>44404</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -20129,19 +20128,19 @@
         <v>18</v>
       </c>
       <c r="O31">
-        <v>356</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>44393</v>
+        <v>44404</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -20177,19 +20176,19 @@
         <v>18</v>
       </c>
       <c r="O32">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>44393</v>
+        <v>44405</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -20225,19 +20224,19 @@
         <v>18</v>
       </c>
       <c r="O33">
-        <v>328</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>44394</v>
+        <v>44405</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -20273,19 +20272,19 @@
         <v>18</v>
       </c>
       <c r="O34">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>44394</v>
+        <v>44406</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -20321,19 +20320,19 @@
         <v>18</v>
       </c>
       <c r="O35">
-        <v>148</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>44395</v>
+        <v>44406</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -20369,19 +20368,19 @@
         <v>18</v>
       </c>
       <c r="O36">
-        <v>280</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>44395</v>
+        <v>44407</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -20417,19 +20416,19 @@
         <v>18</v>
       </c>
       <c r="O37">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>44396</v>
+        <v>44407</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -20465,19 +20464,19 @@
         <v>18</v>
       </c>
       <c r="O38">
-        <v>321</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>44396</v>
+        <v>44408</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -20513,19 +20512,19 @@
         <v>18</v>
       </c>
       <c r="O39">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>44397</v>
+        <v>44408</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -20561,1110 +20560,6 @@
         <v>18</v>
       </c>
       <c r="O40">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>44397</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>383</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>15</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>18</v>
-      </c>
-      <c r="O41">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>44398</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>400</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>15</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>18</v>
-      </c>
-      <c r="O42">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>44398</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>394</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>15</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>18</v>
-      </c>
-      <c r="O43">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>44399</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>401</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>15</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>18</v>
-      </c>
-      <c r="O44">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>44399</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>398</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>18</v>
-      </c>
-      <c r="O45">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>44400</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>386</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>15</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>18</v>
-      </c>
-      <c r="O46">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>44400</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>402</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>15</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>18</v>
-      </c>
-      <c r="O47">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>44401</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>396</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>15</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>18</v>
-      </c>
-      <c r="O48">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>44401</v>
-      </c>
-      <c r="B49">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>393</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>15</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>18</v>
-      </c>
-      <c r="O49">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>44402</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>398</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>15</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>18</v>
-      </c>
-      <c r="O50">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>44402</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>401</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>15</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>18</v>
-      </c>
-      <c r="O51">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>44403</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>383</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>15</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>18</v>
-      </c>
-      <c r="O52">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>44403</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>397</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>15</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>18</v>
-      </c>
-      <c r="O53">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>44404</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>395</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>15</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>18</v>
-      </c>
-      <c r="O54">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>44404</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>398</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>15</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>18</v>
-      </c>
-      <c r="O55">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>44405</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>381</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>15</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>18</v>
-      </c>
-      <c r="O56">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>44405</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>391</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>15</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>18</v>
-      </c>
-      <c r="O57">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>44406</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>403</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>15</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>18</v>
-      </c>
-      <c r="O58">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>44406</v>
-      </c>
-      <c r="B59">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>381</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>15</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>18</v>
-      </c>
-      <c r="O59">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>44407</v>
-      </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>398</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>15</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>18</v>
-      </c>
-      <c r="O60">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>44407</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>403</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>15</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>18</v>
-      </c>
-      <c r="O61">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>44408</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>404</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>15</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>18</v>
-      </c>
-      <c r="O62">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>44408</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>388</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>15</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>18</v>
-      </c>
-      <c r="O63">
         <v>272</v>
       </c>
     </row>

--- a/Excel/작업업데이트.xlsx
+++ b/Excel/작업업데이트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837AF93-B487-41FB-8BC3-35AB50C7FFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6452C4-3FC5-4CC1-9206-0827A8D2B30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{32DFA507-F19A-4723-9584-EC3D4ECEB08E}"/>
   </bookViews>
   <sheets>
     <sheet name="업데이트" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="404">
   <si>
     <t>ResearchTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1440,123 +1440,213 @@
     <t>Equip0402</t>
   </si>
   <si>
-    <t>글로벌 오픈 경축!_x000D_
-_x000D_
-매일 매일 접속하여 런칭 선물을 받아가세요!
-추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상
-추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>trp</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>wgGr0</t>
+  </si>
+  <si>
+    <t>wgGr1</t>
+  </si>
+  <si>
+    <t>wgGr2</t>
+  </si>
+  <si>
+    <t>wgGr3</t>
+  </si>
+  <si>
+    <t>wgLk</t>
+  </si>
+  <si>
+    <t>Actor1216m</t>
+  </si>
+  <si>
+    <t>Actor3117m</t>
+  </si>
+  <si>
+    <t>Actor0240m</t>
+  </si>
+  <si>
+    <t>Actor3114m</t>
+  </si>
+  <si>
+    <t>Actor0125m</t>
+  </si>
+  <si>
+    <t>Actor1141m</t>
+  </si>
+  <si>
+    <t>Actor3022m</t>
+  </si>
+  <si>
+    <t>Actor1108m</t>
+  </si>
+  <si>
+    <t>Actor1005m</t>
+  </si>
+  <si>
+    <t>Actor0201m</t>
+  </si>
+  <si>
+    <t>Actor3019m</t>
+  </si>
+  <si>
+    <t>Actor2238m</t>
+  </si>
+  <si>
+    <t>Actor0030m</t>
+  </si>
+  <si>
+    <t>Actor3231m</t>
+  </si>
+  <si>
+    <t>Actor0113m</t>
+  </si>
+  <si>
+    <t>Actor2010m</t>
+  </si>
+  <si>
+    <t>Actor1002m</t>
+  </si>
+  <si>
+    <t>Actor0037m</t>
+  </si>
+  <si>
+    <t>Actor3021m</t>
   </si>
   <si>
     <t>Celebrate the global release!
 Log in every day to receive the gifts!
-Additional Notes: Fixed some account access issues and improved user convenience
-Additional Notes 2: Modified boss HP question mark things and increased mana drop rate in Annihilation</t>
+Additional Notes: Fixed a bug in the daily refresh system for Western countries
+Additional Notes 2: Improved UI and fixed the Experience-related issues</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>글로벌 오픈 경축!_x000D_
+_x000D_
+매일 매일 접속하여 런칭 선물을 받아가세요!
+추가사항: 웨스턴 국가들의 하루 갱신 시스템 버그 수정
+추가사항2: UI 개선 및  체험 관련 이슈 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>احتفل بالإفراج العالمي!_x000D_
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: إصلاح بعض مشكلات الوصول إلى الحساب وتحسين راحة المستخدم_x000D_
-ملاحظات إضافية 2: مع تعديل مدرب HP سؤال علامة الأشياء وزيادة معدل انخفاض مانا في الإبادة</t>
+ملاحظات إضافية: إصلاح خطأ في نظام التحديث اليومي للبلدان الغربية_x000D_
+ملاحظات إضافية 2: تحسين واجهة المستخدم وتم إصلاح المشكلات المتعلقة بالخبرة</t>
   </si>
   <si>
     <t>Адсвяткаваць глабальны рэліз!_x000D_
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя нататкі: Фіксаваны некаторыя пытанні доступу да рахунку і палепшылася зручнасць карыстальніка_x000D_
-Дадатковыя Заўвагі 2: Мадыфікаваны бос HP Пытанні Марк рэчы і павелічэнне хуткасці падзення маны ў Annihilation</t>
+Дадатковыя нататкі: Выпраўленая памылка ў штодзённай сістэме абнаўлення для заходніх краін_x000D_
+Дадатковыя Notes 2: Палепшаная UI і выправіць пытанні, звязаныя з вопытам, звязаныя</t>
   </si>
   <si>
     <t>Празнувайте глобалното освобождаване!_x000D_
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителни бележки: фиксирани някои проблеми със сметката и подобрено удобство на потребителя_x000D_
-Допълнителни бележки 2: модифициран BOSS HP въпросник маркирайте нещата и повишена скорост на падане на мана в унищожението</t>
+Допълнителни бележки: Фиксирана грешка в системата за ежедневна обновяване на западните страни_x000D_
+Допълнителни бележки 2: подобряване на потребителския интерфейс и фиксирани въпроси, свързани с опита</t>
   </si>
   <si>
     <t>Oslavte globální vydání!_x000D_
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-DALŠÍ POZNÁMKY: Opraveno nějaké otázky přístupu k účtu a vylepšené uživatelské pohodlí_x000D_
-Další poznámky 2: Modifikovaný šéf HP otazník značky a zvýšené MANA Drop sazba v zničení</t>
+Další poznámky: opravena chyba v denním aktualizačním systému pro západní země_x000D_
+Další poznámky 2: Vylepšené UI a pevné problémy související s praxe</t>
   </si>
   <si>
     <t>Feiern Sie die globale Veröffentlichung!_x000D_
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Anmerkungen: Einige Access-Zugangsprobleme und verbesserter Benutzerkomfort_x000D_
-Zusätzliche Anmerkungen 2: Modified Boss HP Fragezeichen Dinge und erhöhte Mana-Drop-Rate in Vernichtung</t>
+Zusätzliche Hinweise: Ein Fehler im täglichen Aktualisierungssystem für westliche Länder behoben_x000D_
+Zusätzliche Anmerkungen 2: Verbesserte Benutzeroberfläche und die erfahrungsbezogenen Probleme</t>
   </si>
   <si>
     <t>Γιορτάστε την παγκόσμια έκδοση!_x000D_
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες σημειώσεις: Σταθερά ορισμένα θέματα πρόσβασης λογαριασμού και βελτιωμένη ευκολία των χρηστών_x000D_
-Πρόσθετες σημειώσεις 2: Τροποποιημένο αφεντικό HP ερωτηματικό και αυξημένο ρυθμό πτώσης Mana στην εξόντωση</t>
+Πρόσθετες σημειώσεις: Σταθερό σφάλμα στο σύστημα καθημερινής ανανέωσης για τις δυτικές χώρες_x000D_
+Πρόσθετες σημειώσεις 2: Βελτιωμένο UI και σταθεροποίησε τα θέματα που σχετίζονται με την εμπειρία</t>
   </si>
   <si>
     <t>¡Celebra el lanzamiento global!_x000D_
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
-Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación</t>
+Notas adicionales: Se corrigió un error en el sistema de actualización diaria para los países occidentales_x000D_
+Notas adicionales 2: UI mejorada y fijó los problemas relacionados con la experiencia</t>
   </si>
   <si>
     <t>Juhli maailmanlaajuista julkaisua!_x000D_
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Kiinteät tilin käyttöoikeudet ja parannettu käyttäjän mukavuus_x000D_
-Muita muistiinpanoja 2: Modified Boss HP: n kysymys merkitsee asioita ja lisääntynyt Mana pudotusnopeus tuhoamisessa</t>
+Muita huomautuksia: Korjattu vika päivittäisessä päivitysjärjestelmässä länsimaissa_x000D_
+Muita muistiinpanoja 2: parannettu UI ja korjasi kokemus kysymykset</t>
   </si>
   <si>
     <t>Célébrez la version globale!_x000D_
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
-NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation</t>
+Notes supplémentaires: Correction d'un bug dans le système de rafraîchissement quotidien pour les pays occidentaux_x000D_
+Notes supplémentaires 2: UI amélioré et corrigé les problèmes liés à l'expérience</t>
   </si>
   <si>
     <t>Ünnepelje a globális kiadást!_x000D_
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzések: Rögzített néhány fiók hozzáférési problémát és javította a felhasználó kényelmét_x000D_
-Kiegészítő megjegyzések 2: Módosított BOSS HP kérdőjel A dolgok és a megnövekedett mana csepp arány megsemmisítésben</t>
+Kiegészítő megjegyzések: rögzített egy hibát a napi frissítési rendszerben a nyugati országok számára_x000D_
+További megjegyzések 2: javított UI és rögzítette a tapasztalathoz kapcsolódó kérdéseket</t>
   </si>
   <si>
     <t>Rayakan rilis global!_x000D_
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Memperbaiki beberapa masalah akses akun dan meningkatkan kenyamanan pengguna_x000D_
-Catatan Tambahan 2: Bos yang Dimodifikasi HP Mark Pertanyaan dan Peningkatan Tingkat Jatuhkan Mana dalam Penghancuran</t>
+Catatan Tambahan: Memperbaiki Bug dalam Sistem Penyegaran Harian untuk Negara Barat_x000D_
+Catatan Tambahan 2: UI yang ditingkatkan dan memperbaiki masalah terkait pengalaman</t>
   </si>
   <si>
     <t>Festeggia la versione globale!_x000D_
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Note aggiuntive: risolvere alcuni problemi di accesso all'account e una migliore convenienza degli utenti_x000D_
-Note aggiuntive 2: Boss Modificato HP Punto interrogativo Cose e aumento del tasso di goccia di mana nell'annientamento</t>
+Note aggiuntive: fisso un bug nel sistema di aggiornamento giornaliero per i paesi occidentali_x000D_
+Note aggiuntive 2: UI migliorato e fissa i problemi relativi all'esperienza</t>
   </si>
   <si>
     <t>לחגוג את המהדורה העולמית!_x000D_
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: תוקנו בעיות גישה לחשבון ונוחות משתמש משופרת_x000D_
-הערות נוספות 2: שונה הבוס HP שאלה סימן דברים והגדילה את שיעור ירידה של מאנה בהשמדה</t>
+הערות נוספות: תוקן באג במערכת הרענון היומיומית למדינות המערב_x000D_
+הערות נוספות 2: משופרת UI ותוקנה את הנושאים הקשורים לחוויה</t>
   </si>
   <si>
     <r>
@@ -1630,7 +1720,7 @@
       </rPr>
       <t>日ログインしてください！_x000D_
 _x000D_
-追加の注意事項：アカウントアクセスの問題とユ</t>
+追加の注意：西</t>
     </r>
     <r>
       <rPr>
@@ -1641,7 +1731,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>欧</t>
     </r>
     <r>
       <rPr>
@@ -1652,7 +1742,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ザ</t>
+      <t>諸</t>
     </r>
     <r>
       <rPr>
@@ -1663,7 +1753,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>国</t>
     </r>
     <r>
       <rPr>
@@ -1674,8 +1764,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>利便性の向上を修正しました_x000D_
-追加の注意事項2：改良ボスHP疑問事項と消滅におけるマナドロップ率の</t>
+      <t>の</t>
     </r>
     <r>
       <rPr>
@@ -1686,7 +1775,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>増</t>
+      <t>毎</t>
     </r>
     <r>
       <rPr>
@@ -1697,104 +1786,127 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>加</t>
+      <t>日のリフレッシュシステムのバグを修正しました_x000D_
+追加の注意事項2：UIが改善され、</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>経験関</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>連の問題を修正しました</t>
+    </r>
   </si>
   <si>
     <t>글로벌 오픈 경축!_x000D_
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상_x000D_
-추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승</t>
+추가사항: 웨스턴 국가들의 하루 갱신 시스템 버그 수정_x000D_
+추가사항2: UI 개선 및  체험 관련 이슈 수정</t>
   </si>
   <si>
     <t>Rayakan pelepasan global!_x000D_
 _x000D_
 Log masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Nota Tambahan: Tetapkan beberapa isu akses akaun dan kemudahan pengguna yang lebih baik_x000D_
-Nota Tambahan 2: BOSS Modified HP Soalan Tanda Perkara dan Meningkatkan Kadar Drop Mana dalam Penghapusan</t>
+Nota Tambahan: Tetapkan bug dalam sistem penyegaran harian untuk negara-negara Barat_x000D_
+Nota Tambahan 2: UI yang lebih baik dan menetapkan isu berkaitan pengalaman</t>
   </si>
   <si>
     <t>Vier de wereldwijde release!_x000D_
 _x000D_
 Log in elke dag om de geschenken te ontvangen!_x000D_
 _x000D_
-Aanvullende opmerkingen: Sommige accounttoegangsproblemen opgelost en verbeterde gebruikersgemak_x000D_
-Extra opmerkingen 2: gemodificeerde baas HP Vraagteken Dingen en verhoogd Mana Drop-tarief in Annihilation</t>
+Aanvullende opmerkingen: een bug opgelost in het dagelijkse vernieuwingssysteem voor westerse landen_x000D_
+Aanvullende opmerkingen 2: Verbeterde UI en repareer de ervaringsgerelateerde problemen</t>
   </si>
   <si>
     <t>Świętuj globalne wydanie!_x000D_
 _x000D_
 Zaloguj się każdego dnia, aby otrzymać prezenty!_x000D_
 _x000D_
-Dodatkowe uwagi: Naprawiono niektóre problemy z dostępem do konta i ulepszoną wygodę użytkownika_x000D_
-Dodatkowe uwagi 2: Zmodyfikowany BOSS HP Zaznaczanie kwestii zapytania i zwiększenie szybkości kropli many w unicestwieniu</t>
+Dodatkowe uwagi: Naprawiono błąd w systemie codziennego odświeżania dla krajów zachodnich_x000D_
+Dodatkowe uwagi 2: Ulepszone UI i naprawiają problemy związane z doświadczeniem</t>
   </si>
   <si>
     <t>Comemore a liberação global!_x000D_
 _x000D_
 Faça o login todos os dias para receber os presentes!_x000D_
 _x000D_
-Notas adicionais: Corrigido alguns problemas de acesso à conta e melhoria da conveniência do usuário_x000D_
-Notas adicionais 2: Boss modificado HP Ponto de interrogação das coisas e aumento da taxa de mana na aniquilação</t>
+Notas adicionais: Corrigido um bug no sistema de atualização diária para países ocidentais_x000D_
+Notas adicionais 2: UI aprimorada e fixou as questões relacionadas à experiência</t>
   </si>
   <si>
     <t>Sărbătoriți lansarea globală!_x000D_
 _x000D_
 Conectați-vă în fiecare zi pentru a primi cadouri!_x000D_
 _x000D_
-Note suplimentare: fixați unele aspecte de acces la cont și o confort îmbunătățită a utilizatorului_x000D_
-Note suplimentare 2: BOSS modificat HP Întrebare Mark lucrurile și creșterea ratei de scădere a MANA în anihilare</t>
+Note suplimentare: Fixați un bug în sistemul de reîmprospătare zilnic pentru țările occidentale_x000D_
+Note suplimentare 2: îmbunătățirea UI și a stabilit problemele legate de experiență</t>
   </si>
   <si>
     <t>Отпразднуйте глобальный выпуск!_x000D_
 _x000D_
 Войдите каждый день, чтобы получить подарки!_x000D_
 _x000D_
-Дополнительные примечания: Исправлена ​​некоторые проблемы доступа к учетным ресурсам и улучшены удобства пользователя_x000D_
-Дополнительные примечания 2: модифицированный босс HP-вопросительный знак маркирует вещи и повышенную скорость падения MANA в уничтожении</t>
+Дополнительные примечания: Исправлена ​​ошибка в ежедневной системе обновления для западных стран_x000D_
+Дополнительные примечания 2: Улучшено пользовательское интерфейс и исправлена ​​проблемы, связанные с опытом</t>
   </si>
   <si>
     <t>Oslávte globálne vydanie!_x000D_
 _x000D_
 Prihláste sa každý deň, aby ste dostali dary!_x000D_
 _x000D_
-Ďalšie poznámky: Opravené niektoré otázky prístupu k účtu a vylepšené užívateľské pohodlie_x000D_
-Dodatočné poznámky 2: Modifikovaný šéf HP Otázka Označte veci a zvýšili rýchlosť DROPUMENTU v zničení</t>
+Dodatočné poznámky: Opravená chyba v dennom obnovenom systéme pre západné krajiny_x000D_
+Ďalšie poznámky 2: Zlepšené UI a fixované otázky týkajúce sa skúseností</t>
   </si>
   <si>
     <t>Fira den globala utgåvan!_x000D_
 _x000D_
 Logga in varje dag för att ta emot presenterna!_x000D_
 _x000D_
-Ytterligare anteckningar: Fixat några kontoåtkomstfrågor och förbättrad användarvänlighet_x000D_
-Ytterligare anmärkningar 2: Modifierad chef HP Question Mark Saker och ökad Mana Drop Rate i förintelse</t>
+Ytterligare anteckningar: Fixat ett fel i det dagliga uppdateringssystemet för västra länder_x000D_
+Ytterligare anmärkningar 2: Förbättrad UI och fastställde de erfarenhetsrelaterade frågorna</t>
   </si>
   <si>
     <t>เฉลิมฉลองการเปิดตัวทั่วโลก!_x000D_
 _x000D_
 เข้าสู่ระบบทุกวันเพื่อรับของขวัญ!_x000D_
 _x000D_
-หมายเหตุเพิ่มเติม: แก้ไขปัญหาการเข้าถึงบัญชีบางอย่างและปรับปรุงความสะดวกของผู้ใช้_x000D_
-หมายเหตุเพิ่มเติม 2: บอสตอบคำถาม HP ทำเครื่องหมายสิ่งต่าง ๆ และเพิ่มอัตราการดรอปมานาในการทำลายล้าง</t>
+หมายเหตุเพิ่มเติม: แก้ไขข้อผิดพลาดในระบบรีเฟรชรายวันสำหรับประเทศตะวันตก_x000D_
+หมายเหตุเพิ่มเติม 2: UI ที่ได้รับการปรับปรุงและแก้ไขปัญหาที่เกี่ยวข้องกับประสบการณ์</t>
   </si>
   <si>
     <t>Küresel yayınları kutlayın!_x000D_
 _x000D_
 Hediyeleri almak için her gün giriş yapın!_x000D_
 _x000D_
-Ek notlar: Bazı hesap erişim sorunları ve geliştirilmiş kullanıcı rahatlığı düzeltildi_x000D_
-Ek Notlar 2: Değiştirilmiş Boss HP Soru İşaretleri İşleri ve Artan Mana Bırakma Oranını Annihilasyonda</t>
+Ek notlar: Batı ülkeleri için günlük yenileme sisteminde bir hata düzeltildi_x000D_
+Ek Notlar 2: Geliştirilmiş UI ve deneyimle ilgili konuları düzeltti</t>
   </si>
   <si>
     <t>Святкуйте глобальний випуск!_x000D_
 _x000D_
 Увійдіть кожен день, щоб отримати подарунки!_x000D_
 _x000D_
-Додаткові примітки: виправлені проблеми з доступом до облікового запису та покращена зручність користувача_x000D_
-Додаткові примітки 2: Модифікований BOSS HP Питання Позначити речі та збільшення швидкості падіння мани при знищенні</t>
+Додаткові примітки: Виправлена ​​помилка в системі щоденного оновлення для західних країн_x000D_
+Додаткові примітки 2: Поліпшення UI та фіксованих проблем, пов'язаних з досвідом</t>
   </si>
   <si>
     <r>
@@ -1802,7 +1914,7 @@
 _x000D_
 Đăng nhập mỗi ngày để nhận quà tặng!_x000D_
 _x000D_
-Ghi chú bổ sung: Đã sửa một số vấn đề truy cập tài khoản và cải thiện sự tiện lợi của ng</t>
+Ghi chú bổ sung: Đã sửa lỗi trong hệ thống làm mới hàng ngày cho các n</t>
     </r>
     <r>
       <rPr>
@@ -1823,8 +1935,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ời dùng_x000D_
-Ghi chú bổ sung 2: Boss Boss Modified HP Dấu hỏi mọi thứ và tăng tỷ lệ thả Mana trong sự hủy diệt</t>
+      <t>ớc ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng Tây_x000D_
+Ghi chú bổ sung 2: Cải thiện UI và đã khắc phục các vấn đề liên quan đến kinh nghiệm</t>
     </r>
   </si>
   <si>
@@ -1877,7 +2010,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>了一些帐户访问问题</t>
+      <t>了西方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家每日刷新系统中的错误_x000D_
+附加说明2：改进了UI</t>
     </r>
     <r>
       <rPr>
@@ -1899,8 +2055,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>提高了用户便利性_x000D_
-附加说明2：修改的BOSS HP问</t>
+      <t>修</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
     </r>
     <r>
       <rPr>
@@ -1911,7 +2088,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>号内</t>
+      <t>与</t>
     </r>
     <r>
       <rPr>
@@ -1922,137 +2099,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>容</t>
+      <t>经验相关的问题</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>并</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加了湮灭中的法力下降率</t>
-    </r>
   </si>
   <si>
     <t>慶祝全球釋放！_x000D_
 _x000D_
 每天登錄才能收到禮品！_x000D_
 _x000D_
-附加說明：修復了一些帳戶訪問問題並提高了用戶便利性_x000D_
-附加說明2：修改的BOSS HP問號內容並增加了湮滅中的法力下降率</t>
-  </si>
-  <si>
-    <t>trp</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>dex</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>vit</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>wgGr0</t>
-  </si>
-  <si>
-    <t>wgGr1</t>
-  </si>
-  <si>
-    <t>wgGr2</t>
-  </si>
-  <si>
-    <t>wgGr3</t>
-  </si>
-  <si>
-    <t>wgLk</t>
-  </si>
-  <si>
-    <t>Actor1216m</t>
-  </si>
-  <si>
-    <t>Actor3117m</t>
-  </si>
-  <si>
-    <t>Actor0240m</t>
-  </si>
-  <si>
-    <t>Actor3114m</t>
-  </si>
-  <si>
-    <t>Actor0125m</t>
-  </si>
-  <si>
-    <t>Actor1141m</t>
-  </si>
-  <si>
-    <t>Actor3022m</t>
-  </si>
-  <si>
-    <t>Actor0104m</t>
-  </si>
-  <si>
-    <t>Actor1108m</t>
-  </si>
-  <si>
-    <t>Actor1005m</t>
-  </si>
-  <si>
-    <t>Actor0201m</t>
-  </si>
-  <si>
-    <t>Actor1029m</t>
-  </si>
-  <si>
-    <t>Actor3019m</t>
-  </si>
-  <si>
-    <t>Actor2238m</t>
-  </si>
-  <si>
-    <t>Actor2120m</t>
-  </si>
-  <si>
-    <t>Actor0030m</t>
-  </si>
-  <si>
-    <t>Actor3231m</t>
-  </si>
-  <si>
-    <t>Actor0113m</t>
-  </si>
-  <si>
-    <t>Actor2010m</t>
-  </si>
-  <si>
-    <t>Actor1002m</t>
-  </si>
-  <si>
-    <t>Actor0037m</t>
-  </si>
-  <si>
-    <t>Actor3021m</t>
+附加說明：修復了西方國家每日刷新系統中的錯誤_x000D_
+附加說明2：改進了UI並修復了與經驗相關的問題</t>
+  </si>
+  <si>
+    <t>Actor2015m</t>
+  </si>
+  <si>
+    <t>Actor0007m</t>
+  </si>
+  <si>
+    <t>Actor2011m</t>
+  </si>
+  <si>
+    <t>Actor1109m</t>
+  </si>
+  <si>
+    <t>Actor2128m</t>
+  </si>
+  <si>
+    <t>Actor1141</t>
   </si>
 </sst>
 </file>
@@ -3900,8 +3974,8 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4622,9 +4696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4206C8-EBF7-49C1-9625-9178CDE0314E}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C599" sqref="C599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5122,7 +5196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5146,7 +5220,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5170,7 +5244,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5194,7 +5268,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5218,7 +5292,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5242,7 +5316,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5266,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5290,7 +5364,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5299,7 +5373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5308,7 +5382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5317,7 +5391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44348</v>
@@ -5326,7 +5400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5350,7 +5424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5374,7 +5448,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5398,7 +5472,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5422,7 +5496,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5446,7 +5520,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5470,7 +5544,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5494,7 +5568,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5518,7 +5592,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5527,7 +5601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5536,7 +5610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5545,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44349</v>
@@ -5554,7 +5628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5578,7 +5652,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5602,7 +5676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5626,7 +5700,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5650,7 +5724,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5674,7 +5748,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5698,7 +5772,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5722,7 +5796,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5746,7 +5820,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5755,7 +5829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5764,7 +5838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5773,7 +5847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44350</v>
@@ -5782,7 +5856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5806,7 +5880,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5830,7 +5904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5854,7 +5928,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5878,7 +5952,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5902,7 +5976,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5926,7 +6000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5950,7 +6024,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5974,7 +6048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5983,7 +6057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -5992,7 +6066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -6001,7 +6075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44351</v>
@@ -6010,7 +6084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -6034,7 +6108,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -6058,7 +6132,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -6082,7 +6156,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -6106,7 +6180,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>44352</v>
@@ -6130,7 +6204,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" ref="A79:A142" ca="1" si="1">OFFSET(A79,-12,0)+1</f>
         <v>44352</v>
@@ -6154,7 +6228,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6178,7 +6252,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6202,7 +6276,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6211,7 +6285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6220,7 +6294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6229,7 +6303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44352</v>
@@ -6238,7 +6312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6262,7 +6336,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6286,7 +6360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6310,7 +6384,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6334,7 +6408,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6358,7 +6432,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6382,7 +6456,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6406,7 +6480,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6430,7 +6504,7 @@
         <v>28900</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6439,7 +6513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6448,7 +6522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6457,7 +6531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44353</v>
@@ -6466,7 +6540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6487,7 +6561,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6511,7 +6585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6535,7 +6609,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6559,7 +6633,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6583,7 +6657,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6607,7 +6681,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6631,7 +6705,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6655,7 +6729,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6664,7 +6738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6673,7 +6747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6682,7 +6756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
@@ -6691,7 +6765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6715,7 +6789,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6739,7 +6813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6763,7 +6837,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6787,7 +6861,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6811,7 +6885,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6835,7 +6909,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6859,7 +6933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6883,7 +6957,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6892,7 +6966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6901,7 +6975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6910,7 +6984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
@@ -6919,7 +6993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6943,7 +7017,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6967,7 +7041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -6991,7 +7065,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7015,7 +7089,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7039,7 +7113,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7063,7 +7137,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7087,7 +7161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7111,7 +7185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7120,7 +7194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7129,7 +7203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7138,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
@@ -7147,7 +7221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7171,7 +7245,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7195,7 +7269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7219,7 +7293,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7243,7 +7317,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7267,7 +7341,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7291,7 +7365,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7315,7 +7389,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7339,7 +7413,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
@@ -7348,7 +7422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" ref="A143:A206" ca="1" si="2">OFFSET(A143,-12,0)+1</f>
         <v>44357</v>
@@ -7357,7 +7431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44357</v>
@@ -7366,7 +7440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44357</v>
@@ -7375,7 +7449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7399,7 +7473,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7423,7 +7497,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7447,7 +7521,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7471,7 +7545,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7495,7 +7569,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7519,7 +7593,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7543,7 +7617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7567,7 +7641,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7576,7 +7650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7585,7 +7659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7594,7 +7668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44358</v>
@@ -7603,7 +7677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7627,7 +7701,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7651,7 +7725,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7675,7 +7749,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7699,7 +7773,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7723,7 +7797,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7747,7 +7821,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7771,7 +7845,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7795,7 +7869,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7804,7 +7878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7813,7 +7887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7840,7 +7914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44359</v>
@@ -7867,7 +7941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7891,7 +7965,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7915,7 +7989,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7939,7 +8013,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7963,7 +8037,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -7987,7 +8061,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8011,7 +8085,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8035,7 +8109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8059,7 +8133,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8068,7 +8142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8077,7 +8151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8104,7 +8178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44360</v>
@@ -8131,7 +8205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8155,7 +8229,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8179,7 +8253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8203,7 +8277,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8227,7 +8301,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8251,7 +8325,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8275,7 +8349,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8299,7 +8373,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8323,7 +8397,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8332,7 +8406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8341,7 +8415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8350,7 +8424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44361</v>
@@ -8359,7 +8433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8383,7 +8457,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8407,7 +8481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8431,7 +8505,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8455,7 +8529,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8479,7 +8553,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8503,7 +8577,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8527,7 +8601,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8551,7 +8625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8560,7 +8634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8569,7 +8643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8578,7 +8652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44362</v>
@@ -8587,7 +8661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>44363</v>
@@ -8608,7 +8682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" ref="A207:A270" ca="1" si="3">OFFSET(A207,-12,0)+1</f>
         <v>44363</v>
@@ -8632,7 +8706,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8656,7 +8730,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8680,7 +8754,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8704,7 +8778,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8728,7 +8802,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8752,7 +8826,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8776,7 +8850,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8785,7 +8859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8794,7 +8868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8803,7 +8877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44363</v>
@@ -8812,7 +8886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8836,7 +8910,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8860,7 +8934,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8884,7 +8958,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8908,7 +8982,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8932,7 +9006,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8956,7 +9030,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -8980,7 +9054,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -9004,7 +9078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -9013,7 +9087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -9022,7 +9096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -9031,7 +9105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44364</v>
@@ -9040,7 +9114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9064,7 +9138,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9088,7 +9162,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9112,7 +9186,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9136,7 +9210,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9160,7 +9234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9184,7 +9258,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9208,7 +9282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9232,7 +9306,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9241,7 +9315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9250,7 +9324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9259,7 +9333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44365</v>
@@ -9268,7 +9342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9292,7 +9366,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9316,7 +9390,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9340,7 +9414,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9364,7 +9438,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9388,7 +9462,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9412,7 +9486,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9436,7 +9510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9460,7 +9534,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9487,7 +9561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9514,7 +9588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9541,7 +9615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44366</v>
@@ -9568,7 +9642,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9592,7 +9666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9616,7 +9690,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9640,7 +9714,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9664,7 +9738,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9688,7 +9762,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9712,7 +9786,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9736,7 +9810,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9760,7 +9834,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9787,7 +9861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9814,7 +9888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9841,7 +9915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44367</v>
@@ -9868,7 +9942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9892,7 +9966,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9916,7 +9990,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9940,7 +10014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9964,7 +10038,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>44368</v>
@@ -9988,7 +10062,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" ref="A271:A334" ca="1" si="4">OFFSET(A271,-12,0)+1</f>
         <v>44368</v>
@@ -10012,7 +10086,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -10036,7 +10110,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -10060,7 +10134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -10069,7 +10143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -10078,7 +10152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -10087,7 +10161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44368</v>
@@ -10096,7 +10170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10120,7 +10194,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10144,7 +10218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10168,7 +10242,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10192,7 +10266,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10216,7 +10290,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10240,7 +10314,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10264,7 +10338,7 @@
         <v>74600</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10288,7 +10362,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10297,7 +10371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10306,7 +10380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10315,7 +10389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44369</v>
@@ -10324,7 +10398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10348,7 +10422,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10372,7 +10446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10396,7 +10470,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10420,7 +10494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10444,7 +10518,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10468,7 +10542,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10492,7 +10566,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10516,7 +10590,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10525,7 +10599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10534,7 +10608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10543,7 +10617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44370</v>
@@ -10552,7 +10626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10576,7 +10650,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10600,7 +10674,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10624,7 +10698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10648,7 +10722,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10672,7 +10746,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10696,7 +10770,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10720,7 +10794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10744,7 +10818,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10753,7 +10827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10762,7 +10836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10771,7 +10845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44371</v>
@@ -10780,7 +10854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10807,7 +10881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10831,7 +10905,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10855,7 +10929,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10879,7 +10953,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10903,7 +10977,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10927,7 +11001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10951,7 +11025,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10975,7 +11049,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10984,7 +11058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -10993,7 +11067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -11002,7 +11076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44372</v>
@@ -11011,7 +11085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11035,7 +11109,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11059,7 +11133,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11083,7 +11157,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11107,7 +11181,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11131,7 +11205,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11155,7 +11229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11179,7 +11253,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11203,7 +11277,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>44373</v>
@@ -11212,7 +11286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" ref="A335:A398" ca="1" si="5">OFFSET(A335,-12,0)+1</f>
         <v>44373</v>
@@ -11221,7 +11295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44373</v>
@@ -11230,7 +11304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44373</v>
@@ -11239,7 +11313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11263,7 +11337,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11287,7 +11361,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11311,7 +11385,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11335,7 +11409,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11359,7 +11433,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11383,7 +11457,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11407,7 +11481,7 @@
         <v>29100</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11431,7 +11505,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11440,7 +11514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11449,7 +11523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11458,7 +11532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44374</v>
@@ -11467,7 +11541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11491,7 +11565,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11515,7 +11589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11539,7 +11613,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11563,7 +11637,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11587,7 +11661,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11611,7 +11685,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11635,7 +11709,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11659,7 +11733,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11668,7 +11742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11677,7 +11751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11686,7 +11760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44375</v>
@@ -11695,7 +11769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11716,7 +11790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11740,7 +11814,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11764,7 +11838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11788,7 +11862,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11812,7 +11886,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11836,7 +11910,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11860,7 +11934,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11884,7 +11958,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11893,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11902,7 +11976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11911,7 +11985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44376</v>
@@ -11920,7 +11994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11944,7 +12018,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11968,7 +12042,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -11992,7 +12066,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12016,7 +12090,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12040,7 +12114,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12064,7 +12138,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12088,7 +12162,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12112,7 +12186,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12121,7 +12195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12130,7 +12204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12139,7 +12213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44377</v>
@@ -12148,7 +12222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>44378</v>
@@ -16147,7 +16221,7 @@
         <v>105</v>
       </c>
       <c r="D578" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -16156,7 +16230,7 @@
         <v>96</v>
       </c>
       <c r="H578">
-        <v>8300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.3">
@@ -16168,19 +16242,19 @@
         <v>1</v>
       </c>
       <c r="C579" t="s">
-        <v>105</v>
-      </c>
-      <c r="D579" t="s">
-        <v>317</v>
+        <v>109</v>
+      </c>
+      <c r="D579">
+        <v>24840</v>
       </c>
       <c r="E579">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F579" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H579">
-        <v>4</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.3">
@@ -16192,19 +16266,19 @@
         <v>2</v>
       </c>
       <c r="C580" t="s">
-        <v>108</v>
-      </c>
-      <c r="D580">
-        <v>86575</v>
+        <v>105</v>
+      </c>
+      <c r="D580" t="s">
+        <v>228</v>
       </c>
       <c r="E580">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F580" t="s">
         <v>96</v>
       </c>
       <c r="H580">
-        <v>4200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.3">
@@ -16216,19 +16290,19 @@
         <v>3</v>
       </c>
       <c r="C581" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D581">
-        <v>24840</v>
+        <v>86575</v>
       </c>
       <c r="E581">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F581" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H581">
-        <v>3000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
@@ -16240,19 +16314,19 @@
         <v>4</v>
       </c>
       <c r="C582" t="s">
-        <v>109</v>
-      </c>
-      <c r="D582">
-        <v>10498</v>
+        <v>105</v>
+      </c>
+      <c r="D582" t="s">
+        <v>225</v>
       </c>
       <c r="E582">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F582" t="s">
         <v>96</v>
       </c>
       <c r="H582">
-        <v>2700</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.3">
@@ -16264,19 +16338,19 @@
         <v>5</v>
       </c>
       <c r="C583" t="s">
-        <v>105</v>
-      </c>
-      <c r="D583" t="s">
-        <v>303</v>
+        <v>109</v>
+      </c>
+      <c r="D583">
+        <v>10498</v>
       </c>
       <c r="E583">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F583" t="s">
         <v>96</v>
       </c>
       <c r="H583">
-        <v>3100</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.3">
@@ -16315,7 +16389,7 @@
         <v>105</v>
       </c>
       <c r="D585" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="E585">
         <v>1</v>
@@ -16324,7 +16398,7 @@
         <v>96</v>
       </c>
       <c r="H585">
-        <v>1000</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.3">
@@ -16335,6 +16409,24 @@
       <c r="B586">
         <v>8</v>
       </c>
+      <c r="C586" t="s">
+        <v>308</v>
+      </c>
+      <c r="D586" t="s">
+        <v>332</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>98</v>
+      </c>
+      <c r="G586">
+        <v>229</v>
+      </c>
+      <c r="H586">
+        <v>169</v>
+      </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
@@ -16344,6 +16436,24 @@
       <c r="B587">
         <v>9</v>
       </c>
+      <c r="C587" t="s">
+        <v>264</v>
+      </c>
+      <c r="D587" t="s">
+        <v>332</v>
+      </c>
+      <c r="E587">
+        <v>30</v>
+      </c>
+      <c r="F587" t="s">
+        <v>98</v>
+      </c>
+      <c r="G587">
+        <v>52</v>
+      </c>
+      <c r="H587">
+        <v>24</v>
+      </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
@@ -16372,19 +16482,19 @@
         <v>0</v>
       </c>
       <c r="C590" t="s">
-        <v>105</v>
-      </c>
-      <c r="D590" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="D590">
+        <v>3427</v>
       </c>
       <c r="E590">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F590" t="s">
         <v>96</v>
       </c>
       <c r="H590">
-        <v>7300</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.3">
@@ -16399,7 +16509,7 @@
         <v>105</v>
       </c>
       <c r="D591" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E591">
         <v>1</v>
@@ -16408,7 +16518,7 @@
         <v>96</v>
       </c>
       <c r="H591">
-        <v>2000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.3">
@@ -16420,19 +16530,19 @@
         <v>2</v>
       </c>
       <c r="C592" t="s">
-        <v>108</v>
-      </c>
-      <c r="D592">
-        <v>22126</v>
+        <v>105</v>
+      </c>
+      <c r="D592" t="s">
+        <v>238</v>
       </c>
       <c r="E592">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F592" t="s">
         <v>96</v>
       </c>
       <c r="H592">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.3">
@@ -16447,16 +16557,16 @@
         <v>109</v>
       </c>
       <c r="D593">
-        <v>3427</v>
+        <v>85725</v>
       </c>
       <c r="E593">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F593" t="s">
         <v>96</v>
       </c>
       <c r="H593">
-        <v>2700</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.3">
@@ -16468,19 +16578,22 @@
         <v>4</v>
       </c>
       <c r="C594" t="s">
-        <v>109</v>
-      </c>
-      <c r="D594">
-        <v>85725</v>
+        <v>105</v>
+      </c>
+      <c r="D594" t="s">
+        <v>331</v>
       </c>
       <c r="E594">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F594" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="G594">
+        <v>179</v>
       </c>
       <c r="H594">
-        <v>4200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.3">
@@ -16495,7 +16608,7 @@
         <v>105</v>
       </c>
       <c r="D595" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E595">
         <v>1</v>
@@ -16504,7 +16617,7 @@
         <v>96</v>
       </c>
       <c r="H595">
-        <v>1500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.3">
@@ -16516,19 +16629,19 @@
         <v>6</v>
       </c>
       <c r="C596" t="s">
-        <v>105</v>
-      </c>
-      <c r="D596" t="s">
-        <v>229</v>
+        <v>108</v>
+      </c>
+      <c r="D596">
+        <v>22126</v>
       </c>
       <c r="E596">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F596" t="s">
         <v>96</v>
       </c>
       <c r="H596">
-        <v>3600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.3">
@@ -16563,6 +16676,24 @@
       <c r="B598">
         <v>8</v>
       </c>
+      <c r="C598" t="s">
+        <v>308</v>
+      </c>
+      <c r="D598" t="s">
+        <v>403</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598" t="s">
+        <v>98</v>
+      </c>
+      <c r="G598">
+        <v>219</v>
+      </c>
+      <c r="H598">
+        <v>159</v>
+      </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
@@ -16571,6 +16702,24 @@
       </c>
       <c r="B599">
         <v>9</v>
+      </c>
+      <c r="C599" t="s">
+        <v>264</v>
+      </c>
+      <c r="D599" t="s">
+        <v>403</v>
+      </c>
+      <c r="E599">
+        <v>75</v>
+      </c>
+      <c r="F599" t="s">
+        <v>98</v>
+      </c>
+      <c r="G599">
+        <v>172</v>
+      </c>
+      <c r="H599">
+        <v>69</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.3">
@@ -18639,9 +18788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A65DBB-5221-440E-BBDA-048253EBFFA9}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18661,37 +18810,37 @@
         <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="J1" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="K1" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="L1" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="M1" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="N1" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="O1" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -18702,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -18749,7 +18898,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -18797,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -18833,7 +18982,7 @@
         <v>18</v>
       </c>
       <c r="O4">
-        <v>324</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -18845,7 +18994,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -18893,7 +19042,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -18929,7 +19078,7 @@
         <v>18</v>
       </c>
       <c r="O6">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -18941,7 +19090,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -18977,7 +19126,7 @@
         <v>18</v>
       </c>
       <c r="O7">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -18989,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -19025,7 +19174,7 @@
         <v>18</v>
       </c>
       <c r="O8">
-        <v>196</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -19037,7 +19186,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -19073,7 +19222,7 @@
         <v>18</v>
       </c>
       <c r="O9">
-        <v>328</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -19085,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -19121,7 +19270,7 @@
         <v>18</v>
       </c>
       <c r="O10">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -19133,7 +19282,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -19169,7 +19318,7 @@
         <v>18</v>
       </c>
       <c r="O11">
-        <v>148</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -19181,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -19217,7 +19366,7 @@
         <v>18</v>
       </c>
       <c r="O12">
-        <v>280</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -19229,7 +19378,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -19265,7 +19414,7 @@
         <v>18</v>
       </c>
       <c r="O13">
-        <v>172</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -19276,7 +19425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -19312,7 +19461,7 @@
         <v>18</v>
       </c>
       <c r="O14">
-        <v>268</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -19324,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -19372,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -19420,7 +19569,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -19468,7 +19617,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -19516,7 +19665,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -19528,10 +19677,10 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>15</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -19564,7 +19713,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -19612,7 +19761,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -19624,10 +19773,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -19660,7 +19809,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -19708,7 +19857,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -19756,7 +19905,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -19804,7 +19953,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -19816,10 +19965,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -19852,7 +20001,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -19900,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -19909,10 +20058,10 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -19948,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -19996,7 +20145,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -20008,10 +20157,10 @@
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>15</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -20044,7 +20193,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -20056,10 +20205,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -20092,7 +20241,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -20140,7 +20289,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -20188,7 +20337,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -20236,7 +20385,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -20284,7 +20433,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -20332,7 +20481,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -20380,7 +20529,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -20428,7 +20577,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -20476,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -20524,7 +20673,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -20573,8 +20722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE29BFA-925E-47F1-8313-192396DA01C0}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20812,115 +20961,115 @@
     </row>
     <row r="3" spans="1:45" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -20932,8 +21081,8 @@
         <v xml:space="preserve">&lt;en-US&gt;
 Celebrate the global release!
 Log in every day to receive the gifts!
-Additional Notes: Fixed some account access issues and improved user convenience
-Additional Notes 2: Modified boss HP question mark things and increased mana drop rate in Annihilation
+Additional Notes: Fixed a bug in the daily refresh system for Western countries
+Additional Notes 2: Improved UI and fixed the Experience-related issues
 &lt;/en-US&gt;
 </v>
       </c>
@@ -20947,8 +21096,8 @@
 _x000D_
 تسجيل الدخول كل يوم لتلقي الهدايا!_x000D_
 _x000D_
-ملاحظات إضافية: إصلاح بعض مشكلات الوصول إلى الحساب وتحسين راحة المستخدم_x000D_
-ملاحظات إضافية 2: مع تعديل مدرب HP سؤال علامة الأشياء وزيادة معدل انخفاض مانا في الإبادة
+ملاحظات إضافية: إصلاح خطأ في نظام التحديث اليومي للبلدان الغربية_x000D_
+ملاحظات إضافية 2: تحسين واجهة المستخدم وتم إصلاح المشكلات المتعلقة بالخبرة
 &lt;/ar&gt;
 </v>
       </c>
@@ -20959,8 +21108,8 @@
 _x000D_
 Увайсці кожны дзень, каб атрымаць падарункі!_x000D_
 _x000D_
-Дадатковыя нататкі: Фіксаваны некаторыя пытанні доступу да рахунку і палепшылася зручнасць карыстальніка_x000D_
-Дадатковыя Заўвагі 2: Мадыфікаваны бос HP Пытанні Марк рэчы і павелічэнне хуткасці падзення маны ў Annihilation
+Дадатковыя нататкі: Выпраўленая памылка ў штодзённай сістэме абнаўлення для заходніх краін_x000D_
+Дадатковыя Notes 2: Палепшаная UI і выправіць пытанні, звязаныя з вопытам, звязаныя
 &lt;/be&gt;
 </v>
       </c>
@@ -20971,8 +21120,8 @@
 _x000D_
 Влезте всеки ден, за да получите подаръци!_x000D_
 _x000D_
-Допълнителни бележки: фиксирани някои проблеми със сметката и подобрено удобство на потребителя_x000D_
-Допълнителни бележки 2: модифициран BOSS HP въпросник маркирайте нещата и повишена скорост на падане на мана в унищожението
+Допълнителни бележки: Фиксирана грешка в системата за ежедневна обновяване на западните страни_x000D_
+Допълнителни бележки 2: подобряване на потребителския интерфейс и фиксирани въпроси, свързани с опита
 &lt;/bg&gt;
 </v>
       </c>
@@ -20983,8 +21132,8 @@
 _x000D_
 Přihlaste se každý den, abyste obdrželi dárky!_x000D_
 _x000D_
-DALŠÍ POZNÁMKY: Opraveno nějaké otázky přístupu k účtu a vylepšené uživatelské pohodlí_x000D_
-Další poznámky 2: Modifikovaný šéf HP otazník značky a zvýšené MANA Drop sazba v zničení
+Další poznámky: opravena chyba v denním aktualizačním systému pro západní země_x000D_
+Další poznámky 2: Vylepšené UI a pevné problémy související s praxe
 &lt;/cs-CZ&gt;
 </v>
       </c>
@@ -20995,8 +21144,8 @@
 _x000D_
 Melden Sie sich jeden Tag an, um die Geschenke zu erhalten!_x000D_
 _x000D_
-Zusätzliche Anmerkungen: Einige Access-Zugangsprobleme und verbesserter Benutzerkomfort_x000D_
-Zusätzliche Anmerkungen 2: Modified Boss HP Fragezeichen Dinge und erhöhte Mana-Drop-Rate in Vernichtung
+Zusätzliche Hinweise: Ein Fehler im täglichen Aktualisierungssystem für westliche Länder behoben_x000D_
+Zusätzliche Anmerkungen 2: Verbesserte Benutzeroberfläche und die erfahrungsbezogenen Probleme
 &lt;/de-DE&gt;
 </v>
       </c>
@@ -21007,8 +21156,8 @@
 _x000D_
 Συνδεθείτε κάθε μέρα για να λάβετε τα δώρα!_x000D_
 _x000D_
-Πρόσθετες σημειώσεις: Σταθερά ορισμένα θέματα πρόσβασης λογαριασμού και βελτιωμένη ευκολία των χρηστών_x000D_
-Πρόσθετες σημειώσεις 2: Τροποποιημένο αφεντικό HP ερωτηματικό και αυξημένο ρυθμό πτώσης Mana στην εξόντωση
+Πρόσθετες σημειώσεις: Σταθερό σφάλμα στο σύστημα καθημερινής ανανέωσης για τις δυτικές χώρες_x000D_
+Πρόσθετες σημειώσεις 2: Βελτιωμένο UI και σταθεροποίησε τα θέματα που σχετίζονται με την εμπειρία
 &lt;/el-GR&gt;
 </v>
       </c>
@@ -21019,8 +21168,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
-Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
+Notas adicionales: Se corrigió un error en el sistema de actualización diaria para los países occidentales_x000D_
+Notas adicionales 2: UI mejorada y fijó los problemas relacionados con la experiencia
 &lt;/es-419&gt;
 </v>
       </c>
@@ -21031,8 +21180,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
-Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
+Notas adicionales: Se corrigió un error en el sistema de actualización diaria para los países occidentales_x000D_
+Notas adicionales 2: UI mejorada y fijó los problemas relacionados con la experiencia
 &lt;/es-ES&gt;
 </v>
       </c>
@@ -21043,8 +21192,8 @@
 _x000D_
 ¡Inicia sesión todos los días para recibir los regalos!_x000D_
 _x000D_
-Notas adicionales: Se solucionaron algunos problemas de acceso a la cuenta y una mayor comodidad del usuario_x000D_
-Notas adicionales 2: Modified Boss HP Question Stem Las cosas y aumento de la tasa de caída de MANA en aniquilación
+Notas adicionales: Se corrigió un error en el sistema de actualización diaria para los países occidentales_x000D_
+Notas adicionales 2: UI mejorada y fijó los problemas relacionados con la experiencia
 &lt;/es-US&gt;
 </v>
       </c>
@@ -21055,8 +21204,8 @@
 _x000D_
 Kirjaudu päivittäin saadaksesi lahjoja!_x000D_
 _x000D_
-Muita huomautuksia: Kiinteät tilin käyttöoikeudet ja parannettu käyttäjän mukavuus_x000D_
-Muita muistiinpanoja 2: Modified Boss HP: n kysymys merkitsee asioita ja lisääntynyt Mana pudotusnopeus tuhoamisessa
+Muita huomautuksia: Korjattu vika päivittäisessä päivitysjärjestelmässä länsimaissa_x000D_
+Muita muistiinpanoja 2: parannettu UI ja korjasi kokemus kysymykset
 &lt;/fi-FI&gt;
 </v>
       </c>
@@ -21067,8 +21216,8 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
-NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
+Notes supplémentaires: Correction d'un bug dans le système de rafraîchissement quotidien pour les pays occidentaux_x000D_
+Notes supplémentaires 2: UI amélioré et corrigé les problèmes liés à l'expérience
 &lt;/fr-CA&gt;
 </v>
       </c>
@@ -21079,8 +21228,8 @@
 _x000D_
 Connectez-vous chaque jour pour recevoir les cadeaux!_x000D_
 _x000D_
-Notes supplémentaires: Correction des problèmes d'accès au compte et de la commodité de l'utilisateur améliorée_x000D_
-NOTES SUPPLÉMENTAIRES 2: MODIFIÉ BOSS HP Question Mark Checks et augmentation du taux d'abandon du mana en annihilation
+Notes supplémentaires: Correction d'un bug dans le système de rafraîchissement quotidien pour les pays occidentaux_x000D_
+Notes supplémentaires 2: UI amélioré et corrigé les problèmes liés à l'expérience
 &lt;/fr-FR&gt;
 </v>
       </c>
@@ -21091,8 +21240,8 @@
 _x000D_
 Jelentkezzen be minden nap, hogy megkapja az ajándékokat!_x000D_
 _x000D_
-Kiegészítő megjegyzések: Rögzített néhány fiók hozzáférési problémát és javította a felhasználó kényelmét_x000D_
-Kiegészítő megjegyzések 2: Módosított BOSS HP kérdőjel A dolgok és a megnövekedett mana csepp arány megsemmisítésben
+Kiegészítő megjegyzések: rögzített egy hibát a napi frissítési rendszerben a nyugati országok számára_x000D_
+További megjegyzések 2: javított UI és rögzítette a tapasztalathoz kapcsolódó kérdéseket
 &lt;/hu-HU&gt;
 </v>
       </c>
@@ -21103,8 +21252,8 @@
 _x000D_
 Masuk setiap hari untuk menerima hadiah!_x000D_
 _x000D_
-Catatan Tambahan: Memperbaiki beberapa masalah akses akun dan meningkatkan kenyamanan pengguna_x000D_
-Catatan Tambahan 2: Bos yang Dimodifikasi HP Mark Pertanyaan dan Peningkatan Tingkat Jatuhkan Mana dalam Penghancuran
+Catatan Tambahan: Memperbaiki Bug dalam Sistem Penyegaran Harian untuk Negara Barat_x000D_
+Catatan Tambahan 2: UI yang ditingkatkan dan memperbaiki masalah terkait pengalaman
 &lt;/id&gt;
 </v>
       </c>
@@ -21115,8 +21264,8 @@
 _x000D_
 Accedi ogni giorno per ricevere i regali!_x000D_
 _x000D_
-Note aggiuntive: risolvere alcuni problemi di accesso all'account e una migliore convenienza degli utenti_x000D_
-Note aggiuntive 2: Boss Modificato HP Punto interrogativo Cose e aumento del tasso di goccia di mana nell'annientamento
+Note aggiuntive: fisso un bug nel sistema di aggiornamento giornaliero per i paesi occidentali_x000D_
+Note aggiuntive 2: UI migliorato e fissa i problemi relativi all'esperienza
 &lt;/it-IT&gt;
 </v>
       </c>
@@ -21127,8 +21276,8 @@
 _x000D_
 התחבר כל יום כדי לקבל את המתנות!_x000D_
 _x000D_
-הערות נוספות: תוקנו בעיות גישה לחשבון ונוחות משתמש משופרת_x000D_
-הערות נוספות 2: שונה הבוס HP שאלה סימן דברים והגדילה את שיעור ירידה של מאנה בהשמדה
+הערות נוספות: תוקן באג במערכת הרענון היומיומית למדינות המערב_x000D_
+הערות נוספות 2: משופרת UI ותוקנה את הנושאים הקשורים לחוויה
 &lt;/iw-IL&gt;
 </v>
       </c>
@@ -21139,8 +21288,8 @@
 _x000D_
 ギフトを受け取るために毎日ログインしてください！_x000D_
 _x000D_
-追加の注意事項：アカウントアクセスの問題とユーザー利便性の向上を修正しました_x000D_
-追加の注意事項2：改良ボスHP疑問事項と消滅におけるマナドロップ率の増加
+追加の注意：西欧諸国の毎日のリフレッシュシステムのバグを修正しました_x000D_
+追加の注意事項2：UIが改善され、経験関連の問題を修正しました
 &lt;/ja-JP&gt;
 </v>
       </c>
@@ -21151,8 +21300,8 @@
 _x000D_
 매일 매일 접속하여 런칭 선물을 받아가세요!_x000D_
 _x000D_
-추가사항: 일부 계정 접속 관련 이슈 해결 및 사용자 편의성 향상_x000D_
-추가사항2: 보스 HP 물음표 표기 관련 수정 및 섬멸전 마나 드랍률 상승
+추가사항: 웨스턴 국가들의 하루 갱신 시스템 버그 수정_x000D_
+추가사항2: UI 개선 및  체험 관련 이슈 수정
 &lt;/ko-KR&gt;
 </v>
       </